--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\寻常鹿\Desktop\MODIS\坐标\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1351,19 +1351,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>274</v>
       </c>
       <c r="D2">
-        <v>120.45869999999999</v>
+        <v>116.17</v>
       </c>
       <c r="E2">
-        <v>36.085099999999997</v>
+        <v>40.286499999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E13"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -1351,19 +1351,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
         <v>274</v>
       </c>
       <c r="D2">
-        <v>116.17</v>
+        <v>116.366</v>
       </c>
       <c r="E2">
-        <v>40.286499999999997</v>
+        <v>39.8673</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="326">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1321,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1351,19 +1351,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D2">
-        <v>116.366</v>
+        <v>114.6046</v>
       </c>
       <c r="E2">
-        <v>39.8673</v>
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E3">
+        <v>38.139800000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1395,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1635,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E15"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1830,7 +1847,7 @@
         <v>38.839399999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -1892,7 +1909,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E15"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -13,18 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="样例" sheetId="7" r:id="rId1"/>
-    <sheet name="北京" sheetId="2" r:id="rId2"/>
-    <sheet name="天津" sheetId="3" r:id="rId3"/>
-    <sheet name="河北" sheetId="4" r:id="rId4"/>
-    <sheet name="山东" sheetId="5" r:id="rId5"/>
+    <sheet name="山东" sheetId="5" r:id="rId2"/>
+    <sheet name="河北" sheetId="4" r:id="rId3"/>
+    <sheet name="北京" sheetId="2" r:id="rId4"/>
+    <sheet name="天津" sheetId="3" r:id="rId5"/>
     <sheet name="汇总" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="335">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1002,13 +1002,49 @@
   </si>
   <si>
     <t>团泊洼</t>
+  </si>
+  <si>
+    <t>报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1070A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报错情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1018,6 +1054,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1044,8 +1088,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1321,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1351,36 +1396,121 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D2">
-        <v>114.6046</v>
+        <v>119.4641</v>
       </c>
       <c r="E2">
-        <v>38.0398</v>
+        <v>35.4178</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D3">
-        <v>114.50190000000001</v>
+        <v>119.5198</v>
       </c>
       <c r="E3">
-        <v>38.139800000000001</v>
+        <v>35.423400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4">
+        <v>119.54</v>
+      </c>
+      <c r="E4">
+        <v>35.3962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5">
+        <v>122.1206</v>
+      </c>
+      <c r="E5">
+        <v>37.429400000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6">
+        <v>115.42277</v>
+      </c>
+      <c r="E6">
+        <v>35.248888999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7">
+        <v>115.474722</v>
+      </c>
+      <c r="E7">
+        <v>35.237499999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8">
+        <v>115.455</v>
+      </c>
+      <c r="E8">
+        <v>35.270000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1392,10 +1522,1656 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:XFD75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>116.988</v>
+      </c>
+      <c r="E2">
+        <v>36.611400000000003</v>
+      </c>
+      <c r="F2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>116.93</v>
+      </c>
+      <c r="E3">
+        <v>36.67</v>
+      </c>
+      <c r="F3">
+        <v>5.19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>117.114</v>
+      </c>
+      <c r="E4">
+        <v>36.673900000000003</v>
+      </c>
+      <c r="F4">
+        <v>5.19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>116.989</v>
+      </c>
+      <c r="E5">
+        <v>36.687199999999997</v>
+      </c>
+      <c r="F5">
+        <v>5.19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>117.0684</v>
+      </c>
+      <c r="E6">
+        <v>36.686799999999998</v>
+      </c>
+      <c r="F6">
+        <v>5.19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>116.943</v>
+      </c>
+      <c r="E7">
+        <v>36.648899999999998</v>
+      </c>
+      <c r="F7">
+        <v>5.19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>117.04900000000001</v>
+      </c>
+      <c r="E8">
+        <v>36.662199999999999</v>
+      </c>
+      <c r="F8">
+        <v>5.19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>116.73399999999999</v>
+      </c>
+      <c r="E9">
+        <v>36.5336</v>
+      </c>
+      <c r="F9">
+        <v>5.19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>120.66589999999999</v>
+      </c>
+      <c r="E10">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>120.3905</v>
+      </c>
+      <c r="E11">
+        <v>36.185099999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>120.3471</v>
+      </c>
+      <c r="E12">
+        <v>36.069899999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>120.4134</v>
+      </c>
+      <c r="E13">
+        <v>36.065399999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>120.3664</v>
+      </c>
+      <c r="E14">
+        <v>36.103200000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>120.2992</v>
+      </c>
+      <c r="E15">
+        <v>36.054299999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>120.45869999999999</v>
+      </c>
+      <c r="E16">
+        <v>36.085099999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>120.1964</v>
+      </c>
+      <c r="E17">
+        <v>36.308300000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>120.40009999999999</v>
+      </c>
+      <c r="E18">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>117.685</v>
+      </c>
+      <c r="E19">
+        <v>36.204999999999998</v>
+      </c>
+      <c r="F19">
+        <v>5.19</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>117.6789</v>
+      </c>
+      <c r="E20">
+        <v>36.228900000000003</v>
+      </c>
+      <c r="F20">
+        <v>5.19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>117.715</v>
+      </c>
+      <c r="E21">
+        <v>36.208100000000002</v>
+      </c>
+      <c r="F21">
+        <v>5.19</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>118.34180000000001</v>
+      </c>
+      <c r="E22">
+        <v>35.057299999999998</v>
+      </c>
+      <c r="F22">
+        <v>5.19</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <v>118.29389999999999</v>
+      </c>
+      <c r="E23">
+        <v>35.062199999999997</v>
+      </c>
+      <c r="F23">
+        <v>5.19</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>118.2764</v>
+      </c>
+      <c r="E24">
+        <v>34.981699999999996</v>
+      </c>
+      <c r="F24">
+        <v>5.19</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <v>118.4023</v>
+      </c>
+      <c r="E25">
+        <v>35.089599999999997</v>
+      </c>
+      <c r="F25">
+        <v>5.19</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26">
+        <v>116.3061</v>
+      </c>
+      <c r="E26">
+        <v>37.4664</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27">
+        <v>116.27290000000001</v>
+      </c>
+      <c r="E27">
+        <v>37.450400000000002</v>
+      </c>
+      <c r="F27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28">
+        <v>116.3189</v>
+      </c>
+      <c r="E28">
+        <v>37.448900000000002</v>
+      </c>
+      <c r="F28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29">
+        <v>115.98480000000001</v>
+      </c>
+      <c r="E29">
+        <v>36.437199999999997</v>
+      </c>
+      <c r="F29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30">
+        <v>115.99679999999999</v>
+      </c>
+      <c r="E30">
+        <v>36.456800000000001</v>
+      </c>
+      <c r="F30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31">
+        <v>115.98350000000001</v>
+      </c>
+      <c r="E31">
+        <v>36.479599999999998</v>
+      </c>
+      <c r="F31" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32">
+        <v>118.00620000000001</v>
+      </c>
+      <c r="E32">
+        <v>37.380299999999998</v>
+      </c>
+      <c r="F32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33">
+        <v>118.0018</v>
+      </c>
+      <c r="E33">
+        <v>37.361699999999999</v>
+      </c>
+      <c r="F33" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34">
+        <v>117.9776</v>
+      </c>
+      <c r="E34">
+        <v>37.393000000000001</v>
+      </c>
+      <c r="F34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35">
+        <v>118.04819999999999</v>
+      </c>
+      <c r="E35">
+        <v>36.808799999999998</v>
+      </c>
+      <c r="F35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36">
+        <v>118.0448</v>
+      </c>
+      <c r="E36">
+        <v>36.838000000000001</v>
+      </c>
+      <c r="F36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37">
+        <v>117.8477</v>
+      </c>
+      <c r="E37">
+        <v>36.497</v>
+      </c>
+      <c r="F37">
+        <v>5.19</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38">
+        <v>117.95440000000001</v>
+      </c>
+      <c r="E38">
+        <v>36.637700000000002</v>
+      </c>
+      <c r="F38" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39">
+        <v>118.3092</v>
+      </c>
+      <c r="E39">
+        <v>36.819800000000001</v>
+      </c>
+      <c r="F39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40">
+        <v>117.85120000000001</v>
+      </c>
+      <c r="E40">
+        <v>36.804099999999998</v>
+      </c>
+      <c r="F40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41">
+        <v>117.5564</v>
+      </c>
+      <c r="E41">
+        <v>34.863999999999997</v>
+      </c>
+      <c r="F41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42">
+        <v>117.2852</v>
+      </c>
+      <c r="E42">
+        <v>34.783700000000003</v>
+      </c>
+      <c r="F42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43">
+        <v>117.5852</v>
+      </c>
+      <c r="E43">
+        <v>34.774500000000003</v>
+      </c>
+      <c r="F43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44">
+        <v>117.732</v>
+      </c>
+      <c r="E44">
+        <v>34.566699999999997</v>
+      </c>
+      <c r="F44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45">
+        <v>117.45180000000001</v>
+      </c>
+      <c r="E45">
+        <v>35.099200000000003</v>
+      </c>
+      <c r="F45">
+        <v>5.19</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46">
+        <v>121.2514</v>
+      </c>
+      <c r="E46">
+        <v>37.563899999999997</v>
+      </c>
+      <c r="F46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47">
+        <v>121.3719</v>
+      </c>
+      <c r="E47">
+        <v>37.543300000000002</v>
+      </c>
+      <c r="F47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48">
+        <v>121.3181</v>
+      </c>
+      <c r="E48">
+        <v>37.543599999999998</v>
+      </c>
+      <c r="F48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49">
+        <v>121.4478</v>
+      </c>
+      <c r="E49">
+        <v>37.482199999999999</v>
+      </c>
+      <c r="F49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50">
+        <v>121.2611</v>
+      </c>
+      <c r="E50">
+        <v>37.496699999999997</v>
+      </c>
+      <c r="F50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51">
+        <v>121.59529999999999</v>
+      </c>
+      <c r="E51">
+        <v>37.3872</v>
+      </c>
+      <c r="F51" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>119.12</v>
+      </c>
+      <c r="E52">
+        <v>36.701900000000002</v>
+      </c>
+      <c r="F52">
+        <v>5.19</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>119.0919</v>
+      </c>
+      <c r="E53">
+        <v>36.730600000000003</v>
+      </c>
+      <c r="F53">
+        <v>5.19</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>119.1425</v>
+      </c>
+      <c r="E54">
+        <v>36.700800000000001</v>
+      </c>
+      <c r="F54">
+        <v>5.19</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>119.1614</v>
+      </c>
+      <c r="E55">
+        <v>36.657200000000003</v>
+      </c>
+      <c r="F55">
+        <v>5.19</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>119.1939</v>
+      </c>
+      <c r="E56">
+        <v>36.773099999999999</v>
+      </c>
+      <c r="F56">
+        <v>5.19</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>116.6305</v>
+      </c>
+      <c r="E57">
+        <v>35.427999999999997</v>
+      </c>
+      <c r="F57" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>116.5856</v>
+      </c>
+      <c r="E58">
+        <v>35.414400000000001</v>
+      </c>
+      <c r="F58" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>116.55459999999999</v>
+      </c>
+      <c r="E59">
+        <v>35.4039</v>
+      </c>
+      <c r="F59" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60">
+        <v>117.14360000000001</v>
+      </c>
+      <c r="E60">
+        <v>36.194200000000002</v>
+      </c>
+      <c r="F60" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61">
+        <v>117.0881</v>
+      </c>
+      <c r="E61">
+        <v>36.194200000000002</v>
+      </c>
+      <c r="F61" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62">
+        <v>117.10809999999999</v>
+      </c>
+      <c r="E62">
+        <v>36.175800000000002</v>
+      </c>
+      <c r="F62" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63">
+        <v>119.4641</v>
+      </c>
+      <c r="E63">
+        <v>35.4178</v>
+      </c>
+      <c r="F63">
+        <v>5.19</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64">
+        <v>119.5198</v>
+      </c>
+      <c r="E64">
+        <v>35.423400000000001</v>
+      </c>
+      <c r="F64">
+        <v>5.19</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65">
+        <v>119.54</v>
+      </c>
+      <c r="E65">
+        <v>35.3962</v>
+      </c>
+      <c r="F65">
+        <v>5.19</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66">
+        <v>122.1206</v>
+      </c>
+      <c r="E66">
+        <v>37.429400000000001</v>
+      </c>
+      <c r="F66">
+        <v>5.19</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67">
+        <v>122.0508</v>
+      </c>
+      <c r="E67">
+        <v>37.532499999999999</v>
+      </c>
+      <c r="F67" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68">
+        <v>122.1067</v>
+      </c>
+      <c r="E68">
+        <v>37.507199999999997</v>
+      </c>
+      <c r="F68" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69">
+        <v>118.50190000000001</v>
+      </c>
+      <c r="E69">
+        <v>37.465800000000002</v>
+      </c>
+      <c r="F69" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70">
+        <v>118.66719999999999</v>
+      </c>
+      <c r="E70">
+        <v>37.431399999999996</v>
+      </c>
+      <c r="F70" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71">
+        <v>118.5857</v>
+      </c>
+      <c r="E71">
+        <v>37.444200000000002</v>
+      </c>
+      <c r="F71" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72">
+        <v>118.8192</v>
+      </c>
+      <c r="E72">
+        <v>37.378100000000003</v>
+      </c>
+      <c r="F72" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73">
+        <v>115.42277</v>
+      </c>
+      <c r="E73">
+        <v>35.248888999999998</v>
+      </c>
+      <c r="F73">
+        <v>5.19</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74">
+        <v>115.474722</v>
+      </c>
+      <c r="E74">
+        <v>35.237499999999997</v>
+      </c>
+      <c r="F74">
+        <v>5.19</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75">
+        <v>115.455</v>
+      </c>
+      <c r="E75">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="F75">
+        <v>5.19</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51:H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1403,7 +3179,7 @@
     <col min="1" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1419,223 +3195,1158 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2">
-        <v>116.366</v>
-      </c>
-      <c r="E2">
-        <v>39.8673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D3">
-        <v>116.17</v>
+        <v>114.45480000000001</v>
       </c>
       <c r="E3">
-        <v>40.286499999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.051299999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D4">
-        <v>116.434</v>
+        <v>114.6046</v>
       </c>
       <c r="E4">
-        <v>39.952199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D5">
-        <v>116.434</v>
+        <v>114.50190000000001</v>
       </c>
       <c r="E5">
-        <v>39.874499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D6">
-        <v>116.473</v>
+        <v>114.4586111</v>
       </c>
       <c r="E6">
-        <v>39.971600000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D7">
-        <v>116.361</v>
+        <v>114.5330556</v>
       </c>
       <c r="E7">
-        <v>39.942500000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D8">
-        <v>116.315</v>
+        <v>114.5214</v>
       </c>
       <c r="E8">
-        <v>39.993400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D9">
-        <v>116.72</v>
+        <v>114.3541</v>
       </c>
       <c r="E9">
-        <v>40.143799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37.909700000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="D10">
-        <v>116.64400000000001</v>
+        <v>118.1662</v>
       </c>
       <c r="E10">
-        <v>40.393700000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.630800000000001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="D11">
-        <v>116.23</v>
+        <v>118.14400000000001</v>
       </c>
       <c r="E11">
-        <v>40.1952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.643000000000001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>187</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="D12">
-        <v>116.407</v>
+        <v>118.1853</v>
       </c>
       <c r="E12">
-        <v>40.003100000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.640700000000002</v>
+      </c>
+      <c r="F12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="D13">
-        <v>116.22499999999999</v>
+        <v>118.21850000000001</v>
       </c>
       <c r="E13">
-        <v>39.927900000000001</v>
+        <v>39.667900000000003</v>
+      </c>
+      <c r="F13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14">
+        <v>118.18380000000001</v>
+      </c>
+      <c r="E14">
+        <v>39.657820000000001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15">
+        <v>118.19970000000001</v>
+      </c>
+      <c r="E15">
+        <v>39.6295</v>
+      </c>
+      <c r="F15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16">
+        <v>119.52589999999999</v>
+      </c>
+      <c r="E16">
+        <v>39.828299999999999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17">
+        <v>119.7624</v>
+      </c>
+      <c r="E17">
+        <v>40.018099999999997</v>
+      </c>
+      <c r="F17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18">
+        <v>119.6023</v>
+      </c>
+      <c r="E18">
+        <v>39.956699999999998</v>
+      </c>
+      <c r="F18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19">
+        <v>119.607</v>
+      </c>
+      <c r="E19">
+        <v>39.9358</v>
+      </c>
+      <c r="F19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20">
+        <v>119.5369</v>
+      </c>
+      <c r="E20">
+        <v>39.941899999999997</v>
+      </c>
+      <c r="F20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21">
+        <v>114.5129</v>
+      </c>
+      <c r="E21">
+        <v>36.617629999999998</v>
+      </c>
+      <c r="F21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22">
+        <v>114.54259999999999</v>
+      </c>
+      <c r="E22">
+        <v>36.616399999999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23">
+        <v>114.5035</v>
+      </c>
+      <c r="E23">
+        <v>36.577599999999997</v>
+      </c>
+      <c r="F23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24">
+        <v>114.4965</v>
+      </c>
+      <c r="E24">
+        <v>36.619810000000001</v>
+      </c>
+      <c r="F24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25">
+        <v>115.49299999999999</v>
+      </c>
+      <c r="E25">
+        <v>38.863199999999999</v>
+      </c>
+      <c r="F25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26">
+        <v>115.5223</v>
+      </c>
+      <c r="E26">
+        <v>38.895699999999998</v>
+      </c>
+      <c r="F26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27">
+        <v>115.4713</v>
+      </c>
+      <c r="E27">
+        <v>38.910800000000002</v>
+      </c>
+      <c r="F27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28">
+        <v>115.46120000000001</v>
+      </c>
+      <c r="E28">
+        <v>38.8416</v>
+      </c>
+      <c r="F28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29">
+        <v>115.44199999999999</v>
+      </c>
+      <c r="E29">
+        <v>38.875599999999999</v>
+      </c>
+      <c r="F29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30">
+        <v>115.5214</v>
+      </c>
+      <c r="E30">
+        <v>38.870699999999999</v>
+      </c>
+      <c r="F30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31">
+        <v>114.8985</v>
+      </c>
+      <c r="E31">
+        <v>40.8367</v>
+      </c>
+      <c r="F31">
+        <v>5.19</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32">
+        <v>114.892</v>
+      </c>
+      <c r="E32">
+        <v>40.794809999999998</v>
+      </c>
+      <c r="F32">
+        <v>5.19</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33">
+        <v>114.8814</v>
+      </c>
+      <c r="E33">
+        <v>40.811500000000002</v>
+      </c>
+      <c r="F33">
+        <v>5.19</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34">
+        <v>114.9032</v>
+      </c>
+      <c r="E34">
+        <v>40.768799999999999</v>
+      </c>
+      <c r="F34">
+        <v>5.19</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35">
+        <v>114.904</v>
+      </c>
+      <c r="E35">
+        <v>40.872500000000002</v>
+      </c>
+      <c r="F35">
+        <v>5.19</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36">
+        <v>117.96639999999999</v>
+      </c>
+      <c r="E36">
+        <v>40.9161</v>
+      </c>
+      <c r="F36">
+        <v>5.19</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37">
+        <v>117.9525</v>
+      </c>
+      <c r="E37">
+        <v>40.984299999999998</v>
+      </c>
+      <c r="F37">
+        <v>5.19</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38">
+        <v>117.96299999999999</v>
+      </c>
+      <c r="E38">
+        <v>40.935899999999997</v>
+      </c>
+      <c r="F38">
+        <v>5.19</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39">
+        <v>117.8184</v>
+      </c>
+      <c r="E39">
+        <v>40.973300000000002</v>
+      </c>
+      <c r="F39">
+        <v>5.19</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40">
+        <v>117.9384</v>
+      </c>
+      <c r="E40">
+        <v>41.011200000000002</v>
+      </c>
+      <c r="F40">
+        <v>5.19</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D41">
+        <v>116.68380000000001</v>
+      </c>
+      <c r="E41">
+        <v>39.517800000000001</v>
+      </c>
+      <c r="F41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>248</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42">
+        <v>116.77290000000001</v>
+      </c>
+      <c r="E42">
+        <v>39.5747</v>
+      </c>
+      <c r="F42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>249</v>
+      </c>
+      <c r="B43" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" t="s">
+        <v>247</v>
+      </c>
+      <c r="D43">
+        <v>116.715</v>
+      </c>
+      <c r="E43">
+        <v>39.557099999999998</v>
+      </c>
+      <c r="F43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>328</v>
+      </c>
+      <c r="B44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D44">
+        <v>116.74639999999999</v>
+      </c>
+      <c r="E44">
+        <v>39.534300000000002</v>
+      </c>
+      <c r="F44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>253</v>
+      </c>
+      <c r="B45" t="s">
+        <v>254</v>
+      </c>
+      <c r="C45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45">
+        <v>116.8854</v>
+      </c>
+      <c r="E45">
+        <v>38.299100000000003</v>
+      </c>
+      <c r="F45">
+        <v>5.19</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" t="s">
+        <v>255</v>
+      </c>
+      <c r="D46">
+        <v>116.8584</v>
+      </c>
+      <c r="E46">
+        <v>38.325400000000002</v>
+      </c>
+      <c r="F46">
+        <v>5.19</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>258</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>255</v>
+      </c>
+      <c r="D47">
+        <v>116.87090000000001</v>
+      </c>
+      <c r="E47">
+        <v>38.322800000000001</v>
+      </c>
+      <c r="F47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B48" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D48">
+        <v>115.6951</v>
+      </c>
+      <c r="E48">
+        <v>37.7575</v>
+      </c>
+      <c r="F48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>262</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49">
+        <v>115.6426</v>
+      </c>
+      <c r="E49">
+        <v>37.737900000000003</v>
+      </c>
+      <c r="F49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>263</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D50">
+        <v>115.6906</v>
+      </c>
+      <c r="E50">
+        <v>37.738999999999997</v>
+      </c>
+      <c r="F50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>264</v>
+      </c>
+      <c r="B51" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51">
+        <v>114.4821</v>
+      </c>
+      <c r="E51">
+        <v>37.096699999999998</v>
+      </c>
+      <c r="F51">
+        <v>5.19</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52">
+        <v>114.5261</v>
+      </c>
+      <c r="E52">
+        <v>37.0533</v>
+      </c>
+      <c r="F52">
+        <v>5.19</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53">
+        <v>114.5331</v>
+      </c>
+      <c r="E53">
+        <v>37.096400000000003</v>
+      </c>
+      <c r="F53">
+        <v>5.19</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54">
+        <v>114.4854</v>
+      </c>
+      <c r="E54">
+        <v>37.061999999999998</v>
+      </c>
+      <c r="F54">
+        <v>5.19</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1643,7 +4354,7 @@
     <col min="1" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1659,1174 +4370,215 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D2">
-        <v>117.151</v>
+        <v>116.366</v>
       </c>
       <c r="E2">
-        <v>39.097000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.8673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D3">
-        <v>117.193</v>
+        <v>116.17</v>
       </c>
       <c r="E3">
-        <v>39.173000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.286499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D4">
-        <v>117.145</v>
+        <v>116.434</v>
       </c>
       <c r="E4">
-        <v>39.165399999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.952199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D5">
-        <v>117.184</v>
+        <v>116.434</v>
       </c>
       <c r="E5">
-        <v>39.1205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D6">
-        <v>117.23699999999999</v>
+        <v>116.473</v>
       </c>
       <c r="E6">
-        <v>39.108199999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.971600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="C7" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D7">
-        <v>117.202</v>
+        <v>116.361</v>
       </c>
       <c r="E7">
-        <v>39.092700000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.942500000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D8">
-        <v>117.1837</v>
+        <v>116.315</v>
       </c>
       <c r="E8">
-        <v>39.213299999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="C9" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D9">
-        <v>117.26900000000001</v>
+        <v>116.72</v>
       </c>
       <c r="E9">
-        <v>39.133699999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D10">
-        <v>117.307</v>
+        <v>116.64400000000001</v>
       </c>
       <c r="E10">
-        <v>39.087699999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="C11" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D11">
-        <v>117.70699999999999</v>
+        <v>116.23</v>
       </c>
       <c r="E11">
-        <v>39.034300000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="B12" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D12">
-        <v>117.45699999999999</v>
+        <v>116.407</v>
       </c>
       <c r="E12">
-        <v>38.839399999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40.003100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D13">
-        <v>117.401</v>
+        <v>116.22499999999999</v>
       </c>
       <c r="E13">
-        <v>39.124000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>322</v>
-      </c>
-      <c r="B14" t="s">
-        <v>323</v>
-      </c>
-      <c r="C14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14">
-        <v>117.764</v>
-      </c>
-      <c r="E14">
-        <v>39.158700000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>324</v>
-      </c>
-      <c r="B15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C15" t="s">
-        <v>299</v>
-      </c>
-      <c r="D15">
-        <v>117.157</v>
-      </c>
-      <c r="E15">
-        <v>38.919400000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3">
-        <v>114.45480000000001</v>
-      </c>
-      <c r="E3">
-        <v>38.051299999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4">
-        <v>114.6046</v>
-      </c>
-      <c r="E4">
-        <v>38.0398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5">
-        <v>114.50190000000001</v>
-      </c>
-      <c r="E5">
-        <v>38.139800000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6">
-        <v>114.4586111</v>
-      </c>
-      <c r="E6">
-        <v>38.005833330000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7">
-        <v>114.5330556</v>
-      </c>
-      <c r="E7">
-        <v>38.017777780000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8">
-        <v>114.5214</v>
-      </c>
-      <c r="E8">
-        <v>38.052399999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9">
-        <v>114.3541</v>
-      </c>
-      <c r="E9">
-        <v>37.909700000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10">
-        <v>118.1662</v>
-      </c>
-      <c r="E10">
-        <v>39.630800000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11">
-        <v>118.14400000000001</v>
-      </c>
-      <c r="E11">
-        <v>39.643000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12">
-        <v>118.1853</v>
-      </c>
-      <c r="E12">
-        <v>39.640700000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13">
-        <v>118.21850000000001</v>
-      </c>
-      <c r="E13">
-        <v>39.667900000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14">
-        <v>118.18380000000001</v>
-      </c>
-      <c r="E14">
-        <v>39.657820000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15">
-        <v>118.19970000000001</v>
-      </c>
-      <c r="E15">
-        <v>39.6295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D16">
-        <v>119.52589999999999</v>
-      </c>
-      <c r="E16">
-        <v>39.828299999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17">
-        <v>119.7624</v>
-      </c>
-      <c r="E17">
-        <v>40.018099999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>200</v>
-      </c>
-      <c r="B18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18">
-        <v>119.6023</v>
-      </c>
-      <c r="E18">
-        <v>39.956699999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>201</v>
-      </c>
-      <c r="B19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19">
-        <v>119.607</v>
-      </c>
-      <c r="E19">
-        <v>39.9358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>203</v>
-      </c>
-      <c r="B20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20">
-        <v>119.5369</v>
-      </c>
-      <c r="E20">
-        <v>39.941899999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21">
-        <v>114.5129</v>
-      </c>
-      <c r="E21">
-        <v>36.617629999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>207</v>
-      </c>
-      <c r="B22" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22">
-        <v>114.54259999999999</v>
-      </c>
-      <c r="E22">
-        <v>36.616399999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C23" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23">
-        <v>114.5035</v>
-      </c>
-      <c r="E23">
-        <v>36.577599999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" t="s">
-        <v>206</v>
-      </c>
-      <c r="D24">
-        <v>114.4965</v>
-      </c>
-      <c r="E24">
-        <v>36.619810000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>213</v>
-      </c>
-      <c r="B25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C25" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25">
-        <v>115.49299999999999</v>
-      </c>
-      <c r="E25">
-        <v>38.863199999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>216</v>
-      </c>
-      <c r="B26" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26">
-        <v>115.5223</v>
-      </c>
-      <c r="E26">
-        <v>38.895699999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>218</v>
-      </c>
-      <c r="B27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27" t="s">
-        <v>215</v>
-      </c>
-      <c r="D27">
-        <v>115.4713</v>
-      </c>
-      <c r="E27">
-        <v>38.910800000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>220</v>
-      </c>
-      <c r="B28" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28">
-        <v>115.46120000000001</v>
-      </c>
-      <c r="E28">
-        <v>38.8416</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>222</v>
-      </c>
-      <c r="B29" t="s">
-        <v>223</v>
-      </c>
-      <c r="C29" t="s">
-        <v>215</v>
-      </c>
-      <c r="D29">
-        <v>115.44199999999999</v>
-      </c>
-      <c r="E29">
-        <v>38.875599999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B30" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" t="s">
-        <v>215</v>
-      </c>
-      <c r="D30">
-        <v>115.5214</v>
-      </c>
-      <c r="E30">
-        <v>38.870699999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31">
-        <v>114.8985</v>
-      </c>
-      <c r="E31">
-        <v>40.8367</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>227</v>
-      </c>
-      <c r="B32" t="s">
-        <v>228</v>
-      </c>
-      <c r="C32" t="s">
-        <v>226</v>
-      </c>
-      <c r="D32">
-        <v>114.892</v>
-      </c>
-      <c r="E32">
-        <v>40.794809999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B33" t="s">
-        <v>230</v>
-      </c>
-      <c r="C33" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33">
-        <v>114.8814</v>
-      </c>
-      <c r="E33">
-        <v>40.811500000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>231</v>
-      </c>
-      <c r="B34" t="s">
-        <v>232</v>
-      </c>
-      <c r="C34" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34">
-        <v>114.9032</v>
-      </c>
-      <c r="E34">
-        <v>40.768799999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>233</v>
-      </c>
-      <c r="B35" t="s">
-        <v>234</v>
-      </c>
-      <c r="C35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D35">
-        <v>114.904</v>
-      </c>
-      <c r="E35">
-        <v>40.872500000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>235</v>
-      </c>
-      <c r="B36" t="s">
-        <v>236</v>
-      </c>
-      <c r="C36" t="s">
-        <v>237</v>
-      </c>
-      <c r="D36">
-        <v>117.96639999999999</v>
-      </c>
-      <c r="E36">
-        <v>40.9161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>238</v>
-      </c>
-      <c r="B37" t="s">
-        <v>239</v>
-      </c>
-      <c r="C37" t="s">
-        <v>237</v>
-      </c>
-      <c r="D37">
-        <v>117.9525</v>
-      </c>
-      <c r="E37">
-        <v>40.984299999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>240</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" t="s">
-        <v>237</v>
-      </c>
-      <c r="D38">
-        <v>117.96299999999999</v>
-      </c>
-      <c r="E38">
-        <v>40.935899999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>241</v>
-      </c>
-      <c r="B39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C39" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39">
-        <v>117.8184</v>
-      </c>
-      <c r="E39">
-        <v>40.973300000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>243</v>
-      </c>
-      <c r="B40" t="s">
-        <v>244</v>
-      </c>
-      <c r="C40" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40">
-        <v>117.9384</v>
-      </c>
-      <c r="E40">
-        <v>41.011200000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>245</v>
-      </c>
-      <c r="B41" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" t="s">
-        <v>247</v>
-      </c>
-      <c r="D41">
-        <v>116.68380000000001</v>
-      </c>
-      <c r="E41">
-        <v>39.517800000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>248</v>
-      </c>
-      <c r="B42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" t="s">
-        <v>247</v>
-      </c>
-      <c r="D42">
-        <v>116.77290000000001</v>
-      </c>
-      <c r="E42">
-        <v>39.5747</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>249</v>
-      </c>
-      <c r="B43" t="s">
-        <v>250</v>
-      </c>
-      <c r="C43" t="s">
-        <v>247</v>
-      </c>
-      <c r="D43">
-        <v>116.715</v>
-      </c>
-      <c r="E43">
-        <v>39.557099999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>251</v>
-      </c>
-      <c r="B44" t="s">
-        <v>252</v>
-      </c>
-      <c r="C44" t="s">
-        <v>247</v>
-      </c>
-      <c r="D44">
-        <v>116.74639999999999</v>
-      </c>
-      <c r="E44">
-        <v>39.534300000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>253</v>
-      </c>
-      <c r="B45" t="s">
-        <v>254</v>
-      </c>
-      <c r="C45" t="s">
-        <v>255</v>
-      </c>
-      <c r="D45">
-        <v>116.8854</v>
-      </c>
-      <c r="E45">
-        <v>38.299100000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>256</v>
-      </c>
-      <c r="B46" t="s">
-        <v>257</v>
-      </c>
-      <c r="C46" t="s">
-        <v>255</v>
-      </c>
-      <c r="D46">
-        <v>116.8584</v>
-      </c>
-      <c r="E46">
-        <v>38.325400000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>258</v>
-      </c>
-      <c r="B47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" t="s">
-        <v>255</v>
-      </c>
-      <c r="D47">
-        <v>116.87090000000001</v>
-      </c>
-      <c r="E47">
-        <v>38.322800000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>259</v>
-      </c>
-      <c r="B48" t="s">
-        <v>260</v>
-      </c>
-      <c r="C48" t="s">
-        <v>261</v>
-      </c>
-      <c r="D48">
-        <v>115.6951</v>
-      </c>
-      <c r="E48">
-        <v>37.7575</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>262</v>
-      </c>
-      <c r="B49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" t="s">
-        <v>261</v>
-      </c>
-      <c r="D49">
-        <v>115.6426</v>
-      </c>
-      <c r="E49">
-        <v>37.737900000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>263</v>
-      </c>
-      <c r="B50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" t="s">
-        <v>261</v>
-      </c>
-      <c r="D50">
-        <v>115.6906</v>
-      </c>
-      <c r="E50">
-        <v>37.738999999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>264</v>
-      </c>
-      <c r="B51" t="s">
-        <v>265</v>
-      </c>
-      <c r="C51" t="s">
-        <v>266</v>
-      </c>
-      <c r="D51">
-        <v>114.4821</v>
-      </c>
-      <c r="E51">
-        <v>37.096699999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>267</v>
-      </c>
-      <c r="B52" t="s">
-        <v>268</v>
-      </c>
-      <c r="C52" t="s">
-        <v>266</v>
-      </c>
-      <c r="D52">
-        <v>114.5261</v>
-      </c>
-      <c r="E52">
-        <v>37.0533</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>269</v>
-      </c>
-      <c r="B53" t="s">
-        <v>270</v>
-      </c>
-      <c r="C53" t="s">
-        <v>266</v>
-      </c>
-      <c r="D53">
-        <v>114.5331</v>
-      </c>
-      <c r="E53">
-        <v>37.096400000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>271</v>
-      </c>
-      <c r="B54" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D54">
-        <v>114.4854</v>
-      </c>
-      <c r="E54">
-        <v>37.061999999999998</v>
+        <v>39.927900000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2837,18 +4589,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.09765625" customWidth="1"/>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2864,1263 +4616,249 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D2">
-        <v>116.988</v>
+        <v>117.151</v>
       </c>
       <c r="E2">
-        <v>36.611400000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.097000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D3">
-        <v>116.93</v>
+        <v>117.193</v>
       </c>
       <c r="E3">
-        <v>36.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.173000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D4">
-        <v>117.114</v>
+        <v>117.145</v>
       </c>
       <c r="E4">
-        <v>36.673900000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.165399999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D5">
-        <v>116.989</v>
+        <v>117.184</v>
       </c>
       <c r="E5">
-        <v>36.687199999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.1205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D6">
-        <v>117.0684</v>
+        <v>117.23699999999999</v>
       </c>
       <c r="E6">
-        <v>36.686799999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.108199999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D7">
-        <v>116.943</v>
+        <v>117.202</v>
       </c>
       <c r="E7">
-        <v>36.648899999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.092700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>310</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>311</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D8">
-        <v>117.04900000000001</v>
+        <v>117.1837</v>
       </c>
       <c r="E8">
-        <v>36.662199999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>313</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D9">
-        <v>116.73399999999999</v>
+        <v>117.26900000000001</v>
       </c>
       <c r="E9">
-        <v>36.5336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.133699999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>299</v>
       </c>
       <c r="D10">
-        <v>120.66589999999999</v>
+        <v>117.307</v>
       </c>
       <c r="E10">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.087699999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>316</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>317</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>299</v>
       </c>
       <c r="D11">
-        <v>120.3905</v>
+        <v>117.70699999999999</v>
       </c>
       <c r="E11">
-        <v>36.185099999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.034300000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>318</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>319</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>299</v>
       </c>
       <c r="D12">
-        <v>120.3471</v>
+        <v>117.45699999999999</v>
       </c>
       <c r="E12">
-        <v>36.069899999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.839399999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>321</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>299</v>
       </c>
       <c r="D13">
-        <v>120.4134</v>
+        <v>117.401</v>
       </c>
       <c r="E13">
-        <v>36.065399999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>322</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>299</v>
       </c>
       <c r="D14">
-        <v>120.3664</v>
+        <v>117.764</v>
       </c>
       <c r="E14">
-        <v>36.103200000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.158700000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>299</v>
       </c>
       <c r="D15">
-        <v>120.2992</v>
+        <v>117.157</v>
       </c>
       <c r="E15">
-        <v>36.054299999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>120.45869999999999</v>
-      </c>
-      <c r="E16">
-        <v>36.085099999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>120.1964</v>
-      </c>
-      <c r="E17">
-        <v>36.308300000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="E18">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19">
-        <v>117.685</v>
-      </c>
-      <c r="E19">
-        <v>36.204999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20">
-        <v>117.6789</v>
-      </c>
-      <c r="E20">
-        <v>36.228900000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21">
-        <v>117.715</v>
-      </c>
-      <c r="E21">
-        <v>36.208100000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E22">
-        <v>35.057299999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E23">
-        <v>35.062199999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24">
-        <v>118.2764</v>
-      </c>
-      <c r="E24">
-        <v>34.981699999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25">
-        <v>118.4023</v>
-      </c>
-      <c r="E25">
-        <v>35.089599999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26">
-        <v>116.3061</v>
-      </c>
-      <c r="E26">
-        <v>37.4664</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27">
-        <v>116.27290000000001</v>
-      </c>
-      <c r="E27">
-        <v>37.450400000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28">
-        <v>116.3189</v>
-      </c>
-      <c r="E28">
-        <v>37.448900000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29">
-        <v>115.98480000000001</v>
-      </c>
-      <c r="E29">
-        <v>36.437199999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30">
-        <v>115.99679999999999</v>
-      </c>
-      <c r="E30">
-        <v>36.456800000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31">
-        <v>115.98350000000001</v>
-      </c>
-      <c r="E31">
-        <v>36.479599999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32">
-        <v>118.00620000000001</v>
-      </c>
-      <c r="E32">
-        <v>37.380299999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33">
-        <v>118.0018</v>
-      </c>
-      <c r="E33">
-        <v>37.361699999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34">
-        <v>117.9776</v>
-      </c>
-      <c r="E34">
-        <v>37.393000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35">
-        <v>118.04819999999999</v>
-      </c>
-      <c r="E35">
-        <v>36.808799999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36">
-        <v>118.0448</v>
-      </c>
-      <c r="E36">
-        <v>36.838000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37">
-        <v>117.8477</v>
-      </c>
-      <c r="E37">
-        <v>36.497</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38">
-        <v>117.95440000000001</v>
-      </c>
-      <c r="E38">
-        <v>36.637700000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39">
-        <v>118.3092</v>
-      </c>
-      <c r="E39">
-        <v>36.819800000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40">
-        <v>117.85120000000001</v>
-      </c>
-      <c r="E40">
-        <v>36.804099999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41">
-        <v>117.5564</v>
-      </c>
-      <c r="E41">
-        <v>34.863999999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42">
-        <v>117.2852</v>
-      </c>
-      <c r="E42">
-        <v>34.783700000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43">
-        <v>117.5852</v>
-      </c>
-      <c r="E43">
-        <v>34.774500000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44">
-        <v>117.732</v>
-      </c>
-      <c r="E44">
-        <v>34.566699999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45">
-        <v>117.45180000000001</v>
-      </c>
-      <c r="E45">
-        <v>35.099200000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46">
-        <v>121.2514</v>
-      </c>
-      <c r="E46">
-        <v>37.563899999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47">
-        <v>121.3719</v>
-      </c>
-      <c r="E47">
-        <v>37.543300000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48">
-        <v>121.3181</v>
-      </c>
-      <c r="E48">
-        <v>37.543599999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49">
-        <v>121.4478</v>
-      </c>
-      <c r="E49">
-        <v>37.482199999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50">
-        <v>121.2611</v>
-      </c>
-      <c r="E50">
-        <v>37.496699999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51">
-        <v>121.59529999999999</v>
-      </c>
-      <c r="E51">
-        <v>37.3872</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52">
-        <v>119.12</v>
-      </c>
-      <c r="E52">
-        <v>36.701900000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53">
-        <v>119.0919</v>
-      </c>
-      <c r="E53">
-        <v>36.730600000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54">
-        <v>119.1425</v>
-      </c>
-      <c r="E54">
-        <v>36.700800000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55">
-        <v>119.1614</v>
-      </c>
-      <c r="E55">
-        <v>36.657200000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56">
-        <v>119.1939</v>
-      </c>
-      <c r="E56">
-        <v>36.773099999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57">
-        <v>116.6305</v>
-      </c>
-      <c r="E57">
-        <v>35.427999999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58">
-        <v>116.5856</v>
-      </c>
-      <c r="E58">
-        <v>35.414400000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59">
-        <v>116.55459999999999</v>
-      </c>
-      <c r="E59">
-        <v>35.4039</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60">
-        <v>117.14360000000001</v>
-      </c>
-      <c r="E60">
-        <v>36.194200000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61">
-        <v>117.0881</v>
-      </c>
-      <c r="E61">
-        <v>36.194200000000002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>136</v>
-      </c>
-      <c r="B62" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" t="s">
-        <v>133</v>
-      </c>
-      <c r="D62">
-        <v>117.10809999999999</v>
-      </c>
-      <c r="E62">
-        <v>36.175800000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>138</v>
-      </c>
-      <c r="B63" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63">
-        <v>119.4641</v>
-      </c>
-      <c r="E63">
-        <v>35.4178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>140</v>
-      </c>
-      <c r="B64" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64">
-        <v>119.5198</v>
-      </c>
-      <c r="E64">
-        <v>35.423400000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" t="s">
-        <v>139</v>
-      </c>
-      <c r="D65">
-        <v>119.54</v>
-      </c>
-      <c r="E65">
-        <v>35.3962</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>144</v>
-      </c>
-      <c r="B66" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66">
-        <v>122.1206</v>
-      </c>
-      <c r="E66">
-        <v>37.429400000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>147</v>
-      </c>
-      <c r="B67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" t="s">
-        <v>146</v>
-      </c>
-      <c r="D67">
-        <v>122.0508</v>
-      </c>
-      <c r="E67">
-        <v>37.532499999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>149</v>
-      </c>
-      <c r="B68" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" t="s">
-        <v>146</v>
-      </c>
-      <c r="D68">
-        <v>122.1067</v>
-      </c>
-      <c r="E68">
-        <v>37.507199999999997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>150</v>
-      </c>
-      <c r="B69" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D69">
-        <v>118.50190000000001</v>
-      </c>
-      <c r="E69">
-        <v>37.465800000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>153</v>
-      </c>
-      <c r="B70" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" t="s">
-        <v>152</v>
-      </c>
-      <c r="D70">
-        <v>118.66719999999999</v>
-      </c>
-      <c r="E70">
-        <v>37.431399999999996</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>154</v>
-      </c>
-      <c r="B71" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" t="s">
-        <v>152</v>
-      </c>
-      <c r="D71">
-        <v>118.5857</v>
-      </c>
-      <c r="E71">
-        <v>37.444200000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>156</v>
-      </c>
-      <c r="B72" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" t="s">
-        <v>152</v>
-      </c>
-      <c r="D72">
-        <v>118.8192</v>
-      </c>
-      <c r="E72">
-        <v>37.378100000000003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>158</v>
-      </c>
-      <c r="B73" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73">
-        <v>115.42277</v>
-      </c>
-      <c r="E73">
-        <v>35.248888999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>161</v>
-      </c>
-      <c r="B74" t="s">
-        <v>162</v>
-      </c>
-      <c r="C74" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74">
-        <v>115.474722</v>
-      </c>
-      <c r="E74">
-        <v>35.237499999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>163</v>
-      </c>
-      <c r="B75" t="s">
-        <v>164</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
-      </c>
-      <c r="D75">
-        <v>115.455</v>
-      </c>
-      <c r="E75">
-        <v>35.270000000000003</v>
+        <v>38.919400000000003</v>
       </c>
     </row>
   </sheetData>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="335">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1366,7 +1366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
@@ -1396,121 +1396,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="D2">
-        <v>119.4641</v>
+        <v>114.8814</v>
       </c>
       <c r="E2">
-        <v>35.4178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3">
-        <v>119.5198</v>
-      </c>
-      <c r="E3">
-        <v>35.423400000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4">
-        <v>119.54</v>
-      </c>
-      <c r="E4">
-        <v>35.3962</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5">
-        <v>122.1206</v>
-      </c>
-      <c r="E5">
-        <v>37.429400000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6">
-        <v>115.42277</v>
-      </c>
-      <c r="E6">
-        <v>35.248888999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7">
-        <v>115.474722</v>
-      </c>
-      <c r="E7">
-        <v>35.237499999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8">
-        <v>115.455</v>
-      </c>
-      <c r="E8">
-        <v>35.270000000000003</v>
+        <v>40.811500000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1524,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD75"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3171,7 +3069,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51:H55"/>
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -1,36 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\毕业论文程序\MODIS\坐标\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7D00CE-E6A4-442E-B5B7-58D1E97E5DE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15264" windowHeight="5796" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="10" r:id="rId1"/>
-    <sheet name="天津" sheetId="3" r:id="rId2"/>
-    <sheet name="北京" sheetId="2" r:id="rId3"/>
-    <sheet name="山东 2" sheetId="8" r:id="rId4"/>
-    <sheet name="山东1" sheetId="7" r:id="rId5"/>
-    <sheet name="河北1" sheetId="11" r:id="rId6"/>
-    <sheet name="河北2" sheetId="12" r:id="rId7"/>
-    <sheet name="河北2013" sheetId="13" r:id="rId8"/>
-    <sheet name="山东2013" sheetId="9" r:id="rId9"/>
-    <sheet name="山东" sheetId="5" r:id="rId10"/>
-    <sheet name="河北" sheetId="4" r:id="rId11"/>
-    <sheet name="汇总" sheetId="6" r:id="rId12"/>
+    <sheet name="可用86市汇总" sheetId="14" r:id="rId2"/>
+    <sheet name="天津" sheetId="3" r:id="rId3"/>
+    <sheet name="北京" sheetId="2" r:id="rId4"/>
+    <sheet name="山东 2" sheetId="8" r:id="rId5"/>
+    <sheet name="山东1" sheetId="7" r:id="rId6"/>
+    <sheet name="河北1" sheetId="11" r:id="rId7"/>
+    <sheet name="河北2" sheetId="12" r:id="rId8"/>
+    <sheet name="河北2013" sheetId="13" r:id="rId9"/>
+    <sheet name="山东2013" sheetId="9" r:id="rId10"/>
+    <sheet name="山东" sheetId="5" r:id="rId11"/>
+    <sheet name="河北" sheetId="4" r:id="rId12"/>
+    <sheet name="汇总" sheetId="6" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="337">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1055,7 +1057,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1383,11 +1385,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:E87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1397,7 @@
     <col min="1" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1411,572 +1413,1082 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2">
+        <v>117.8477</v>
+      </c>
+      <c r="E2">
+        <v>36.497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3">
+        <v>117.45180000000001</v>
+      </c>
+      <c r="E3">
+        <v>35.099200000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>119.12</v>
+      </c>
+      <c r="E4">
+        <v>36.701900000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>119.0919</v>
+      </c>
+      <c r="E5">
+        <v>36.730600000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>119.1425</v>
+      </c>
+      <c r="E6">
+        <v>36.700800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>119.1614</v>
+      </c>
+      <c r="E7">
+        <v>36.657200000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>119.1939</v>
+      </c>
+      <c r="E8">
+        <v>36.773099999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9">
+        <v>119.4641</v>
+      </c>
+      <c r="E9">
+        <v>35.4178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10">
+        <v>119.5198</v>
+      </c>
+      <c r="E10">
+        <v>35.423400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11">
+        <v>119.54</v>
+      </c>
+      <c r="E11">
+        <v>35.3962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12">
+        <v>122.1206</v>
+      </c>
+      <c r="E12">
+        <v>37.429400000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13">
+        <v>115.42277</v>
+      </c>
+      <c r="E13">
+        <v>35.248888999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14">
+        <v>115.474722</v>
+      </c>
+      <c r="E14">
+        <v>35.237499999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15">
+        <v>115.455</v>
+      </c>
+      <c r="E15">
+        <v>35.270000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="A2:E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>116.366</v>
+        <v>116.988</v>
       </c>
       <c r="E2">
-        <v>39.8673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36.611400000000003</v>
+      </c>
+      <c r="F2">
+        <v>5.19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>116.17</v>
+        <v>116.93</v>
       </c>
       <c r="E3">
-        <v>40.286499999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36.67</v>
+      </c>
+      <c r="F3">
+        <v>5.19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>116.434</v>
+        <v>117.114</v>
       </c>
       <c r="E4">
-        <v>39.952199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36.673900000000003</v>
+      </c>
+      <c r="F4">
+        <v>5.19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>116.434</v>
+        <v>116.989</v>
       </c>
       <c r="E5">
-        <v>39.874499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36.687199999999997</v>
+      </c>
+      <c r="F5">
+        <v>5.19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>116.473</v>
+        <v>117.0684</v>
       </c>
       <c r="E6">
-        <v>39.971600000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36.686799999999998</v>
+      </c>
+      <c r="F6">
+        <v>5.19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>116.361</v>
+        <v>116.943</v>
       </c>
       <c r="E7">
-        <v>39.942500000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36.648899999999998</v>
+      </c>
+      <c r="F7">
+        <v>5.19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>116.315</v>
+        <v>117.04900000000001</v>
       </c>
       <c r="E8">
-        <v>39.993400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36.662199999999999</v>
+      </c>
+      <c r="F8">
+        <v>5.19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>116.72</v>
+        <v>116.73399999999999</v>
       </c>
       <c r="E9">
-        <v>40.143799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36.5336</v>
+      </c>
+      <c r="F9">
+        <v>5.19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>116.64400000000001</v>
+        <v>120.66589999999999</v>
       </c>
       <c r="E10">
-        <v>40.393700000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36.240299999999998</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>116.23</v>
+        <v>120.3905</v>
       </c>
       <c r="E11">
-        <v>40.1952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36.185099999999998</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>274</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>116.407</v>
+        <v>120.3471</v>
       </c>
       <c r="E12">
-        <v>40.003100000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36.069899999999997</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>274</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>116.22499999999999</v>
+        <v>120.4134</v>
       </c>
       <c r="E13">
-        <v>39.927900000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36.065399999999997</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>299</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>117.151</v>
+        <v>120.3664</v>
       </c>
       <c r="E14">
-        <v>39.097000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36.103200000000001</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>299</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>117.193</v>
+        <v>120.2992</v>
       </c>
       <c r="E15">
-        <v>39.173000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36.054299999999998</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>299</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>117.145</v>
+        <v>120.45869999999999</v>
       </c>
       <c r="E16">
-        <v>39.165399999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.085099999999997</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>305</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>299</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>117.184</v>
+        <v>120.1964</v>
       </c>
       <c r="E17">
-        <v>39.1205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.308300000000003</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>307</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>299</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>117.23699999999999</v>
+        <v>120.40009999999999</v>
       </c>
       <c r="E18">
-        <v>39.108199999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.240299999999998</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>308</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>299</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>117.202</v>
+        <v>117.685</v>
       </c>
       <c r="E19">
-        <v>39.092700000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.204999999999998</v>
+      </c>
+      <c r="F19">
+        <v>5.19</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>310</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>311</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>299</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>117.1837</v>
+        <v>117.6789</v>
       </c>
       <c r="E20">
-        <v>39.213299999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.228900000000003</v>
+      </c>
+      <c r="F20">
+        <v>5.19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>312</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>313</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>299</v>
+        <v>51</v>
       </c>
       <c r="D21">
-        <v>117.26900000000001</v>
+        <v>117.715</v>
       </c>
       <c r="E21">
-        <v>39.133699999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.208100000000002</v>
+      </c>
+      <c r="F21">
+        <v>5.19</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>314</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>315</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>299</v>
+        <v>58</v>
       </c>
       <c r="D22">
-        <v>117.307</v>
+        <v>118.34180000000001</v>
       </c>
       <c r="E22">
-        <v>39.087699999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35.057299999999998</v>
+      </c>
+      <c r="F22">
+        <v>5.19</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>117.70699999999999</v>
+        <v>118.29389999999999</v>
       </c>
       <c r="E23">
-        <v>39.034300000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35.062199999999997</v>
+      </c>
+      <c r="F23">
+        <v>5.19</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>318</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>299</v>
+        <v>58</v>
       </c>
       <c r="D24">
-        <v>117.45699999999999</v>
+        <v>118.2764</v>
       </c>
       <c r="E24">
-        <v>38.839399999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34.981699999999996</v>
+      </c>
+      <c r="F24">
+        <v>5.19</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>320</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>321</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>299</v>
+        <v>58</v>
       </c>
       <c r="D25">
-        <v>117.401</v>
+        <v>118.4023</v>
       </c>
       <c r="E25">
-        <v>39.124000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35.089599999999997</v>
+      </c>
+      <c r="F25">
+        <v>5.19</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>322</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>323</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>299</v>
+        <v>88</v>
       </c>
       <c r="D26">
-        <v>117.764</v>
+        <v>117.8477</v>
       </c>
       <c r="E26">
-        <v>39.158700000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.497</v>
+      </c>
+      <c r="F26">
+        <v>5.19</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>325</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>299</v>
+        <v>101</v>
       </c>
       <c r="D27">
-        <v>117.157</v>
+        <v>117.45180000000001</v>
       </c>
       <c r="E27">
-        <v>38.919400000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35.099200000000003</v>
+      </c>
+      <c r="F27">
+        <v>5.19</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>114.45480000000001</v>
+        <v>119.12</v>
       </c>
       <c r="E28">
-        <v>38.051299999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.701900000000002</v>
+      </c>
+      <c r="F28">
+        <v>5.19</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>114.6046</v>
+        <v>119.0919</v>
       </c>
       <c r="E29">
-        <v>38.0398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.730600000000003</v>
+      </c>
+      <c r="F29">
+        <v>5.19</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>114.50190000000001</v>
+        <v>119.1425</v>
       </c>
       <c r="E30">
-        <v>38.139800000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.700800000000001</v>
+      </c>
+      <c r="F30">
+        <v>5.19</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>114.4586111</v>
+        <v>119.1614</v>
       </c>
       <c r="E31">
-        <v>38.005833330000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.657200000000003</v>
+      </c>
+      <c r="F31">
+        <v>5.19</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>114.5330556</v>
+        <v>119.1939</v>
       </c>
       <c r="E32">
-        <v>38.017777780000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.773099999999999</v>
+      </c>
+      <c r="F32">
+        <v>5.19</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D33">
-        <v>114.5214</v>
+        <v>119.4641</v>
       </c>
       <c r="E33">
-        <v>38.052399999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35.4178</v>
+      </c>
+      <c r="F33">
+        <v>5.19</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="D34">
-        <v>114.8985</v>
+        <v>119.5198</v>
       </c>
       <c r="E34">
-        <v>40.8367</v>
+        <v>35.423400000000001</v>
       </c>
       <c r="F34">
         <v>5.19</v>
@@ -1984,25 +2496,22 @@
       <c r="G34" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="D35">
-        <v>114.892</v>
+        <v>119.54</v>
       </c>
       <c r="E35">
-        <v>40.794809999999998</v>
+        <v>35.3962</v>
       </c>
       <c r="F35">
         <v>5.19</v>
@@ -2010,25 +2519,22 @@
       <c r="G35" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="D36">
-        <v>114.8814</v>
+        <v>122.1206</v>
       </c>
       <c r="E36">
-        <v>40.811500000000002</v>
+        <v>37.429400000000001</v>
       </c>
       <c r="F36">
         <v>5.19</v>
@@ -2036,25 +2542,22 @@
       <c r="G36" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="B37" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="D37">
-        <v>114.9032</v>
+        <v>115.42277</v>
       </c>
       <c r="E37">
-        <v>40.768799999999999</v>
+        <v>35.248888999999998</v>
       </c>
       <c r="F37">
         <v>5.19</v>
@@ -2062,25 +2565,22 @@
       <c r="G37" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="B38" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="D38">
-        <v>114.904</v>
+        <v>115.474722</v>
       </c>
       <c r="E38">
-        <v>40.872500000000002</v>
+        <v>35.237499999999997</v>
       </c>
       <c r="F38">
         <v>5.19</v>
@@ -2088,940 +2588,28 @@
       <c r="G38" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="D39">
-        <v>117.96639999999999</v>
+        <v>115.455</v>
       </c>
       <c r="E39">
-        <v>40.9161</v>
+        <v>35.270000000000003</v>
       </c>
       <c r="F39">
         <v>5.19</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>238</v>
-      </c>
-      <c r="B40" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40">
-        <v>117.9525</v>
-      </c>
-      <c r="E40">
-        <v>40.984299999999998</v>
-      </c>
-      <c r="F40">
-        <v>5.19</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>240</v>
-      </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" t="s">
-        <v>237</v>
-      </c>
-      <c r="D41">
-        <v>117.96299999999999</v>
-      </c>
-      <c r="E41">
-        <v>40.935899999999997</v>
-      </c>
-      <c r="F41">
-        <v>5.19</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>241</v>
-      </c>
-      <c r="B42" t="s">
-        <v>242</v>
-      </c>
-      <c r="C42" t="s">
-        <v>237</v>
-      </c>
-      <c r="D42">
-        <v>117.8184</v>
-      </c>
-      <c r="E42">
-        <v>40.973300000000002</v>
-      </c>
-      <c r="F42">
-        <v>5.19</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>243</v>
-      </c>
-      <c r="B43" t="s">
-        <v>244</v>
-      </c>
-      <c r="C43" t="s">
-        <v>237</v>
-      </c>
-      <c r="D43">
-        <v>117.9384</v>
-      </c>
-      <c r="E43">
-        <v>41.011200000000002</v>
-      </c>
-      <c r="F43">
-        <v>5.19</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>253</v>
-      </c>
-      <c r="B44" t="s">
-        <v>254</v>
-      </c>
-      <c r="C44" t="s">
-        <v>255</v>
-      </c>
-      <c r="D44">
-        <v>116.8854</v>
-      </c>
-      <c r="E44">
-        <v>38.299100000000003</v>
-      </c>
-      <c r="F44">
-        <v>5.19</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>256</v>
-      </c>
-      <c r="B45" t="s">
-        <v>257</v>
-      </c>
-      <c r="C45" t="s">
-        <v>255</v>
-      </c>
-      <c r="D45">
-        <v>116.8584</v>
-      </c>
-      <c r="E45">
-        <v>38.325400000000002</v>
-      </c>
-      <c r="F45">
-        <v>5.19</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>264</v>
-      </c>
-      <c r="B46" t="s">
-        <v>265</v>
-      </c>
-      <c r="C46" t="s">
-        <v>266</v>
-      </c>
-      <c r="D46">
-        <v>114.4821</v>
-      </c>
-      <c r="E46">
-        <v>37.096699999999998</v>
-      </c>
-      <c r="F46">
-        <v>5.19</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>267</v>
-      </c>
-      <c r="B47" t="s">
-        <v>268</v>
-      </c>
-      <c r="C47" t="s">
-        <v>266</v>
-      </c>
-      <c r="D47">
-        <v>114.5261</v>
-      </c>
-      <c r="E47">
-        <v>37.0533</v>
-      </c>
-      <c r="F47">
-        <v>5.19</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>269</v>
-      </c>
-      <c r="B48" t="s">
-        <v>270</v>
-      </c>
-      <c r="C48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D48">
-        <v>114.5331</v>
-      </c>
-      <c r="E48">
-        <v>37.096400000000003</v>
-      </c>
-      <c r="F48">
-        <v>5.19</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" t="s">
-        <v>266</v>
-      </c>
-      <c r="D49">
-        <v>114.4854</v>
-      </c>
-      <c r="E49">
-        <v>37.061999999999998</v>
-      </c>
-      <c r="F49">
-        <v>5.19</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50">
-        <v>116.988</v>
-      </c>
-      <c r="E50">
-        <v>36.611400000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51">
-        <v>116.93</v>
-      </c>
-      <c r="E51">
-        <v>36.67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52">
-        <v>117.114</v>
-      </c>
-      <c r="E52">
-        <v>36.673900000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53">
-        <v>116.989</v>
-      </c>
-      <c r="E53">
-        <v>36.687199999999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54">
-        <v>117.0684</v>
-      </c>
-      <c r="E54">
-        <v>36.686799999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55">
-        <v>116.943</v>
-      </c>
-      <c r="E55">
-        <v>36.648899999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56">
-        <v>117.04900000000001</v>
-      </c>
-      <c r="E56">
-        <v>36.662199999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57">
-        <v>116.73399999999999</v>
-      </c>
-      <c r="E57">
-        <v>36.5336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58">
-        <v>120.66589999999999</v>
-      </c>
-      <c r="E58">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59">
-        <v>120.3905</v>
-      </c>
-      <c r="E59">
-        <v>36.185099999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60">
-        <v>120.3471</v>
-      </c>
-      <c r="E60">
-        <v>36.069899999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61">
-        <v>120.4134</v>
-      </c>
-      <c r="E61">
-        <v>36.065399999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62">
-        <v>120.3664</v>
-      </c>
-      <c r="E62">
-        <v>36.103200000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63">
-        <v>120.2992</v>
-      </c>
-      <c r="E63">
-        <v>36.054299999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64">
-        <v>120.45869999999999</v>
-      </c>
-      <c r="E64">
-        <v>36.085099999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65">
-        <v>120.1964</v>
-      </c>
-      <c r="E65">
-        <v>36.308300000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="E66">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67">
-        <v>117.685</v>
-      </c>
-      <c r="E67">
-        <v>36.204999999999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68">
-        <v>117.6789</v>
-      </c>
-      <c r="E68">
-        <v>36.228900000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" t="s">
-        <v>55</v>
-      </c>
-      <c r="C69" t="s">
-        <v>51</v>
-      </c>
-      <c r="D69">
-        <v>117.715</v>
-      </c>
-      <c r="E69">
-        <v>36.208100000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E70">
-        <v>35.057299999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>59</v>
-      </c>
-      <c r="B71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E71">
-        <v>35.062199999999997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>61</v>
-      </c>
-      <c r="B72" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72">
-        <v>118.2764</v>
-      </c>
-      <c r="E72">
-        <v>34.981699999999996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73">
-        <v>118.4023</v>
-      </c>
-      <c r="E73">
-        <v>35.089599999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74">
-        <v>117.8477</v>
-      </c>
-      <c r="E74">
-        <v>36.497</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75">
-        <v>117.45180000000001</v>
-      </c>
-      <c r="E75">
-        <v>35.099200000000003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76">
-        <v>119.12</v>
-      </c>
-      <c r="E76">
-        <v>36.701900000000002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77">
-        <v>119.0919</v>
-      </c>
-      <c r="E77">
-        <v>36.730600000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>126</v>
-      </c>
-      <c r="B78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78">
-        <v>119.1425</v>
-      </c>
-      <c r="E78">
-        <v>36.700800000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79">
-        <v>119.1614</v>
-      </c>
-      <c r="E79">
-        <v>36.657200000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80">
-        <v>119.1939</v>
-      </c>
-      <c r="E80">
-        <v>36.773099999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>138</v>
-      </c>
-      <c r="B81" t="s">
-        <v>129</v>
-      </c>
-      <c r="C81" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81">
-        <v>119.4641</v>
-      </c>
-      <c r="E81">
-        <v>35.4178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" t="s">
-        <v>141</v>
-      </c>
-      <c r="C82" t="s">
-        <v>139</v>
-      </c>
-      <c r="D82">
-        <v>119.5198</v>
-      </c>
-      <c r="E82">
-        <v>35.423400000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>142</v>
-      </c>
-      <c r="B83" t="s">
-        <v>143</v>
-      </c>
-      <c r="C83" t="s">
-        <v>139</v>
-      </c>
-      <c r="D83">
-        <v>119.54</v>
-      </c>
-      <c r="E83">
-        <v>35.3962</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>144</v>
-      </c>
-      <c r="B84" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84" t="s">
-        <v>146</v>
-      </c>
-      <c r="D84">
-        <v>122.1206</v>
-      </c>
-      <c r="E84">
-        <v>37.429400000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>158</v>
-      </c>
-      <c r="B85" t="s">
-        <v>159</v>
-      </c>
-      <c r="C85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D85">
-        <v>115.42277</v>
-      </c>
-      <c r="E85">
-        <v>35.248888999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>161</v>
-      </c>
-      <c r="B86" t="s">
-        <v>162</v>
-      </c>
-      <c r="C86" t="s">
-        <v>160</v>
-      </c>
-      <c r="D86">
-        <v>115.474722</v>
-      </c>
-      <c r="E86">
-        <v>35.237499999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>163</v>
-      </c>
-      <c r="B87" t="s">
-        <v>164</v>
-      </c>
-      <c r="C87" t="s">
-        <v>160</v>
-      </c>
-      <c r="D87">
-        <v>115.455</v>
-      </c>
-      <c r="E87">
-        <v>35.270000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -3030,8 +2618,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4712,8 +4300,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -5887,8 +5475,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8509,7 +8097,1655 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A76644-5F86-4776-A293-540939F77A3D}">
+  <dimension ref="A1:H87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection sqref="A1:H87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2">
+        <v>116.366</v>
+      </c>
+      <c r="E2">
+        <v>39.8673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3">
+        <v>116.17</v>
+      </c>
+      <c r="E3">
+        <v>40.286499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4">
+        <v>116.434</v>
+      </c>
+      <c r="E4">
+        <v>39.952199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5">
+        <v>116.434</v>
+      </c>
+      <c r="E5">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6">
+        <v>116.473</v>
+      </c>
+      <c r="E6">
+        <v>39.971600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7">
+        <v>116.361</v>
+      </c>
+      <c r="E7">
+        <v>39.942500000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8">
+        <v>116.315</v>
+      </c>
+      <c r="E8">
+        <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9">
+        <v>116.72</v>
+      </c>
+      <c r="E9">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E10">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11">
+        <v>116.23</v>
+      </c>
+      <c r="E11">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12">
+        <v>116.407</v>
+      </c>
+      <c r="E12">
+        <v>40.003100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E13">
+        <v>39.927900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14">
+        <v>117.151</v>
+      </c>
+      <c r="E14">
+        <v>39.097000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15">
+        <v>117.193</v>
+      </c>
+      <c r="E15">
+        <v>39.173000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16">
+        <v>117.145</v>
+      </c>
+      <c r="E16">
+        <v>39.165399999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17">
+        <v>117.184</v>
+      </c>
+      <c r="E17">
+        <v>39.1205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E18">
+        <v>39.108199999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19">
+        <v>117.202</v>
+      </c>
+      <c r="E19">
+        <v>39.092700000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20">
+        <v>117.1837</v>
+      </c>
+      <c r="E20">
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21">
+        <v>117.26900000000001</v>
+      </c>
+      <c r="E21">
+        <v>39.133699999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22">
+        <v>117.307</v>
+      </c>
+      <c r="E22">
+        <v>39.087699999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23">
+        <v>117.70699999999999</v>
+      </c>
+      <c r="E23">
+        <v>39.034300000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" t="s">
+        <v>319</v>
+      </c>
+      <c r="C24" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="E24">
+        <v>38.839399999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D25">
+        <v>117.401</v>
+      </c>
+      <c r="E25">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" t="s">
+        <v>323</v>
+      </c>
+      <c r="C26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26">
+        <v>117.764</v>
+      </c>
+      <c r="E26">
+        <v>39.158700000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27">
+        <v>117.157</v>
+      </c>
+      <c r="E27">
+        <v>38.919400000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28">
+        <v>114.45480000000001</v>
+      </c>
+      <c r="E28">
+        <v>38.051299999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29">
+        <v>114.6046</v>
+      </c>
+      <c r="E29">
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E30">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31">
+        <v>114.4586111</v>
+      </c>
+      <c r="E31">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32">
+        <v>114.5330556</v>
+      </c>
+      <c r="E32">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33">
+        <v>114.5214</v>
+      </c>
+      <c r="E33">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34">
+        <v>114.8985</v>
+      </c>
+      <c r="E34">
+        <v>40.8367</v>
+      </c>
+      <c r="F34">
+        <v>5.19</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35">
+        <v>114.892</v>
+      </c>
+      <c r="E35">
+        <v>40.794809999999998</v>
+      </c>
+      <c r="F35">
+        <v>5.19</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36">
+        <v>114.8814</v>
+      </c>
+      <c r="E36">
+        <v>40.811500000000002</v>
+      </c>
+      <c r="F36">
+        <v>5.19</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37">
+        <v>114.9032</v>
+      </c>
+      <c r="E37">
+        <v>40.768799999999999</v>
+      </c>
+      <c r="F37">
+        <v>5.19</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38">
+        <v>114.904</v>
+      </c>
+      <c r="E38">
+        <v>40.872500000000002</v>
+      </c>
+      <c r="F38">
+        <v>5.19</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39">
+        <v>117.96639999999999</v>
+      </c>
+      <c r="E39">
+        <v>40.9161</v>
+      </c>
+      <c r="F39">
+        <v>5.19</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40">
+        <v>117.9525</v>
+      </c>
+      <c r="E40">
+        <v>40.984299999999998</v>
+      </c>
+      <c r="F40">
+        <v>5.19</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>237</v>
+      </c>
+      <c r="D41">
+        <v>117.96299999999999</v>
+      </c>
+      <c r="E41">
+        <v>40.935899999999997</v>
+      </c>
+      <c r="F41">
+        <v>5.19</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42">
+        <v>117.8184</v>
+      </c>
+      <c r="E42">
+        <v>40.973300000000002</v>
+      </c>
+      <c r="F42">
+        <v>5.19</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" t="s">
+        <v>237</v>
+      </c>
+      <c r="D43">
+        <v>117.9384</v>
+      </c>
+      <c r="E43">
+        <v>41.011200000000002</v>
+      </c>
+      <c r="F43">
+        <v>5.19</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" t="s">
+        <v>254</v>
+      </c>
+      <c r="C44" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44">
+        <v>116.8854</v>
+      </c>
+      <c r="E44">
+        <v>38.299100000000003</v>
+      </c>
+      <c r="F44">
+        <v>5.19</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45">
+        <v>116.8584</v>
+      </c>
+      <c r="E45">
+        <v>38.325400000000002</v>
+      </c>
+      <c r="F45">
+        <v>5.19</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46">
+        <v>114.4821</v>
+      </c>
+      <c r="E46">
+        <v>37.096699999999998</v>
+      </c>
+      <c r="F46">
+        <v>5.19</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B47" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47">
+        <v>114.5261</v>
+      </c>
+      <c r="E47">
+        <v>37.0533</v>
+      </c>
+      <c r="F47">
+        <v>5.19</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48">
+        <v>114.5331</v>
+      </c>
+      <c r="E48">
+        <v>37.096400000000003</v>
+      </c>
+      <c r="F48">
+        <v>5.19</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>271</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49">
+        <v>114.4854</v>
+      </c>
+      <c r="E49">
+        <v>37.061999999999998</v>
+      </c>
+      <c r="F49">
+        <v>5.19</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>116.988</v>
+      </c>
+      <c r="E50">
+        <v>36.611400000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>116.93</v>
+      </c>
+      <c r="E51">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>117.114</v>
+      </c>
+      <c r="E52">
+        <v>36.673900000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>116.989</v>
+      </c>
+      <c r="E53">
+        <v>36.687199999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>117.0684</v>
+      </c>
+      <c r="E54">
+        <v>36.686799999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>116.943</v>
+      </c>
+      <c r="E55">
+        <v>36.648899999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>117.04900000000001</v>
+      </c>
+      <c r="E56">
+        <v>36.662199999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>116.73399999999999</v>
+      </c>
+      <c r="E57">
+        <v>36.5336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58">
+        <v>120.66589999999999</v>
+      </c>
+      <c r="E58">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59">
+        <v>120.3905</v>
+      </c>
+      <c r="E59">
+        <v>36.185099999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60">
+        <v>120.3471</v>
+      </c>
+      <c r="E60">
+        <v>36.069899999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61">
+        <v>120.4134</v>
+      </c>
+      <c r="E61">
+        <v>36.065399999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62">
+        <v>120.3664</v>
+      </c>
+      <c r="E62">
+        <v>36.103200000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63">
+        <v>120.2992</v>
+      </c>
+      <c r="E63">
+        <v>36.054299999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64">
+        <v>120.45869999999999</v>
+      </c>
+      <c r="E64">
+        <v>36.085099999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65">
+        <v>120.1964</v>
+      </c>
+      <c r="E65">
+        <v>36.308300000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66">
+        <v>120.40009999999999</v>
+      </c>
+      <c r="E66">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67">
+        <v>117.685</v>
+      </c>
+      <c r="E67">
+        <v>36.204999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68">
+        <v>117.6789</v>
+      </c>
+      <c r="E68">
+        <v>36.228900000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69">
+        <v>117.715</v>
+      </c>
+      <c r="E69">
+        <v>36.208100000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70">
+        <v>118.34180000000001</v>
+      </c>
+      <c r="E70">
+        <v>35.057299999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71">
+        <v>118.29389999999999</v>
+      </c>
+      <c r="E71">
+        <v>35.062199999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72">
+        <v>118.2764</v>
+      </c>
+      <c r="E72">
+        <v>34.981699999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73">
+        <v>118.4023</v>
+      </c>
+      <c r="E73">
+        <v>35.089599999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74">
+        <v>117.8477</v>
+      </c>
+      <c r="E74">
+        <v>36.497</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75">
+        <v>117.45180000000001</v>
+      </c>
+      <c r="E75">
+        <v>35.099200000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>119.12</v>
+      </c>
+      <c r="E76">
+        <v>36.701900000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>119.0919</v>
+      </c>
+      <c r="E77">
+        <v>36.730600000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>119.1425</v>
+      </c>
+      <c r="E78">
+        <v>36.700800000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>119.1614</v>
+      </c>
+      <c r="E79">
+        <v>36.657200000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>119.1939</v>
+      </c>
+      <c r="E80">
+        <v>36.773099999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81">
+        <v>119.4641</v>
+      </c>
+      <c r="E81">
+        <v>35.4178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82">
+        <v>119.5198</v>
+      </c>
+      <c r="E82">
+        <v>35.423400000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83">
+        <v>119.54</v>
+      </c>
+      <c r="E83">
+        <v>35.3962</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" t="s">
+        <v>146</v>
+      </c>
+      <c r="D84">
+        <v>122.1206</v>
+      </c>
+      <c r="E84">
+        <v>37.429400000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" t="s">
+        <v>160</v>
+      </c>
+      <c r="D85">
+        <v>115.42277</v>
+      </c>
+      <c r="E85">
+        <v>35.248888999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86">
+        <v>115.474722</v>
+      </c>
+      <c r="E86">
+        <v>35.237499999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87">
+        <v>115.455</v>
+      </c>
+      <c r="E87">
+        <v>35.270000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8788,8 +10024,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9034,8 +10270,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9424,8 +10660,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
@@ -10041,8 +11277,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10315,8 +11551,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10643,8 +11879,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11204,963 +12440,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="A2:E39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>116.988</v>
-      </c>
-      <c r="E2">
-        <v>36.611400000000003</v>
-      </c>
-      <c r="F2">
-        <v>5.19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>116.93</v>
-      </c>
-      <c r="E3">
-        <v>36.67</v>
-      </c>
-      <c r="F3">
-        <v>5.19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>117.114</v>
-      </c>
-      <c r="E4">
-        <v>36.673900000000003</v>
-      </c>
-      <c r="F4">
-        <v>5.19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>116.989</v>
-      </c>
-      <c r="E5">
-        <v>36.687199999999997</v>
-      </c>
-      <c r="F5">
-        <v>5.19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>117.0684</v>
-      </c>
-      <c r="E6">
-        <v>36.686799999999998</v>
-      </c>
-      <c r="F6">
-        <v>5.19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>116.943</v>
-      </c>
-      <c r="E7">
-        <v>36.648899999999998</v>
-      </c>
-      <c r="F7">
-        <v>5.19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>117.04900000000001</v>
-      </c>
-      <c r="E8">
-        <v>36.662199999999999</v>
-      </c>
-      <c r="F8">
-        <v>5.19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>116.73399999999999</v>
-      </c>
-      <c r="E9">
-        <v>36.5336</v>
-      </c>
-      <c r="F9">
-        <v>5.19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10">
-        <v>120.66589999999999</v>
-      </c>
-      <c r="E10">
-        <v>36.240299999999998</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>120.3905</v>
-      </c>
-      <c r="E11">
-        <v>36.185099999999998</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
-        <v>120.3471</v>
-      </c>
-      <c r="E12">
-        <v>36.069899999999997</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
-        <v>120.4134</v>
-      </c>
-      <c r="E13">
-        <v>36.065399999999997</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>120.3664</v>
-      </c>
-      <c r="E14">
-        <v>36.103200000000001</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15">
-        <v>120.2992</v>
-      </c>
-      <c r="E15">
-        <v>36.054299999999998</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>120.45869999999999</v>
-      </c>
-      <c r="E16">
-        <v>36.085099999999997</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>120.1964</v>
-      </c>
-      <c r="E17">
-        <v>36.308300000000003</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="E18">
-        <v>36.240299999999998</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19">
-        <v>117.685</v>
-      </c>
-      <c r="E19">
-        <v>36.204999999999998</v>
-      </c>
-      <c r="F19">
-        <v>5.19</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20">
-        <v>117.6789</v>
-      </c>
-      <c r="E20">
-        <v>36.228900000000003</v>
-      </c>
-      <c r="F20">
-        <v>5.19</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21">
-        <v>117.715</v>
-      </c>
-      <c r="E21">
-        <v>36.208100000000002</v>
-      </c>
-      <c r="F21">
-        <v>5.19</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E22">
-        <v>35.057299999999998</v>
-      </c>
-      <c r="F22">
-        <v>5.19</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E23">
-        <v>35.062199999999997</v>
-      </c>
-      <c r="F23">
-        <v>5.19</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24">
-        <v>118.2764</v>
-      </c>
-      <c r="E24">
-        <v>34.981699999999996</v>
-      </c>
-      <c r="F24">
-        <v>5.19</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25">
-        <v>118.4023</v>
-      </c>
-      <c r="E25">
-        <v>35.089599999999997</v>
-      </c>
-      <c r="F25">
-        <v>5.19</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26">
-        <v>117.8477</v>
-      </c>
-      <c r="E26">
-        <v>36.497</v>
-      </c>
-      <c r="F26">
-        <v>5.19</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27">
-        <v>117.45180000000001</v>
-      </c>
-      <c r="E27">
-        <v>35.099200000000003</v>
-      </c>
-      <c r="F27">
-        <v>5.19</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>119.12</v>
-      </c>
-      <c r="E28">
-        <v>36.701900000000002</v>
-      </c>
-      <c r="F28">
-        <v>5.19</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29">
-        <v>119.0919</v>
-      </c>
-      <c r="E29">
-        <v>36.730600000000003</v>
-      </c>
-      <c r="F29">
-        <v>5.19</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>119.1425</v>
-      </c>
-      <c r="E30">
-        <v>36.700800000000001</v>
-      </c>
-      <c r="F30">
-        <v>5.19</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>119.1614</v>
-      </c>
-      <c r="E31">
-        <v>36.657200000000003</v>
-      </c>
-      <c r="F31">
-        <v>5.19</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32">
-        <v>119.1939</v>
-      </c>
-      <c r="E32">
-        <v>36.773099999999999</v>
-      </c>
-      <c r="F32">
-        <v>5.19</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33">
-        <v>119.4641</v>
-      </c>
-      <c r="E33">
-        <v>35.4178</v>
-      </c>
-      <c r="F33">
-        <v>5.19</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D34">
-        <v>119.5198</v>
-      </c>
-      <c r="E34">
-        <v>35.423400000000001</v>
-      </c>
-      <c r="F34">
-        <v>5.19</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35">
-        <v>119.54</v>
-      </c>
-      <c r="E35">
-        <v>35.3962</v>
-      </c>
-      <c r="F35">
-        <v>5.19</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36">
-        <v>122.1206</v>
-      </c>
-      <c r="E36">
-        <v>37.429400000000001</v>
-      </c>
-      <c r="F36">
-        <v>5.19</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>158</v>
-      </c>
-      <c r="B37" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37">
-        <v>115.42277</v>
-      </c>
-      <c r="E37">
-        <v>35.248888999999998</v>
-      </c>
-      <c r="F37">
-        <v>5.19</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38">
-        <v>115.474722</v>
-      </c>
-      <c r="E38">
-        <v>35.237499999999997</v>
-      </c>
-      <c r="F38">
-        <v>5.19</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39">
-        <v>115.455</v>
-      </c>
-      <c r="E39">
-        <v>35.270000000000003</v>
-      </c>
-      <c r="F39">
-        <v>5.19</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7D00CE-E6A4-442E-B5B7-58D1E97E5DE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CB7411-3364-4FD1-84CF-2F3AAEF7A3CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="测试" sheetId="10" r:id="rId1"/>
-    <sheet name="可用86市汇总" sheetId="14" r:id="rId2"/>
-    <sheet name="天津" sheetId="3" r:id="rId3"/>
-    <sheet name="北京" sheetId="2" r:id="rId4"/>
-    <sheet name="山东 2" sheetId="8" r:id="rId5"/>
-    <sheet name="山东1" sheetId="7" r:id="rId6"/>
-    <sheet name="河北1" sheetId="11" r:id="rId7"/>
-    <sheet name="河北2" sheetId="12" r:id="rId8"/>
+    <sheet name="河北2" sheetId="12" r:id="rId1"/>
+    <sheet name="河北1" sheetId="11" r:id="rId2"/>
+    <sheet name="山东 2" sheetId="8" r:id="rId3"/>
+    <sheet name="山东1" sheetId="7" r:id="rId4"/>
+    <sheet name="天津" sheetId="3" r:id="rId5"/>
+    <sheet name="北京" sheetId="2" r:id="rId6"/>
+    <sheet name="可用86市汇总" sheetId="14" r:id="rId7"/>
+    <sheet name="测试" sheetId="10" r:id="rId8"/>
     <sheet name="河北2013" sheetId="13" r:id="rId9"/>
     <sheet name="山东2013" sheetId="9" r:id="rId10"/>
     <sheet name="山东" sheetId="5" r:id="rId11"/>
@@ -1385,19 +1385,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="A12" sqref="A2:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1413,249 +1410,305 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="D2">
-        <v>117.8477</v>
+        <v>117.96639999999999</v>
       </c>
       <c r="E2">
-        <v>36.497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.9161</v>
+      </c>
+      <c r="F2">
+        <v>5.19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>237</v>
       </c>
       <c r="D3">
-        <v>117.45180000000001</v>
+        <v>117.9525</v>
       </c>
       <c r="E3">
-        <v>35.099200000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.984299999999998</v>
+      </c>
+      <c r="F3">
+        <v>5.19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="D4">
-        <v>119.12</v>
+        <v>117.96299999999999</v>
       </c>
       <c r="E4">
-        <v>36.701900000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.935899999999997</v>
+      </c>
+      <c r="F4">
+        <v>5.19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="D5">
-        <v>119.0919</v>
+        <v>117.8184</v>
       </c>
       <c r="E5">
-        <v>36.730600000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.973300000000002</v>
+      </c>
+      <c r="F5">
+        <v>5.19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="D6">
-        <v>119.1425</v>
+        <v>117.9384</v>
       </c>
       <c r="E6">
-        <v>36.700800000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41.011200000000002</v>
+      </c>
+      <c r="F6">
+        <v>5.19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="D7">
-        <v>119.1614</v>
+        <v>116.8854</v>
       </c>
       <c r="E7">
-        <v>36.657200000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.299100000000003</v>
+      </c>
+      <c r="F7">
+        <v>5.19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>257</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="D8">
-        <v>119.1939</v>
+        <v>116.8584</v>
       </c>
       <c r="E8">
-        <v>36.773099999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.325400000000002</v>
+      </c>
+      <c r="F8">
+        <v>5.19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="D9">
-        <v>119.4641</v>
+        <v>114.4821</v>
       </c>
       <c r="E9">
-        <v>35.4178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37.096699999999998</v>
+      </c>
+      <c r="F9">
+        <v>5.19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>267</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>268</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="D10">
-        <v>119.5198</v>
+        <v>114.5261</v>
       </c>
       <c r="E10">
-        <v>35.423400000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37.0533</v>
+      </c>
+      <c r="F10">
+        <v>5.19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>270</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="D11">
-        <v>119.54</v>
+        <v>114.5331</v>
       </c>
       <c r="E11">
-        <v>35.3962</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37.096400000000003</v>
+      </c>
+      <c r="F11">
+        <v>5.19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="D12">
-        <v>122.1206</v>
+        <v>114.4854</v>
       </c>
       <c r="E12">
-        <v>37.429400000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13">
-        <v>115.42277</v>
-      </c>
-      <c r="E13">
-        <v>35.248888999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14">
-        <v>115.474722</v>
-      </c>
-      <c r="E14">
-        <v>35.237499999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15">
-        <v>115.455</v>
-      </c>
-      <c r="E15">
-        <v>35.270000000000003</v>
+        <v>37.061999999999998</v>
+      </c>
+      <c r="F12">
+        <v>5.19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8097,19 +8150,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A76644-5F86-4776-A293-540939F77A3D}">
-  <dimension ref="A1:H87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection sqref="A1:H87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8126,2151 +8176,254 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D2">
-        <v>116.366</v>
+        <v>114.45480000000001</v>
       </c>
       <c r="E2">
-        <v>39.8673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38.051299999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D3">
-        <v>116.17</v>
+        <v>114.6046</v>
       </c>
       <c r="E3">
-        <v>40.286499999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D4">
-        <v>116.434</v>
+        <v>114.50190000000001</v>
       </c>
       <c r="E4">
-        <v>39.952199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D5">
-        <v>116.434</v>
+        <v>114.4586111</v>
       </c>
       <c r="E5">
-        <v>39.874499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D6">
-        <v>116.473</v>
+        <v>114.5330556</v>
       </c>
       <c r="E6">
-        <v>39.971600000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D7">
-        <v>116.361</v>
+        <v>114.5214</v>
       </c>
       <c r="E7">
-        <v>39.942500000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="D8">
-        <v>116.315</v>
+        <v>114.8985</v>
       </c>
       <c r="E8">
-        <v>39.993400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40.8367</v>
+      </c>
+      <c r="F8">
+        <v>5.19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="D9">
-        <v>116.72</v>
+        <v>114.892</v>
       </c>
       <c r="E9">
-        <v>40.143799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40.794809999999998</v>
+      </c>
+      <c r="F9">
+        <v>5.19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="D10">
-        <v>116.64400000000001</v>
+        <v>114.8814</v>
       </c>
       <c r="E10">
-        <v>40.393700000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40.811500000000002</v>
+      </c>
+      <c r="F10">
+        <v>5.19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="D11">
-        <v>116.23</v>
+        <v>114.9032</v>
       </c>
       <c r="E11">
-        <v>40.1952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40.768799999999999</v>
+      </c>
+      <c r="F11">
+        <v>5.19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="D12">
-        <v>116.407</v>
+        <v>114.904</v>
       </c>
       <c r="E12">
-        <v>40.003100000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13">
-        <v>116.22499999999999</v>
-      </c>
-      <c r="E13">
-        <v>39.927900000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>297</v>
-      </c>
-      <c r="B14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14">
-        <v>117.151</v>
-      </c>
-      <c r="E14">
-        <v>39.097000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C15" t="s">
-        <v>299</v>
-      </c>
-      <c r="D15">
-        <v>117.193</v>
-      </c>
-      <c r="E15">
-        <v>39.173000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>302</v>
-      </c>
-      <c r="B16" t="s">
-        <v>303</v>
-      </c>
-      <c r="C16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D16">
-        <v>117.145</v>
-      </c>
-      <c r="E16">
-        <v>39.165399999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>304</v>
-      </c>
-      <c r="B17" t="s">
-        <v>305</v>
-      </c>
-      <c r="C17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D17">
-        <v>117.184</v>
-      </c>
-      <c r="E17">
-        <v>39.1205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18" t="s">
-        <v>307</v>
-      </c>
-      <c r="C18" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18">
-        <v>117.23699999999999</v>
-      </c>
-      <c r="E18">
-        <v>39.108199999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>308</v>
-      </c>
-      <c r="B19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C19" t="s">
-        <v>299</v>
-      </c>
-      <c r="D19">
-        <v>117.202</v>
-      </c>
-      <c r="E19">
-        <v>39.092700000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>310</v>
-      </c>
-      <c r="B20" t="s">
-        <v>311</v>
-      </c>
-      <c r="C20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D20">
-        <v>117.1837</v>
-      </c>
-      <c r="E20">
-        <v>39.213299999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21" t="s">
-        <v>313</v>
-      </c>
-      <c r="C21" t="s">
-        <v>299</v>
-      </c>
-      <c r="D21">
-        <v>117.26900000000001</v>
-      </c>
-      <c r="E21">
-        <v>39.133699999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>314</v>
-      </c>
-      <c r="B22" t="s">
-        <v>315</v>
-      </c>
-      <c r="C22" t="s">
-        <v>299</v>
-      </c>
-      <c r="D22">
-        <v>117.307</v>
-      </c>
-      <c r="E22">
-        <v>39.087699999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>316</v>
-      </c>
-      <c r="B23" t="s">
-        <v>317</v>
-      </c>
-      <c r="C23" t="s">
-        <v>299</v>
-      </c>
-      <c r="D23">
-        <v>117.70699999999999</v>
-      </c>
-      <c r="E23">
-        <v>39.034300000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>318</v>
-      </c>
-      <c r="B24" t="s">
-        <v>319</v>
-      </c>
-      <c r="C24" t="s">
-        <v>299</v>
-      </c>
-      <c r="D24">
-        <v>117.45699999999999</v>
-      </c>
-      <c r="E24">
-        <v>38.839399999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>320</v>
-      </c>
-      <c r="B25" t="s">
-        <v>321</v>
-      </c>
-      <c r="C25" t="s">
-        <v>299</v>
-      </c>
-      <c r="D25">
-        <v>117.401</v>
-      </c>
-      <c r="E25">
-        <v>39.124000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>322</v>
-      </c>
-      <c r="B26" t="s">
-        <v>323</v>
-      </c>
-      <c r="C26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D26">
-        <v>117.764</v>
-      </c>
-      <c r="E26">
-        <v>39.158700000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>324</v>
-      </c>
-      <c r="B27" t="s">
-        <v>325</v>
-      </c>
-      <c r="C27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D27">
-        <v>117.157</v>
-      </c>
-      <c r="E27">
-        <v>38.919400000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28">
-        <v>114.45480000000001</v>
-      </c>
-      <c r="E28">
-        <v>38.051299999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29">
-        <v>114.6046</v>
-      </c>
-      <c r="E29">
-        <v>38.0398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30">
-        <v>114.50190000000001</v>
-      </c>
-      <c r="E30">
-        <v>38.139800000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31">
-        <v>114.4586111</v>
-      </c>
-      <c r="E31">
-        <v>38.005833330000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32">
-        <v>114.5330556</v>
-      </c>
-      <c r="E32">
-        <v>38.017777780000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>178</v>
-      </c>
-      <c r="B33" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33">
-        <v>114.5214</v>
-      </c>
-      <c r="E33">
-        <v>38.052399999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>225</v>
-      </c>
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34">
-        <v>114.8985</v>
-      </c>
-      <c r="E34">
-        <v>40.8367</v>
-      </c>
-      <c r="F34">
-        <v>5.19</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>227</v>
-      </c>
-      <c r="B35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D35">
-        <v>114.892</v>
-      </c>
-      <c r="E35">
-        <v>40.794809999999998</v>
-      </c>
-      <c r="F35">
-        <v>5.19</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>229</v>
-      </c>
-      <c r="B36" t="s">
-        <v>230</v>
-      </c>
-      <c r="C36" t="s">
-        <v>226</v>
-      </c>
-      <c r="D36">
-        <v>114.8814</v>
-      </c>
-      <c r="E36">
-        <v>40.811500000000002</v>
-      </c>
-      <c r="F36">
-        <v>5.19</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>231</v>
-      </c>
-      <c r="B37" t="s">
-        <v>232</v>
-      </c>
-      <c r="C37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D37">
-        <v>114.9032</v>
-      </c>
-      <c r="E37">
-        <v>40.768799999999999</v>
-      </c>
-      <c r="F37">
-        <v>5.19</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>233</v>
-      </c>
-      <c r="B38" t="s">
-        <v>234</v>
-      </c>
-      <c r="C38" t="s">
-        <v>226</v>
-      </c>
-      <c r="D38">
-        <v>114.904</v>
-      </c>
-      <c r="E38">
         <v>40.872500000000002</v>
       </c>
-      <c r="F38">
-        <v>5.19</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>235</v>
-      </c>
-      <c r="B39" t="s">
-        <v>236</v>
-      </c>
-      <c r="C39" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39">
-        <v>117.96639999999999</v>
-      </c>
-      <c r="E39">
-        <v>40.9161</v>
-      </c>
-      <c r="F39">
-        <v>5.19</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>238</v>
-      </c>
-      <c r="B40" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40">
-        <v>117.9525</v>
-      </c>
-      <c r="E40">
-        <v>40.984299999999998</v>
-      </c>
-      <c r="F40">
-        <v>5.19</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>240</v>
-      </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" t="s">
-        <v>237</v>
-      </c>
-      <c r="D41">
-        <v>117.96299999999999</v>
-      </c>
-      <c r="E41">
-        <v>40.935899999999997</v>
-      </c>
-      <c r="F41">
-        <v>5.19</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>241</v>
-      </c>
-      <c r="B42" t="s">
-        <v>242</v>
-      </c>
-      <c r="C42" t="s">
-        <v>237</v>
-      </c>
-      <c r="D42">
-        <v>117.8184</v>
-      </c>
-      <c r="E42">
-        <v>40.973300000000002</v>
-      </c>
-      <c r="F42">
-        <v>5.19</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>243</v>
-      </c>
-      <c r="B43" t="s">
-        <v>244</v>
-      </c>
-      <c r="C43" t="s">
-        <v>237</v>
-      </c>
-      <c r="D43">
-        <v>117.9384</v>
-      </c>
-      <c r="E43">
-        <v>41.011200000000002</v>
-      </c>
-      <c r="F43">
-        <v>5.19</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>253</v>
-      </c>
-      <c r="B44" t="s">
-        <v>254</v>
-      </c>
-      <c r="C44" t="s">
-        <v>255</v>
-      </c>
-      <c r="D44">
-        <v>116.8854</v>
-      </c>
-      <c r="E44">
-        <v>38.299100000000003</v>
-      </c>
-      <c r="F44">
-        <v>5.19</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>256</v>
-      </c>
-      <c r="B45" t="s">
-        <v>257</v>
-      </c>
-      <c r="C45" t="s">
-        <v>255</v>
-      </c>
-      <c r="D45">
-        <v>116.8584</v>
-      </c>
-      <c r="E45">
-        <v>38.325400000000002</v>
-      </c>
-      <c r="F45">
-        <v>5.19</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>264</v>
-      </c>
-      <c r="B46" t="s">
-        <v>265</v>
-      </c>
-      <c r="C46" t="s">
-        <v>266</v>
-      </c>
-      <c r="D46">
-        <v>114.4821</v>
-      </c>
-      <c r="E46">
-        <v>37.096699999999998</v>
-      </c>
-      <c r="F46">
-        <v>5.19</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>267</v>
-      </c>
-      <c r="B47" t="s">
-        <v>268</v>
-      </c>
-      <c r="C47" t="s">
-        <v>266</v>
-      </c>
-      <c r="D47">
-        <v>114.5261</v>
-      </c>
-      <c r="E47">
-        <v>37.0533</v>
-      </c>
-      <c r="F47">
-        <v>5.19</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>269</v>
-      </c>
-      <c r="B48" t="s">
-        <v>270</v>
-      </c>
-      <c r="C48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D48">
-        <v>114.5331</v>
-      </c>
-      <c r="E48">
-        <v>37.096400000000003</v>
-      </c>
-      <c r="F48">
-        <v>5.19</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" t="s">
-        <v>266</v>
-      </c>
-      <c r="D49">
-        <v>114.4854</v>
-      </c>
-      <c r="E49">
-        <v>37.061999999999998</v>
-      </c>
-      <c r="F49">
-        <v>5.19</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50">
-        <v>116.988</v>
-      </c>
-      <c r="E50">
-        <v>36.611400000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51">
-        <v>116.93</v>
-      </c>
-      <c r="E51">
-        <v>36.67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52">
-        <v>117.114</v>
-      </c>
-      <c r="E52">
-        <v>36.673900000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53">
-        <v>116.989</v>
-      </c>
-      <c r="E53">
-        <v>36.687199999999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54">
-        <v>117.0684</v>
-      </c>
-      <c r="E54">
-        <v>36.686799999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55">
-        <v>116.943</v>
-      </c>
-      <c r="E55">
-        <v>36.648899999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56">
-        <v>117.04900000000001</v>
-      </c>
-      <c r="E56">
-        <v>36.662199999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57">
-        <v>116.73399999999999</v>
-      </c>
-      <c r="E57">
-        <v>36.5336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58">
-        <v>120.66589999999999</v>
-      </c>
-      <c r="E58">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59">
-        <v>120.3905</v>
-      </c>
-      <c r="E59">
-        <v>36.185099999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60">
-        <v>120.3471</v>
-      </c>
-      <c r="E60">
-        <v>36.069899999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61">
-        <v>120.4134</v>
-      </c>
-      <c r="E61">
-        <v>36.065399999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62">
-        <v>120.3664</v>
-      </c>
-      <c r="E62">
-        <v>36.103200000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63">
-        <v>120.2992</v>
-      </c>
-      <c r="E63">
-        <v>36.054299999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64">
-        <v>120.45869999999999</v>
-      </c>
-      <c r="E64">
-        <v>36.085099999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65">
-        <v>120.1964</v>
-      </c>
-      <c r="E65">
-        <v>36.308300000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="E66">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67">
-        <v>117.685</v>
-      </c>
-      <c r="E67">
-        <v>36.204999999999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68">
-        <v>117.6789</v>
-      </c>
-      <c r="E68">
-        <v>36.228900000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" t="s">
-        <v>55</v>
-      </c>
-      <c r="C69" t="s">
-        <v>51</v>
-      </c>
-      <c r="D69">
-        <v>117.715</v>
-      </c>
-      <c r="E69">
-        <v>36.208100000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E70">
-        <v>35.057299999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>59</v>
-      </c>
-      <c r="B71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E71">
-        <v>35.062199999999997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>61</v>
-      </c>
-      <c r="B72" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72">
-        <v>118.2764</v>
-      </c>
-      <c r="E72">
-        <v>34.981699999999996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73">
-        <v>118.4023</v>
-      </c>
-      <c r="E73">
-        <v>35.089599999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74">
-        <v>117.8477</v>
-      </c>
-      <c r="E74">
-        <v>36.497</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75">
-        <v>117.45180000000001</v>
-      </c>
-      <c r="E75">
-        <v>35.099200000000003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76">
-        <v>119.12</v>
-      </c>
-      <c r="E76">
-        <v>36.701900000000002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77">
-        <v>119.0919</v>
-      </c>
-      <c r="E77">
-        <v>36.730600000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>126</v>
-      </c>
-      <c r="B78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78">
-        <v>119.1425</v>
-      </c>
-      <c r="E78">
-        <v>36.700800000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79">
-        <v>119.1614</v>
-      </c>
-      <c r="E79">
-        <v>36.657200000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80">
-        <v>119.1939</v>
-      </c>
-      <c r="E80">
-        <v>36.773099999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>138</v>
-      </c>
-      <c r="B81" t="s">
-        <v>129</v>
-      </c>
-      <c r="C81" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81">
-        <v>119.4641</v>
-      </c>
-      <c r="E81">
-        <v>35.4178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" t="s">
-        <v>141</v>
-      </c>
-      <c r="C82" t="s">
-        <v>139</v>
-      </c>
-      <c r="D82">
-        <v>119.5198</v>
-      </c>
-      <c r="E82">
-        <v>35.423400000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>142</v>
-      </c>
-      <c r="B83" t="s">
-        <v>143</v>
-      </c>
-      <c r="C83" t="s">
-        <v>139</v>
-      </c>
-      <c r="D83">
-        <v>119.54</v>
-      </c>
-      <c r="E83">
-        <v>35.3962</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>144</v>
-      </c>
-      <c r="B84" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84" t="s">
-        <v>146</v>
-      </c>
-      <c r="D84">
-        <v>122.1206</v>
-      </c>
-      <c r="E84">
-        <v>37.429400000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>158</v>
-      </c>
-      <c r="B85" t="s">
-        <v>159</v>
-      </c>
-      <c r="C85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D85">
-        <v>115.42277</v>
-      </c>
-      <c r="E85">
-        <v>35.248888999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>161</v>
-      </c>
-      <c r="B86" t="s">
-        <v>162</v>
-      </c>
-      <c r="C86" t="s">
-        <v>160</v>
-      </c>
-      <c r="D86">
-        <v>115.474722</v>
-      </c>
-      <c r="E86">
-        <v>35.237499999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>163</v>
-      </c>
-      <c r="B87" t="s">
-        <v>164</v>
-      </c>
-      <c r="C87" t="s">
-        <v>160</v>
-      </c>
-      <c r="D87">
-        <v>115.455</v>
-      </c>
-      <c r="E87">
-        <v>35.270000000000003</v>
+      <c r="F12">
+        <v>5.19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D2">
-        <v>117.151</v>
-      </c>
-      <c r="E2">
-        <v>39.097000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D3">
-        <v>117.193</v>
-      </c>
-      <c r="E3">
-        <v>39.173000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D4">
-        <v>117.145</v>
-      </c>
-      <c r="E4">
-        <v>39.165399999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D5">
-        <v>117.184</v>
-      </c>
-      <c r="E5">
-        <v>39.1205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6">
-        <v>117.23699999999999</v>
-      </c>
-      <c r="E6">
-        <v>39.108199999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7">
-        <v>117.202</v>
-      </c>
-      <c r="E7">
-        <v>39.092700000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8">
-        <v>117.1837</v>
-      </c>
-      <c r="E8">
-        <v>39.213299999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D9">
-        <v>117.26900000000001</v>
-      </c>
-      <c r="E9">
-        <v>39.133699999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>314</v>
-      </c>
-      <c r="B10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D10">
-        <v>117.307</v>
-      </c>
-      <c r="E10">
-        <v>39.087699999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C11" t="s">
-        <v>299</v>
-      </c>
-      <c r="D11">
-        <v>117.70699999999999</v>
-      </c>
-      <c r="E11">
-        <v>39.034300000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" t="s">
-        <v>319</v>
-      </c>
-      <c r="C12" t="s">
-        <v>299</v>
-      </c>
-      <c r="D12">
-        <v>117.45699999999999</v>
-      </c>
-      <c r="E12">
-        <v>38.839399999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>320</v>
-      </c>
-      <c r="B13" t="s">
-        <v>321</v>
-      </c>
-      <c r="C13" t="s">
-        <v>299</v>
-      </c>
-      <c r="D13">
-        <v>117.401</v>
-      </c>
-      <c r="E13">
-        <v>39.124000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>322</v>
-      </c>
-      <c r="B14" t="s">
-        <v>323</v>
-      </c>
-      <c r="C14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14">
-        <v>117.764</v>
-      </c>
-      <c r="E14">
-        <v>39.158700000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>324</v>
-      </c>
-      <c r="B15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C15" t="s">
-        <v>299</v>
-      </c>
-      <c r="D15">
-        <v>117.157</v>
-      </c>
-      <c r="E15">
-        <v>38.919400000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2">
-        <v>116.366</v>
-      </c>
-      <c r="E2">
-        <v>39.8673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3">
-        <v>116.17</v>
-      </c>
-      <c r="E3">
-        <v>40.286499999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4">
-        <v>116.434</v>
-      </c>
-      <c r="E4">
-        <v>39.952199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5">
-        <v>116.434</v>
-      </c>
-      <c r="E5">
-        <v>39.874499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6">
-        <v>116.473</v>
-      </c>
-      <c r="E6">
-        <v>39.971600000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7">
-        <v>116.361</v>
-      </c>
-      <c r="E7">
-        <v>39.942500000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8">
-        <v>116.315</v>
-      </c>
-      <c r="E8">
-        <v>39.993400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9">
-        <v>116.72</v>
-      </c>
-      <c r="E9">
-        <v>40.143799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10">
-        <v>116.64400000000001</v>
-      </c>
-      <c r="E10">
-        <v>40.393700000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>291</v>
-      </c>
-      <c r="B11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11">
-        <v>116.23</v>
-      </c>
-      <c r="E11">
-        <v>40.1952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D12">
-        <v>116.407</v>
-      </c>
-      <c r="E12">
-        <v>40.003100000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13">
-        <v>116.22499999999999</v>
-      </c>
-      <c r="E13">
-        <v>39.927900000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -10660,7 +8813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -11277,17 +9430,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H12"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A2" sqref="A2:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11304,264 +9460,2164 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2">
+        <v>117.151</v>
+      </c>
+      <c r="E2">
+        <v>39.097000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3">
+        <v>117.193</v>
+      </c>
+      <c r="E3">
+        <v>39.173000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4">
+        <v>117.145</v>
+      </c>
+      <c r="E4">
+        <v>39.165399999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5">
+        <v>117.184</v>
+      </c>
+      <c r="E5">
+        <v>39.1205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E6">
+        <v>39.108199999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7">
+        <v>117.202</v>
+      </c>
+      <c r="E7">
+        <v>39.092700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8">
+        <v>117.1837</v>
+      </c>
+      <c r="E8">
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9">
+        <v>117.26900000000001</v>
+      </c>
+      <c r="E9">
+        <v>39.133699999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10">
+        <v>117.307</v>
+      </c>
+      <c r="E10">
+        <v>39.087699999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11">
+        <v>117.70699999999999</v>
+      </c>
+      <c r="E11">
+        <v>39.034300000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="E12">
+        <v>38.839399999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13">
+        <v>117.401</v>
+      </c>
+      <c r="E13">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14">
+        <v>117.764</v>
+      </c>
+      <c r="E14">
+        <v>39.158700000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15">
+        <v>117.157</v>
+      </c>
+      <c r="E15">
+        <v>38.919400000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2">
+        <v>116.366</v>
+      </c>
+      <c r="E2">
+        <v>39.8673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3">
+        <v>116.17</v>
+      </c>
+      <c r="E3">
+        <v>40.286499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4">
+        <v>116.434</v>
+      </c>
+      <c r="E4">
+        <v>39.952199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5">
+        <v>116.434</v>
+      </c>
+      <c r="E5">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6">
+        <v>116.473</v>
+      </c>
+      <c r="E6">
+        <v>39.971600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7">
+        <v>116.361</v>
+      </c>
+      <c r="E7">
+        <v>39.942500000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8">
+        <v>116.315</v>
+      </c>
+      <c r="E8">
+        <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9">
+        <v>116.72</v>
+      </c>
+      <c r="E9">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E10">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11">
+        <v>116.23</v>
+      </c>
+      <c r="E11">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12">
+        <v>116.407</v>
+      </c>
+      <c r="E12">
+        <v>40.003100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E13">
+        <v>39.927900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A76644-5F86-4776-A293-540939F77A3D}">
+  <dimension ref="A1:H87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2">
+        <v>116.366</v>
+      </c>
+      <c r="E2">
+        <v>39.8673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3">
+        <v>116.17</v>
+      </c>
+      <c r="E3">
+        <v>40.286499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4">
+        <v>116.434</v>
+      </c>
+      <c r="E4">
+        <v>39.952199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5">
+        <v>116.434</v>
+      </c>
+      <c r="E5">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6">
+        <v>116.473</v>
+      </c>
+      <c r="E6">
+        <v>39.971600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7">
+        <v>116.361</v>
+      </c>
+      <c r="E7">
+        <v>39.942500000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8">
+        <v>116.315</v>
+      </c>
+      <c r="E8">
+        <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9">
+        <v>116.72</v>
+      </c>
+      <c r="E9">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E10">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11">
+        <v>116.23</v>
+      </c>
+      <c r="E11">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12">
+        <v>116.407</v>
+      </c>
+      <c r="E12">
+        <v>40.003100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E13">
+        <v>39.927900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14">
+        <v>117.151</v>
+      </c>
+      <c r="E14">
+        <v>39.097000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15">
+        <v>117.193</v>
+      </c>
+      <c r="E15">
+        <v>39.173000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16">
+        <v>117.145</v>
+      </c>
+      <c r="E16">
+        <v>39.165399999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17">
+        <v>117.184</v>
+      </c>
+      <c r="E17">
+        <v>39.1205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E18">
+        <v>39.108199999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19">
+        <v>117.202</v>
+      </c>
+      <c r="E19">
+        <v>39.092700000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20">
+        <v>117.1837</v>
+      </c>
+      <c r="E20">
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21">
+        <v>117.26900000000001</v>
+      </c>
+      <c r="E21">
+        <v>39.133699999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22">
+        <v>117.307</v>
+      </c>
+      <c r="E22">
+        <v>39.087699999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23">
+        <v>117.70699999999999</v>
+      </c>
+      <c r="E23">
+        <v>39.034300000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" t="s">
+        <v>319</v>
+      </c>
+      <c r="C24" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="E24">
+        <v>38.839399999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D25">
+        <v>117.401</v>
+      </c>
+      <c r="E25">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" t="s">
+        <v>323</v>
+      </c>
+      <c r="C26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26">
+        <v>117.764</v>
+      </c>
+      <c r="E26">
+        <v>39.158700000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27">
+        <v>117.157</v>
+      </c>
+      <c r="E27">
+        <v>38.919400000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>168</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B28" t="s">
         <v>169</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C28" t="s">
         <v>167</v>
       </c>
-      <c r="D2">
+      <c r="D28">
         <v>114.45480000000001</v>
       </c>
-      <c r="E2">
+      <c r="E28">
         <v>38.051299999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>170</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B29" t="s">
         <v>171</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C29" t="s">
         <v>167</v>
       </c>
-      <c r="D3">
+      <c r="D29">
         <v>114.6046</v>
       </c>
-      <c r="E3">
+      <c r="E29">
         <v>38.0398</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>172</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B30" t="s">
         <v>173</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C30" t="s">
         <v>167</v>
       </c>
-      <c r="D4">
+      <c r="D30">
         <v>114.50190000000001</v>
       </c>
-      <c r="E4">
+      <c r="E30">
         <v>38.139800000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>174</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B31" t="s">
         <v>175</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C31" t="s">
         <v>167</v>
       </c>
-      <c r="D5">
+      <c r="D31">
         <v>114.4586111</v>
       </c>
-      <c r="E5">
+      <c r="E31">
         <v>38.005833330000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>176</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B32" t="s">
         <v>177</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C32" t="s">
         <v>167</v>
       </c>
-      <c r="D6">
+      <c r="D32">
         <v>114.5330556</v>
       </c>
-      <c r="E6">
+      <c r="E32">
         <v>38.017777780000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>178</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B33" t="s">
         <v>179</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C33" t="s">
         <v>167</v>
       </c>
-      <c r="D7">
+      <c r="D33">
         <v>114.5214</v>
       </c>
-      <c r="E7">
+      <c r="E33">
         <v>38.052399999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>225</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B34" t="s">
         <v>87</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C34" t="s">
         <v>226</v>
       </c>
-      <c r="D8">
+      <c r="D34">
         <v>114.8985</v>
       </c>
-      <c r="E8">
+      <c r="E34">
         <v>40.8367</v>
       </c>
-      <c r="F8">
-        <v>5.19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F34">
+        <v>5.19</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>227</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B35" t="s">
         <v>228</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C35" t="s">
         <v>226</v>
       </c>
-      <c r="D9">
+      <c r="D35">
         <v>114.892</v>
       </c>
-      <c r="E9">
+      <c r="E35">
         <v>40.794809999999998</v>
       </c>
-      <c r="F9">
-        <v>5.19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F35">
+        <v>5.19</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>229</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B36" t="s">
         <v>230</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C36" t="s">
         <v>226</v>
       </c>
-      <c r="D10">
+      <c r="D36">
         <v>114.8814</v>
       </c>
-      <c r="E10">
+      <c r="E36">
         <v>40.811500000000002</v>
       </c>
-      <c r="F10">
-        <v>5.19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F36">
+        <v>5.19</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>231</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B37" t="s">
         <v>232</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C37" t="s">
         <v>226</v>
       </c>
-      <c r="D11">
+      <c r="D37">
         <v>114.9032</v>
       </c>
-      <c r="E11">
+      <c r="E37">
         <v>40.768799999999999</v>
       </c>
-      <c r="F11">
-        <v>5.19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F37">
+        <v>5.19</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>233</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B38" t="s">
         <v>234</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C38" t="s">
         <v>226</v>
       </c>
-      <c r="D12">
+      <c r="D38">
         <v>114.904</v>
       </c>
-      <c r="E12">
+      <c r="E38">
         <v>40.872500000000002</v>
       </c>
-      <c r="F12">
-        <v>5.19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>333</v>
+      <c r="F38">
+        <v>5.19</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39">
+        <v>117.96639999999999</v>
+      </c>
+      <c r="E39">
+        <v>40.9161</v>
+      </c>
+      <c r="F39">
+        <v>5.19</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40">
+        <v>117.9525</v>
+      </c>
+      <c r="E40">
+        <v>40.984299999999998</v>
+      </c>
+      <c r="F40">
+        <v>5.19</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>237</v>
+      </c>
+      <c r="D41">
+        <v>117.96299999999999</v>
+      </c>
+      <c r="E41">
+        <v>40.935899999999997</v>
+      </c>
+      <c r="F41">
+        <v>5.19</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42">
+        <v>117.8184</v>
+      </c>
+      <c r="E42">
+        <v>40.973300000000002</v>
+      </c>
+      <c r="F42">
+        <v>5.19</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" t="s">
+        <v>237</v>
+      </c>
+      <c r="D43">
+        <v>117.9384</v>
+      </c>
+      <c r="E43">
+        <v>41.011200000000002</v>
+      </c>
+      <c r="F43">
+        <v>5.19</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" t="s">
+        <v>254</v>
+      </c>
+      <c r="C44" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44">
+        <v>116.8854</v>
+      </c>
+      <c r="E44">
+        <v>38.299100000000003</v>
+      </c>
+      <c r="F44">
+        <v>5.19</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45">
+        <v>116.8584</v>
+      </c>
+      <c r="E45">
+        <v>38.325400000000002</v>
+      </c>
+      <c r="F45">
+        <v>5.19</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46">
+        <v>114.4821</v>
+      </c>
+      <c r="E46">
+        <v>37.096699999999998</v>
+      </c>
+      <c r="F46">
+        <v>5.19</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B47" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47">
+        <v>114.5261</v>
+      </c>
+      <c r="E47">
+        <v>37.0533</v>
+      </c>
+      <c r="F47">
+        <v>5.19</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48">
+        <v>114.5331</v>
+      </c>
+      <c r="E48">
+        <v>37.096400000000003</v>
+      </c>
+      <c r="F48">
+        <v>5.19</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>271</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49">
+        <v>114.4854</v>
+      </c>
+      <c r="E49">
+        <v>37.061999999999998</v>
+      </c>
+      <c r="F49">
+        <v>5.19</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>116.988</v>
+      </c>
+      <c r="E50">
+        <v>36.611400000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>116.93</v>
+      </c>
+      <c r="E51">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>117.114</v>
+      </c>
+      <c r="E52">
+        <v>36.673900000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>116.989</v>
+      </c>
+      <c r="E53">
+        <v>36.687199999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>117.0684</v>
+      </c>
+      <c r="E54">
+        <v>36.686799999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>116.943</v>
+      </c>
+      <c r="E55">
+        <v>36.648899999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>117.04900000000001</v>
+      </c>
+      <c r="E56">
+        <v>36.662199999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>116.73399999999999</v>
+      </c>
+      <c r="E57">
+        <v>36.5336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58">
+        <v>120.66589999999999</v>
+      </c>
+      <c r="E58">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59">
+        <v>120.3905</v>
+      </c>
+      <c r="E59">
+        <v>36.185099999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60">
+        <v>120.3471</v>
+      </c>
+      <c r="E60">
+        <v>36.069899999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61">
+        <v>120.4134</v>
+      </c>
+      <c r="E61">
+        <v>36.065399999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62">
+        <v>120.3664</v>
+      </c>
+      <c r="E62">
+        <v>36.103200000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63">
+        <v>120.2992</v>
+      </c>
+      <c r="E63">
+        <v>36.054299999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64">
+        <v>120.45869999999999</v>
+      </c>
+      <c r="E64">
+        <v>36.085099999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65">
+        <v>120.1964</v>
+      </c>
+      <c r="E65">
+        <v>36.308300000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66">
+        <v>120.40009999999999</v>
+      </c>
+      <c r="E66">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67">
+        <v>117.685</v>
+      </c>
+      <c r="E67">
+        <v>36.204999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68">
+        <v>117.6789</v>
+      </c>
+      <c r="E68">
+        <v>36.228900000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69">
+        <v>117.715</v>
+      </c>
+      <c r="E69">
+        <v>36.208100000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70">
+        <v>118.34180000000001</v>
+      </c>
+      <c r="E70">
+        <v>35.057299999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71">
+        <v>118.29389999999999</v>
+      </c>
+      <c r="E71">
+        <v>35.062199999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72">
+        <v>118.2764</v>
+      </c>
+      <c r="E72">
+        <v>34.981699999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73">
+        <v>118.4023</v>
+      </c>
+      <c r="E73">
+        <v>35.089599999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74">
+        <v>117.8477</v>
+      </c>
+      <c r="E74">
+        <v>36.497</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75">
+        <v>117.45180000000001</v>
+      </c>
+      <c r="E75">
+        <v>35.099200000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>119.12</v>
+      </c>
+      <c r="E76">
+        <v>36.701900000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>119.0919</v>
+      </c>
+      <c r="E77">
+        <v>36.730600000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>119.1425</v>
+      </c>
+      <c r="E78">
+        <v>36.700800000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>119.1614</v>
+      </c>
+      <c r="E79">
+        <v>36.657200000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>119.1939</v>
+      </c>
+      <c r="E80">
+        <v>36.773099999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81">
+        <v>119.4641</v>
+      </c>
+      <c r="E81">
+        <v>35.4178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82">
+        <v>119.5198</v>
+      </c>
+      <c r="E82">
+        <v>35.423400000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83">
+        <v>119.54</v>
+      </c>
+      <c r="E83">
+        <v>35.3962</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" t="s">
+        <v>146</v>
+      </c>
+      <c r="D84">
+        <v>122.1206</v>
+      </c>
+      <c r="E84">
+        <v>37.429400000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" t="s">
+        <v>160</v>
+      </c>
+      <c r="D85">
+        <v>115.42277</v>
+      </c>
+      <c r="E85">
+        <v>35.248888999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86">
+        <v>115.474722</v>
+      </c>
+      <c r="E86">
+        <v>35.237499999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87">
+        <v>115.455</v>
+      </c>
+      <c r="E87">
+        <v>35.270000000000003</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A2:H12"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11577,305 +11633,249 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="D2">
-        <v>117.96639999999999</v>
+        <v>117.8477</v>
       </c>
       <c r="E2">
-        <v>40.9161</v>
-      </c>
-      <c r="F2">
-        <v>5.19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="D3">
-        <v>117.9525</v>
+        <v>117.45180000000001</v>
       </c>
       <c r="E3">
-        <v>40.984299999999998</v>
-      </c>
-      <c r="F3">
-        <v>5.19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35.099200000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>117.96299999999999</v>
+        <v>119.12</v>
       </c>
       <c r="E4">
-        <v>40.935899999999997</v>
-      </c>
-      <c r="F4">
-        <v>5.19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.701900000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>117.8184</v>
+        <v>119.0919</v>
       </c>
       <c r="E5">
-        <v>40.973300000000002</v>
-      </c>
-      <c r="F5">
-        <v>5.19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.730600000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>117.9384</v>
+        <v>119.1425</v>
       </c>
       <c r="E6">
-        <v>41.011200000000002</v>
-      </c>
-      <c r="F6">
-        <v>5.19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.700800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>116.8854</v>
+        <v>119.1614</v>
       </c>
       <c r="E7">
-        <v>38.299100000000003</v>
-      </c>
-      <c r="F7">
-        <v>5.19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.657200000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>257</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>116.8584</v>
+        <v>119.1939</v>
       </c>
       <c r="E8">
-        <v>38.325400000000002</v>
-      </c>
-      <c r="F8">
-        <v>5.19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.773099999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>139</v>
       </c>
       <c r="D9">
-        <v>114.4821</v>
+        <v>119.4641</v>
       </c>
       <c r="E9">
-        <v>37.096699999999998</v>
-      </c>
-      <c r="F9">
-        <v>5.19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35.4178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>139</v>
       </c>
       <c r="D10">
-        <v>114.5261</v>
+        <v>119.5198</v>
       </c>
       <c r="E10">
-        <v>37.0533</v>
-      </c>
-      <c r="F10">
-        <v>5.19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35.423400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>266</v>
+        <v>139</v>
       </c>
       <c r="D11">
-        <v>114.5331</v>
+        <v>119.54</v>
       </c>
       <c r="E11">
-        <v>37.096400000000003</v>
-      </c>
-      <c r="F11">
-        <v>5.19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35.3962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>146</v>
       </c>
       <c r="D12">
-        <v>114.4854</v>
+        <v>122.1206</v>
       </c>
       <c r="E12">
-        <v>37.061999999999998</v>
-      </c>
-      <c r="F12">
-        <v>5.19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>333</v>
+        <v>37.429400000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13">
+        <v>115.42277</v>
+      </c>
+      <c r="E13">
+        <v>35.248888999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14">
+        <v>115.474722</v>
+      </c>
+      <c r="E14">
+        <v>35.237499999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15">
+        <v>115.455</v>
+      </c>
+      <c r="E15">
+        <v>35.270000000000003</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CB7411-3364-4FD1-84CF-2F3AAEF7A3CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F84E2D-3670-49F4-89B3-A33310D4E6D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="河北2" sheetId="12" r:id="rId1"/>
-    <sheet name="河北1" sheetId="11" r:id="rId2"/>
+    <sheet name="河北1" sheetId="11" r:id="rId1"/>
+    <sheet name="山东1" sheetId="7" r:id="rId2"/>
     <sheet name="山东 2" sheetId="8" r:id="rId3"/>
-    <sheet name="山东1" sheetId="7" r:id="rId4"/>
+    <sheet name="河北2" sheetId="12" r:id="rId4"/>
     <sheet name="天津" sheetId="3" r:id="rId5"/>
     <sheet name="北京" sheetId="2" r:id="rId6"/>
     <sheet name="可用86市汇总" sheetId="14" r:id="rId7"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="337">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1385,11 +1385,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A2:H12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1422,175 +1422,121 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="D2">
-        <v>117.96639999999999</v>
+        <v>114.45480000000001</v>
       </c>
       <c r="E2">
-        <v>40.9161</v>
-      </c>
-      <c r="F2">
-        <v>5.19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>333</v>
+        <v>38.051299999999998</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="D3">
-        <v>117.9525</v>
+        <v>114.6046</v>
       </c>
       <c r="E3">
-        <v>40.984299999999998</v>
-      </c>
-      <c r="F3">
-        <v>5.19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>333</v>
+        <v>38.0398</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="D4">
-        <v>117.96299999999999</v>
+        <v>114.50190000000001</v>
       </c>
       <c r="E4">
-        <v>40.935899999999997</v>
-      </c>
-      <c r="F4">
-        <v>5.19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>333</v>
+        <v>38.139800000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="D5">
-        <v>117.8184</v>
+        <v>114.4586111</v>
       </c>
       <c r="E5">
-        <v>40.973300000000002</v>
-      </c>
-      <c r="F5">
-        <v>5.19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>333</v>
+        <v>38.005833330000002</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="D6">
-        <v>117.9384</v>
+        <v>114.5330556</v>
       </c>
       <c r="E6">
-        <v>41.011200000000002</v>
-      </c>
-      <c r="F6">
-        <v>5.19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>333</v>
+        <v>38.017777780000003</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="D7">
-        <v>116.8854</v>
+        <v>114.5214</v>
       </c>
       <c r="E7">
-        <v>38.299100000000003</v>
-      </c>
-      <c r="F7">
-        <v>5.19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>333</v>
+        <v>38.052399999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>257</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="D8">
-        <v>116.8584</v>
+        <v>114.8985</v>
       </c>
       <c r="E8">
-        <v>38.325400000000002</v>
+        <v>40.8367</v>
       </c>
       <c r="F8">
         <v>5.19</v>
@@ -1604,19 +1550,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="D9">
-        <v>114.4821</v>
+        <v>114.892</v>
       </c>
       <c r="E9">
-        <v>37.096699999999998</v>
+        <v>40.794809999999998</v>
       </c>
       <c r="F9">
         <v>5.19</v>
@@ -1630,19 +1576,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="D10">
-        <v>114.5261</v>
+        <v>114.8814</v>
       </c>
       <c r="E10">
-        <v>37.0533</v>
+        <v>40.811500000000002</v>
       </c>
       <c r="F10">
         <v>5.19</v>
@@ -1656,19 +1602,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="D11">
-        <v>114.5331</v>
+        <v>114.9032</v>
       </c>
       <c r="E11">
-        <v>37.096400000000003</v>
+        <v>40.768799999999999</v>
       </c>
       <c r="F11">
         <v>5.19</v>
@@ -1682,19 +1628,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="D12">
-        <v>114.4854</v>
+        <v>114.904</v>
       </c>
       <c r="E12">
-        <v>37.061999999999998</v>
+        <v>40.872500000000002</v>
       </c>
       <c r="F12">
         <v>5.19</v>
@@ -1717,7 +1663,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="A2:E39"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -8150,14 +8096,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8187,127 +8137,181 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>114.45480000000001</v>
+        <v>116.988</v>
       </c>
       <c r="E2">
-        <v>38.051299999999998</v>
+        <v>36.611400000000003</v>
+      </c>
+      <c r="F2">
+        <v>5.19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>114.6046</v>
+        <v>116.93</v>
       </c>
       <c r="E3">
-        <v>38.0398</v>
+        <v>36.67</v>
+      </c>
+      <c r="F3">
+        <v>5.19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>114.50190000000001</v>
+        <v>117.114</v>
       </c>
       <c r="E4">
-        <v>38.139800000000001</v>
+        <v>36.673900000000003</v>
+      </c>
+      <c r="F4">
+        <v>5.19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>114.4586111</v>
+        <v>116.989</v>
       </c>
       <c r="E5">
-        <v>38.005833330000002</v>
+        <v>36.687199999999997</v>
+      </c>
+      <c r="F5">
+        <v>5.19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>114.5330556</v>
+        <v>117.0684</v>
       </c>
       <c r="E6">
-        <v>38.017777780000003</v>
+        <v>36.686799999999998</v>
+      </c>
+      <c r="F6">
+        <v>5.19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>114.5214</v>
+        <v>116.943</v>
       </c>
       <c r="E7">
-        <v>38.052399999999999</v>
+        <v>36.648899999999998</v>
+      </c>
+      <c r="F7">
+        <v>5.19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>114.8985</v>
+        <v>117.04900000000001</v>
       </c>
       <c r="E8">
-        <v>40.8367</v>
+        <v>36.662199999999999</v>
       </c>
       <c r="F8">
         <v>5.19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>333</v>
@@ -8315,25 +8319,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>114.892</v>
+        <v>116.73399999999999</v>
       </c>
       <c r="E9">
-        <v>40.794809999999998</v>
+        <v>36.5336</v>
       </c>
       <c r="F9">
         <v>5.19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>333</v>
@@ -8341,85 +8345,370 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>114.8814</v>
+        <v>120.66589999999999</v>
       </c>
       <c r="E10">
-        <v>40.811500000000002</v>
-      </c>
-      <c r="F10">
-        <v>5.19</v>
+        <v>36.240299999999998</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>114.9032</v>
+        <v>120.3905</v>
       </c>
       <c r="E11">
-        <v>40.768799999999999</v>
-      </c>
-      <c r="F11">
-        <v>5.19</v>
+        <v>36.185099999999998</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>114.904</v>
+        <v>120.3471</v>
       </c>
       <c r="E12">
-        <v>40.872500000000002</v>
-      </c>
-      <c r="F12">
-        <v>5.19</v>
+        <v>36.069899999999997</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H12" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>120.4134</v>
+      </c>
+      <c r="E13">
+        <v>36.065399999999997</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>120.3664</v>
+      </c>
+      <c r="E14">
+        <v>36.103200000000001</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>120.2992</v>
+      </c>
+      <c r="E15">
+        <v>36.054299999999998</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>120.45869999999999</v>
+      </c>
+      <c r="E16">
+        <v>36.085099999999997</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>120.1964</v>
+      </c>
+      <c r="E17">
+        <v>36.308300000000003</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>120.40009999999999</v>
+      </c>
+      <c r="E18">
+        <v>36.240299999999998</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>117.685</v>
+      </c>
+      <c r="E19">
+        <v>36.204999999999998</v>
+      </c>
+      <c r="F19">
+        <v>5.19</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>117.6789</v>
+      </c>
+      <c r="E20">
+        <v>36.228900000000003</v>
+      </c>
+      <c r="F20">
+        <v>5.19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>117.715</v>
+      </c>
+      <c r="E21">
+        <v>36.208100000000002</v>
+      </c>
+      <c r="F21">
+        <v>5.19</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>118.34180000000001</v>
+      </c>
+      <c r="E22">
+        <v>35.057299999999998</v>
+      </c>
+      <c r="F22">
+        <v>5.19</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <v>118.29389999999999</v>
+      </c>
+      <c r="E23">
+        <v>35.062199999999997</v>
+      </c>
+      <c r="F23">
+        <v>5.19</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>118.2764</v>
+      </c>
+      <c r="E24">
+        <v>34.981699999999996</v>
+      </c>
+      <c r="F24">
+        <v>5.19</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <v>118.4023</v>
+      </c>
+      <c r="E25">
+        <v>35.089599999999997</v>
+      </c>
+      <c r="F25">
+        <v>5.19</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>333</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -8814,18 +9103,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A2:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8855,25 +9140,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="D2">
-        <v>116.988</v>
+        <v>117.96639999999999</v>
       </c>
       <c r="E2">
-        <v>36.611400000000003</v>
+        <v>40.9161</v>
       </c>
       <c r="F2">
         <v>5.19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>333</v>
@@ -8881,25 +9166,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="D3">
-        <v>116.93</v>
+        <v>117.9525</v>
       </c>
       <c r="E3">
-        <v>36.67</v>
+        <v>40.984299999999998</v>
       </c>
       <c r="F3">
         <v>5.19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>333</v>
@@ -8907,25 +9192,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="D4">
-        <v>117.114</v>
+        <v>117.96299999999999</v>
       </c>
       <c r="E4">
-        <v>36.673900000000003</v>
+        <v>40.935899999999997</v>
       </c>
       <c r="F4">
         <v>5.19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>333</v>
@@ -8933,25 +9218,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="D5">
-        <v>116.989</v>
+        <v>117.8184</v>
       </c>
       <c r="E5">
-        <v>36.687199999999997</v>
+        <v>40.973300000000002</v>
       </c>
       <c r="F5">
         <v>5.19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>333</v>
@@ -8959,25 +9244,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="D6">
-        <v>117.0684</v>
+        <v>117.9384</v>
       </c>
       <c r="E6">
-        <v>36.686799999999998</v>
+        <v>41.011200000000002</v>
       </c>
       <c r="F6">
         <v>5.19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>333</v>
@@ -8985,25 +9270,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="D7">
-        <v>116.943</v>
+        <v>116.8854</v>
       </c>
       <c r="E7">
-        <v>36.648899999999998</v>
+        <v>38.299100000000003</v>
       </c>
       <c r="F7">
         <v>5.19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>333</v>
@@ -9011,25 +9296,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="D8">
-        <v>117.04900000000001</v>
+        <v>116.8584</v>
       </c>
       <c r="E8">
-        <v>36.662199999999999</v>
+        <v>38.325400000000002</v>
       </c>
       <c r="F8">
         <v>5.19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>333</v>
@@ -9037,25 +9322,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="D9">
-        <v>116.73399999999999</v>
+        <v>114.4821</v>
       </c>
       <c r="E9">
-        <v>36.5336</v>
+        <v>37.096699999999998</v>
       </c>
       <c r="F9">
         <v>5.19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>333</v>
@@ -9063,370 +9348,85 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="D10">
-        <v>120.66589999999999</v>
+        <v>114.5261</v>
       </c>
       <c r="E10">
-        <v>36.240299999999998</v>
+        <v>37.0533</v>
+      </c>
+      <c r="F10">
+        <v>5.19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>270</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="D11">
-        <v>120.3905</v>
+        <v>114.5331</v>
       </c>
       <c r="E11">
-        <v>36.185099999999998</v>
+        <v>37.096400000000003</v>
+      </c>
+      <c r="F11">
+        <v>5.19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="D12">
-        <v>120.3471</v>
+        <v>114.4854</v>
       </c>
       <c r="E12">
-        <v>36.069899999999997</v>
+        <v>37.061999999999998</v>
+      </c>
+      <c r="F12">
+        <v>5.19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
-        <v>120.4134</v>
-      </c>
-      <c r="E13">
-        <v>36.065399999999997</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>120.3664</v>
-      </c>
-      <c r="E14">
-        <v>36.103200000000001</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15">
-        <v>120.2992</v>
-      </c>
-      <c r="E15">
-        <v>36.054299999999998</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>120.45869999999999</v>
-      </c>
-      <c r="E16">
-        <v>36.085099999999997</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>120.1964</v>
-      </c>
-      <c r="E17">
-        <v>36.308300000000003</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="E18">
-        <v>36.240299999999998</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19">
-        <v>117.685</v>
-      </c>
-      <c r="E19">
-        <v>36.204999999999998</v>
-      </c>
-      <c r="F19">
-        <v>5.19</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20">
-        <v>117.6789</v>
-      </c>
-      <c r="E20">
-        <v>36.228900000000003</v>
-      </c>
-      <c r="F20">
-        <v>5.19</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21">
-        <v>117.715</v>
-      </c>
-      <c r="E21">
-        <v>36.208100000000002</v>
-      </c>
-      <c r="F21">
-        <v>5.19</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E22">
-        <v>35.057299999999998</v>
-      </c>
-      <c r="F22">
-        <v>5.19</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E23">
-        <v>35.062199999999997</v>
-      </c>
-      <c r="F23">
-        <v>5.19</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24">
-        <v>118.2764</v>
-      </c>
-      <c r="E24">
-        <v>34.981699999999996</v>
-      </c>
-      <c r="F24">
-        <v>5.19</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25">
-        <v>118.4023</v>
-      </c>
-      <c r="E25">
-        <v>35.089599999999997</v>
-      </c>
-      <c r="F25">
-        <v>5.19</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H25" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>333</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9715,7 +9715,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -9960,8 +9960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A76644-5F86-4776-A293-540939F77A3D}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G59" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11606,10 +11606,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11617,7 +11617,7 @@
     <col min="1" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11633,242 +11633,1616 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2">
+        <v>116.366</v>
+      </c>
+      <c r="E2">
+        <v>39.8673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3">
+        <v>116.17</v>
+      </c>
+      <c r="E3">
+        <v>40.286499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4">
+        <v>116.434</v>
+      </c>
+      <c r="E4">
+        <v>39.952199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5">
+        <v>116.434</v>
+      </c>
+      <c r="E5">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6">
+        <v>116.473</v>
+      </c>
+      <c r="E6">
+        <v>39.971600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7">
+        <v>116.361</v>
+      </c>
+      <c r="E7">
+        <v>39.942500000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8">
+        <v>116.315</v>
+      </c>
+      <c r="E8">
+        <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9">
+        <v>116.72</v>
+      </c>
+      <c r="E9">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E10">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11">
+        <v>116.23</v>
+      </c>
+      <c r="E11">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12">
+        <v>116.407</v>
+      </c>
+      <c r="E12">
+        <v>40.003100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E13">
+        <v>39.927900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14">
+        <v>117.151</v>
+      </c>
+      <c r="E14">
+        <v>39.097000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15">
+        <v>117.193</v>
+      </c>
+      <c r="E15">
+        <v>39.173000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16">
+        <v>117.145</v>
+      </c>
+      <c r="E16">
+        <v>39.165399999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17">
+        <v>117.184</v>
+      </c>
+      <c r="E17">
+        <v>39.1205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E18">
+        <v>39.108199999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19">
+        <v>117.202</v>
+      </c>
+      <c r="E19">
+        <v>39.092700000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20">
+        <v>117.1837</v>
+      </c>
+      <c r="E20">
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21">
+        <v>117.26900000000001</v>
+      </c>
+      <c r="E21">
+        <v>39.133699999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22">
+        <v>117.307</v>
+      </c>
+      <c r="E22">
+        <v>39.087699999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23">
+        <v>117.70699999999999</v>
+      </c>
+      <c r="E23">
+        <v>39.034300000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" t="s">
+        <v>319</v>
+      </c>
+      <c r="C24" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="E24">
+        <v>38.839399999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D25">
+        <v>117.401</v>
+      </c>
+      <c r="E25">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" t="s">
+        <v>323</v>
+      </c>
+      <c r="C26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26">
+        <v>117.764</v>
+      </c>
+      <c r="E26">
+        <v>39.158700000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27">
+        <v>117.157</v>
+      </c>
+      <c r="E27">
+        <v>38.919400000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28">
+        <v>114.45480000000001</v>
+      </c>
+      <c r="E28">
+        <v>38.051299999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29">
+        <v>114.6046</v>
+      </c>
+      <c r="E29">
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E30">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31">
+        <v>114.4586111</v>
+      </c>
+      <c r="E31">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32">
+        <v>114.5330556</v>
+      </c>
+      <c r="E32">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33">
+        <v>114.5214</v>
+      </c>
+      <c r="E33">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34">
+        <v>114.8985</v>
+      </c>
+      <c r="E34">
+        <v>40.8367</v>
+      </c>
+      <c r="F34">
+        <v>5.19</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35">
+        <v>114.892</v>
+      </c>
+      <c r="E35">
+        <v>40.794809999999998</v>
+      </c>
+      <c r="F35">
+        <v>5.19</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36">
+        <v>114.8814</v>
+      </c>
+      <c r="E36">
+        <v>40.811500000000002</v>
+      </c>
+      <c r="F36">
+        <v>5.19</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37">
+        <v>114.9032</v>
+      </c>
+      <c r="E37">
+        <v>40.768799999999999</v>
+      </c>
+      <c r="F37">
+        <v>5.19</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38">
+        <v>114.904</v>
+      </c>
+      <c r="E38">
+        <v>40.872500000000002</v>
+      </c>
+      <c r="F38">
+        <v>5.19</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39">
+        <v>117.96639999999999</v>
+      </c>
+      <c r="E39">
+        <v>40.9161</v>
+      </c>
+      <c r="F39">
+        <v>5.19</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40">
+        <v>117.9525</v>
+      </c>
+      <c r="E40">
+        <v>40.984299999999998</v>
+      </c>
+      <c r="F40">
+        <v>5.19</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>237</v>
+      </c>
+      <c r="D41">
+        <v>117.96299999999999</v>
+      </c>
+      <c r="E41">
+        <v>40.935899999999997</v>
+      </c>
+      <c r="F41">
+        <v>5.19</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42">
+        <v>117.8184</v>
+      </c>
+      <c r="E42">
+        <v>40.973300000000002</v>
+      </c>
+      <c r="F42">
+        <v>5.19</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" t="s">
+        <v>237</v>
+      </c>
+      <c r="D43">
+        <v>117.9384</v>
+      </c>
+      <c r="E43">
+        <v>41.011200000000002</v>
+      </c>
+      <c r="F43">
+        <v>5.19</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" t="s">
+        <v>254</v>
+      </c>
+      <c r="C44" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44">
+        <v>116.8854</v>
+      </c>
+      <c r="E44">
+        <v>38.299100000000003</v>
+      </c>
+      <c r="F44">
+        <v>5.19</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45">
+        <v>116.8584</v>
+      </c>
+      <c r="E45">
+        <v>38.325400000000002</v>
+      </c>
+      <c r="F45">
+        <v>5.19</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46">
+        <v>114.4821</v>
+      </c>
+      <c r="E46">
+        <v>37.096699999999998</v>
+      </c>
+      <c r="F46">
+        <v>5.19</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B47" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47">
+        <v>114.5261</v>
+      </c>
+      <c r="E47">
+        <v>37.0533</v>
+      </c>
+      <c r="F47">
+        <v>5.19</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48">
+        <v>114.5331</v>
+      </c>
+      <c r="E48">
+        <v>37.096400000000003</v>
+      </c>
+      <c r="F48">
+        <v>5.19</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>271</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49">
+        <v>114.4854</v>
+      </c>
+      <c r="E49">
+        <v>37.061999999999998</v>
+      </c>
+      <c r="F49">
+        <v>5.19</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>116.988</v>
+      </c>
+      <c r="E50">
+        <v>36.611400000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>116.93</v>
+      </c>
+      <c r="E51">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>117.114</v>
+      </c>
+      <c r="E52">
+        <v>36.673900000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>116.989</v>
+      </c>
+      <c r="E53">
+        <v>36.687199999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>117.0684</v>
+      </c>
+      <c r="E54">
+        <v>36.686799999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>116.943</v>
+      </c>
+      <c r="E55">
+        <v>36.648899999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>117.04900000000001</v>
+      </c>
+      <c r="E56">
+        <v>36.662199999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>116.73399999999999</v>
+      </c>
+      <c r="E57">
+        <v>36.5336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58">
+        <v>120.66589999999999</v>
+      </c>
+      <c r="E58">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59">
+        <v>120.3905</v>
+      </c>
+      <c r="E59">
+        <v>36.185099999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60">
+        <v>120.3471</v>
+      </c>
+      <c r="E60">
+        <v>36.069899999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61">
+        <v>120.4134</v>
+      </c>
+      <c r="E61">
+        <v>36.065399999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62">
+        <v>120.3664</v>
+      </c>
+      <c r="E62">
+        <v>36.103200000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63">
+        <v>120.2992</v>
+      </c>
+      <c r="E63">
+        <v>36.054299999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64">
+        <v>120.45869999999999</v>
+      </c>
+      <c r="E64">
+        <v>36.085099999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65">
+        <v>120.1964</v>
+      </c>
+      <c r="E65">
+        <v>36.308300000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66">
+        <v>120.40009999999999</v>
+      </c>
+      <c r="E66">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67">
+        <v>117.685</v>
+      </c>
+      <c r="E67">
+        <v>36.204999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68">
+        <v>117.6789</v>
+      </c>
+      <c r="E68">
+        <v>36.228900000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69">
+        <v>117.715</v>
+      </c>
+      <c r="E69">
+        <v>36.208100000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70">
+        <v>118.34180000000001</v>
+      </c>
+      <c r="E70">
+        <v>35.057299999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71">
+        <v>118.29389999999999</v>
+      </c>
+      <c r="E71">
+        <v>35.062199999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72">
+        <v>118.2764</v>
+      </c>
+      <c r="E72">
+        <v>34.981699999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73">
+        <v>118.4023</v>
+      </c>
+      <c r="E73">
+        <v>35.089599999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>91</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B74" t="s">
         <v>92</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C74" t="s">
         <v>88</v>
       </c>
-      <c r="D2">
+      <c r="D74">
         <v>117.8477</v>
       </c>
-      <c r="E2">
+      <c r="E74">
         <v>36.497</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>108</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B75" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C75" t="s">
         <v>101</v>
       </c>
-      <c r="D3">
+      <c r="D75">
         <v>117.45180000000001</v>
       </c>
-      <c r="E3">
+      <c r="E75">
         <v>35.099200000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>122</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B76" t="s">
         <v>123</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C76" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="D76">
         <v>119.12</v>
       </c>
-      <c r="E4">
+      <c r="E76">
         <v>36.701900000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>124</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B77" t="s">
         <v>125</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C77" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D77">
         <v>119.0919</v>
       </c>
-      <c r="E5">
+      <c r="E77">
         <v>36.730600000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>126</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B78" t="s">
         <v>127</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C78" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="D78">
         <v>119.1425</v>
       </c>
-      <c r="E6">
+      <c r="E78">
         <v>36.700800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B79" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C79" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="D79">
         <v>119.1614</v>
       </c>
-      <c r="E7">
+      <c r="E79">
         <v>36.657200000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B80" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C80" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D80">
         <v>119.1939</v>
       </c>
-      <c r="E8">
+      <c r="E80">
         <v>36.773099999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>138</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B81" t="s">
         <v>129</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C81" t="s">
         <v>139</v>
       </c>
-      <c r="D9">
+      <c r="D81">
         <v>119.4641</v>
       </c>
-      <c r="E9">
+      <c r="E81">
         <v>35.4178</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>140</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B82" t="s">
         <v>141</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C82" t="s">
         <v>139</v>
       </c>
-      <c r="D10">
+      <c r="D82">
         <v>119.5198</v>
       </c>
-      <c r="E10">
+      <c r="E82">
         <v>35.423400000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>142</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B83" t="s">
         <v>143</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C83" t="s">
         <v>139</v>
       </c>
-      <c r="D11">
+      <c r="D83">
         <v>119.54</v>
       </c>
-      <c r="E11">
+      <c r="E83">
         <v>35.3962</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>144</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B84" t="s">
         <v>145</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C84" t="s">
         <v>146</v>
       </c>
-      <c r="D12">
+      <c r="D84">
         <v>122.1206</v>
       </c>
-      <c r="E12">
+      <c r="E84">
         <v>37.429400000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>158</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B85" t="s">
         <v>159</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C85" t="s">
         <v>160</v>
       </c>
-      <c r="D13">
+      <c r="D85">
         <v>115.42277</v>
       </c>
-      <c r="E13">
+      <c r="E85">
         <v>35.248888999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>161</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B86" t="s">
         <v>162</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C86" t="s">
         <v>160</v>
       </c>
-      <c r="D14">
+      <c r="D86">
         <v>115.474722</v>
       </c>
-      <c r="E14">
+      <c r="E86">
         <v>35.237499999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>163</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B87" t="s">
         <v>164</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C87" t="s">
         <v>160</v>
       </c>
-      <c r="D15">
+      <c r="D87">
         <v>115.455</v>
       </c>
-      <c r="E15">
+      <c r="E87">
         <v>35.270000000000003</v>
       </c>
     </row>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F84E2D-3670-49F4-89B3-A33310D4E6D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00D213-DEC7-4051-A2E4-2C4A6698AD8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="河北1" sheetId="11" r:id="rId1"/>
-    <sheet name="山东1" sheetId="7" r:id="rId2"/>
-    <sheet name="山东 2" sheetId="8" r:id="rId3"/>
-    <sheet name="河北2" sheetId="12" r:id="rId4"/>
-    <sheet name="天津" sheetId="3" r:id="rId5"/>
-    <sheet name="北京" sheetId="2" r:id="rId6"/>
-    <sheet name="可用86市汇总" sheetId="14" r:id="rId7"/>
-    <sheet name="测试" sheetId="10" r:id="rId8"/>
+    <sheet name="北京" sheetId="2" r:id="rId1"/>
+    <sheet name="天津" sheetId="3" r:id="rId2"/>
+    <sheet name="河北2" sheetId="12" r:id="rId3"/>
+    <sheet name="河北1" sheetId="11" r:id="rId4"/>
+    <sheet name="测试" sheetId="10" r:id="rId5"/>
+    <sheet name="山东1" sheetId="7" r:id="rId6"/>
+    <sheet name="山东 2" sheetId="8" r:id="rId7"/>
+    <sheet name="可用86市汇总" sheetId="14" r:id="rId8"/>
     <sheet name="河北2013" sheetId="13" r:id="rId9"/>
     <sheet name="山东2013" sheetId="9" r:id="rId10"/>
     <sheet name="山东" sheetId="5" r:id="rId11"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="337">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1385,16 +1385,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1411,250 +1414,219 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="D2">
-        <v>114.45480000000001</v>
+        <v>116.366</v>
       </c>
       <c r="E2">
-        <v>38.051299999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39.8673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="D3">
-        <v>114.6046</v>
+        <v>116.17</v>
       </c>
       <c r="E3">
-        <v>38.0398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40.286499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="D4">
-        <v>114.50190000000001</v>
+        <v>116.434</v>
       </c>
       <c r="E4">
-        <v>38.139800000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39.952199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="D5">
-        <v>114.4586111</v>
+        <v>116.434</v>
       </c>
       <c r="E5">
-        <v>38.005833330000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="D6">
-        <v>114.5330556</v>
+        <v>116.473</v>
       </c>
       <c r="E6">
-        <v>38.017777780000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39.971600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="D7">
-        <v>114.5214</v>
+        <v>116.361</v>
       </c>
       <c r="E7">
-        <v>38.052399999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39.942500000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="D8">
-        <v>114.8985</v>
+        <v>116.315</v>
       </c>
       <c r="E8">
-        <v>40.8367</v>
-      </c>
-      <c r="F8">
-        <v>5.19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="D9">
-        <v>114.892</v>
+        <v>116.72</v>
       </c>
       <c r="E9">
-        <v>40.794809999999998</v>
-      </c>
-      <c r="F9">
-        <v>5.19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="D10">
-        <v>114.8814</v>
+        <v>116.64400000000001</v>
       </c>
       <c r="E10">
-        <v>40.811500000000002</v>
-      </c>
-      <c r="F10">
-        <v>5.19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="D11">
-        <v>114.9032</v>
+        <v>116.23</v>
       </c>
       <c r="E11">
-        <v>40.768799999999999</v>
-      </c>
-      <c r="F11">
-        <v>5.19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="D12">
-        <v>114.904</v>
+        <v>116.407</v>
       </c>
       <c r="E12">
-        <v>40.872500000000002</v>
-      </c>
-      <c r="F12">
-        <v>5.19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>333</v>
+        <v>40.003100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E13">
+        <v>39.927900000000001</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1662,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2621,8 +2593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:H75"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="A26:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -8096,6 +8068,907 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2">
+        <v>117.151</v>
+      </c>
+      <c r="E2">
+        <v>39.097000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3">
+        <v>117.193</v>
+      </c>
+      <c r="E3">
+        <v>39.173000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4">
+        <v>117.145</v>
+      </c>
+      <c r="E4">
+        <v>39.165399999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5">
+        <v>117.184</v>
+      </c>
+      <c r="E5">
+        <v>39.1205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E6">
+        <v>39.108199999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7">
+        <v>117.202</v>
+      </c>
+      <c r="E7">
+        <v>39.092700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8">
+        <v>117.1837</v>
+      </c>
+      <c r="E8">
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9">
+        <v>117.26900000000001</v>
+      </c>
+      <c r="E9">
+        <v>39.133699999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10">
+        <v>117.307</v>
+      </c>
+      <c r="E10">
+        <v>39.087699999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11">
+        <v>117.70699999999999</v>
+      </c>
+      <c r="E11">
+        <v>39.034300000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="E12">
+        <v>38.839399999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13">
+        <v>117.401</v>
+      </c>
+      <c r="E13">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14">
+        <v>117.764</v>
+      </c>
+      <c r="E14">
+        <v>39.158700000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15">
+        <v>117.157</v>
+      </c>
+      <c r="E15">
+        <v>38.919400000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A2:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2">
+        <v>117.96639999999999</v>
+      </c>
+      <c r="E2">
+        <v>40.9161</v>
+      </c>
+      <c r="F2">
+        <v>5.19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3">
+        <v>117.9525</v>
+      </c>
+      <c r="E3">
+        <v>40.984299999999998</v>
+      </c>
+      <c r="F3">
+        <v>5.19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4">
+        <v>117.96299999999999</v>
+      </c>
+      <c r="E4">
+        <v>40.935899999999997</v>
+      </c>
+      <c r="F4">
+        <v>5.19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5">
+        <v>117.8184</v>
+      </c>
+      <c r="E5">
+        <v>40.973300000000002</v>
+      </c>
+      <c r="F5">
+        <v>5.19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6">
+        <v>117.9384</v>
+      </c>
+      <c r="E6">
+        <v>41.011200000000002</v>
+      </c>
+      <c r="F6">
+        <v>5.19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7">
+        <v>116.8854</v>
+      </c>
+      <c r="E7">
+        <v>38.299100000000003</v>
+      </c>
+      <c r="F7">
+        <v>5.19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8">
+        <v>116.8584</v>
+      </c>
+      <c r="E8">
+        <v>38.325400000000002</v>
+      </c>
+      <c r="F8">
+        <v>5.19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9">
+        <v>114.4821</v>
+      </c>
+      <c r="E9">
+        <v>37.096699999999998</v>
+      </c>
+      <c r="F9">
+        <v>5.19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10">
+        <v>114.5261</v>
+      </c>
+      <c r="E10">
+        <v>37.0533</v>
+      </c>
+      <c r="F10">
+        <v>5.19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11">
+        <v>114.5331</v>
+      </c>
+      <c r="E11">
+        <v>37.096400000000003</v>
+      </c>
+      <c r="F11">
+        <v>5.19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12">
+        <v>114.4854</v>
+      </c>
+      <c r="E12">
+        <v>37.061999999999998</v>
+      </c>
+      <c r="F12">
+        <v>5.19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2">
+        <v>114.45480000000001</v>
+      </c>
+      <c r="E2">
+        <v>38.051299999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>114.6046</v>
+      </c>
+      <c r="E3">
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E4">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5">
+        <v>114.4586111</v>
+      </c>
+      <c r="E5">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6">
+        <v>114.5330556</v>
+      </c>
+      <c r="E6">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7">
+        <v>114.5214</v>
+      </c>
+      <c r="E7">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8">
+        <v>114.8985</v>
+      </c>
+      <c r="E8">
+        <v>40.8367</v>
+      </c>
+      <c r="F8">
+        <v>5.19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9">
+        <v>114.892</v>
+      </c>
+      <c r="E9">
+        <v>40.794809999999998</v>
+      </c>
+      <c r="F9">
+        <v>5.19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10">
+        <v>114.8814</v>
+      </c>
+      <c r="E10">
+        <v>40.811500000000002</v>
+      </c>
+      <c r="F10">
+        <v>5.19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11">
+        <v>114.9032</v>
+      </c>
+      <c r="E11">
+        <v>40.768799999999999</v>
+      </c>
+      <c r="F11">
+        <v>5.19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12">
+        <v>114.904</v>
+      </c>
+      <c r="E12">
+        <v>40.872500000000002</v>
+      </c>
+      <c r="F12">
+        <v>5.19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -8712,7 +9585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -9102,861 +9975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A2:H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D2">
-        <v>117.96639999999999</v>
-      </c>
-      <c r="E2">
-        <v>40.9161</v>
-      </c>
-      <c r="F2">
-        <v>5.19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D3">
-        <v>117.9525</v>
-      </c>
-      <c r="E3">
-        <v>40.984299999999998</v>
-      </c>
-      <c r="F3">
-        <v>5.19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4">
-        <v>117.96299999999999</v>
-      </c>
-      <c r="E4">
-        <v>40.935899999999997</v>
-      </c>
-      <c r="F4">
-        <v>5.19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5">
-        <v>117.8184</v>
-      </c>
-      <c r="E5">
-        <v>40.973300000000002</v>
-      </c>
-      <c r="F5">
-        <v>5.19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6">
-        <v>117.9384</v>
-      </c>
-      <c r="E6">
-        <v>41.011200000000002</v>
-      </c>
-      <c r="F6">
-        <v>5.19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7">
-        <v>116.8854</v>
-      </c>
-      <c r="E7">
-        <v>38.299100000000003</v>
-      </c>
-      <c r="F7">
-        <v>5.19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D8">
-        <v>116.8584</v>
-      </c>
-      <c r="E8">
-        <v>38.325400000000002</v>
-      </c>
-      <c r="F8">
-        <v>5.19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9">
-        <v>114.4821</v>
-      </c>
-      <c r="E9">
-        <v>37.096699999999998</v>
-      </c>
-      <c r="F9">
-        <v>5.19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10">
-        <v>114.5261</v>
-      </c>
-      <c r="E10">
-        <v>37.0533</v>
-      </c>
-      <c r="F10">
-        <v>5.19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11">
-        <v>114.5331</v>
-      </c>
-      <c r="E11">
-        <v>37.096400000000003</v>
-      </c>
-      <c r="F11">
-        <v>5.19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12">
-        <v>114.4854</v>
-      </c>
-      <c r="E12">
-        <v>37.061999999999998</v>
-      </c>
-      <c r="F12">
-        <v>5.19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D2">
-        <v>117.151</v>
-      </c>
-      <c r="E2">
-        <v>39.097000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D3">
-        <v>117.193</v>
-      </c>
-      <c r="E3">
-        <v>39.173000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D4">
-        <v>117.145</v>
-      </c>
-      <c r="E4">
-        <v>39.165399999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D5">
-        <v>117.184</v>
-      </c>
-      <c r="E5">
-        <v>39.1205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6">
-        <v>117.23699999999999</v>
-      </c>
-      <c r="E6">
-        <v>39.108199999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7">
-        <v>117.202</v>
-      </c>
-      <c r="E7">
-        <v>39.092700000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8">
-        <v>117.1837</v>
-      </c>
-      <c r="E8">
-        <v>39.213299999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D9">
-        <v>117.26900000000001</v>
-      </c>
-      <c r="E9">
-        <v>39.133699999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>314</v>
-      </c>
-      <c r="B10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D10">
-        <v>117.307</v>
-      </c>
-      <c r="E10">
-        <v>39.087699999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C11" t="s">
-        <v>299</v>
-      </c>
-      <c r="D11">
-        <v>117.70699999999999</v>
-      </c>
-      <c r="E11">
-        <v>39.034300000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" t="s">
-        <v>319</v>
-      </c>
-      <c r="C12" t="s">
-        <v>299</v>
-      </c>
-      <c r="D12">
-        <v>117.45699999999999</v>
-      </c>
-      <c r="E12">
-        <v>38.839399999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>320</v>
-      </c>
-      <c r="B13" t="s">
-        <v>321</v>
-      </c>
-      <c r="C13" t="s">
-        <v>299</v>
-      </c>
-      <c r="D13">
-        <v>117.401</v>
-      </c>
-      <c r="E13">
-        <v>39.124000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>322</v>
-      </c>
-      <c r="B14" t="s">
-        <v>323</v>
-      </c>
-      <c r="C14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14">
-        <v>117.764</v>
-      </c>
-      <c r="E14">
-        <v>39.158700000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>324</v>
-      </c>
-      <c r="B15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C15" t="s">
-        <v>299</v>
-      </c>
-      <c r="D15">
-        <v>117.157</v>
-      </c>
-      <c r="E15">
-        <v>38.919400000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2">
-        <v>116.366</v>
-      </c>
-      <c r="E2">
-        <v>39.8673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3">
-        <v>116.17</v>
-      </c>
-      <c r="E3">
-        <v>40.286499999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4">
-        <v>116.434</v>
-      </c>
-      <c r="E4">
-        <v>39.952199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5">
-        <v>116.434</v>
-      </c>
-      <c r="E5">
-        <v>39.874499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6">
-        <v>116.473</v>
-      </c>
-      <c r="E6">
-        <v>39.971600000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7">
-        <v>116.361</v>
-      </c>
-      <c r="E7">
-        <v>39.942500000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8">
-        <v>116.315</v>
-      </c>
-      <c r="E8">
-        <v>39.993400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9">
-        <v>116.72</v>
-      </c>
-      <c r="E9">
-        <v>40.143799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10">
-        <v>116.64400000000001</v>
-      </c>
-      <c r="E10">
-        <v>40.393700000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>291</v>
-      </c>
-      <c r="B11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11">
-        <v>116.23</v>
-      </c>
-      <c r="E11">
-        <v>40.1952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D12">
-        <v>116.407</v>
-      </c>
-      <c r="E12">
-        <v>40.003100000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13">
-        <v>116.22499999999999</v>
-      </c>
-      <c r="E13">
-        <v>39.927900000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A76644-5F86-4776-A293-540939F77A3D}">
   <dimension ref="A1:H87"/>
   <sheetViews>
@@ -11601,1655 +11620,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H87"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2">
-        <v>116.366</v>
-      </c>
-      <c r="E2">
-        <v>39.8673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3">
-        <v>116.17</v>
-      </c>
-      <c r="E3">
-        <v>40.286499999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4">
-        <v>116.434</v>
-      </c>
-      <c r="E4">
-        <v>39.952199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5">
-        <v>116.434</v>
-      </c>
-      <c r="E5">
-        <v>39.874499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6">
-        <v>116.473</v>
-      </c>
-      <c r="E6">
-        <v>39.971600000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7">
-        <v>116.361</v>
-      </c>
-      <c r="E7">
-        <v>39.942500000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8">
-        <v>116.315</v>
-      </c>
-      <c r="E8">
-        <v>39.993400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9">
-        <v>116.72</v>
-      </c>
-      <c r="E9">
-        <v>40.143799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10">
-        <v>116.64400000000001</v>
-      </c>
-      <c r="E10">
-        <v>40.393700000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>291</v>
-      </c>
-      <c r="B11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11">
-        <v>116.23</v>
-      </c>
-      <c r="E11">
-        <v>40.1952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D12">
-        <v>116.407</v>
-      </c>
-      <c r="E12">
-        <v>40.003100000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13">
-        <v>116.22499999999999</v>
-      </c>
-      <c r="E13">
-        <v>39.927900000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>297</v>
-      </c>
-      <c r="B14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14">
-        <v>117.151</v>
-      </c>
-      <c r="E14">
-        <v>39.097000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C15" t="s">
-        <v>299</v>
-      </c>
-      <c r="D15">
-        <v>117.193</v>
-      </c>
-      <c r="E15">
-        <v>39.173000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>302</v>
-      </c>
-      <c r="B16" t="s">
-        <v>303</v>
-      </c>
-      <c r="C16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D16">
-        <v>117.145</v>
-      </c>
-      <c r="E16">
-        <v>39.165399999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>304</v>
-      </c>
-      <c r="B17" t="s">
-        <v>305</v>
-      </c>
-      <c r="C17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D17">
-        <v>117.184</v>
-      </c>
-      <c r="E17">
-        <v>39.1205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18" t="s">
-        <v>307</v>
-      </c>
-      <c r="C18" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18">
-        <v>117.23699999999999</v>
-      </c>
-      <c r="E18">
-        <v>39.108199999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>308</v>
-      </c>
-      <c r="B19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C19" t="s">
-        <v>299</v>
-      </c>
-      <c r="D19">
-        <v>117.202</v>
-      </c>
-      <c r="E19">
-        <v>39.092700000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>310</v>
-      </c>
-      <c r="B20" t="s">
-        <v>311</v>
-      </c>
-      <c r="C20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D20">
-        <v>117.1837</v>
-      </c>
-      <c r="E20">
-        <v>39.213299999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21" t="s">
-        <v>313</v>
-      </c>
-      <c r="C21" t="s">
-        <v>299</v>
-      </c>
-      <c r="D21">
-        <v>117.26900000000001</v>
-      </c>
-      <c r="E21">
-        <v>39.133699999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>314</v>
-      </c>
-      <c r="B22" t="s">
-        <v>315</v>
-      </c>
-      <c r="C22" t="s">
-        <v>299</v>
-      </c>
-      <c r="D22">
-        <v>117.307</v>
-      </c>
-      <c r="E22">
-        <v>39.087699999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>316</v>
-      </c>
-      <c r="B23" t="s">
-        <v>317</v>
-      </c>
-      <c r="C23" t="s">
-        <v>299</v>
-      </c>
-      <c r="D23">
-        <v>117.70699999999999</v>
-      </c>
-      <c r="E23">
-        <v>39.034300000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>318</v>
-      </c>
-      <c r="B24" t="s">
-        <v>319</v>
-      </c>
-      <c r="C24" t="s">
-        <v>299</v>
-      </c>
-      <c r="D24">
-        <v>117.45699999999999</v>
-      </c>
-      <c r="E24">
-        <v>38.839399999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>320</v>
-      </c>
-      <c r="B25" t="s">
-        <v>321</v>
-      </c>
-      <c r="C25" t="s">
-        <v>299</v>
-      </c>
-      <c r="D25">
-        <v>117.401</v>
-      </c>
-      <c r="E25">
-        <v>39.124000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>322</v>
-      </c>
-      <c r="B26" t="s">
-        <v>323</v>
-      </c>
-      <c r="C26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D26">
-        <v>117.764</v>
-      </c>
-      <c r="E26">
-        <v>39.158700000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>324</v>
-      </c>
-      <c r="B27" t="s">
-        <v>325</v>
-      </c>
-      <c r="C27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D27">
-        <v>117.157</v>
-      </c>
-      <c r="E27">
-        <v>38.919400000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28">
-        <v>114.45480000000001</v>
-      </c>
-      <c r="E28">
-        <v>38.051299999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29">
-        <v>114.6046</v>
-      </c>
-      <c r="E29">
-        <v>38.0398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30">
-        <v>114.50190000000001</v>
-      </c>
-      <c r="E30">
-        <v>38.139800000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31">
-        <v>114.4586111</v>
-      </c>
-      <c r="E31">
-        <v>38.005833330000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32">
-        <v>114.5330556</v>
-      </c>
-      <c r="E32">
-        <v>38.017777780000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>178</v>
-      </c>
-      <c r="B33" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33">
-        <v>114.5214</v>
-      </c>
-      <c r="E33">
-        <v>38.052399999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>225</v>
-      </c>
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34">
-        <v>114.8985</v>
-      </c>
-      <c r="E34">
-        <v>40.8367</v>
-      </c>
-      <c r="F34">
-        <v>5.19</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>227</v>
-      </c>
-      <c r="B35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D35">
-        <v>114.892</v>
-      </c>
-      <c r="E35">
-        <v>40.794809999999998</v>
-      </c>
-      <c r="F35">
-        <v>5.19</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>229</v>
-      </c>
-      <c r="B36" t="s">
-        <v>230</v>
-      </c>
-      <c r="C36" t="s">
-        <v>226</v>
-      </c>
-      <c r="D36">
-        <v>114.8814</v>
-      </c>
-      <c r="E36">
-        <v>40.811500000000002</v>
-      </c>
-      <c r="F36">
-        <v>5.19</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>231</v>
-      </c>
-      <c r="B37" t="s">
-        <v>232</v>
-      </c>
-      <c r="C37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D37">
-        <v>114.9032</v>
-      </c>
-      <c r="E37">
-        <v>40.768799999999999</v>
-      </c>
-      <c r="F37">
-        <v>5.19</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>233</v>
-      </c>
-      <c r="B38" t="s">
-        <v>234</v>
-      </c>
-      <c r="C38" t="s">
-        <v>226</v>
-      </c>
-      <c r="D38">
-        <v>114.904</v>
-      </c>
-      <c r="E38">
-        <v>40.872500000000002</v>
-      </c>
-      <c r="F38">
-        <v>5.19</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>235</v>
-      </c>
-      <c r="B39" t="s">
-        <v>236</v>
-      </c>
-      <c r="C39" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39">
-        <v>117.96639999999999</v>
-      </c>
-      <c r="E39">
-        <v>40.9161</v>
-      </c>
-      <c r="F39">
-        <v>5.19</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>238</v>
-      </c>
-      <c r="B40" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40">
-        <v>117.9525</v>
-      </c>
-      <c r="E40">
-        <v>40.984299999999998</v>
-      </c>
-      <c r="F40">
-        <v>5.19</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>240</v>
-      </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" t="s">
-        <v>237</v>
-      </c>
-      <c r="D41">
-        <v>117.96299999999999</v>
-      </c>
-      <c r="E41">
-        <v>40.935899999999997</v>
-      </c>
-      <c r="F41">
-        <v>5.19</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>241</v>
-      </c>
-      <c r="B42" t="s">
-        <v>242</v>
-      </c>
-      <c r="C42" t="s">
-        <v>237</v>
-      </c>
-      <c r="D42">
-        <v>117.8184</v>
-      </c>
-      <c r="E42">
-        <v>40.973300000000002</v>
-      </c>
-      <c r="F42">
-        <v>5.19</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>243</v>
-      </c>
-      <c r="B43" t="s">
-        <v>244</v>
-      </c>
-      <c r="C43" t="s">
-        <v>237</v>
-      </c>
-      <c r="D43">
-        <v>117.9384</v>
-      </c>
-      <c r="E43">
-        <v>41.011200000000002</v>
-      </c>
-      <c r="F43">
-        <v>5.19</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>253</v>
-      </c>
-      <c r="B44" t="s">
-        <v>254</v>
-      </c>
-      <c r="C44" t="s">
-        <v>255</v>
-      </c>
-      <c r="D44">
-        <v>116.8854</v>
-      </c>
-      <c r="E44">
-        <v>38.299100000000003</v>
-      </c>
-      <c r="F44">
-        <v>5.19</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>256</v>
-      </c>
-      <c r="B45" t="s">
-        <v>257</v>
-      </c>
-      <c r="C45" t="s">
-        <v>255</v>
-      </c>
-      <c r="D45">
-        <v>116.8584</v>
-      </c>
-      <c r="E45">
-        <v>38.325400000000002</v>
-      </c>
-      <c r="F45">
-        <v>5.19</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>264</v>
-      </c>
-      <c r="B46" t="s">
-        <v>265</v>
-      </c>
-      <c r="C46" t="s">
-        <v>266</v>
-      </c>
-      <c r="D46">
-        <v>114.4821</v>
-      </c>
-      <c r="E46">
-        <v>37.096699999999998</v>
-      </c>
-      <c r="F46">
-        <v>5.19</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>267</v>
-      </c>
-      <c r="B47" t="s">
-        <v>268</v>
-      </c>
-      <c r="C47" t="s">
-        <v>266</v>
-      </c>
-      <c r="D47">
-        <v>114.5261</v>
-      </c>
-      <c r="E47">
-        <v>37.0533</v>
-      </c>
-      <c r="F47">
-        <v>5.19</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>269</v>
-      </c>
-      <c r="B48" t="s">
-        <v>270</v>
-      </c>
-      <c r="C48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D48">
-        <v>114.5331</v>
-      </c>
-      <c r="E48">
-        <v>37.096400000000003</v>
-      </c>
-      <c r="F48">
-        <v>5.19</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" t="s">
-        <v>266</v>
-      </c>
-      <c r="D49">
-        <v>114.4854</v>
-      </c>
-      <c r="E49">
-        <v>37.061999999999998</v>
-      </c>
-      <c r="F49">
-        <v>5.19</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50">
-        <v>116.988</v>
-      </c>
-      <c r="E50">
-        <v>36.611400000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51">
-        <v>116.93</v>
-      </c>
-      <c r="E51">
-        <v>36.67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52">
-        <v>117.114</v>
-      </c>
-      <c r="E52">
-        <v>36.673900000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53">
-        <v>116.989</v>
-      </c>
-      <c r="E53">
-        <v>36.687199999999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54">
-        <v>117.0684</v>
-      </c>
-      <c r="E54">
-        <v>36.686799999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55">
-        <v>116.943</v>
-      </c>
-      <c r="E55">
-        <v>36.648899999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56">
-        <v>117.04900000000001</v>
-      </c>
-      <c r="E56">
-        <v>36.662199999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57">
-        <v>116.73399999999999</v>
-      </c>
-      <c r="E57">
-        <v>36.5336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58">
-        <v>120.66589999999999</v>
-      </c>
-      <c r="E58">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59">
-        <v>120.3905</v>
-      </c>
-      <c r="E59">
-        <v>36.185099999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60">
-        <v>120.3471</v>
-      </c>
-      <c r="E60">
-        <v>36.069899999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61">
-        <v>120.4134</v>
-      </c>
-      <c r="E61">
-        <v>36.065399999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62">
-        <v>120.3664</v>
-      </c>
-      <c r="E62">
-        <v>36.103200000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63">
-        <v>120.2992</v>
-      </c>
-      <c r="E63">
-        <v>36.054299999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64">
-        <v>120.45869999999999</v>
-      </c>
-      <c r="E64">
-        <v>36.085099999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65">
-        <v>120.1964</v>
-      </c>
-      <c r="E65">
-        <v>36.308300000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="E66">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67">
-        <v>117.685</v>
-      </c>
-      <c r="E67">
-        <v>36.204999999999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68">
-        <v>117.6789</v>
-      </c>
-      <c r="E68">
-        <v>36.228900000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" t="s">
-        <v>55</v>
-      </c>
-      <c r="C69" t="s">
-        <v>51</v>
-      </c>
-      <c r="D69">
-        <v>117.715</v>
-      </c>
-      <c r="E69">
-        <v>36.208100000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E70">
-        <v>35.057299999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>59</v>
-      </c>
-      <c r="B71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E71">
-        <v>35.062199999999997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>61</v>
-      </c>
-      <c r="B72" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72">
-        <v>118.2764</v>
-      </c>
-      <c r="E72">
-        <v>34.981699999999996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73">
-        <v>118.4023</v>
-      </c>
-      <c r="E73">
-        <v>35.089599999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74">
-        <v>117.8477</v>
-      </c>
-      <c r="E74">
-        <v>36.497</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75">
-        <v>117.45180000000001</v>
-      </c>
-      <c r="E75">
-        <v>35.099200000000003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76">
-        <v>119.12</v>
-      </c>
-      <c r="E76">
-        <v>36.701900000000002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77">
-        <v>119.0919</v>
-      </c>
-      <c r="E77">
-        <v>36.730600000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>126</v>
-      </c>
-      <c r="B78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78">
-        <v>119.1425</v>
-      </c>
-      <c r="E78">
-        <v>36.700800000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79">
-        <v>119.1614</v>
-      </c>
-      <c r="E79">
-        <v>36.657200000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80">
-        <v>119.1939</v>
-      </c>
-      <c r="E80">
-        <v>36.773099999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>138</v>
-      </c>
-      <c r="B81" t="s">
-        <v>129</v>
-      </c>
-      <c r="C81" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81">
-        <v>119.4641</v>
-      </c>
-      <c r="E81">
-        <v>35.4178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" t="s">
-        <v>141</v>
-      </c>
-      <c r="C82" t="s">
-        <v>139</v>
-      </c>
-      <c r="D82">
-        <v>119.5198</v>
-      </c>
-      <c r="E82">
-        <v>35.423400000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>142</v>
-      </c>
-      <c r="B83" t="s">
-        <v>143</v>
-      </c>
-      <c r="C83" t="s">
-        <v>139</v>
-      </c>
-      <c r="D83">
-        <v>119.54</v>
-      </c>
-      <c r="E83">
-        <v>35.3962</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>144</v>
-      </c>
-      <c r="B84" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84" t="s">
-        <v>146</v>
-      </c>
-      <c r="D84">
-        <v>122.1206</v>
-      </c>
-      <c r="E84">
-        <v>37.429400000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>158</v>
-      </c>
-      <c r="B85" t="s">
-        <v>159</v>
-      </c>
-      <c r="C85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D85">
-        <v>115.42277</v>
-      </c>
-      <c r="E85">
-        <v>35.248888999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>161</v>
-      </c>
-      <c r="B86" t="s">
-        <v>162</v>
-      </c>
-      <c r="C86" t="s">
-        <v>160</v>
-      </c>
-      <c r="D86">
-        <v>115.474722</v>
-      </c>
-      <c r="E86">
-        <v>35.237499999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>163</v>
-      </c>
-      <c r="B87" t="s">
-        <v>164</v>
-      </c>
-      <c r="C87" t="s">
-        <v>160</v>
-      </c>
-      <c r="D87">
-        <v>115.455</v>
-      </c>
-      <c r="E87">
-        <v>35.270000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00D213-DEC7-4051-A2E4-2C4A6698AD8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD43DDD-4460-49FC-ADC1-F8345FE1724A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="北京" sheetId="2" r:id="rId1"/>
-    <sheet name="天津" sheetId="3" r:id="rId2"/>
-    <sheet name="河北2" sheetId="12" r:id="rId3"/>
-    <sheet name="河北1" sheetId="11" r:id="rId4"/>
-    <sheet name="测试" sheetId="10" r:id="rId5"/>
-    <sheet name="山东1" sheetId="7" r:id="rId6"/>
-    <sheet name="山东 2" sheetId="8" r:id="rId7"/>
-    <sheet name="可用86市汇总" sheetId="14" r:id="rId8"/>
-    <sheet name="河北2013" sheetId="13" r:id="rId9"/>
-    <sheet name="山东2013" sheetId="9" r:id="rId10"/>
-    <sheet name="山东" sheetId="5" r:id="rId11"/>
-    <sheet name="河北" sheetId="4" r:id="rId12"/>
-    <sheet name="汇总" sheetId="6" r:id="rId13"/>
+    <sheet name="T18519" sheetId="15" r:id="rId1"/>
+    <sheet name="山东1" sheetId="7" r:id="rId2"/>
+    <sheet name="北京" sheetId="2" r:id="rId3"/>
+    <sheet name="天津" sheetId="3" r:id="rId4"/>
+    <sheet name="河北2" sheetId="12" r:id="rId5"/>
+    <sheet name="河北1" sheetId="11" r:id="rId6"/>
+    <sheet name="测试" sheetId="10" r:id="rId7"/>
+    <sheet name="山东 2" sheetId="8" r:id="rId8"/>
+    <sheet name="可用86市汇总" sheetId="14" r:id="rId9"/>
+    <sheet name="河北2013" sheetId="13" r:id="rId10"/>
+    <sheet name="山东2013" sheetId="9" r:id="rId11"/>
+    <sheet name="山东" sheetId="5" r:id="rId12"/>
+    <sheet name="河北" sheetId="4" r:id="rId13"/>
+    <sheet name="汇总" sheetId="6" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="337">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1385,11 +1386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDE112F-36F7-4FAD-835E-47D76D1B42AF}">
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1397,7 +1398,7 @@
     <col min="1" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1414,223 +1415,1731 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="D2">
-        <v>116.366</v>
+        <v>114.8985</v>
       </c>
       <c r="E2">
-        <v>39.8673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40.8367</v>
+      </c>
+      <c r="F2">
+        <v>5.19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="D3">
-        <v>116.17</v>
+        <v>114.892</v>
       </c>
       <c r="E3">
-        <v>40.286499999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40.794809999999998</v>
+      </c>
+      <c r="F3">
+        <v>5.19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="D4">
-        <v>116.434</v>
+        <v>114.8814</v>
       </c>
       <c r="E4">
-        <v>39.952199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40.811500000000002</v>
+      </c>
+      <c r="F4">
+        <v>5.19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="D5">
-        <v>116.434</v>
+        <v>114.9032</v>
       </c>
       <c r="E5">
-        <v>39.874499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40.768799999999999</v>
+      </c>
+      <c r="F5">
+        <v>5.19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="D6">
-        <v>116.473</v>
+        <v>114.904</v>
       </c>
       <c r="E6">
-        <v>39.971600000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40.872500000000002</v>
+      </c>
+      <c r="F6">
+        <v>5.19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="D7">
-        <v>116.361</v>
+        <v>117.96639999999999</v>
       </c>
       <c r="E7">
-        <v>39.942500000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40.9161</v>
+      </c>
+      <c r="F7">
+        <v>5.19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="D8">
-        <v>116.315</v>
+        <v>117.9525</v>
       </c>
       <c r="E8">
-        <v>39.993400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40.984299999999998</v>
+      </c>
+      <c r="F8">
+        <v>5.19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="D9">
-        <v>116.72</v>
+        <v>117.96299999999999</v>
       </c>
       <c r="E9">
-        <v>40.143799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40.935899999999997</v>
+      </c>
+      <c r="F9">
+        <v>5.19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="D10">
-        <v>116.64400000000001</v>
+        <v>117.8184</v>
       </c>
       <c r="E10">
-        <v>40.393700000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40.973300000000002</v>
+      </c>
+      <c r="F10">
+        <v>5.19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="D11">
-        <v>116.23</v>
+        <v>117.9384</v>
       </c>
       <c r="E11">
-        <v>40.1952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41.011200000000002</v>
+      </c>
+      <c r="F11">
+        <v>5.19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C12" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="D12">
-        <v>116.407</v>
+        <v>116.8854</v>
       </c>
       <c r="E12">
-        <v>40.003100000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38.299100000000003</v>
+      </c>
+      <c r="F12">
+        <v>5.19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="C13" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="D13">
-        <v>116.22499999999999</v>
+        <v>116.8584</v>
       </c>
       <c r="E13">
-        <v>39.927900000000001</v>
+        <v>38.325400000000002</v>
+      </c>
+      <c r="F13">
+        <v>5.19</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14">
+        <v>114.4821</v>
+      </c>
+      <c r="E14">
+        <v>37.096699999999998</v>
+      </c>
+      <c r="F14">
+        <v>5.19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15">
+        <v>114.5261</v>
+      </c>
+      <c r="E15">
+        <v>37.0533</v>
+      </c>
+      <c r="F15">
+        <v>5.19</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16">
+        <v>114.5331</v>
+      </c>
+      <c r="E16">
+        <v>37.096400000000003</v>
+      </c>
+      <c r="F16">
+        <v>5.19</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17">
+        <v>114.4854</v>
+      </c>
+      <c r="E17">
+        <v>37.061999999999998</v>
+      </c>
+      <c r="F17">
+        <v>5.19</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18">
+        <v>117.8477</v>
+      </c>
+      <c r="E18">
+        <v>36.497</v>
+      </c>
+      <c r="F18">
+        <v>5.19</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19">
+        <v>117.45180000000001</v>
+      </c>
+      <c r="E19">
+        <v>35.099200000000003</v>
+      </c>
+      <c r="F19">
+        <v>5.19</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>119.12</v>
+      </c>
+      <c r="E20">
+        <v>36.701900000000002</v>
+      </c>
+      <c r="F20">
+        <v>5.19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>119.0919</v>
+      </c>
+      <c r="E21">
+        <v>36.730600000000003</v>
+      </c>
+      <c r="F21">
+        <v>5.19</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>119.1425</v>
+      </c>
+      <c r="E22">
+        <v>36.700800000000001</v>
+      </c>
+      <c r="F22">
+        <v>5.19</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>119.1614</v>
+      </c>
+      <c r="E23">
+        <v>36.657200000000003</v>
+      </c>
+      <c r="F23">
+        <v>5.19</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>119.1939</v>
+      </c>
+      <c r="E24">
+        <v>36.773099999999999</v>
+      </c>
+      <c r="F24">
+        <v>5.19</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25">
+        <v>119.4641</v>
+      </c>
+      <c r="E25">
+        <v>35.4178</v>
+      </c>
+      <c r="F25">
+        <v>5.19</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26">
+        <v>119.5198</v>
+      </c>
+      <c r="E26">
+        <v>35.423400000000001</v>
+      </c>
+      <c r="F26">
+        <v>5.19</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27">
+        <v>119.54</v>
+      </c>
+      <c r="E27">
+        <v>35.3962</v>
+      </c>
+      <c r="F27">
+        <v>5.19</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28">
+        <v>122.1206</v>
+      </c>
+      <c r="E28">
+        <v>37.429400000000001</v>
+      </c>
+      <c r="F28">
+        <v>5.19</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29">
+        <v>115.42277</v>
+      </c>
+      <c r="E29">
+        <v>35.248888999999998</v>
+      </c>
+      <c r="F29">
+        <v>5.19</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30">
+        <v>115.474722</v>
+      </c>
+      <c r="E30">
+        <v>35.237499999999997</v>
+      </c>
+      <c r="F30">
+        <v>5.19</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31">
+        <v>115.455</v>
+      </c>
+      <c r="E31">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="F31">
+        <v>5.19</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32">
+        <v>117.685</v>
+      </c>
+      <c r="E32">
+        <v>36.204999999999998</v>
+      </c>
+      <c r="F32">
+        <v>5.19</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>117.6789</v>
+      </c>
+      <c r="E33">
+        <v>36.228900000000003</v>
+      </c>
+      <c r="F33">
+        <v>5.19</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34">
+        <v>117.715</v>
+      </c>
+      <c r="E34">
+        <v>36.208100000000002</v>
+      </c>
+      <c r="F34">
+        <v>5.19</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35">
+        <v>118.34180000000001</v>
+      </c>
+      <c r="E35">
+        <v>35.057299999999998</v>
+      </c>
+      <c r="F35">
+        <v>5.19</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36">
+        <v>118.29389999999999</v>
+      </c>
+      <c r="E36">
+        <v>35.062199999999997</v>
+      </c>
+      <c r="F36">
+        <v>5.19</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37">
+        <v>118.2764</v>
+      </c>
+      <c r="E37">
+        <v>34.981699999999996</v>
+      </c>
+      <c r="F37">
+        <v>5.19</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38">
+        <v>118.4023</v>
+      </c>
+      <c r="E38">
+        <v>35.089599999999997</v>
+      </c>
+      <c r="F38">
+        <v>5.19</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>116.988</v>
+      </c>
+      <c r="E39">
+        <v>36.611400000000003</v>
+      </c>
+      <c r="F39">
+        <v>5.19</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>116.93</v>
+      </c>
+      <c r="E40">
+        <v>36.67</v>
+      </c>
+      <c r="F40">
+        <v>5.19</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>117.114</v>
+      </c>
+      <c r="E41">
+        <v>36.673900000000003</v>
+      </c>
+      <c r="F41">
+        <v>5.19</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>116.989</v>
+      </c>
+      <c r="E42">
+        <v>36.687199999999997</v>
+      </c>
+      <c r="F42">
+        <v>5.19</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>117.0684</v>
+      </c>
+      <c r="E43">
+        <v>36.686799999999998</v>
+      </c>
+      <c r="F43">
+        <v>5.19</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>116.943</v>
+      </c>
+      <c r="E44">
+        <v>36.648899999999998</v>
+      </c>
+      <c r="F44">
+        <v>5.19</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>117.04900000000001</v>
+      </c>
+      <c r="E45">
+        <v>36.662199999999999</v>
+      </c>
+      <c r="F45">
+        <v>5.19</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>116.73399999999999</v>
+      </c>
+      <c r="E46">
+        <v>36.5336</v>
+      </c>
+      <c r="F46">
+        <v>5.19</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="A2:H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2">
+        <v>114.45480000000001</v>
+      </c>
+      <c r="E2">
+        <v>38.051299999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>114.6046</v>
+      </c>
+      <c r="E3">
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E4">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5">
+        <v>114.4586111</v>
+      </c>
+      <c r="E5">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6">
+        <v>114.5330556</v>
+      </c>
+      <c r="E6">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7">
+        <v>114.5214</v>
+      </c>
+      <c r="E7">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8">
+        <v>114.8985</v>
+      </c>
+      <c r="E8">
+        <v>40.8367</v>
+      </c>
+      <c r="F8">
+        <v>5.19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9">
+        <v>114.892</v>
+      </c>
+      <c r="E9">
+        <v>40.794809999999998</v>
+      </c>
+      <c r="F9">
+        <v>5.19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10">
+        <v>114.8814</v>
+      </c>
+      <c r="E10">
+        <v>40.811500000000002</v>
+      </c>
+      <c r="F10">
+        <v>5.19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11">
+        <v>114.9032</v>
+      </c>
+      <c r="E11">
+        <v>40.768799999999999</v>
+      </c>
+      <c r="F11">
+        <v>5.19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12">
+        <v>114.904</v>
+      </c>
+      <c r="E12">
+        <v>40.872500000000002</v>
+      </c>
+      <c r="F12">
+        <v>5.19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13">
+        <v>117.96639999999999</v>
+      </c>
+      <c r="E13">
+        <v>40.9161</v>
+      </c>
+      <c r="F13">
+        <v>5.19</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14">
+        <v>117.9525</v>
+      </c>
+      <c r="E14">
+        <v>40.984299999999998</v>
+      </c>
+      <c r="F14">
+        <v>5.19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15">
+        <v>117.96299999999999</v>
+      </c>
+      <c r="E15">
+        <v>40.935899999999997</v>
+      </c>
+      <c r="F15">
+        <v>5.19</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16">
+        <v>117.8184</v>
+      </c>
+      <c r="E16">
+        <v>40.973300000000002</v>
+      </c>
+      <c r="F16">
+        <v>5.19</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17">
+        <v>117.9384</v>
+      </c>
+      <c r="E17">
+        <v>41.011200000000002</v>
+      </c>
+      <c r="F17">
+        <v>5.19</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18">
+        <v>116.8854</v>
+      </c>
+      <c r="E18">
+        <v>38.299100000000003</v>
+      </c>
+      <c r="F18">
+        <v>5.19</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19">
+        <v>116.8584</v>
+      </c>
+      <c r="E19">
+        <v>38.325400000000002</v>
+      </c>
+      <c r="F19">
+        <v>5.19</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20">
+        <v>114.4821</v>
+      </c>
+      <c r="E20">
+        <v>37.096699999999998</v>
+      </c>
+      <c r="F20">
+        <v>5.19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21">
+        <v>114.5261</v>
+      </c>
+      <c r="E21">
+        <v>37.0533</v>
+      </c>
+      <c r="F21">
+        <v>5.19</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22">
+        <v>114.5331</v>
+      </c>
+      <c r="E22">
+        <v>37.096400000000003</v>
+      </c>
+      <c r="F22">
+        <v>5.19</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23">
+        <v>114.4854</v>
+      </c>
+      <c r="E23">
+        <v>37.061999999999998</v>
+      </c>
+      <c r="F23">
+        <v>5.19</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
@@ -2589,7 +4098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
@@ -4271,7 +5780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
@@ -5446,7 +6955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E153"/>
   <sheetViews>
@@ -8068,6 +9577,869 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="A2:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>116.988</v>
+      </c>
+      <c r="E2">
+        <v>36.611400000000003</v>
+      </c>
+      <c r="F2">
+        <v>5.19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>116.93</v>
+      </c>
+      <c r="E3">
+        <v>36.67</v>
+      </c>
+      <c r="F3">
+        <v>5.19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>117.114</v>
+      </c>
+      <c r="E4">
+        <v>36.673900000000003</v>
+      </c>
+      <c r="F4">
+        <v>5.19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>116.989</v>
+      </c>
+      <c r="E5">
+        <v>36.687199999999997</v>
+      </c>
+      <c r="F5">
+        <v>5.19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>117.0684</v>
+      </c>
+      <c r="E6">
+        <v>36.686799999999998</v>
+      </c>
+      <c r="F6">
+        <v>5.19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>116.943</v>
+      </c>
+      <c r="E7">
+        <v>36.648899999999998</v>
+      </c>
+      <c r="F7">
+        <v>5.19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>117.04900000000001</v>
+      </c>
+      <c r="E8">
+        <v>36.662199999999999</v>
+      </c>
+      <c r="F8">
+        <v>5.19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>116.73399999999999</v>
+      </c>
+      <c r="E9">
+        <v>36.5336</v>
+      </c>
+      <c r="F9">
+        <v>5.19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>120.66589999999999</v>
+      </c>
+      <c r="E10">
+        <v>36.240299999999998</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>120.3905</v>
+      </c>
+      <c r="E11">
+        <v>36.185099999999998</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>120.3471</v>
+      </c>
+      <c r="E12">
+        <v>36.069899999999997</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>120.4134</v>
+      </c>
+      <c r="E13">
+        <v>36.065399999999997</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>120.3664</v>
+      </c>
+      <c r="E14">
+        <v>36.103200000000001</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>120.2992</v>
+      </c>
+      <c r="E15">
+        <v>36.054299999999998</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>120.45869999999999</v>
+      </c>
+      <c r="E16">
+        <v>36.085099999999997</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>120.1964</v>
+      </c>
+      <c r="E17">
+        <v>36.308300000000003</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>120.40009999999999</v>
+      </c>
+      <c r="E18">
+        <v>36.240299999999998</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>117.685</v>
+      </c>
+      <c r="E19">
+        <v>36.204999999999998</v>
+      </c>
+      <c r="F19">
+        <v>5.19</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>117.6789</v>
+      </c>
+      <c r="E20">
+        <v>36.228900000000003</v>
+      </c>
+      <c r="F20">
+        <v>5.19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>117.715</v>
+      </c>
+      <c r="E21">
+        <v>36.208100000000002</v>
+      </c>
+      <c r="F21">
+        <v>5.19</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>118.34180000000001</v>
+      </c>
+      <c r="E22">
+        <v>35.057299999999998</v>
+      </c>
+      <c r="F22">
+        <v>5.19</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <v>118.29389999999999</v>
+      </c>
+      <c r="E23">
+        <v>35.062199999999997</v>
+      </c>
+      <c r="F23">
+        <v>5.19</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>118.2764</v>
+      </c>
+      <c r="E24">
+        <v>34.981699999999996</v>
+      </c>
+      <c r="F24">
+        <v>5.19</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <v>118.4023</v>
+      </c>
+      <c r="E25">
+        <v>35.089599999999997</v>
+      </c>
+      <c r="F25">
+        <v>5.19</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2">
+        <v>116.366</v>
+      </c>
+      <c r="E2">
+        <v>39.8673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3">
+        <v>116.17</v>
+      </c>
+      <c r="E3">
+        <v>40.286499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4">
+        <v>116.434</v>
+      </c>
+      <c r="E4">
+        <v>39.952199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5">
+        <v>116.434</v>
+      </c>
+      <c r="E5">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6">
+        <v>116.473</v>
+      </c>
+      <c r="E6">
+        <v>39.971600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7">
+        <v>116.361</v>
+      </c>
+      <c r="E7">
+        <v>39.942500000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8">
+        <v>116.315</v>
+      </c>
+      <c r="E8">
+        <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9">
+        <v>116.72</v>
+      </c>
+      <c r="E9">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E10">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11">
+        <v>116.23</v>
+      </c>
+      <c r="E11">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12">
+        <v>116.407</v>
+      </c>
+      <c r="E12">
+        <v>40.003100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E13">
+        <v>39.927900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -8347,7 +10719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -8675,7 +11047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -8949,7 +11321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8968,12 +11340,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H25"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="A2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -9010,623 +11382,6 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>116.988</v>
-      </c>
-      <c r="E2">
-        <v>36.611400000000003</v>
-      </c>
-      <c r="F2">
-        <v>5.19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>116.93</v>
-      </c>
-      <c r="E3">
-        <v>36.67</v>
-      </c>
-      <c r="F3">
-        <v>5.19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>117.114</v>
-      </c>
-      <c r="E4">
-        <v>36.673900000000003</v>
-      </c>
-      <c r="F4">
-        <v>5.19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>116.989</v>
-      </c>
-      <c r="E5">
-        <v>36.687199999999997</v>
-      </c>
-      <c r="F5">
-        <v>5.19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>117.0684</v>
-      </c>
-      <c r="E6">
-        <v>36.686799999999998</v>
-      </c>
-      <c r="F6">
-        <v>5.19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>116.943</v>
-      </c>
-      <c r="E7">
-        <v>36.648899999999998</v>
-      </c>
-      <c r="F7">
-        <v>5.19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>117.04900000000001</v>
-      </c>
-      <c r="E8">
-        <v>36.662199999999999</v>
-      </c>
-      <c r="F8">
-        <v>5.19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>116.73399999999999</v>
-      </c>
-      <c r="E9">
-        <v>36.5336</v>
-      </c>
-      <c r="F9">
-        <v>5.19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10">
-        <v>120.66589999999999</v>
-      </c>
-      <c r="E10">
-        <v>36.240299999999998</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>120.3905</v>
-      </c>
-      <c r="E11">
-        <v>36.185099999999998</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
-        <v>120.3471</v>
-      </c>
-      <c r="E12">
-        <v>36.069899999999997</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
-        <v>120.4134</v>
-      </c>
-      <c r="E13">
-        <v>36.065399999999997</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>120.3664</v>
-      </c>
-      <c r="E14">
-        <v>36.103200000000001</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15">
-        <v>120.2992</v>
-      </c>
-      <c r="E15">
-        <v>36.054299999999998</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>120.45869999999999</v>
-      </c>
-      <c r="E16">
-        <v>36.085099999999997</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>120.1964</v>
-      </c>
-      <c r="E17">
-        <v>36.308300000000003</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="E18">
-        <v>36.240299999999998</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19">
-        <v>117.685</v>
-      </c>
-      <c r="E19">
-        <v>36.204999999999998</v>
-      </c>
-      <c r="F19">
-        <v>5.19</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20">
-        <v>117.6789</v>
-      </c>
-      <c r="E20">
-        <v>36.228900000000003</v>
-      </c>
-      <c r="F20">
-        <v>5.19</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21">
-        <v>117.715</v>
-      </c>
-      <c r="E21">
-        <v>36.208100000000002</v>
-      </c>
-      <c r="F21">
-        <v>5.19</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E22">
-        <v>35.057299999999998</v>
-      </c>
-      <c r="F22">
-        <v>5.19</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E23">
-        <v>35.062199999999997</v>
-      </c>
-      <c r="F23">
-        <v>5.19</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24">
-        <v>118.2764</v>
-      </c>
-      <c r="E24">
-        <v>34.981699999999996</v>
-      </c>
-      <c r="F24">
-        <v>5.19</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25">
-        <v>118.4023</v>
-      </c>
-      <c r="E25">
-        <v>35.089599999999997</v>
-      </c>
-      <c r="F25">
-        <v>5.19</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
@@ -9975,11 +11730,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A76644-5F86-4776-A293-540939F77A3D}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="G59" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11621,567 +13376,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="A2:H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2">
-        <v>114.45480000000001</v>
-      </c>
-      <c r="E2">
-        <v>38.051299999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3">
-        <v>114.6046</v>
-      </c>
-      <c r="E3">
-        <v>38.0398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4">
-        <v>114.50190000000001</v>
-      </c>
-      <c r="E4">
-        <v>38.139800000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5">
-        <v>114.4586111</v>
-      </c>
-      <c r="E5">
-        <v>38.005833330000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6">
-        <v>114.5330556</v>
-      </c>
-      <c r="E6">
-        <v>38.017777780000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7">
-        <v>114.5214</v>
-      </c>
-      <c r="E7">
-        <v>38.052399999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8">
-        <v>114.8985</v>
-      </c>
-      <c r="E8">
-        <v>40.8367</v>
-      </c>
-      <c r="F8">
-        <v>5.19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9">
-        <v>114.892</v>
-      </c>
-      <c r="E9">
-        <v>40.794809999999998</v>
-      </c>
-      <c r="F9">
-        <v>5.19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10">
-        <v>114.8814</v>
-      </c>
-      <c r="E10">
-        <v>40.811500000000002</v>
-      </c>
-      <c r="F10">
-        <v>5.19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11">
-        <v>114.9032</v>
-      </c>
-      <c r="E11">
-        <v>40.768799999999999</v>
-      </c>
-      <c r="F11">
-        <v>5.19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12">
-        <v>114.904</v>
-      </c>
-      <c r="E12">
-        <v>40.872500000000002</v>
-      </c>
-      <c r="F12">
-        <v>5.19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B13" t="s">
-        <v>236</v>
-      </c>
-      <c r="C13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13">
-        <v>117.96639999999999</v>
-      </c>
-      <c r="E13">
-        <v>40.9161</v>
-      </c>
-      <c r="F13">
-        <v>5.19</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14">
-        <v>117.9525</v>
-      </c>
-      <c r="E14">
-        <v>40.984299999999998</v>
-      </c>
-      <c r="F14">
-        <v>5.19</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15">
-        <v>117.96299999999999</v>
-      </c>
-      <c r="E15">
-        <v>40.935899999999997</v>
-      </c>
-      <c r="F15">
-        <v>5.19</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16">
-        <v>117.8184</v>
-      </c>
-      <c r="E16">
-        <v>40.973300000000002</v>
-      </c>
-      <c r="F16">
-        <v>5.19</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17">
-        <v>117.9384</v>
-      </c>
-      <c r="E17">
-        <v>41.011200000000002</v>
-      </c>
-      <c r="F17">
-        <v>5.19</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>253</v>
-      </c>
-      <c r="B18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D18">
-        <v>116.8854</v>
-      </c>
-      <c r="E18">
-        <v>38.299100000000003</v>
-      </c>
-      <c r="F18">
-        <v>5.19</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>256</v>
-      </c>
-      <c r="B19" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" t="s">
-        <v>255</v>
-      </c>
-      <c r="D19">
-        <v>116.8584</v>
-      </c>
-      <c r="E19">
-        <v>38.325400000000002</v>
-      </c>
-      <c r="F19">
-        <v>5.19</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B20" t="s">
-        <v>265</v>
-      </c>
-      <c r="C20" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20">
-        <v>114.4821</v>
-      </c>
-      <c r="E20">
-        <v>37.096699999999998</v>
-      </c>
-      <c r="F20">
-        <v>5.19</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B21" t="s">
-        <v>268</v>
-      </c>
-      <c r="C21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D21">
-        <v>114.5261</v>
-      </c>
-      <c r="E21">
-        <v>37.0533</v>
-      </c>
-      <c r="F21">
-        <v>5.19</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>269</v>
-      </c>
-      <c r="B22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22">
-        <v>114.5331</v>
-      </c>
-      <c r="E22">
-        <v>37.096400000000003</v>
-      </c>
-      <c r="F22">
-        <v>5.19</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>271</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23">
-        <v>114.4854</v>
-      </c>
-      <c r="E23">
-        <v>37.061999999999998</v>
-      </c>
-      <c r="F23">
-        <v>5.19</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD43DDD-4460-49FC-ADC1-F8345FE1724A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177E1209-94AF-4B7F-A631-1EAF1F5615A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2784" windowWidth="17280" windowHeight="8580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="T18519" sheetId="15" r:id="rId1"/>
-    <sheet name="山东1" sheetId="7" r:id="rId2"/>
-    <sheet name="北京" sheetId="2" r:id="rId3"/>
-    <sheet name="天津" sheetId="3" r:id="rId4"/>
-    <sheet name="河北2" sheetId="12" r:id="rId5"/>
-    <sheet name="河北1" sheetId="11" r:id="rId6"/>
-    <sheet name="测试" sheetId="10" r:id="rId7"/>
-    <sheet name="山东 2" sheetId="8" r:id="rId8"/>
+    <sheet name="山东 2" sheetId="8" r:id="rId1"/>
+    <sheet name="T18519" sheetId="15" r:id="rId2"/>
+    <sheet name="山东1" sheetId="7" r:id="rId3"/>
+    <sheet name="北京" sheetId="2" r:id="rId4"/>
+    <sheet name="天津" sheetId="3" r:id="rId5"/>
+    <sheet name="河北2" sheetId="12" r:id="rId6"/>
+    <sheet name="河北1" sheetId="11" r:id="rId7"/>
+    <sheet name="测试" sheetId="10" r:id="rId8"/>
     <sheet name="可用86市汇总" sheetId="14" r:id="rId9"/>
     <sheet name="河北2013" sheetId="13" r:id="rId10"/>
     <sheet name="山东2013" sheetId="9" r:id="rId11"/>
@@ -1386,16 +1386,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDE112F-36F7-4FAD-835E-47D76D1B42AF}">
-  <dimension ref="A1:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="A2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1415,33 +1416,36 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>88</v>
       </c>
       <c r="D2">
-        <v>114.8985</v>
+        <v>117.8477</v>
       </c>
       <c r="E2">
-        <v>40.8367</v>
+        <v>36.497</v>
       </c>
       <c r="F2">
         <v>5.19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>333</v>
@@ -1449,19 +1453,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="D3">
-        <v>114.892</v>
+        <v>117.45180000000001</v>
       </c>
       <c r="E3">
-        <v>40.794809999999998</v>
+        <v>35.099200000000003</v>
       </c>
       <c r="F3">
         <v>5.19</v>
@@ -1475,19 +1479,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>114.8814</v>
+        <v>119.12</v>
       </c>
       <c r="E4">
-        <v>40.811500000000002</v>
+        <v>36.701900000000002</v>
       </c>
       <c r="F4">
         <v>5.19</v>
@@ -1501,19 +1505,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>114.9032</v>
+        <v>119.0919</v>
       </c>
       <c r="E5">
-        <v>40.768799999999999</v>
+        <v>36.730600000000003</v>
       </c>
       <c r="F5">
         <v>5.19</v>
@@ -1527,19 +1531,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>114.904</v>
+        <v>119.1425</v>
       </c>
       <c r="E6">
-        <v>40.872500000000002</v>
+        <v>36.700800000000001</v>
       </c>
       <c r="F6">
         <v>5.19</v>
@@ -1553,19 +1557,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>117.96639999999999</v>
+        <v>119.1614</v>
       </c>
       <c r="E7">
-        <v>40.9161</v>
+        <v>36.657200000000003</v>
       </c>
       <c r="F7">
         <v>5.19</v>
@@ -1579,19 +1583,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>117.9525</v>
+        <v>119.1939</v>
       </c>
       <c r="E8">
-        <v>40.984299999999998</v>
+        <v>36.773099999999999</v>
       </c>
       <c r="F8">
         <v>5.19</v>
@@ -1605,175 +1609,157 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="D9">
-        <v>117.96299999999999</v>
+        <v>119.4641</v>
       </c>
       <c r="E9">
-        <v>40.935899999999997</v>
+        <v>35.4178</v>
       </c>
       <c r="F9">
         <v>5.19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H9" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="D10">
-        <v>117.8184</v>
+        <v>119.5198</v>
       </c>
       <c r="E10">
-        <v>40.973300000000002</v>
+        <v>35.423400000000001</v>
       </c>
       <c r="F10">
         <v>5.19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="D11">
-        <v>117.9384</v>
+        <v>119.54</v>
       </c>
       <c r="E11">
-        <v>41.011200000000002</v>
+        <v>35.3962</v>
       </c>
       <c r="F11">
         <v>5.19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="D12">
-        <v>116.8854</v>
+        <v>122.1206</v>
       </c>
       <c r="E12">
-        <v>38.299100000000003</v>
+        <v>37.429400000000001</v>
       </c>
       <c r="F12">
         <v>5.19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H12" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>160</v>
       </c>
       <c r="D13">
-        <v>116.8584</v>
+        <v>115.42277</v>
       </c>
       <c r="E13">
-        <v>38.325400000000002</v>
+        <v>35.248888999999998</v>
       </c>
       <c r="F13">
         <v>5.19</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H13" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>160</v>
       </c>
       <c r="D14">
-        <v>114.4821</v>
+        <v>115.474722</v>
       </c>
       <c r="E14">
-        <v>37.096699999999998</v>
+        <v>35.237499999999997</v>
       </c>
       <c r="F14">
         <v>5.19</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H14" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>267</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>268</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>160</v>
       </c>
       <c r="D15">
-        <v>114.5261</v>
+        <v>115.455</v>
       </c>
       <c r="E15">
-        <v>37.0533</v>
+        <v>35.270000000000003</v>
       </c>
       <c r="F15">
         <v>5.19</v>
@@ -1781,798 +1767,11 @@
       <c r="G15" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>269</v>
-      </c>
-      <c r="B16" t="s">
-        <v>270</v>
-      </c>
-      <c r="C16" t="s">
-        <v>266</v>
-      </c>
-      <c r="D16">
-        <v>114.5331</v>
-      </c>
-      <c r="E16">
-        <v>37.096400000000003</v>
-      </c>
-      <c r="F16">
-        <v>5.19</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>271</v>
-      </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D17">
-        <v>114.4854</v>
-      </c>
-      <c r="E17">
-        <v>37.061999999999998</v>
-      </c>
-      <c r="F17">
-        <v>5.19</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18">
-        <v>117.8477</v>
-      </c>
-      <c r="E18">
-        <v>36.497</v>
-      </c>
-      <c r="F18">
-        <v>5.19</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19">
-        <v>117.45180000000001</v>
-      </c>
-      <c r="E19">
-        <v>35.099200000000003</v>
-      </c>
-      <c r="F19">
-        <v>5.19</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>119.12</v>
-      </c>
-      <c r="E20">
-        <v>36.701900000000002</v>
-      </c>
-      <c r="F20">
-        <v>5.19</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>119.0919</v>
-      </c>
-      <c r="E21">
-        <v>36.730600000000003</v>
-      </c>
-      <c r="F21">
-        <v>5.19</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>119.1425</v>
-      </c>
-      <c r="E22">
-        <v>36.700800000000001</v>
-      </c>
-      <c r="F22">
-        <v>5.19</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23">
-        <v>119.1614</v>
-      </c>
-      <c r="E23">
-        <v>36.657200000000003</v>
-      </c>
-      <c r="F23">
-        <v>5.19</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24">
-        <v>119.1939</v>
-      </c>
-      <c r="E24">
-        <v>36.773099999999999</v>
-      </c>
-      <c r="F24">
-        <v>5.19</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25">
-        <v>119.4641</v>
-      </c>
-      <c r="E25">
-        <v>35.4178</v>
-      </c>
-      <c r="F25">
-        <v>5.19</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26">
-        <v>119.5198</v>
-      </c>
-      <c r="E26">
-        <v>35.423400000000001</v>
-      </c>
-      <c r="F26">
-        <v>5.19</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27">
-        <v>119.54</v>
-      </c>
-      <c r="E27">
-        <v>35.3962</v>
-      </c>
-      <c r="F27">
-        <v>5.19</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28">
-        <v>122.1206</v>
-      </c>
-      <c r="E28">
-        <v>37.429400000000001</v>
-      </c>
-      <c r="F28">
-        <v>5.19</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29">
-        <v>115.42277</v>
-      </c>
-      <c r="E29">
-        <v>35.248888999999998</v>
-      </c>
-      <c r="F29">
-        <v>5.19</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30">
-        <v>115.474722</v>
-      </c>
-      <c r="E30">
-        <v>35.237499999999997</v>
-      </c>
-      <c r="F30">
-        <v>5.19</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>163</v>
-      </c>
-      <c r="B31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31">
-        <v>115.455</v>
-      </c>
-      <c r="E31">
-        <v>35.270000000000003</v>
-      </c>
-      <c r="F31">
-        <v>5.19</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32">
-        <v>117.685</v>
-      </c>
-      <c r="E32">
-        <v>36.204999999999998</v>
-      </c>
-      <c r="F32">
-        <v>5.19</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33">
-        <v>117.6789</v>
-      </c>
-      <c r="E33">
-        <v>36.228900000000003</v>
-      </c>
-      <c r="F33">
-        <v>5.19</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34">
-        <v>117.715</v>
-      </c>
-      <c r="E34">
-        <v>36.208100000000002</v>
-      </c>
-      <c r="F34">
-        <v>5.19</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E35">
-        <v>35.057299999999998</v>
-      </c>
-      <c r="F35">
-        <v>5.19</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E36">
-        <v>35.062199999999997</v>
-      </c>
-      <c r="F36">
-        <v>5.19</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37">
-        <v>118.2764</v>
-      </c>
-      <c r="E37">
-        <v>34.981699999999996</v>
-      </c>
-      <c r="F37">
-        <v>5.19</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38">
-        <v>118.4023</v>
-      </c>
-      <c r="E38">
-        <v>35.089599999999997</v>
-      </c>
-      <c r="F38">
-        <v>5.19</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39">
-        <v>116.988</v>
-      </c>
-      <c r="E39">
-        <v>36.611400000000003</v>
-      </c>
-      <c r="F39">
-        <v>5.19</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40">
-        <v>116.93</v>
-      </c>
-      <c r="E40">
-        <v>36.67</v>
-      </c>
-      <c r="F40">
-        <v>5.19</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41">
-        <v>117.114</v>
-      </c>
-      <c r="E41">
-        <v>36.673900000000003</v>
-      </c>
-      <c r="F41">
-        <v>5.19</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42">
-        <v>116.989</v>
-      </c>
-      <c r="E42">
-        <v>36.687199999999997</v>
-      </c>
-      <c r="F42">
-        <v>5.19</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43">
-        <v>117.0684</v>
-      </c>
-      <c r="E43">
-        <v>36.686799999999998</v>
-      </c>
-      <c r="F43">
-        <v>5.19</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44">
-        <v>116.943</v>
-      </c>
-      <c r="E44">
-        <v>36.648899999999998</v>
-      </c>
-      <c r="F44">
-        <v>5.19</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45">
-        <v>117.04900000000001</v>
-      </c>
-      <c r="E45">
-        <v>36.662199999999999</v>
-      </c>
-      <c r="F45">
-        <v>5.19</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46">
-        <v>116.73399999999999</v>
-      </c>
-      <c r="E46">
-        <v>36.5336</v>
-      </c>
-      <c r="F46">
-        <v>5.19</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>333</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -9577,6 +8776,1197 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDE112F-36F7-4FAD-835E-47D76D1B42AF}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2">
+        <v>114.8985</v>
+      </c>
+      <c r="E2">
+        <v>40.8367</v>
+      </c>
+      <c r="F2">
+        <v>5.19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3">
+        <v>114.892</v>
+      </c>
+      <c r="E3">
+        <v>40.794809999999998</v>
+      </c>
+      <c r="F3">
+        <v>5.19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4">
+        <v>114.8814</v>
+      </c>
+      <c r="E4">
+        <v>40.811500000000002</v>
+      </c>
+      <c r="F4">
+        <v>5.19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5">
+        <v>114.9032</v>
+      </c>
+      <c r="E5">
+        <v>40.768799999999999</v>
+      </c>
+      <c r="F5">
+        <v>5.19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6">
+        <v>114.904</v>
+      </c>
+      <c r="E6">
+        <v>40.872500000000002</v>
+      </c>
+      <c r="F6">
+        <v>5.19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7">
+        <v>117.96639999999999</v>
+      </c>
+      <c r="E7">
+        <v>40.9161</v>
+      </c>
+      <c r="F7">
+        <v>5.19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8">
+        <v>117.9525</v>
+      </c>
+      <c r="E8">
+        <v>40.984299999999998</v>
+      </c>
+      <c r="F8">
+        <v>5.19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9">
+        <v>117.96299999999999</v>
+      </c>
+      <c r="E9">
+        <v>40.935899999999997</v>
+      </c>
+      <c r="F9">
+        <v>5.19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10">
+        <v>117.8184</v>
+      </c>
+      <c r="E10">
+        <v>40.973300000000002</v>
+      </c>
+      <c r="F10">
+        <v>5.19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11">
+        <v>117.9384</v>
+      </c>
+      <c r="E11">
+        <v>41.011200000000002</v>
+      </c>
+      <c r="F11">
+        <v>5.19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12">
+        <v>116.8854</v>
+      </c>
+      <c r="E12">
+        <v>38.299100000000003</v>
+      </c>
+      <c r="F12">
+        <v>5.19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13">
+        <v>116.8584</v>
+      </c>
+      <c r="E13">
+        <v>38.325400000000002</v>
+      </c>
+      <c r="F13">
+        <v>5.19</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14">
+        <v>114.4821</v>
+      </c>
+      <c r="E14">
+        <v>37.096699999999998</v>
+      </c>
+      <c r="F14">
+        <v>5.19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15">
+        <v>114.5261</v>
+      </c>
+      <c r="E15">
+        <v>37.0533</v>
+      </c>
+      <c r="F15">
+        <v>5.19</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16">
+        <v>114.5331</v>
+      </c>
+      <c r="E16">
+        <v>37.096400000000003</v>
+      </c>
+      <c r="F16">
+        <v>5.19</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17">
+        <v>114.4854</v>
+      </c>
+      <c r="E17">
+        <v>37.061999999999998</v>
+      </c>
+      <c r="F17">
+        <v>5.19</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18">
+        <v>117.8477</v>
+      </c>
+      <c r="E18">
+        <v>36.497</v>
+      </c>
+      <c r="F18">
+        <v>5.19</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19">
+        <v>117.45180000000001</v>
+      </c>
+      <c r="E19">
+        <v>35.099200000000003</v>
+      </c>
+      <c r="F19">
+        <v>5.19</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>119.12</v>
+      </c>
+      <c r="E20">
+        <v>36.701900000000002</v>
+      </c>
+      <c r="F20">
+        <v>5.19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>119.0919</v>
+      </c>
+      <c r="E21">
+        <v>36.730600000000003</v>
+      </c>
+      <c r="F21">
+        <v>5.19</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>119.1425</v>
+      </c>
+      <c r="E22">
+        <v>36.700800000000001</v>
+      </c>
+      <c r="F22">
+        <v>5.19</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>119.1614</v>
+      </c>
+      <c r="E23">
+        <v>36.657200000000003</v>
+      </c>
+      <c r="F23">
+        <v>5.19</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>119.1939</v>
+      </c>
+      <c r="E24">
+        <v>36.773099999999999</v>
+      </c>
+      <c r="F24">
+        <v>5.19</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25">
+        <v>119.4641</v>
+      </c>
+      <c r="E25">
+        <v>35.4178</v>
+      </c>
+      <c r="F25">
+        <v>5.19</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26">
+        <v>119.5198</v>
+      </c>
+      <c r="E26">
+        <v>35.423400000000001</v>
+      </c>
+      <c r="F26">
+        <v>5.19</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27">
+        <v>119.54</v>
+      </c>
+      <c r="E27">
+        <v>35.3962</v>
+      </c>
+      <c r="F27">
+        <v>5.19</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28">
+        <v>122.1206</v>
+      </c>
+      <c r="E28">
+        <v>37.429400000000001</v>
+      </c>
+      <c r="F28">
+        <v>5.19</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29">
+        <v>115.42277</v>
+      </c>
+      <c r="E29">
+        <v>35.248888999999998</v>
+      </c>
+      <c r="F29">
+        <v>5.19</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30">
+        <v>115.474722</v>
+      </c>
+      <c r="E30">
+        <v>35.237499999999997</v>
+      </c>
+      <c r="F30">
+        <v>5.19</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31">
+        <v>115.455</v>
+      </c>
+      <c r="E31">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="F31">
+        <v>5.19</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32">
+        <v>117.685</v>
+      </c>
+      <c r="E32">
+        <v>36.204999999999998</v>
+      </c>
+      <c r="F32">
+        <v>5.19</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>117.6789</v>
+      </c>
+      <c r="E33">
+        <v>36.228900000000003</v>
+      </c>
+      <c r="F33">
+        <v>5.19</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34">
+        <v>117.715</v>
+      </c>
+      <c r="E34">
+        <v>36.208100000000002</v>
+      </c>
+      <c r="F34">
+        <v>5.19</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35">
+        <v>118.34180000000001</v>
+      </c>
+      <c r="E35">
+        <v>35.057299999999998</v>
+      </c>
+      <c r="F35">
+        <v>5.19</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36">
+        <v>118.29389999999999</v>
+      </c>
+      <c r="E36">
+        <v>35.062199999999997</v>
+      </c>
+      <c r="F36">
+        <v>5.19</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37">
+        <v>118.2764</v>
+      </c>
+      <c r="E37">
+        <v>34.981699999999996</v>
+      </c>
+      <c r="F37">
+        <v>5.19</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38">
+        <v>118.4023</v>
+      </c>
+      <c r="E38">
+        <v>35.089599999999997</v>
+      </c>
+      <c r="F38">
+        <v>5.19</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>116.988</v>
+      </c>
+      <c r="E39">
+        <v>36.611400000000003</v>
+      </c>
+      <c r="F39">
+        <v>5.19</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>116.93</v>
+      </c>
+      <c r="E40">
+        <v>36.67</v>
+      </c>
+      <c r="F40">
+        <v>5.19</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>117.114</v>
+      </c>
+      <c r="E41">
+        <v>36.673900000000003</v>
+      </c>
+      <c r="F41">
+        <v>5.19</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>116.989</v>
+      </c>
+      <c r="E42">
+        <v>36.687199999999997</v>
+      </c>
+      <c r="F42">
+        <v>5.19</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>117.0684</v>
+      </c>
+      <c r="E43">
+        <v>36.686799999999998</v>
+      </c>
+      <c r="F43">
+        <v>5.19</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>116.943</v>
+      </c>
+      <c r="E44">
+        <v>36.648899999999998</v>
+      </c>
+      <c r="F44">
+        <v>5.19</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>117.04900000000001</v>
+      </c>
+      <c r="E45">
+        <v>36.662199999999999</v>
+      </c>
+      <c r="F45">
+        <v>5.19</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>116.73399999999999</v>
+      </c>
+      <c r="E46">
+        <v>36.5336</v>
+      </c>
+      <c r="F46">
+        <v>5.19</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -10193,7 +10583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -10439,7 +10829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -10719,7 +11109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -11047,7 +11437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -11321,7 +11711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11337,396 +11727,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="A2:H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2">
-        <v>117.8477</v>
-      </c>
-      <c r="E2">
-        <v>36.497</v>
-      </c>
-      <c r="F2">
-        <v>5.19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3">
-        <v>117.45180000000001</v>
-      </c>
-      <c r="E3">
-        <v>35.099200000000003</v>
-      </c>
-      <c r="F3">
-        <v>5.19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>119.12</v>
-      </c>
-      <c r="E4">
-        <v>36.701900000000002</v>
-      </c>
-      <c r="F4">
-        <v>5.19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>119.0919</v>
-      </c>
-      <c r="E5">
-        <v>36.730600000000003</v>
-      </c>
-      <c r="F5">
-        <v>5.19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>119.1425</v>
-      </c>
-      <c r="E6">
-        <v>36.700800000000001</v>
-      </c>
-      <c r="F6">
-        <v>5.19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>119.1614</v>
-      </c>
-      <c r="E7">
-        <v>36.657200000000003</v>
-      </c>
-      <c r="F7">
-        <v>5.19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>119.1939</v>
-      </c>
-      <c r="E8">
-        <v>36.773099999999999</v>
-      </c>
-      <c r="F8">
-        <v>5.19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9">
-        <v>119.4641</v>
-      </c>
-      <c r="E9">
-        <v>35.4178</v>
-      </c>
-      <c r="F9">
-        <v>5.19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10">
-        <v>119.5198</v>
-      </c>
-      <c r="E10">
-        <v>35.423400000000001</v>
-      </c>
-      <c r="F10">
-        <v>5.19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11">
-        <v>119.54</v>
-      </c>
-      <c r="E11">
-        <v>35.3962</v>
-      </c>
-      <c r="F11">
-        <v>5.19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12">
-        <v>122.1206</v>
-      </c>
-      <c r="E12">
-        <v>37.429400000000001</v>
-      </c>
-      <c r="F12">
-        <v>5.19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13">
-        <v>115.42277</v>
-      </c>
-      <c r="E13">
-        <v>35.248888999999998</v>
-      </c>
-      <c r="F13">
-        <v>5.19</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14">
-        <v>115.474722</v>
-      </c>
-      <c r="E14">
-        <v>35.237499999999997</v>
-      </c>
-      <c r="F14">
-        <v>5.19</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15">
-        <v>115.455</v>
-      </c>
-      <c r="E15">
-        <v>35.270000000000003</v>
-      </c>
-      <c r="F15">
-        <v>5.19</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177E1209-94AF-4B7F-A631-1EAF1F5615A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D628E495-0C44-430C-944C-C4FE5D6A6BE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2784" windowWidth="17280" windowHeight="8580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="山东 2" sheetId="8" r:id="rId1"/>
-    <sheet name="T18519" sheetId="15" r:id="rId2"/>
-    <sheet name="山东1" sheetId="7" r:id="rId3"/>
+    <sheet name="报错1" sheetId="16" r:id="rId1"/>
+    <sheet name="ERROR_18519" sheetId="15" r:id="rId2"/>
+    <sheet name="山东 2" sheetId="8" r:id="rId3"/>
     <sheet name="北京" sheetId="2" r:id="rId4"/>
-    <sheet name="天津" sheetId="3" r:id="rId5"/>
-    <sheet name="河北2" sheetId="12" r:id="rId6"/>
-    <sheet name="河北1" sheetId="11" r:id="rId7"/>
-    <sheet name="测试" sheetId="10" r:id="rId8"/>
-    <sheet name="可用86市汇总" sheetId="14" r:id="rId9"/>
-    <sheet name="河北2013" sheetId="13" r:id="rId10"/>
-    <sheet name="山东2013" sheetId="9" r:id="rId11"/>
-    <sheet name="山东" sheetId="5" r:id="rId12"/>
-    <sheet name="河北" sheetId="4" r:id="rId13"/>
-    <sheet name="汇总" sheetId="6" r:id="rId14"/>
+    <sheet name="山东1" sheetId="7" r:id="rId5"/>
+    <sheet name="天津" sheetId="3" r:id="rId6"/>
+    <sheet name="河北2" sheetId="12" r:id="rId7"/>
+    <sheet name="河北1" sheetId="11" r:id="rId8"/>
+    <sheet name="测试" sheetId="10" r:id="rId9"/>
+    <sheet name="可用86市汇总" sheetId="14" r:id="rId10"/>
+    <sheet name="河北2013" sheetId="13" r:id="rId11"/>
+    <sheet name="山东2013" sheetId="9" r:id="rId12"/>
+    <sheet name="山东" sheetId="5" r:id="rId13"/>
+    <sheet name="河北" sheetId="4" r:id="rId14"/>
+    <sheet name="汇总" sheetId="6" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="337">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1386,20 +1387,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECE7281-E3EA-447B-ACF0-B60681C1A9E9}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="A2:H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2">
+        <v>116.8854</v>
+      </c>
+      <c r="E2">
+        <v>38.299100000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3">
+        <v>116.8584</v>
+      </c>
+      <c r="E3">
+        <v>38.325400000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4">
+        <v>114.4821</v>
+      </c>
+      <c r="E4">
+        <v>37.096699999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5">
+        <v>114.5261</v>
+      </c>
+      <c r="E5">
+        <v>37.0533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6">
+        <v>114.5331</v>
+      </c>
+      <c r="E6">
+        <v>37.096400000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7">
+        <v>114.4854</v>
+      </c>
+      <c r="E7">
+        <v>37.061999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8">
+        <v>117.8477</v>
+      </c>
+      <c r="E8">
+        <v>36.497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9">
+        <v>117.45180000000001</v>
+      </c>
+      <c r="E9">
+        <v>35.099200000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>119.12</v>
+      </c>
+      <c r="E10">
+        <v>36.701900000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>119.0919</v>
+      </c>
+      <c r="E11">
+        <v>36.730600000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A76644-5F86-4776-A293-540939F77A3D}">
+  <dimension ref="A1:H87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G59" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1416,366 +1622,1625 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2">
+        <v>116.366</v>
+      </c>
+      <c r="E2">
+        <v>39.8673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3">
+        <v>116.17</v>
+      </c>
+      <c r="E3">
+        <v>40.286499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4">
+        <v>116.434</v>
+      </c>
+      <c r="E4">
+        <v>39.952199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5">
+        <v>116.434</v>
+      </c>
+      <c r="E5">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6">
+        <v>116.473</v>
+      </c>
+      <c r="E6">
+        <v>39.971600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7">
+        <v>116.361</v>
+      </c>
+      <c r="E7">
+        <v>39.942500000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8">
+        <v>116.315</v>
+      </c>
+      <c r="E8">
+        <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9">
+        <v>116.72</v>
+      </c>
+      <c r="E9">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E10">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11">
+        <v>116.23</v>
+      </c>
+      <c r="E11">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12">
+        <v>116.407</v>
+      </c>
+      <c r="E12">
+        <v>40.003100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E13">
+        <v>39.927900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14">
+        <v>117.151</v>
+      </c>
+      <c r="E14">
+        <v>39.097000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15">
+        <v>117.193</v>
+      </c>
+      <c r="E15">
+        <v>39.173000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16">
+        <v>117.145</v>
+      </c>
+      <c r="E16">
+        <v>39.165399999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17">
+        <v>117.184</v>
+      </c>
+      <c r="E17">
+        <v>39.1205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E18">
+        <v>39.108199999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19">
+        <v>117.202</v>
+      </c>
+      <c r="E19">
+        <v>39.092700000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20">
+        <v>117.1837</v>
+      </c>
+      <c r="E20">
+        <v>39.213299999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21">
+        <v>117.26900000000001</v>
+      </c>
+      <c r="E21">
+        <v>39.133699999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22">
+        <v>117.307</v>
+      </c>
+      <c r="E22">
+        <v>39.087699999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23">
+        <v>117.70699999999999</v>
+      </c>
+      <c r="E23">
+        <v>39.034300000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" t="s">
+        <v>319</v>
+      </c>
+      <c r="C24" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="E24">
+        <v>38.839399999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D25">
+        <v>117.401</v>
+      </c>
+      <c r="E25">
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" t="s">
+        <v>323</v>
+      </c>
+      <c r="C26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26">
+        <v>117.764</v>
+      </c>
+      <c r="E26">
+        <v>39.158700000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27">
+        <v>117.157</v>
+      </c>
+      <c r="E27">
+        <v>38.919400000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28">
+        <v>114.45480000000001</v>
+      </c>
+      <c r="E28">
+        <v>38.051299999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29">
+        <v>114.6046</v>
+      </c>
+      <c r="E29">
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E30">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31">
+        <v>114.4586111</v>
+      </c>
+      <c r="E31">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32">
+        <v>114.5330556</v>
+      </c>
+      <c r="E32">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33">
+        <v>114.5214</v>
+      </c>
+      <c r="E33">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34">
+        <v>114.8985</v>
+      </c>
+      <c r="E34">
+        <v>40.8367</v>
+      </c>
+      <c r="F34">
+        <v>5.19</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35">
+        <v>114.892</v>
+      </c>
+      <c r="E35">
+        <v>40.794809999999998</v>
+      </c>
+      <c r="F35">
+        <v>5.19</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36">
+        <v>114.8814</v>
+      </c>
+      <c r="E36">
+        <v>40.811500000000002</v>
+      </c>
+      <c r="F36">
+        <v>5.19</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37">
+        <v>114.9032</v>
+      </c>
+      <c r="E37">
+        <v>40.768799999999999</v>
+      </c>
+      <c r="F37">
+        <v>5.19</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38">
+        <v>114.904</v>
+      </c>
+      <c r="E38">
+        <v>40.872500000000002</v>
+      </c>
+      <c r="F38">
+        <v>5.19</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39">
+        <v>117.96639999999999</v>
+      </c>
+      <c r="E39">
+        <v>40.9161</v>
+      </c>
+      <c r="F39">
+        <v>5.19</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40">
+        <v>117.9525</v>
+      </c>
+      <c r="E40">
+        <v>40.984299999999998</v>
+      </c>
+      <c r="F40">
+        <v>5.19</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>237</v>
+      </c>
+      <c r="D41">
+        <v>117.96299999999999</v>
+      </c>
+      <c r="E41">
+        <v>40.935899999999997</v>
+      </c>
+      <c r="F41">
+        <v>5.19</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42">
+        <v>117.8184</v>
+      </c>
+      <c r="E42">
+        <v>40.973300000000002</v>
+      </c>
+      <c r="F42">
+        <v>5.19</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" t="s">
+        <v>237</v>
+      </c>
+      <c r="D43">
+        <v>117.9384</v>
+      </c>
+      <c r="E43">
+        <v>41.011200000000002</v>
+      </c>
+      <c r="F43">
+        <v>5.19</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" t="s">
+        <v>254</v>
+      </c>
+      <c r="C44" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44">
+        <v>116.8854</v>
+      </c>
+      <c r="E44">
+        <v>38.299100000000003</v>
+      </c>
+      <c r="F44">
+        <v>5.19</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45">
+        <v>116.8584</v>
+      </c>
+      <c r="E45">
+        <v>38.325400000000002</v>
+      </c>
+      <c r="F45">
+        <v>5.19</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46">
+        <v>114.4821</v>
+      </c>
+      <c r="E46">
+        <v>37.096699999999998</v>
+      </c>
+      <c r="F46">
+        <v>5.19</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B47" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47">
+        <v>114.5261</v>
+      </c>
+      <c r="E47">
+        <v>37.0533</v>
+      </c>
+      <c r="F47">
+        <v>5.19</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48">
+        <v>114.5331</v>
+      </c>
+      <c r="E48">
+        <v>37.096400000000003</v>
+      </c>
+      <c r="F48">
+        <v>5.19</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>271</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49">
+        <v>114.4854</v>
+      </c>
+      <c r="E49">
+        <v>37.061999999999998</v>
+      </c>
+      <c r="F49">
+        <v>5.19</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>116.988</v>
+      </c>
+      <c r="E50">
+        <v>36.611400000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>116.93</v>
+      </c>
+      <c r="E51">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>117.114</v>
+      </c>
+      <c r="E52">
+        <v>36.673900000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>116.989</v>
+      </c>
+      <c r="E53">
+        <v>36.687199999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>117.0684</v>
+      </c>
+      <c r="E54">
+        <v>36.686799999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>116.943</v>
+      </c>
+      <c r="E55">
+        <v>36.648899999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>117.04900000000001</v>
+      </c>
+      <c r="E56">
+        <v>36.662199999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>116.73399999999999</v>
+      </c>
+      <c r="E57">
+        <v>36.5336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58">
+        <v>120.66589999999999</v>
+      </c>
+      <c r="E58">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59">
+        <v>120.3905</v>
+      </c>
+      <c r="E59">
+        <v>36.185099999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60">
+        <v>120.3471</v>
+      </c>
+      <c r="E60">
+        <v>36.069899999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61">
+        <v>120.4134</v>
+      </c>
+      <c r="E61">
+        <v>36.065399999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62">
+        <v>120.3664</v>
+      </c>
+      <c r="E62">
+        <v>36.103200000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63">
+        <v>120.2992</v>
+      </c>
+      <c r="E63">
+        <v>36.054299999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64">
+        <v>120.45869999999999</v>
+      </c>
+      <c r="E64">
+        <v>36.085099999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65">
+        <v>120.1964</v>
+      </c>
+      <c r="E65">
+        <v>36.308300000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66">
+        <v>120.40009999999999</v>
+      </c>
+      <c r="E66">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67">
+        <v>117.685</v>
+      </c>
+      <c r="E67">
+        <v>36.204999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68">
+        <v>117.6789</v>
+      </c>
+      <c r="E68">
+        <v>36.228900000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69">
+        <v>117.715</v>
+      </c>
+      <c r="E69">
+        <v>36.208100000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70">
+        <v>118.34180000000001</v>
+      </c>
+      <c r="E70">
+        <v>35.057299999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71">
+        <v>118.29389999999999</v>
+      </c>
+      <c r="E71">
+        <v>35.062199999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72">
+        <v>118.2764</v>
+      </c>
+      <c r="E72">
+        <v>34.981699999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73">
+        <v>118.4023</v>
+      </c>
+      <c r="E73">
+        <v>35.089599999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>91</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B74" t="s">
         <v>92</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C74" t="s">
         <v>88</v>
       </c>
-      <c r="D2">
+      <c r="D74">
         <v>117.8477</v>
       </c>
-      <c r="E2">
+      <c r="E74">
         <v>36.497</v>
       </c>
-      <c r="F2">
-        <v>5.19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>108</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B75" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C75" t="s">
         <v>101</v>
       </c>
-      <c r="D3">
+      <c r="D75">
         <v>117.45180000000001</v>
       </c>
-      <c r="E3">
+      <c r="E75">
         <v>35.099200000000003</v>
       </c>
-      <c r="F3">
-        <v>5.19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>122</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B76" t="s">
         <v>123</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C76" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="D76">
         <v>119.12</v>
       </c>
-      <c r="E4">
+      <c r="E76">
         <v>36.701900000000002</v>
       </c>
-      <c r="F4">
-        <v>5.19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>124</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B77" t="s">
         <v>125</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C77" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D77">
         <v>119.0919</v>
       </c>
-      <c r="E5">
+      <c r="E77">
         <v>36.730600000000003</v>
       </c>
-      <c r="F5">
-        <v>5.19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>126</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B78" t="s">
         <v>127</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C78" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="D78">
         <v>119.1425</v>
       </c>
-      <c r="E6">
+      <c r="E78">
         <v>36.700800000000001</v>
       </c>
-      <c r="F6">
-        <v>5.19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B79" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C79" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="D79">
         <v>119.1614</v>
       </c>
-      <c r="E7">
+      <c r="E79">
         <v>36.657200000000003</v>
       </c>
-      <c r="F7">
-        <v>5.19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B80" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C80" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D80">
         <v>119.1939</v>
       </c>
-      <c r="E8">
+      <c r="E80">
         <v>36.773099999999999</v>
       </c>
-      <c r="F8">
-        <v>5.19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>138</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B81" t="s">
         <v>129</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C81" t="s">
         <v>139</v>
       </c>
-      <c r="D9">
+      <c r="D81">
         <v>119.4641</v>
       </c>
-      <c r="E9">
+      <c r="E81">
         <v>35.4178</v>
       </c>
-      <c r="F9">
-        <v>5.19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>140</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B82" t="s">
         <v>141</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C82" t="s">
         <v>139</v>
       </c>
-      <c r="D10">
+      <c r="D82">
         <v>119.5198</v>
       </c>
-      <c r="E10">
+      <c r="E82">
         <v>35.423400000000001</v>
       </c>
-      <c r="F10">
-        <v>5.19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>142</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B83" t="s">
         <v>143</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C83" t="s">
         <v>139</v>
       </c>
-      <c r="D11">
+      <c r="D83">
         <v>119.54</v>
       </c>
-      <c r="E11">
+      <c r="E83">
         <v>35.3962</v>
       </c>
-      <c r="F11">
-        <v>5.19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>144</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B84" t="s">
         <v>145</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C84" t="s">
         <v>146</v>
       </c>
-      <c r="D12">
+      <c r="D84">
         <v>122.1206</v>
       </c>
-      <c r="E12">
+      <c r="E84">
         <v>37.429400000000001</v>
       </c>
-      <c r="F12">
-        <v>5.19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>158</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B85" t="s">
         <v>159</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C85" t="s">
         <v>160</v>
       </c>
-      <c r="D13">
+      <c r="D85">
         <v>115.42277</v>
       </c>
-      <c r="E13">
+      <c r="E85">
         <v>35.248888999999998</v>
       </c>
-      <c r="F13">
-        <v>5.19</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>161</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B86" t="s">
         <v>162</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C86" t="s">
         <v>160</v>
       </c>
-      <c r="D14">
+      <c r="D86">
         <v>115.474722</v>
       </c>
-      <c r="E14">
+      <c r="E86">
         <v>35.237499999999997</v>
       </c>
-      <c r="F14">
-        <v>5.19</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>163</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B87" t="s">
         <v>164</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C87" t="s">
         <v>160</v>
       </c>
-      <c r="D15">
+      <c r="D87">
         <v>115.455</v>
       </c>
-      <c r="E15">
+      <c r="E87">
         <v>35.270000000000003</v>
       </c>
-      <c r="F15">
-        <v>5.19</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>333</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
@@ -2338,7 +3803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
@@ -3297,7 +4762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
@@ -4979,7 +6444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
@@ -6154,7 +7619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E153"/>
   <sheetViews>
@@ -8780,7 +10245,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A12" sqref="A12:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -9967,11 +11432,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="A2:H9"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10008,19 +11473,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D2">
-        <v>116.988</v>
+        <v>117.8477</v>
       </c>
       <c r="E2">
-        <v>36.611400000000003</v>
+        <v>36.497</v>
       </c>
       <c r="F2">
         <v>5.19</v>
@@ -10034,25 +11499,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="D3">
-        <v>116.93</v>
+        <v>117.45180000000001</v>
       </c>
       <c r="E3">
-        <v>36.67</v>
+        <v>35.099200000000003</v>
       </c>
       <c r="F3">
         <v>5.19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>333</v>
@@ -10060,25 +11525,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>117.114</v>
+        <v>119.12</v>
       </c>
       <c r="E4">
-        <v>36.673900000000003</v>
+        <v>36.701900000000002</v>
       </c>
       <c r="F4">
         <v>5.19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>333</v>
@@ -10086,25 +11551,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>116.989</v>
+        <v>119.0919</v>
       </c>
       <c r="E5">
-        <v>36.687199999999997</v>
+        <v>36.730600000000003</v>
       </c>
       <c r="F5">
         <v>5.19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>333</v>
@@ -10112,25 +11577,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>117.0684</v>
+        <v>119.1425</v>
       </c>
       <c r="E6">
-        <v>36.686799999999998</v>
+        <v>36.700800000000001</v>
       </c>
       <c r="F6">
         <v>5.19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>333</v>
@@ -10138,25 +11603,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>116.943</v>
+        <v>119.1614</v>
       </c>
       <c r="E7">
-        <v>36.648899999999998</v>
+        <v>36.657200000000003</v>
       </c>
       <c r="F7">
         <v>5.19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>333</v>
@@ -10164,25 +11629,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>117.04900000000001</v>
+        <v>119.1939</v>
       </c>
       <c r="E8">
-        <v>36.662199999999999</v>
+        <v>36.773099999999999</v>
       </c>
       <c r="F8">
         <v>5.19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>333</v>
@@ -10190,396 +11655,169 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="D9">
-        <v>116.73399999999999</v>
+        <v>119.4641</v>
       </c>
       <c r="E9">
-        <v>36.5336</v>
+        <v>35.4178</v>
       </c>
       <c r="F9">
         <v>5.19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H9" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="D10">
-        <v>120.66589999999999</v>
+        <v>119.5198</v>
       </c>
       <c r="E10">
-        <v>36.240299999999998</v>
+        <v>35.423400000000001</v>
+      </c>
+      <c r="F10">
+        <v>5.19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="D11">
-        <v>120.3905</v>
+        <v>119.54</v>
       </c>
       <c r="E11">
-        <v>36.185099999999998</v>
+        <v>35.3962</v>
+      </c>
+      <c r="F11">
+        <v>5.19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="D12">
-        <v>120.3471</v>
+        <v>122.1206</v>
       </c>
       <c r="E12">
-        <v>36.069899999999997</v>
+        <v>37.429400000000001</v>
+      </c>
+      <c r="F12">
+        <v>5.19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="D13">
-        <v>120.4134</v>
+        <v>115.42277</v>
       </c>
       <c r="E13">
-        <v>36.065399999999997</v>
+        <v>35.248888999999998</v>
+      </c>
+      <c r="F13">
+        <v>5.19</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="D14">
-        <v>120.3664</v>
+        <v>115.474722</v>
       </c>
       <c r="E14">
-        <v>36.103200000000001</v>
+        <v>35.237499999999997</v>
+      </c>
+      <c r="F14">
+        <v>5.19</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="D15">
-        <v>120.2992</v>
+        <v>115.455</v>
       </c>
       <c r="E15">
-        <v>36.054299999999998</v>
+        <v>35.270000000000003</v>
+      </c>
+      <c r="F15">
+        <v>5.19</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>120.45869999999999</v>
-      </c>
-      <c r="E16">
-        <v>36.085099999999997</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>120.1964</v>
-      </c>
-      <c r="E17">
-        <v>36.308300000000003</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="E18">
-        <v>36.240299999999998</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19">
-        <v>117.685</v>
-      </c>
-      <c r="E19">
-        <v>36.204999999999998</v>
-      </c>
-      <c r="F19">
-        <v>5.19</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20">
-        <v>117.6789</v>
-      </c>
-      <c r="E20">
-        <v>36.228900000000003</v>
-      </c>
-      <c r="F20">
-        <v>5.19</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21">
-        <v>117.715</v>
-      </c>
-      <c r="E21">
-        <v>36.208100000000002</v>
-      </c>
-      <c r="F21">
-        <v>5.19</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E22">
-        <v>35.057299999999998</v>
-      </c>
-      <c r="F22">
-        <v>5.19</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E23">
-        <v>35.062199999999997</v>
-      </c>
-      <c r="F23">
-        <v>5.19</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24">
-        <v>118.2764</v>
-      </c>
-      <c r="E24">
-        <v>34.981699999999996</v>
-      </c>
-      <c r="F24">
-        <v>5.19</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25">
-        <v>118.4023</v>
-      </c>
-      <c r="E25">
-        <v>35.089599999999997</v>
-      </c>
-      <c r="F25">
-        <v>5.19</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H25" s="1" t="s">
         <v>333</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -10830,6 +12068,623 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="A2:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>116.988</v>
+      </c>
+      <c r="E2">
+        <v>36.611400000000003</v>
+      </c>
+      <c r="F2">
+        <v>5.19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>116.93</v>
+      </c>
+      <c r="E3">
+        <v>36.67</v>
+      </c>
+      <c r="F3">
+        <v>5.19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>117.114</v>
+      </c>
+      <c r="E4">
+        <v>36.673900000000003</v>
+      </c>
+      <c r="F4">
+        <v>5.19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>116.989</v>
+      </c>
+      <c r="E5">
+        <v>36.687199999999997</v>
+      </c>
+      <c r="F5">
+        <v>5.19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>117.0684</v>
+      </c>
+      <c r="E6">
+        <v>36.686799999999998</v>
+      </c>
+      <c r="F6">
+        <v>5.19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>116.943</v>
+      </c>
+      <c r="E7">
+        <v>36.648899999999998</v>
+      </c>
+      <c r="F7">
+        <v>5.19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>117.04900000000001</v>
+      </c>
+      <c r="E8">
+        <v>36.662199999999999</v>
+      </c>
+      <c r="F8">
+        <v>5.19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>116.73399999999999</v>
+      </c>
+      <c r="E9">
+        <v>36.5336</v>
+      </c>
+      <c r="F9">
+        <v>5.19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>120.66589999999999</v>
+      </c>
+      <c r="E10">
+        <v>36.240299999999998</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>120.3905</v>
+      </c>
+      <c r="E11">
+        <v>36.185099999999998</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>120.3471</v>
+      </c>
+      <c r="E12">
+        <v>36.069899999999997</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>120.4134</v>
+      </c>
+      <c r="E13">
+        <v>36.065399999999997</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>120.3664</v>
+      </c>
+      <c r="E14">
+        <v>36.103200000000001</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>120.2992</v>
+      </c>
+      <c r="E15">
+        <v>36.054299999999998</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>120.45869999999999</v>
+      </c>
+      <c r="E16">
+        <v>36.085099999999997</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>120.1964</v>
+      </c>
+      <c r="E17">
+        <v>36.308300000000003</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>120.40009999999999</v>
+      </c>
+      <c r="E18">
+        <v>36.240299999999998</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>117.685</v>
+      </c>
+      <c r="E19">
+        <v>36.204999999999998</v>
+      </c>
+      <c r="F19">
+        <v>5.19</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>117.6789</v>
+      </c>
+      <c r="E20">
+        <v>36.228900000000003</v>
+      </c>
+      <c r="F20">
+        <v>5.19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>117.715</v>
+      </c>
+      <c r="E21">
+        <v>36.208100000000002</v>
+      </c>
+      <c r="F21">
+        <v>5.19</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>118.34180000000001</v>
+      </c>
+      <c r="E22">
+        <v>35.057299999999998</v>
+      </c>
+      <c r="F22">
+        <v>5.19</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <v>118.29389999999999</v>
+      </c>
+      <c r="E23">
+        <v>35.062199999999997</v>
+      </c>
+      <c r="F23">
+        <v>5.19</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>118.2764</v>
+      </c>
+      <c r="E24">
+        <v>34.981699999999996</v>
+      </c>
+      <c r="F24">
+        <v>5.19</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <v>118.4023</v>
+      </c>
+      <c r="E25">
+        <v>35.089599999999997</v>
+      </c>
+      <c r="F25">
+        <v>5.19</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -11109,7 +12964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -11437,7 +13292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -11711,7 +13566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11728,1652 +13583,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A76644-5F86-4776-A293-540939F77A3D}">
-  <dimension ref="A1:H87"/>
-  <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G59" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2">
-        <v>116.366</v>
-      </c>
-      <c r="E2">
-        <v>39.8673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3">
-        <v>116.17</v>
-      </c>
-      <c r="E3">
-        <v>40.286499999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4">
-        <v>116.434</v>
-      </c>
-      <c r="E4">
-        <v>39.952199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5">
-        <v>116.434</v>
-      </c>
-      <c r="E5">
-        <v>39.874499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6">
-        <v>116.473</v>
-      </c>
-      <c r="E6">
-        <v>39.971600000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7">
-        <v>116.361</v>
-      </c>
-      <c r="E7">
-        <v>39.942500000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8">
-        <v>116.315</v>
-      </c>
-      <c r="E8">
-        <v>39.993400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9">
-        <v>116.72</v>
-      </c>
-      <c r="E9">
-        <v>40.143799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10">
-        <v>116.64400000000001</v>
-      </c>
-      <c r="E10">
-        <v>40.393700000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>291</v>
-      </c>
-      <c r="B11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11">
-        <v>116.23</v>
-      </c>
-      <c r="E11">
-        <v>40.1952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D12">
-        <v>116.407</v>
-      </c>
-      <c r="E12">
-        <v>40.003100000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13">
-        <v>116.22499999999999</v>
-      </c>
-      <c r="E13">
-        <v>39.927900000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>297</v>
-      </c>
-      <c r="B14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14">
-        <v>117.151</v>
-      </c>
-      <c r="E14">
-        <v>39.097000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C15" t="s">
-        <v>299</v>
-      </c>
-      <c r="D15">
-        <v>117.193</v>
-      </c>
-      <c r="E15">
-        <v>39.173000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>302</v>
-      </c>
-      <c r="B16" t="s">
-        <v>303</v>
-      </c>
-      <c r="C16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D16">
-        <v>117.145</v>
-      </c>
-      <c r="E16">
-        <v>39.165399999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>304</v>
-      </c>
-      <c r="B17" t="s">
-        <v>305</v>
-      </c>
-      <c r="C17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D17">
-        <v>117.184</v>
-      </c>
-      <c r="E17">
-        <v>39.1205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18" t="s">
-        <v>307</v>
-      </c>
-      <c r="C18" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18">
-        <v>117.23699999999999</v>
-      </c>
-      <c r="E18">
-        <v>39.108199999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>308</v>
-      </c>
-      <c r="B19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C19" t="s">
-        <v>299</v>
-      </c>
-      <c r="D19">
-        <v>117.202</v>
-      </c>
-      <c r="E19">
-        <v>39.092700000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>310</v>
-      </c>
-      <c r="B20" t="s">
-        <v>311</v>
-      </c>
-      <c r="C20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D20">
-        <v>117.1837</v>
-      </c>
-      <c r="E20">
-        <v>39.213299999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21" t="s">
-        <v>313</v>
-      </c>
-      <c r="C21" t="s">
-        <v>299</v>
-      </c>
-      <c r="D21">
-        <v>117.26900000000001</v>
-      </c>
-      <c r="E21">
-        <v>39.133699999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>314</v>
-      </c>
-      <c r="B22" t="s">
-        <v>315</v>
-      </c>
-      <c r="C22" t="s">
-        <v>299</v>
-      </c>
-      <c r="D22">
-        <v>117.307</v>
-      </c>
-      <c r="E22">
-        <v>39.087699999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>316</v>
-      </c>
-      <c r="B23" t="s">
-        <v>317</v>
-      </c>
-      <c r="C23" t="s">
-        <v>299</v>
-      </c>
-      <c r="D23">
-        <v>117.70699999999999</v>
-      </c>
-      <c r="E23">
-        <v>39.034300000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>318</v>
-      </c>
-      <c r="B24" t="s">
-        <v>319</v>
-      </c>
-      <c r="C24" t="s">
-        <v>299</v>
-      </c>
-      <c r="D24">
-        <v>117.45699999999999</v>
-      </c>
-      <c r="E24">
-        <v>38.839399999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>320</v>
-      </c>
-      <c r="B25" t="s">
-        <v>321</v>
-      </c>
-      <c r="C25" t="s">
-        <v>299</v>
-      </c>
-      <c r="D25">
-        <v>117.401</v>
-      </c>
-      <c r="E25">
-        <v>39.124000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>322</v>
-      </c>
-      <c r="B26" t="s">
-        <v>323</v>
-      </c>
-      <c r="C26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D26">
-        <v>117.764</v>
-      </c>
-      <c r="E26">
-        <v>39.158700000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>324</v>
-      </c>
-      <c r="B27" t="s">
-        <v>325</v>
-      </c>
-      <c r="C27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D27">
-        <v>117.157</v>
-      </c>
-      <c r="E27">
-        <v>38.919400000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28">
-        <v>114.45480000000001</v>
-      </c>
-      <c r="E28">
-        <v>38.051299999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29">
-        <v>114.6046</v>
-      </c>
-      <c r="E29">
-        <v>38.0398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30">
-        <v>114.50190000000001</v>
-      </c>
-      <c r="E30">
-        <v>38.139800000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31">
-        <v>114.4586111</v>
-      </c>
-      <c r="E31">
-        <v>38.005833330000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32">
-        <v>114.5330556</v>
-      </c>
-      <c r="E32">
-        <v>38.017777780000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>178</v>
-      </c>
-      <c r="B33" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33">
-        <v>114.5214</v>
-      </c>
-      <c r="E33">
-        <v>38.052399999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>225</v>
-      </c>
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34">
-        <v>114.8985</v>
-      </c>
-      <c r="E34">
-        <v>40.8367</v>
-      </c>
-      <c r="F34">
-        <v>5.19</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>227</v>
-      </c>
-      <c r="B35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D35">
-        <v>114.892</v>
-      </c>
-      <c r="E35">
-        <v>40.794809999999998</v>
-      </c>
-      <c r="F35">
-        <v>5.19</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>229</v>
-      </c>
-      <c r="B36" t="s">
-        <v>230</v>
-      </c>
-      <c r="C36" t="s">
-        <v>226</v>
-      </c>
-      <c r="D36">
-        <v>114.8814</v>
-      </c>
-      <c r="E36">
-        <v>40.811500000000002</v>
-      </c>
-      <c r="F36">
-        <v>5.19</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>231</v>
-      </c>
-      <c r="B37" t="s">
-        <v>232</v>
-      </c>
-      <c r="C37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D37">
-        <v>114.9032</v>
-      </c>
-      <c r="E37">
-        <v>40.768799999999999</v>
-      </c>
-      <c r="F37">
-        <v>5.19</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>233</v>
-      </c>
-      <c r="B38" t="s">
-        <v>234</v>
-      </c>
-      <c r="C38" t="s">
-        <v>226</v>
-      </c>
-      <c r="D38">
-        <v>114.904</v>
-      </c>
-      <c r="E38">
-        <v>40.872500000000002</v>
-      </c>
-      <c r="F38">
-        <v>5.19</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>235</v>
-      </c>
-      <c r="B39" t="s">
-        <v>236</v>
-      </c>
-      <c r="C39" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39">
-        <v>117.96639999999999</v>
-      </c>
-      <c r="E39">
-        <v>40.9161</v>
-      </c>
-      <c r="F39">
-        <v>5.19</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>238</v>
-      </c>
-      <c r="B40" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40">
-        <v>117.9525</v>
-      </c>
-      <c r="E40">
-        <v>40.984299999999998</v>
-      </c>
-      <c r="F40">
-        <v>5.19</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>240</v>
-      </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" t="s">
-        <v>237</v>
-      </c>
-      <c r="D41">
-        <v>117.96299999999999</v>
-      </c>
-      <c r="E41">
-        <v>40.935899999999997</v>
-      </c>
-      <c r="F41">
-        <v>5.19</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>241</v>
-      </c>
-      <c r="B42" t="s">
-        <v>242</v>
-      </c>
-      <c r="C42" t="s">
-        <v>237</v>
-      </c>
-      <c r="D42">
-        <v>117.8184</v>
-      </c>
-      <c r="E42">
-        <v>40.973300000000002</v>
-      </c>
-      <c r="F42">
-        <v>5.19</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>243</v>
-      </c>
-      <c r="B43" t="s">
-        <v>244</v>
-      </c>
-      <c r="C43" t="s">
-        <v>237</v>
-      </c>
-      <c r="D43">
-        <v>117.9384</v>
-      </c>
-      <c r="E43">
-        <v>41.011200000000002</v>
-      </c>
-      <c r="F43">
-        <v>5.19</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>253</v>
-      </c>
-      <c r="B44" t="s">
-        <v>254</v>
-      </c>
-      <c r="C44" t="s">
-        <v>255</v>
-      </c>
-      <c r="D44">
-        <v>116.8854</v>
-      </c>
-      <c r="E44">
-        <v>38.299100000000003</v>
-      </c>
-      <c r="F44">
-        <v>5.19</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>256</v>
-      </c>
-      <c r="B45" t="s">
-        <v>257</v>
-      </c>
-      <c r="C45" t="s">
-        <v>255</v>
-      </c>
-      <c r="D45">
-        <v>116.8584</v>
-      </c>
-      <c r="E45">
-        <v>38.325400000000002</v>
-      </c>
-      <c r="F45">
-        <v>5.19</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>264</v>
-      </c>
-      <c r="B46" t="s">
-        <v>265</v>
-      </c>
-      <c r="C46" t="s">
-        <v>266</v>
-      </c>
-      <c r="D46">
-        <v>114.4821</v>
-      </c>
-      <c r="E46">
-        <v>37.096699999999998</v>
-      </c>
-      <c r="F46">
-        <v>5.19</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>267</v>
-      </c>
-      <c r="B47" t="s">
-        <v>268</v>
-      </c>
-      <c r="C47" t="s">
-        <v>266</v>
-      </c>
-      <c r="D47">
-        <v>114.5261</v>
-      </c>
-      <c r="E47">
-        <v>37.0533</v>
-      </c>
-      <c r="F47">
-        <v>5.19</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>269</v>
-      </c>
-      <c r="B48" t="s">
-        <v>270</v>
-      </c>
-      <c r="C48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D48">
-        <v>114.5331</v>
-      </c>
-      <c r="E48">
-        <v>37.096400000000003</v>
-      </c>
-      <c r="F48">
-        <v>5.19</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" t="s">
-        <v>266</v>
-      </c>
-      <c r="D49">
-        <v>114.4854</v>
-      </c>
-      <c r="E49">
-        <v>37.061999999999998</v>
-      </c>
-      <c r="F49">
-        <v>5.19</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50">
-        <v>116.988</v>
-      </c>
-      <c r="E50">
-        <v>36.611400000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51">
-        <v>116.93</v>
-      </c>
-      <c r="E51">
-        <v>36.67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52">
-        <v>117.114</v>
-      </c>
-      <c r="E52">
-        <v>36.673900000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53">
-        <v>116.989</v>
-      </c>
-      <c r="E53">
-        <v>36.687199999999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54">
-        <v>117.0684</v>
-      </c>
-      <c r="E54">
-        <v>36.686799999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55">
-        <v>116.943</v>
-      </c>
-      <c r="E55">
-        <v>36.648899999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56">
-        <v>117.04900000000001</v>
-      </c>
-      <c r="E56">
-        <v>36.662199999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57">
-        <v>116.73399999999999</v>
-      </c>
-      <c r="E57">
-        <v>36.5336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58">
-        <v>120.66589999999999</v>
-      </c>
-      <c r="E58">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59">
-        <v>120.3905</v>
-      </c>
-      <c r="E59">
-        <v>36.185099999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60">
-        <v>120.3471</v>
-      </c>
-      <c r="E60">
-        <v>36.069899999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61">
-        <v>120.4134</v>
-      </c>
-      <c r="E61">
-        <v>36.065399999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62">
-        <v>120.3664</v>
-      </c>
-      <c r="E62">
-        <v>36.103200000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63">
-        <v>120.2992</v>
-      </c>
-      <c r="E63">
-        <v>36.054299999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64">
-        <v>120.45869999999999</v>
-      </c>
-      <c r="E64">
-        <v>36.085099999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65">
-        <v>120.1964</v>
-      </c>
-      <c r="E65">
-        <v>36.308300000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="E66">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67">
-        <v>117.685</v>
-      </c>
-      <c r="E67">
-        <v>36.204999999999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68">
-        <v>117.6789</v>
-      </c>
-      <c r="E68">
-        <v>36.228900000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" t="s">
-        <v>55</v>
-      </c>
-      <c r="C69" t="s">
-        <v>51</v>
-      </c>
-      <c r="D69">
-        <v>117.715</v>
-      </c>
-      <c r="E69">
-        <v>36.208100000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E70">
-        <v>35.057299999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>59</v>
-      </c>
-      <c r="B71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E71">
-        <v>35.062199999999997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>61</v>
-      </c>
-      <c r="B72" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72">
-        <v>118.2764</v>
-      </c>
-      <c r="E72">
-        <v>34.981699999999996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73">
-        <v>118.4023</v>
-      </c>
-      <c r="E73">
-        <v>35.089599999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74">
-        <v>117.8477</v>
-      </c>
-      <c r="E74">
-        <v>36.497</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75">
-        <v>117.45180000000001</v>
-      </c>
-      <c r="E75">
-        <v>35.099200000000003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76">
-        <v>119.12</v>
-      </c>
-      <c r="E76">
-        <v>36.701900000000002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77">
-        <v>119.0919</v>
-      </c>
-      <c r="E77">
-        <v>36.730600000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>126</v>
-      </c>
-      <c r="B78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78">
-        <v>119.1425</v>
-      </c>
-      <c r="E78">
-        <v>36.700800000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79">
-        <v>119.1614</v>
-      </c>
-      <c r="E79">
-        <v>36.657200000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80">
-        <v>119.1939</v>
-      </c>
-      <c r="E80">
-        <v>36.773099999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>138</v>
-      </c>
-      <c r="B81" t="s">
-        <v>129</v>
-      </c>
-      <c r="C81" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81">
-        <v>119.4641</v>
-      </c>
-      <c r="E81">
-        <v>35.4178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" t="s">
-        <v>141</v>
-      </c>
-      <c r="C82" t="s">
-        <v>139</v>
-      </c>
-      <c r="D82">
-        <v>119.5198</v>
-      </c>
-      <c r="E82">
-        <v>35.423400000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>142</v>
-      </c>
-      <c r="B83" t="s">
-        <v>143</v>
-      </c>
-      <c r="C83" t="s">
-        <v>139</v>
-      </c>
-      <c r="D83">
-        <v>119.54</v>
-      </c>
-      <c r="E83">
-        <v>35.3962</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>144</v>
-      </c>
-      <c r="B84" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84" t="s">
-        <v>146</v>
-      </c>
-      <c r="D84">
-        <v>122.1206</v>
-      </c>
-      <c r="E84">
-        <v>37.429400000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>158</v>
-      </c>
-      <c r="B85" t="s">
-        <v>159</v>
-      </c>
-      <c r="C85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D85">
-        <v>115.42277</v>
-      </c>
-      <c r="E85">
-        <v>35.248888999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>161</v>
-      </c>
-      <c r="B86" t="s">
-        <v>162</v>
-      </c>
-      <c r="C86" t="s">
-        <v>160</v>
-      </c>
-      <c r="D86">
-        <v>115.474722</v>
-      </c>
-      <c r="E86">
-        <v>35.237499999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>163</v>
-      </c>
-      <c r="B87" t="s">
-        <v>164</v>
-      </c>
-      <c r="C87" t="s">
-        <v>160</v>
-      </c>
-      <c r="D87">
-        <v>115.455</v>
-      </c>
-      <c r="E87">
-        <v>35.270000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D628E495-0C44-430C-944C-C4FE5D6A6BE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0A0664-6DE5-4E67-A971-5197FD16716D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="2784" windowWidth="17280" windowHeight="8580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报错1" sheetId="16" r:id="rId1"/>
@@ -1418,172 +1418,172 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>116.8854</v>
+        <v>119.1425</v>
       </c>
       <c r="E2">
-        <v>38.299100000000003</v>
+        <v>36.700800000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>116.8584</v>
+        <v>119.1614</v>
       </c>
       <c r="E3">
-        <v>38.325400000000002</v>
+        <v>36.657200000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>114.4821</v>
+        <v>119.1939</v>
       </c>
       <c r="E4">
-        <v>37.096699999999998</v>
+        <v>36.773099999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>139</v>
       </c>
       <c r="D5">
-        <v>114.5261</v>
+        <v>119.4641</v>
       </c>
       <c r="E5">
-        <v>37.0533</v>
+        <v>35.4178</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>139</v>
       </c>
       <c r="D6">
-        <v>114.5331</v>
+        <v>119.5198</v>
       </c>
       <c r="E6">
-        <v>37.096400000000003</v>
+        <v>35.423400000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>139</v>
       </c>
       <c r="D7">
-        <v>114.4854</v>
+        <v>119.54</v>
       </c>
       <c r="E7">
-        <v>37.061999999999998</v>
+        <v>35.3962</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="D8">
-        <v>117.8477</v>
+        <v>122.1206</v>
       </c>
       <c r="E8">
-        <v>36.497</v>
+        <v>37.429400000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="D9">
-        <v>117.45180000000001</v>
+        <v>115.42277</v>
       </c>
       <c r="E9">
-        <v>35.099200000000003</v>
+        <v>35.248888999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="D10">
-        <v>119.12</v>
+        <v>115.474722</v>
       </c>
       <c r="E10">
-        <v>36.701900000000002</v>
+        <v>35.237499999999997</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="D11">
-        <v>119.0919</v>
+        <v>115.455</v>
       </c>
       <c r="E11">
-        <v>36.730600000000003</v>
+        <v>35.270000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -10244,8 +10244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDE112F-36F7-4FAD-835E-47D76D1B42AF}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11435,7 +11435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0A0664-6DE5-4E67-A971-5197FD16716D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563FB832-A052-49FC-8EFE-B8644C2CC1CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="2784" windowWidth="17280" windowHeight="8580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报错1" sheetId="16" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="337">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1388,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECE7281-E3EA-447B-ACF0-B60681C1A9E9}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E11"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1418,172 +1418,138 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>119.1425</v>
+        <v>117.685</v>
       </c>
       <c r="E2">
-        <v>36.700800000000001</v>
+        <v>36.204999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>119.1614</v>
+        <v>117.6789</v>
       </c>
       <c r="E3">
-        <v>36.657200000000003</v>
+        <v>36.228900000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>119.1939</v>
+        <v>117.715</v>
       </c>
       <c r="E4">
-        <v>36.773099999999999</v>
+        <v>36.208100000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>119.4641</v>
+        <v>118.34180000000001</v>
       </c>
       <c r="E5">
-        <v>35.4178</v>
+        <v>35.057299999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <v>119.5198</v>
+        <v>118.29389999999999</v>
       </c>
       <c r="E6">
-        <v>35.423400000000001</v>
+        <v>35.062199999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>119.54</v>
+        <v>118.2764</v>
       </c>
       <c r="E7">
-        <v>35.3962</v>
+        <v>34.981699999999996</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>122.1206</v>
+        <v>118.4023</v>
       </c>
       <c r="E8">
-        <v>37.429400000000001</v>
+        <v>35.089599999999997</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>115.42277</v>
+        <v>116.988</v>
       </c>
       <c r="E9">
-        <v>35.248888999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10">
-        <v>115.474722</v>
-      </c>
-      <c r="E10">
-        <v>35.237499999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11">
-        <v>115.455</v>
-      </c>
-      <c r="E11">
-        <v>35.270000000000003</v>
+        <v>36.611400000000003</v>
       </c>
     </row>
   </sheetData>
@@ -10245,7 +10211,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E31"/>
+      <selection activeCell="A32" sqref="A32:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,33 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563FB832-A052-49FC-8EFE-B8644C2CC1CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C345B678-9DD3-47DB-A3E2-DFC3B75AE681}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报错1" sheetId="16" r:id="rId1"/>
-    <sheet name="ERROR_18519" sheetId="15" r:id="rId2"/>
-    <sheet name="山东 2" sheetId="8" r:id="rId3"/>
-    <sheet name="北京" sheetId="2" r:id="rId4"/>
-    <sheet name="山东1" sheetId="7" r:id="rId5"/>
-    <sheet name="天津" sheetId="3" r:id="rId6"/>
-    <sheet name="河北2" sheetId="12" r:id="rId7"/>
-    <sheet name="河北1" sheetId="11" r:id="rId8"/>
-    <sheet name="测试" sheetId="10" r:id="rId9"/>
-    <sheet name="可用86市汇总" sheetId="14" r:id="rId10"/>
-    <sheet name="河北2013" sheetId="13" r:id="rId11"/>
-    <sheet name="山东2013" sheetId="9" r:id="rId12"/>
-    <sheet name="山东" sheetId="5" r:id="rId13"/>
-    <sheet name="河北" sheetId="4" r:id="rId14"/>
-    <sheet name="汇总" sheetId="6" r:id="rId15"/>
+    <sheet name="缺失152-86" sheetId="17" r:id="rId2"/>
+    <sheet name="ERROR_18519" sheetId="15" r:id="rId3"/>
+    <sheet name="山东 2" sheetId="8" r:id="rId4"/>
+    <sheet name="北京" sheetId="2" r:id="rId5"/>
+    <sheet name="山东1" sheetId="7" r:id="rId6"/>
+    <sheet name="天津" sheetId="3" r:id="rId7"/>
+    <sheet name="河北2" sheetId="12" r:id="rId8"/>
+    <sheet name="河北1" sheetId="11" r:id="rId9"/>
+    <sheet name="测试" sheetId="10" r:id="rId10"/>
+    <sheet name="可用86市汇总" sheetId="14" r:id="rId11"/>
+    <sheet name="河北2013" sheetId="13" r:id="rId12"/>
+    <sheet name="山东2013" sheetId="9" r:id="rId13"/>
+    <sheet name="山东" sheetId="5" r:id="rId14"/>
+    <sheet name="河北" sheetId="4" r:id="rId15"/>
+    <sheet name="汇总" sheetId="6" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1053,6 +1054,10 @@
   </si>
   <si>
     <t>完成17，18.519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1086,6 +1091,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1388,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECE7281-E3EA-447B-ACF0-B60681C1A9E9}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1417,139 +1423,20 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>49</v>
+      <c r="A2" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>117.685</v>
+        <v>116.93</v>
       </c>
       <c r="E2">
-        <v>36.204999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3">
-        <v>117.6789</v>
-      </c>
-      <c r="E3">
-        <v>36.228900000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4">
-        <v>117.715</v>
-      </c>
-      <c r="E4">
-        <v>36.208100000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E5">
-        <v>35.057299999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E6">
-        <v>35.062199999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7">
-        <v>118.2764</v>
-      </c>
-      <c r="E7">
-        <v>34.981699999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8">
-        <v>118.4023</v>
-      </c>
-      <c r="E8">
-        <v>35.089599999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>116.988</v>
-      </c>
-      <c r="E9">
-        <v>36.611400000000003</v>
+        <v>36.67</v>
       </c>
     </row>
   </sheetData>
@@ -1559,6 +1446,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A76644-5F86-4776-A293-540939F77A3D}">
   <dimension ref="A1:H87"/>
   <sheetViews>
@@ -3206,7 +3112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
@@ -3769,11 +3675,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
@@ -4728,7 +4634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
@@ -6410,12 +6316,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A47" sqref="A1:XFD1048576"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -7585,7 +7491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E153"/>
   <sheetViews>
@@ -10207,11 +10113,1166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82192017-D878-49FE-AF01-A4D0990B42FE}">
+  <dimension ref="A1:E67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2">
+        <v>115.49299999999999</v>
+      </c>
+      <c r="E2">
+        <v>38.863199999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3">
+        <v>115.5223</v>
+      </c>
+      <c r="E3">
+        <v>38.895699999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4">
+        <v>115.4713</v>
+      </c>
+      <c r="E4">
+        <v>38.910800000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5">
+        <v>115.46120000000001</v>
+      </c>
+      <c r="E5">
+        <v>38.8416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6">
+        <v>115.44199999999999</v>
+      </c>
+      <c r="E6">
+        <v>38.875599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7">
+        <v>115.5214</v>
+      </c>
+      <c r="E7">
+        <v>38.870699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8">
+        <v>118.00620000000001</v>
+      </c>
+      <c r="E8">
+        <v>37.380299999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9">
+        <v>118.0018</v>
+      </c>
+      <c r="E9">
+        <v>37.361699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10">
+        <v>117.9776</v>
+      </c>
+      <c r="E10">
+        <v>37.393000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11">
+        <v>116.87090000000001</v>
+      </c>
+      <c r="E11">
+        <v>38.322800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12">
+        <v>116.3061</v>
+      </c>
+      <c r="E12">
+        <v>37.4664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13">
+        <v>116.27290000000001</v>
+      </c>
+      <c r="E13">
+        <v>37.450400000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14">
+        <v>116.3189</v>
+      </c>
+      <c r="E14">
+        <v>37.448900000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15">
+        <v>118.50190000000001</v>
+      </c>
+      <c r="E15">
+        <v>37.465800000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16">
+        <v>118.66719999999999</v>
+      </c>
+      <c r="E16">
+        <v>37.431399999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17">
+        <v>118.5857</v>
+      </c>
+      <c r="E17">
+        <v>37.444200000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18">
+        <v>118.8192</v>
+      </c>
+      <c r="E18">
+        <v>37.378100000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19">
+        <v>114.5129</v>
+      </c>
+      <c r="E19">
+        <v>36.617629999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20">
+        <v>114.54259999999999</v>
+      </c>
+      <c r="E20">
+        <v>36.616399999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21">
+        <v>114.5035</v>
+      </c>
+      <c r="E21">
+        <v>36.577599999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22">
+        <v>114.4965</v>
+      </c>
+      <c r="E22">
+        <v>36.619810000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23">
+        <v>115.6951</v>
+      </c>
+      <c r="E23">
+        <v>37.7575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24">
+        <v>115.6426</v>
+      </c>
+      <c r="E24">
+        <v>37.737900000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25">
+        <v>115.6906</v>
+      </c>
+      <c r="E25">
+        <v>37.738999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>116.6305</v>
+      </c>
+      <c r="E26">
+        <v>35.427999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>116.5856</v>
+      </c>
+      <c r="E27">
+        <v>35.414400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>116.55459999999999</v>
+      </c>
+      <c r="E28">
+        <v>35.4039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29">
+        <v>116.68380000000001</v>
+      </c>
+      <c r="E29">
+        <v>39.517800000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30">
+        <v>116.77290000000001</v>
+      </c>
+      <c r="E30">
+        <v>39.5747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31">
+        <v>116.715</v>
+      </c>
+      <c r="E31">
+        <v>39.557099999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D32">
+        <v>116.74639999999999</v>
+      </c>
+      <c r="E32">
+        <v>39.534300000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33">
+        <v>115.98480000000001</v>
+      </c>
+      <c r="E33">
+        <v>36.437199999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34">
+        <v>115.99679999999999</v>
+      </c>
+      <c r="E34">
+        <v>36.456800000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>115.98350000000001</v>
+      </c>
+      <c r="E35">
+        <v>36.479599999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36">
+        <v>119.52589999999999</v>
+      </c>
+      <c r="E36">
+        <v>39.828299999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37">
+        <v>119.7624</v>
+      </c>
+      <c r="E37">
+        <v>40.018099999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38">
+        <v>119.6023</v>
+      </c>
+      <c r="E38">
+        <v>39.956699999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39">
+        <v>119.607</v>
+      </c>
+      <c r="E39">
+        <v>39.9358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40">
+        <v>119.5369</v>
+      </c>
+      <c r="E40">
+        <v>39.941899999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41">
+        <v>114.3541</v>
+      </c>
+      <c r="E41">
+        <v>37.909700000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42">
+        <v>117.14360000000001</v>
+      </c>
+      <c r="E42">
+        <v>36.194200000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43">
+        <v>117.0881</v>
+      </c>
+      <c r="E43">
+        <v>36.194200000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44">
+        <v>117.10809999999999</v>
+      </c>
+      <c r="E44">
+        <v>36.175800000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45">
+        <v>118.1662</v>
+      </c>
+      <c r="E45">
+        <v>39.630800000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46">
+        <v>118.14400000000001</v>
+      </c>
+      <c r="E46">
+        <v>39.643000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47">
+        <v>118.1853</v>
+      </c>
+      <c r="E47">
+        <v>39.640700000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48">
+        <v>118.21850000000001</v>
+      </c>
+      <c r="E48">
+        <v>39.667900000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49">
+        <v>118.18380000000001</v>
+      </c>
+      <c r="E49">
+        <v>39.657820000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50">
+        <v>118.19970000000001</v>
+      </c>
+      <c r="E50">
+        <v>39.6295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51">
+        <v>122.0508</v>
+      </c>
+      <c r="E51">
+        <v>37.532499999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52">
+        <v>122.1067</v>
+      </c>
+      <c r="E52">
+        <v>37.507199999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53">
+        <v>121.2514</v>
+      </c>
+      <c r="E53">
+        <v>37.563899999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54">
+        <v>121.3719</v>
+      </c>
+      <c r="E54">
+        <v>37.543300000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55">
+        <v>121.3181</v>
+      </c>
+      <c r="E55">
+        <v>37.543599999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56">
+        <v>121.4478</v>
+      </c>
+      <c r="E56">
+        <v>37.482199999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57">
+        <v>121.2611</v>
+      </c>
+      <c r="E57">
+        <v>37.496699999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58">
+        <v>121.59529999999999</v>
+      </c>
+      <c r="E58">
+        <v>37.3872</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59">
+        <v>117.5564</v>
+      </c>
+      <c r="E59">
+        <v>34.863999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60">
+        <v>117.2852</v>
+      </c>
+      <c r="E60">
+        <v>34.783700000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61">
+        <v>117.5852</v>
+      </c>
+      <c r="E61">
+        <v>34.774500000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62">
+        <v>117.732</v>
+      </c>
+      <c r="E62">
+        <v>34.566699999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63">
+        <v>118.04819999999999</v>
+      </c>
+      <c r="E63">
+        <v>36.808799999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64">
+        <v>118.0448</v>
+      </c>
+      <c r="E64">
+        <v>36.838000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65">
+        <v>117.95440000000001</v>
+      </c>
+      <c r="E65">
+        <v>36.637700000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66">
+        <v>118.3092</v>
+      </c>
+      <c r="E66">
+        <v>36.819800000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67">
+        <v>117.85120000000001</v>
+      </c>
+      <c r="E67">
+        <v>36.804099999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDE112F-36F7-4FAD-835E-47D76D1B42AF}">
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:E39"/>
+      <selection activeCell="A40" sqref="A40:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11210,8 +12271,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>16</v>
+      <c r="A40" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
@@ -11394,10 +12455,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -11787,7 +12849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -12033,7 +13095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -12650,7 +13712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -12930,7 +13992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -13258,7 +14320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -13530,23 +14592,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C345B678-9DD3-47DB-A3E2-DFC3B75AE681}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A6EDA0-5A92-4DB5-9A58-5559B261C3F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="报错1" sheetId="16" r:id="rId1"/>
-    <sheet name="缺失152-86" sheetId="17" r:id="rId2"/>
-    <sheet name="ERROR_18519" sheetId="15" r:id="rId3"/>
-    <sheet name="山东 2" sheetId="8" r:id="rId4"/>
-    <sheet name="北京" sheetId="2" r:id="rId5"/>
-    <sheet name="山东1" sheetId="7" r:id="rId6"/>
-    <sheet name="天津" sheetId="3" r:id="rId7"/>
-    <sheet name="河北2" sheetId="12" r:id="rId8"/>
-    <sheet name="河北1" sheetId="11" r:id="rId9"/>
-    <sheet name="测试" sheetId="10" r:id="rId10"/>
+    <sheet name="测试" sheetId="10" r:id="rId1"/>
+    <sheet name="报错1" sheetId="16" r:id="rId2"/>
+    <sheet name="缺失152-86" sheetId="17" r:id="rId3"/>
+    <sheet name="ERROR_18519" sheetId="15" r:id="rId4"/>
+    <sheet name="山东 2" sheetId="8" r:id="rId5"/>
+    <sheet name="北京" sheetId="2" r:id="rId6"/>
+    <sheet name="山东1" sheetId="7" r:id="rId7"/>
+    <sheet name="天津" sheetId="3" r:id="rId8"/>
+    <sheet name="河北2" sheetId="12" r:id="rId9"/>
+    <sheet name="河北1" sheetId="11" r:id="rId10"/>
     <sheet name="可用86市汇总" sheetId="14" r:id="rId11"/>
     <sheet name="河北2013" sheetId="13" r:id="rId12"/>
     <sheet name="山东2013" sheetId="9" r:id="rId13"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1393,74 +1393,500 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECE7281-E3EA-447B-ACF0-B60681C1A9E9}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>116.93</v>
-      </c>
-      <c r="E2">
-        <v>36.67</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A2" sqref="A2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.5" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2">
+        <v>118.00620000000001</v>
+      </c>
+      <c r="E2">
+        <v>37.380299999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3">
+        <v>118.0018</v>
+      </c>
+      <c r="E3">
+        <v>37.361699999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <v>117.9776</v>
+      </c>
+      <c r="E4">
+        <v>37.393000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5">
+        <v>116.87090000000001</v>
+      </c>
+      <c r="E5">
+        <v>38.322800000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>116.3061</v>
+      </c>
+      <c r="E6">
+        <v>37.4664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7">
+        <v>116.27290000000001</v>
+      </c>
+      <c r="E7">
+        <v>37.450400000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>116.3189</v>
+      </c>
+      <c r="E8">
+        <v>37.448900000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9">
+        <v>118.50190000000001</v>
+      </c>
+      <c r="E9">
+        <v>37.465800000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10">
+        <v>118.66719999999999</v>
+      </c>
+      <c r="E10">
+        <v>37.431399999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11">
+        <v>118.5857</v>
+      </c>
+      <c r="E11">
+        <v>37.444200000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12">
+        <v>118.8192</v>
+      </c>
+      <c r="E12">
+        <v>37.378100000000003</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2">
+        <v>114.45480000000001</v>
+      </c>
+      <c r="E2">
+        <v>38.051299999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>114.6046</v>
+      </c>
+      <c r="E3">
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E4">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5">
+        <v>114.4586111</v>
+      </c>
+      <c r="E5">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6">
+        <v>114.5330556</v>
+      </c>
+      <c r="E6">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7">
+        <v>114.5214</v>
+      </c>
+      <c r="E7">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8">
+        <v>114.8985</v>
+      </c>
+      <c r="E8">
+        <v>40.8367</v>
+      </c>
+      <c r="F8">
+        <v>5.19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9">
+        <v>114.892</v>
+      </c>
+      <c r="E9">
+        <v>40.794809999999998</v>
+      </c>
+      <c r="F9">
+        <v>5.19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10">
+        <v>114.8814</v>
+      </c>
+      <c r="E10">
+        <v>40.811500000000002</v>
+      </c>
+      <c r="F10">
+        <v>5.19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11">
+        <v>114.9032</v>
+      </c>
+      <c r="E11">
+        <v>40.768799999999999</v>
+      </c>
+      <c r="F11">
+        <v>5.19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12">
+        <v>114.904</v>
+      </c>
+      <c r="E12">
+        <v>40.872500000000002</v>
+      </c>
+      <c r="F12">
+        <v>5.19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10113,11 +10539,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECE7281-E3EA-447B-ACF0-B60681C1A9E9}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>116.93</v>
+      </c>
+      <c r="E2">
+        <v>36.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82192017-D878-49FE-AF01-A4D0990B42FE}">
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A8" sqref="A8:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11267,7 +11746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDE112F-36F7-4FAD-835E-47D76D1B42AF}">
   <dimension ref="A1:H46"/>
   <sheetViews>
@@ -12459,7 +12938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -12849,7 +13328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -13095,7 +13574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -13712,7 +14191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -13992,7 +14471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -14318,278 +14797,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2">
-        <v>114.45480000000001</v>
-      </c>
-      <c r="E2">
-        <v>38.051299999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3">
-        <v>114.6046</v>
-      </c>
-      <c r="E3">
-        <v>38.0398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4">
-        <v>114.50190000000001</v>
-      </c>
-      <c r="E4">
-        <v>38.139800000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5">
-        <v>114.4586111</v>
-      </c>
-      <c r="E5">
-        <v>38.005833330000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6">
-        <v>114.5330556</v>
-      </c>
-      <c r="E6">
-        <v>38.017777780000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7">
-        <v>114.5214</v>
-      </c>
-      <c r="E7">
-        <v>38.052399999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8">
-        <v>114.8985</v>
-      </c>
-      <c r="E8">
-        <v>40.8367</v>
-      </c>
-      <c r="F8">
-        <v>5.19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9">
-        <v>114.892</v>
-      </c>
-      <c r="E9">
-        <v>40.794809999999998</v>
-      </c>
-      <c r="F9">
-        <v>5.19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10">
-        <v>114.8814</v>
-      </c>
-      <c r="E10">
-        <v>40.811500000000002</v>
-      </c>
-      <c r="F10">
-        <v>5.19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11">
-        <v>114.9032</v>
-      </c>
-      <c r="E11">
-        <v>40.768799999999999</v>
-      </c>
-      <c r="F11">
-        <v>5.19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12">
-        <v>114.904</v>
-      </c>
-      <c r="E12">
-        <v>40.872500000000002</v>
-      </c>
-      <c r="F12">
-        <v>5.19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A6EDA0-5A92-4DB5-9A58-5559B261C3F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E99A7D8-66BC-4A97-A7EC-52AF60DB48C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1394,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E12"/>
+      <selection activeCell="A7" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1424,188 +1424,86 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D2">
-        <v>118.00620000000001</v>
+        <v>116.3189</v>
       </c>
       <c r="E2">
-        <v>37.380299999999998</v>
+        <v>37.448900000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="D3">
-        <v>118.0018</v>
+        <v>118.50190000000001</v>
       </c>
       <c r="E3">
-        <v>37.361699999999999</v>
+        <v>37.465800000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="D4">
-        <v>117.9776</v>
+        <v>118.66719999999999</v>
       </c>
       <c r="E4">
-        <v>37.393000000000001</v>
+        <v>37.431399999999996</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>152</v>
       </c>
       <c r="D5">
-        <v>116.87090000000001</v>
+        <v>118.5857</v>
       </c>
       <c r="E5">
-        <v>38.322800000000001</v>
+        <v>37.444200000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="D6">
-        <v>116.3061</v>
+        <v>118.8192</v>
       </c>
       <c r="E6">
-        <v>37.4664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7">
-        <v>116.27290000000001</v>
-      </c>
-      <c r="E7">
-        <v>37.450400000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8">
-        <v>116.3189</v>
-      </c>
-      <c r="E8">
-        <v>37.448900000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9">
-        <v>118.50190000000001</v>
-      </c>
-      <c r="E9">
-        <v>37.465800000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10">
-        <v>118.66719999999999</v>
-      </c>
-      <c r="E10">
-        <v>37.431399999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11">
-        <v>118.5857</v>
-      </c>
-      <c r="E11">
-        <v>37.444200000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12">
-        <v>118.8192</v>
-      </c>
-      <c r="E12">
         <v>37.378100000000003</v>
       </c>
     </row>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E99A7D8-66BC-4A97-A7EC-52AF60DB48C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A68088-A3A6-4EBD-AE45-1C6E8F365F7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="792" windowWidth="11832" windowHeight="8580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1394,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1424,87 +1424,376 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="D2">
-        <v>116.3189</v>
+        <v>118.14400000000001</v>
       </c>
       <c r="E2">
-        <v>37.448900000000002</v>
+        <v>39.643000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D3">
-        <v>118.50190000000001</v>
+        <v>118.1853</v>
       </c>
       <c r="E3">
-        <v>37.465800000000002</v>
+        <v>39.640700000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D4">
-        <v>118.66719999999999</v>
+        <v>118.21850000000001</v>
       </c>
       <c r="E4">
-        <v>37.431399999999996</v>
+        <v>39.667900000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D5">
-        <v>118.5857</v>
+        <v>118.18380000000001</v>
       </c>
       <c r="E5">
-        <v>37.444200000000002</v>
+        <v>39.657820000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D6">
-        <v>118.8192</v>
+        <v>118.19970000000001</v>
       </c>
       <c r="E6">
-        <v>37.378100000000003</v>
+        <v>39.6295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7">
+        <v>122.0508</v>
+      </c>
+      <c r="E7">
+        <v>37.532499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8">
+        <v>122.1067</v>
+      </c>
+      <c r="E8">
+        <v>37.507199999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9">
+        <v>121.2514</v>
+      </c>
+      <c r="E9">
+        <v>37.563899999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10">
+        <v>121.3719</v>
+      </c>
+      <c r="E10">
+        <v>37.543300000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11">
+        <v>121.3181</v>
+      </c>
+      <c r="E11">
+        <v>37.543599999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12">
+        <v>121.4478</v>
+      </c>
+      <c r="E12">
+        <v>37.482199999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13">
+        <v>121.2611</v>
+      </c>
+      <c r="E13">
+        <v>37.496699999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14">
+        <v>121.59529999999999</v>
+      </c>
+      <c r="E14">
+        <v>37.3872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15">
+        <v>117.5564</v>
+      </c>
+      <c r="E15">
+        <v>34.863999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16">
+        <v>117.2852</v>
+      </c>
+      <c r="E16">
+        <v>34.783700000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17">
+        <v>117.5852</v>
+      </c>
+      <c r="E17">
+        <v>34.774500000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18">
+        <v>117.732</v>
+      </c>
+      <c r="E18">
+        <v>34.566699999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19">
+        <v>118.04819999999999</v>
+      </c>
+      <c r="E19">
+        <v>36.808799999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20">
+        <v>118.0448</v>
+      </c>
+      <c r="E20">
+        <v>36.838000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21">
+        <v>117.95440000000001</v>
+      </c>
+      <c r="E21">
+        <v>36.637700000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22">
+        <v>118.3092</v>
+      </c>
+      <c r="E22">
+        <v>36.819800000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23">
+        <v>117.85120000000001</v>
+      </c>
+      <c r="E23">
+        <v>36.804099999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10493,8 +10782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82192017-D878-49FE-AF01-A4D0990B42FE}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E18"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E29" sqref="A29:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A68088-A3A6-4EBD-AE45-1C6E8F365F7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A923EAF7-1DA6-462C-90F5-DD72A3C72AED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="792" windowWidth="11832" windowHeight="8580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1394,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1424,376 +1424,138 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>118.14400000000001</v>
+        <v>116.988</v>
       </c>
       <c r="E2">
-        <v>39.643000000000001</v>
+        <v>36.611400000000003</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>118.1853</v>
+        <v>116.93</v>
       </c>
       <c r="E3">
-        <v>39.640700000000002</v>
+        <v>36.67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>118.21850000000001</v>
+        <v>117.114</v>
       </c>
       <c r="E4">
-        <v>39.667900000000003</v>
+        <v>36.673900000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>118.18380000000001</v>
+        <v>116.989</v>
       </c>
       <c r="E5">
-        <v>39.657820000000001</v>
+        <v>36.687199999999997</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>118.19970000000001</v>
+        <v>117.0684</v>
       </c>
       <c r="E6">
-        <v>39.6295</v>
+        <v>36.686799999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>122.0508</v>
+        <v>116.943</v>
       </c>
       <c r="E7">
-        <v>37.532499999999999</v>
+        <v>36.648899999999998</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>122.1067</v>
+        <v>117.04900000000001</v>
       </c>
       <c r="E8">
-        <v>37.507199999999997</v>
+        <v>36.662199999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>121.2514</v>
+        <v>116.73399999999999</v>
       </c>
       <c r="E9">
-        <v>37.563899999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10">
-        <v>121.3719</v>
-      </c>
-      <c r="E10">
-        <v>37.543300000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11">
-        <v>121.3181</v>
-      </c>
-      <c r="E11">
-        <v>37.543599999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12">
-        <v>121.4478</v>
-      </c>
-      <c r="E12">
-        <v>37.482199999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13">
-        <v>121.2611</v>
-      </c>
-      <c r="E13">
-        <v>37.496699999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14">
-        <v>121.59529999999999</v>
-      </c>
-      <c r="E14">
-        <v>37.3872</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15">
-        <v>117.5564</v>
-      </c>
-      <c r="E15">
-        <v>34.863999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16">
-        <v>117.2852</v>
-      </c>
-      <c r="E16">
-        <v>34.783700000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17">
-        <v>117.5852</v>
-      </c>
-      <c r="E17">
-        <v>34.774500000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18">
-        <v>117.732</v>
-      </c>
-      <c r="E18">
-        <v>34.566699999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19">
-        <v>118.04819999999999</v>
-      </c>
-      <c r="E19">
-        <v>36.808799999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20">
-        <v>118.0448</v>
-      </c>
-      <c r="E20">
-        <v>36.838000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21">
-        <v>117.95440000000001</v>
-      </c>
-      <c r="E21">
-        <v>36.637700000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22">
-        <v>118.3092</v>
-      </c>
-      <c r="E22">
-        <v>36.819800000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23">
-        <v>117.85120000000001</v>
-      </c>
-      <c r="E23">
-        <v>36.804099999999998</v>
+        <v>36.5336</v>
       </c>
     </row>
   </sheetData>
@@ -1808,7 +1570,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F12" sqref="F8:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10782,8 +10544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82192017-D878-49FE-AF01-A4D0990B42FE}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E29" sqref="A29:E67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11937,8 +11699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDE112F-36F7-4FAD-835E-47D76D1B42AF}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:E46"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E46" sqref="E2:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -13129,8 +12891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F2:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -13765,8 +13527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="A2:H9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -14663,7 +14425,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A2:H12"/>
+      <selection activeCell="G12" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A923EAF7-1DA6-462C-90F5-DD72A3C72AED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDE6090-20F5-4960-A738-33375559CAFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1394,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1424,137 +1424,69 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2">
-        <v>116.988</v>
+        <v>117.0684</v>
       </c>
       <c r="E2">
-        <v>36.611400000000003</v>
+        <v>36.686799999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3">
-        <v>116.93</v>
+        <v>116.943</v>
       </c>
       <c r="E3">
-        <v>36.67</v>
+        <v>36.648899999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>117.114</v>
+        <v>117.04900000000001</v>
       </c>
       <c r="E4">
-        <v>36.673900000000003</v>
+        <v>36.662199999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5">
-        <v>116.989</v>
+        <v>116.73399999999999</v>
       </c>
       <c r="E5">
-        <v>36.687199999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>117.0684</v>
-      </c>
-      <c r="E6">
-        <v>36.686799999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>116.943</v>
-      </c>
-      <c r="E7">
-        <v>36.648899999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>117.04900000000001</v>
-      </c>
-      <c r="E8">
-        <v>36.662199999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>116.73399999999999</v>
-      </c>
-      <c r="E9">
         <v>36.5336</v>
       </c>
     </row>
@@ -13527,8 +13459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,34 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDE6090-20F5-4960-A738-33375559CAFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10A762B-BF7B-4ADB-95B0-FFAE614B0FAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="10" r:id="rId1"/>
-    <sheet name="报错1" sheetId="16" r:id="rId2"/>
-    <sheet name="缺失152-86" sheetId="17" r:id="rId3"/>
-    <sheet name="ERROR_18519" sheetId="15" r:id="rId4"/>
-    <sheet name="山东 2" sheetId="8" r:id="rId5"/>
-    <sheet name="北京" sheetId="2" r:id="rId6"/>
-    <sheet name="山东1" sheetId="7" r:id="rId7"/>
-    <sheet name="天津" sheetId="3" r:id="rId8"/>
-    <sheet name="河北2" sheetId="12" r:id="rId9"/>
-    <sheet name="河北1" sheetId="11" r:id="rId10"/>
-    <sheet name="可用86市汇总" sheetId="14" r:id="rId11"/>
-    <sheet name="河北2013" sheetId="13" r:id="rId12"/>
-    <sheet name="山东2013" sheetId="9" r:id="rId13"/>
-    <sheet name="山东" sheetId="5" r:id="rId14"/>
-    <sheet name="河北" sheetId="4" r:id="rId15"/>
-    <sheet name="汇总" sheetId="6" r:id="rId16"/>
+    <sheet name="缺失152-86" sheetId="17" r:id="rId2"/>
+    <sheet name="ERROR_18519" sheetId="15" r:id="rId3"/>
+    <sheet name="山东 2" sheetId="8" r:id="rId4"/>
+    <sheet name="北京" sheetId="2" r:id="rId5"/>
+    <sheet name="山东1" sheetId="7" r:id="rId6"/>
+    <sheet name="天津" sheetId="3" r:id="rId7"/>
+    <sheet name="河北2" sheetId="12" r:id="rId8"/>
+    <sheet name="河北1" sheetId="11" r:id="rId9"/>
+    <sheet name="可用86市汇总" sheetId="14" r:id="rId10"/>
+    <sheet name="河北2013" sheetId="13" r:id="rId11"/>
+    <sheet name="山东2013" sheetId="9" r:id="rId12"/>
+    <sheet name="山东" sheetId="5" r:id="rId13"/>
+    <sheet name="河北" sheetId="4" r:id="rId14"/>
+    <sheet name="汇总" sheetId="6" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1394,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:XFD5"/>
+      <selection activeCell="A2" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1424,70 +1423,104 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D2">
-        <v>117.0684</v>
+        <v>115.49299999999999</v>
       </c>
       <c r="E2">
-        <v>36.686799999999998</v>
+        <v>38.863199999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D3">
-        <v>116.943</v>
+        <v>115.5223</v>
       </c>
       <c r="E3">
-        <v>36.648899999999998</v>
+        <v>38.895699999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D4">
-        <v>117.04900000000001</v>
+        <v>115.4713</v>
       </c>
       <c r="E4">
-        <v>36.662199999999999</v>
+        <v>38.910800000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D5">
-        <v>116.73399999999999</v>
+        <v>115.46120000000001</v>
       </c>
       <c r="E5">
-        <v>36.5336</v>
+        <v>38.8416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6">
+        <v>115.44199999999999</v>
+      </c>
+      <c r="E6">
+        <v>38.875599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7">
+        <v>115.5214</v>
+      </c>
+      <c r="E7">
+        <v>38.870699999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1498,280 +1531,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F8:F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2">
-        <v>114.45480000000001</v>
-      </c>
-      <c r="E2">
-        <v>38.051299999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3">
-        <v>114.6046</v>
-      </c>
-      <c r="E3">
-        <v>38.0398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4">
-        <v>114.50190000000001</v>
-      </c>
-      <c r="E4">
-        <v>38.139800000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5">
-        <v>114.4586111</v>
-      </c>
-      <c r="E5">
-        <v>38.005833330000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6">
-        <v>114.5330556</v>
-      </c>
-      <c r="E6">
-        <v>38.017777780000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7">
-        <v>114.5214</v>
-      </c>
-      <c r="E7">
-        <v>38.052399999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8">
-        <v>114.8985</v>
-      </c>
-      <c r="E8">
-        <v>40.8367</v>
-      </c>
-      <c r="F8">
-        <v>5.19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9">
-        <v>114.892</v>
-      </c>
-      <c r="E9">
-        <v>40.794809999999998</v>
-      </c>
-      <c r="F9">
-        <v>5.19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10">
-        <v>114.8814</v>
-      </c>
-      <c r="E10">
-        <v>40.811500000000002</v>
-      </c>
-      <c r="F10">
-        <v>5.19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11">
-        <v>114.9032</v>
-      </c>
-      <c r="E11">
-        <v>40.768799999999999</v>
-      </c>
-      <c r="F11">
-        <v>5.19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12">
-        <v>114.904</v>
-      </c>
-      <c r="E12">
-        <v>40.872500000000002</v>
-      </c>
-      <c r="F12">
-        <v>5.19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A76644-5F86-4776-A293-540939F77A3D}">
   <dimension ref="A1:H87"/>
   <sheetViews>
@@ -3419,7 +3178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
@@ -3982,7 +3741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
@@ -4941,7 +4700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
@@ -6623,7 +6382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
@@ -7798,7 +7557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E153"/>
   <sheetViews>
@@ -10420,64 +10179,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECE7281-E3EA-447B-ACF0-B60681C1A9E9}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>116.93</v>
-      </c>
-      <c r="E2">
-        <v>36.67</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82192017-D878-49FE-AF01-A4D0990B42FE}">
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11627,12 +11333,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDE112F-36F7-4FAD-835E-47D76D1B42AF}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E46" sqref="E2:E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -12819,7 +12525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -13209,7 +12915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -13455,7 +13161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -14072,7 +13778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -14352,7 +14058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -14678,4 +14384,278 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F8:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2">
+        <v>114.45480000000001</v>
+      </c>
+      <c r="E2">
+        <v>38.051299999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>114.6046</v>
+      </c>
+      <c r="E3">
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E4">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5">
+        <v>114.4586111</v>
+      </c>
+      <c r="E5">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6">
+        <v>114.5330556</v>
+      </c>
+      <c r="E6">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7">
+        <v>114.5214</v>
+      </c>
+      <c r="E7">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8">
+        <v>114.8985</v>
+      </c>
+      <c r="E8">
+        <v>40.8367</v>
+      </c>
+      <c r="F8">
+        <v>5.19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9">
+        <v>114.892</v>
+      </c>
+      <c r="E9">
+        <v>40.794809999999998</v>
+      </c>
+      <c r="F9">
+        <v>5.19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10">
+        <v>114.8814</v>
+      </c>
+      <c r="E10">
+        <v>40.811500000000002</v>
+      </c>
+      <c r="F10">
+        <v>5.19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11">
+        <v>114.9032</v>
+      </c>
+      <c r="E11">
+        <v>40.768799999999999</v>
+      </c>
+      <c r="F11">
+        <v>5.19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12">
+        <v>114.904</v>
+      </c>
+      <c r="E12">
+        <v>40.872500000000002</v>
+      </c>
+      <c r="F12">
+        <v>5.19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10A762B-BF7B-4ADB-95B0-FFAE614B0FAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFE3BCA-4A63-4E81-A37A-3440C0E6AFC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7212" yWindow="1836" windowWidth="11832" windowHeight="8580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1393,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E7"/>
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1423,104 +1423,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="D2">
-        <v>115.49299999999999</v>
+        <v>118.50190000000001</v>
       </c>
       <c r="E2">
-        <v>38.863199999999999</v>
+        <v>37.465800000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="D3">
-        <v>115.5223</v>
+        <v>118.66719999999999</v>
       </c>
       <c r="E3">
-        <v>38.895699999999998</v>
+        <v>37.431399999999996</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="D4">
-        <v>115.4713</v>
+        <v>118.5857</v>
       </c>
       <c r="E4">
-        <v>38.910800000000002</v>
+        <v>37.444200000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="D5">
-        <v>115.46120000000001</v>
+        <v>118.8192</v>
       </c>
       <c r="E5">
-        <v>38.8416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6">
-        <v>115.44199999999999</v>
-      </c>
-      <c r="E6">
-        <v>38.875599999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7">
-        <v>115.5214</v>
-      </c>
-      <c r="E7">
-        <v>38.870699999999999</v>
+        <v>37.378100000000003</v>
       </c>
     </row>
   </sheetData>
@@ -10182,8 +10148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82192017-D878-49FE-AF01-A4D0990B42FE}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFE3BCA-4A63-4E81-A37A-3440C0E6AFC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30F86EA-DF87-4331-B5F6-BA8830BF8CCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7212" yWindow="1836" windowWidth="11832" windowHeight="8580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1393,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1423,70 +1423,104 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="D2">
-        <v>118.50190000000001</v>
+        <v>119.52589999999999</v>
       </c>
       <c r="E2">
-        <v>37.465800000000002</v>
+        <v>39.828299999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="D3">
-        <v>118.66719999999999</v>
+        <v>119.7624</v>
       </c>
       <c r="E3">
-        <v>37.431399999999996</v>
+        <v>40.018099999999997</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="D4">
-        <v>118.5857</v>
+        <v>119.6023</v>
       </c>
       <c r="E4">
-        <v>37.444200000000002</v>
+        <v>39.956699999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="D5">
-        <v>118.8192</v>
+        <v>119.607</v>
       </c>
       <c r="E5">
-        <v>37.378100000000003</v>
+        <v>39.9358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6">
+        <v>119.5369</v>
+      </c>
+      <c r="E6">
+        <v>39.941899999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7">
+        <v>114.3541</v>
+      </c>
+      <c r="E7">
+        <v>37.909700000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10148,8 +10182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82192017-D878-49FE-AF01-A4D0990B42FE}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30F86EA-DF87-4331-B5F6-BA8830BF8CCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBE25FD-0032-4240-BDBD-8550AB2B2698}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1393,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A2" sqref="A2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1423,104 +1423,291 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="D2">
-        <v>119.52589999999999</v>
+        <v>122.0508</v>
       </c>
       <c r="E2">
-        <v>39.828299999999999</v>
+        <v>37.532499999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="D3">
-        <v>119.7624</v>
+        <v>122.1067</v>
       </c>
       <c r="E3">
-        <v>40.018099999999997</v>
+        <v>37.507199999999997</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="D4">
-        <v>119.6023</v>
+        <v>121.2514</v>
       </c>
       <c r="E4">
-        <v>39.956699999999998</v>
+        <v>37.563899999999997</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="D5">
-        <v>119.607</v>
+        <v>121.3719</v>
       </c>
       <c r="E5">
-        <v>39.9358</v>
+        <v>37.543300000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>119.5369</v>
+        <v>121.3181</v>
       </c>
       <c r="E6">
-        <v>39.941899999999997</v>
+        <v>37.543599999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="D7">
-        <v>114.3541</v>
+        <v>121.4478</v>
       </c>
       <c r="E7">
-        <v>37.909700000000001</v>
+        <v>37.482199999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8">
+        <v>121.2611</v>
+      </c>
+      <c r="E8">
+        <v>37.496699999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9">
+        <v>121.59529999999999</v>
+      </c>
+      <c r="E9">
+        <v>37.3872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <v>117.5564</v>
+      </c>
+      <c r="E10">
+        <v>34.863999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11">
+        <v>117.2852</v>
+      </c>
+      <c r="E11">
+        <v>34.783700000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12">
+        <v>117.5852</v>
+      </c>
+      <c r="E12">
+        <v>34.774500000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13">
+        <v>117.732</v>
+      </c>
+      <c r="E13">
+        <v>34.566699999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14">
+        <v>118.04819999999999</v>
+      </c>
+      <c r="E14">
+        <v>36.808799999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15">
+        <v>118.0448</v>
+      </c>
+      <c r="E15">
+        <v>36.838000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16">
+        <v>117.95440000000001</v>
+      </c>
+      <c r="E16">
+        <v>36.637700000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17">
+        <v>118.3092</v>
+      </c>
+      <c r="E17">
+        <v>36.819800000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18">
+        <v>117.85120000000001</v>
+      </c>
+      <c r="E18">
+        <v>36.804099999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10182,8 +10369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82192017-D878-49FE-AF01-A4D0990B42FE}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:E41"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBE25FD-0032-4240-BDBD-8550AB2B2698}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9A7C09-B138-4439-9601-18677FFEA5D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1393,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E18"/>
+      <selection activeCell="A2" sqref="A2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1423,291 +1423,172 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="D2">
-        <v>122.0508</v>
+        <v>117.8477</v>
       </c>
       <c r="E2">
-        <v>37.532499999999999</v>
+        <v>36.497</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="D3">
-        <v>122.1067</v>
+        <v>117.45180000000001</v>
       </c>
       <c r="E3">
-        <v>37.507199999999997</v>
+        <v>35.099200000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>121.2514</v>
+        <v>119.12</v>
       </c>
       <c r="E4">
-        <v>37.563899999999997</v>
+        <v>36.701900000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>121.3719</v>
+        <v>119.0919</v>
       </c>
       <c r="E5">
-        <v>37.543300000000002</v>
+        <v>36.730600000000003</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>121.3181</v>
+        <v>119.1425</v>
       </c>
       <c r="E6">
-        <v>37.543599999999998</v>
+        <v>36.700800000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>121.4478</v>
+        <v>119.1614</v>
       </c>
       <c r="E7">
-        <v>37.482199999999999</v>
+        <v>36.657200000000003</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>121.2611</v>
+        <v>119.1939</v>
       </c>
       <c r="E8">
-        <v>37.496699999999997</v>
+        <v>36.773099999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D9">
-        <v>121.59529999999999</v>
+        <v>119.4641</v>
       </c>
       <c r="E9">
-        <v>37.3872</v>
+        <v>35.4178</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="D10">
-        <v>117.5564</v>
+        <v>119.5198</v>
       </c>
       <c r="E10">
-        <v>34.863999999999997</v>
+        <v>35.423400000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="D11">
-        <v>117.2852</v>
+        <v>119.54</v>
       </c>
       <c r="E11">
-        <v>34.783700000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12">
-        <v>117.5852</v>
-      </c>
-      <c r="E12">
-        <v>34.774500000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13">
-        <v>117.732</v>
-      </c>
-      <c r="E13">
-        <v>34.566699999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14">
-        <v>118.04819999999999</v>
-      </c>
-      <c r="E14">
-        <v>36.808799999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15">
-        <v>118.0448</v>
-      </c>
-      <c r="E15">
-        <v>36.838000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16">
-        <v>117.95440000000001</v>
-      </c>
-      <c r="E16">
-        <v>36.637700000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17">
-        <v>118.3092</v>
-      </c>
-      <c r="E17">
-        <v>36.819800000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18">
-        <v>117.85120000000001</v>
-      </c>
-      <c r="E18">
-        <v>36.804099999999998</v>
+        <v>35.3962</v>
       </c>
     </row>
   </sheetData>
@@ -11524,8 +11405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDE112F-36F7-4FAD-835E-47D76D1B42AF}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9A7C09-B138-4439-9601-18677FFEA5D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C00EA70-1D64-4F4F-848E-05ECEFAB5ADB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1396,7 +1396,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E11"/>
+      <selection activeCell="A4" sqref="A4:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1423,172 +1423,172 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>117.8477</v>
+        <v>118.2764</v>
       </c>
       <c r="E2">
-        <v>36.497</v>
+        <v>34.981699999999996</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="D3">
-        <v>117.45180000000001</v>
+        <v>118.4023</v>
       </c>
       <c r="E3">
-        <v>35.099200000000003</v>
+        <v>35.089599999999997</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>119.12</v>
+        <v>116.988</v>
       </c>
       <c r="E4">
-        <v>36.701900000000002</v>
+        <v>36.611400000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>124</v>
+      <c r="A5" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>119.0919</v>
+        <v>116.93</v>
       </c>
       <c r="E5">
-        <v>36.730600000000003</v>
+        <v>36.67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>119.1425</v>
+        <v>117.114</v>
       </c>
       <c r="E6">
-        <v>36.700800000000001</v>
+        <v>36.673900000000003</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>119.1614</v>
+        <v>116.989</v>
       </c>
       <c r="E7">
-        <v>36.657200000000003</v>
+        <v>36.687199999999997</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>119.1939</v>
+        <v>117.0684</v>
       </c>
       <c r="E8">
-        <v>36.773099999999999</v>
+        <v>36.686799999999998</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>119.4641</v>
+        <v>116.943</v>
       </c>
       <c r="E9">
-        <v>35.4178</v>
+        <v>36.648899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>119.5198</v>
+        <v>117.04900000000001</v>
       </c>
       <c r="E10">
-        <v>35.423400000000001</v>
+        <v>36.662199999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>119.54</v>
+        <v>116.73399999999999</v>
       </c>
       <c r="E11">
-        <v>35.3962</v>
+        <v>36.5336</v>
       </c>
     </row>
   </sheetData>
@@ -10251,7 +10251,7 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:E67"/>
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11405,8 +11405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDE112F-36F7-4FAD-835E-47D76D1B42AF}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C00EA70-1D64-4F4F-848E-05ECEFAB5ADB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220E578A-2918-4B8E-BB60-BE981228B9EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1393,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E11"/>
+      <selection activeCell="A2" sqref="A2:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1423,172 +1423,512 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>226</v>
       </c>
       <c r="D2">
-        <v>118.2764</v>
+        <v>114.8985</v>
       </c>
       <c r="E2">
-        <v>34.981699999999996</v>
+        <v>40.8367</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>226</v>
       </c>
       <c r="D3">
-        <v>118.4023</v>
+        <v>114.892</v>
       </c>
       <c r="E3">
-        <v>35.089599999999997</v>
+        <v>40.794809999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="D4">
-        <v>116.988</v>
+        <v>114.8814</v>
       </c>
       <c r="E4">
-        <v>36.611400000000003</v>
+        <v>40.811500000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>337</v>
+      <c r="A5" t="s">
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="D5">
-        <v>116.93</v>
+        <v>114.9032</v>
       </c>
       <c r="E5">
-        <v>36.67</v>
+        <v>40.768799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="D6">
-        <v>117.114</v>
+        <v>114.904</v>
       </c>
       <c r="E6">
-        <v>36.673900000000003</v>
+        <v>40.872500000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="D7">
-        <v>116.989</v>
+        <v>117.96639999999999</v>
       </c>
       <c r="E7">
-        <v>36.687199999999997</v>
+        <v>40.9161</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="D8">
-        <v>117.0684</v>
+        <v>117.9525</v>
       </c>
       <c r="E8">
-        <v>36.686799999999998</v>
+        <v>40.984299999999998</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="D9">
-        <v>116.943</v>
+        <v>117.96299999999999</v>
       </c>
       <c r="E9">
-        <v>36.648899999999998</v>
+        <v>40.935899999999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="D10">
-        <v>117.04900000000001</v>
+        <v>117.8184</v>
       </c>
       <c r="E10">
-        <v>36.662199999999999</v>
+        <v>40.973300000000002</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="D11">
-        <v>116.73399999999999</v>
+        <v>117.9384</v>
       </c>
       <c r="E11">
-        <v>36.5336</v>
+        <v>41.011200000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12">
+        <v>116.8854</v>
+      </c>
+      <c r="E12">
+        <v>38.299100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13">
+        <v>116.8584</v>
+      </c>
+      <c r="E13">
+        <v>38.325400000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14">
+        <v>114.4821</v>
+      </c>
+      <c r="E14">
+        <v>37.096699999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15">
+        <v>114.5261</v>
+      </c>
+      <c r="E15">
+        <v>37.0533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16">
+        <v>114.5331</v>
+      </c>
+      <c r="E16">
+        <v>37.096400000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17">
+        <v>114.4854</v>
+      </c>
+      <c r="E17">
+        <v>37.061999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18">
+        <v>117.8477</v>
+      </c>
+      <c r="E18">
+        <v>36.497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19">
+        <v>117.45180000000001</v>
+      </c>
+      <c r="E19">
+        <v>35.099200000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>119.12</v>
+      </c>
+      <c r="E20">
+        <v>36.701900000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>119.0919</v>
+      </c>
+      <c r="E21">
+        <v>36.730600000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>119.1425</v>
+      </c>
+      <c r="E22">
+        <v>36.700800000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>119.1614</v>
+      </c>
+      <c r="E23">
+        <v>36.657200000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>119.1939</v>
+      </c>
+      <c r="E24">
+        <v>36.773099999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25">
+        <v>119.4641</v>
+      </c>
+      <c r="E25">
+        <v>35.4178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26">
+        <v>119.5198</v>
+      </c>
+      <c r="E26">
+        <v>35.423400000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27">
+        <v>119.54</v>
+      </c>
+      <c r="E27">
+        <v>35.3962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28">
+        <v>122.1206</v>
+      </c>
+      <c r="E28">
+        <v>37.429400000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29">
+        <v>115.42277</v>
+      </c>
+      <c r="E29">
+        <v>35.248888999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30">
+        <v>115.474722</v>
+      </c>
+      <c r="E30">
+        <v>35.237499999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31">
+        <v>115.455</v>
+      </c>
+      <c r="E31">
+        <v>35.270000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -10250,7 +10590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82192017-D878-49FE-AF01-A4D0990B42FE}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
@@ -11405,8 +11745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDE112F-36F7-4FAD-835E-47D76D1B42AF}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="A2:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,33 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220E578A-2918-4B8E-BB60-BE981228B9EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC8E8AC-7625-4065-9EBC-82627E53F73A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="10" r:id="rId1"/>
-    <sheet name="缺失152-86" sheetId="17" r:id="rId2"/>
-    <sheet name="ERROR_18519" sheetId="15" r:id="rId3"/>
-    <sheet name="山东 2" sheetId="8" r:id="rId4"/>
-    <sheet name="北京" sheetId="2" r:id="rId5"/>
-    <sheet name="山东1" sheetId="7" r:id="rId6"/>
-    <sheet name="天津" sheetId="3" r:id="rId7"/>
-    <sheet name="河北2" sheetId="12" r:id="rId8"/>
-    <sheet name="河北1" sheetId="11" r:id="rId9"/>
-    <sheet name="可用86市汇总" sheetId="14" r:id="rId10"/>
-    <sheet name="河北2013" sheetId="13" r:id="rId11"/>
-    <sheet name="山东2013" sheetId="9" r:id="rId12"/>
-    <sheet name="山东" sheetId="5" r:id="rId13"/>
-    <sheet name="河北" sheetId="4" r:id="rId14"/>
-    <sheet name="汇总" sheetId="6" r:id="rId15"/>
+    <sheet name="ERROR_17_365" sheetId="18" r:id="rId2"/>
+    <sheet name="缺失152-86" sheetId="17" r:id="rId3"/>
+    <sheet name="ERROR_18519" sheetId="15" r:id="rId4"/>
+    <sheet name="山东 2" sheetId="8" r:id="rId5"/>
+    <sheet name="北京" sheetId="2" r:id="rId6"/>
+    <sheet name="山东1" sheetId="7" r:id="rId7"/>
+    <sheet name="天津" sheetId="3" r:id="rId8"/>
+    <sheet name="河北2" sheetId="12" r:id="rId9"/>
+    <sheet name="河北1" sheetId="11" r:id="rId10"/>
+    <sheet name="可用86市汇总" sheetId="14" r:id="rId11"/>
+    <sheet name="河北2013" sheetId="13" r:id="rId12"/>
+    <sheet name="山东2013" sheetId="9" r:id="rId13"/>
+    <sheet name="山东" sheetId="5" r:id="rId14"/>
+    <sheet name="河北" sheetId="4" r:id="rId15"/>
+    <sheet name="汇总" sheetId="6" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1064,7 +1065,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1091,6 +1092,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1393,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1423,512 +1430,903 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D2">
-        <v>114.8985</v>
+        <v>118.50190000000001</v>
       </c>
       <c r="E2">
-        <v>40.8367</v>
+        <v>37.465800000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D3">
-        <v>114.892</v>
+        <v>118.66719999999999</v>
       </c>
       <c r="E3">
-        <v>40.794809999999998</v>
+        <v>37.431399999999996</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D4">
-        <v>114.8814</v>
+        <v>118.5857</v>
       </c>
       <c r="E4">
-        <v>40.811500000000002</v>
+        <v>37.444200000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D5">
-        <v>114.9032</v>
+        <v>118.8192</v>
       </c>
       <c r="E5">
-        <v>40.768799999999999</v>
+        <v>37.378100000000003</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D6">
-        <v>114.904</v>
+        <v>114.5129</v>
       </c>
       <c r="E6">
-        <v>40.872500000000002</v>
+        <v>36.617629999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="D7">
-        <v>117.96639999999999</v>
+        <v>114.54259999999999</v>
       </c>
       <c r="E7">
-        <v>40.9161</v>
+        <v>36.616399999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="D8">
-        <v>117.9525</v>
+        <v>114.5035</v>
       </c>
       <c r="E8">
-        <v>40.984299999999998</v>
+        <v>36.577599999999997</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="D9">
-        <v>117.96299999999999</v>
+        <v>114.4965</v>
       </c>
       <c r="E9">
-        <v>40.935899999999997</v>
+        <v>36.619810000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="D10">
-        <v>117.8184</v>
+        <v>115.6951</v>
       </c>
       <c r="E10">
-        <v>40.973300000000002</v>
+        <v>37.7575</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="D11">
-        <v>117.9384</v>
+        <v>115.6426</v>
       </c>
       <c r="E11">
-        <v>41.011200000000002</v>
+        <v>37.737900000000003</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D12">
-        <v>116.8854</v>
+        <v>115.6906</v>
       </c>
       <c r="E12">
-        <v>38.299100000000003</v>
+        <v>37.738999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>116.8584</v>
+        <v>116.6305</v>
       </c>
       <c r="E13">
-        <v>38.325400000000002</v>
+        <v>35.427999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>114.4821</v>
+        <v>116.5856</v>
       </c>
       <c r="E14">
-        <v>37.096699999999998</v>
+        <v>35.414400000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>267</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>268</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>114.5261</v>
+        <v>116.55459999999999</v>
       </c>
       <c r="E15">
-        <v>37.0533</v>
+        <v>35.4039</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D16">
-        <v>114.5331</v>
+        <v>116.68380000000001</v>
       </c>
       <c r="E16">
-        <v>37.096400000000003</v>
+        <v>39.517800000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D17">
-        <v>114.4854</v>
+        <v>116.77290000000001</v>
       </c>
       <c r="E17">
-        <v>37.061999999999998</v>
+        <v>39.5747</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="D18">
-        <v>117.8477</v>
+        <v>116.715</v>
       </c>
       <c r="E18">
-        <v>36.497</v>
+        <v>39.557099999999998</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="D19">
-        <v>117.45180000000001</v>
+        <v>116.74639999999999</v>
       </c>
       <c r="E19">
-        <v>35.099200000000003</v>
+        <v>39.534300000000002</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D20">
-        <v>119.12</v>
+        <v>115.98480000000001</v>
       </c>
       <c r="E20">
-        <v>36.701900000000002</v>
+        <v>36.437199999999997</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D21">
-        <v>119.0919</v>
+        <v>115.99679999999999</v>
       </c>
       <c r="E21">
-        <v>36.730600000000003</v>
+        <v>36.456800000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D22">
-        <v>119.1425</v>
+        <v>115.98350000000001</v>
       </c>
       <c r="E22">
-        <v>36.700800000000001</v>
+        <v>36.479599999999998</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="D23">
-        <v>119.1614</v>
+        <v>119.52589999999999</v>
       </c>
       <c r="E23">
-        <v>36.657200000000003</v>
+        <v>39.828299999999999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="D24">
-        <v>119.1939</v>
+        <v>119.7624</v>
       </c>
       <c r="E24">
-        <v>36.773099999999999</v>
+        <v>40.018099999999997</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s">
         <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="D25">
-        <v>119.4641</v>
+        <v>119.6023</v>
       </c>
       <c r="E25">
-        <v>35.4178</v>
+        <v>39.956699999999998</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="D26">
-        <v>119.5198</v>
+        <v>119.607</v>
       </c>
       <c r="E26">
-        <v>35.423400000000001</v>
+        <v>39.9358</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="D27">
-        <v>119.54</v>
+        <v>119.5369</v>
       </c>
       <c r="E27">
-        <v>35.3962</v>
+        <v>39.941899999999997</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="D28">
-        <v>122.1206</v>
+        <v>114.3541</v>
       </c>
       <c r="E28">
-        <v>37.429400000000001</v>
+        <v>37.909700000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="D29">
-        <v>115.42277</v>
+        <v>117.14360000000001</v>
       </c>
       <c r="E29">
-        <v>35.248888999999998</v>
+        <v>36.194200000000002</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="D30">
-        <v>115.474722</v>
+        <v>117.0881</v>
       </c>
       <c r="E30">
-        <v>35.237499999999997</v>
+        <v>36.194200000000002</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="D31">
-        <v>115.455</v>
+        <v>117.10809999999999</v>
       </c>
       <c r="E31">
-        <v>35.270000000000003</v>
+        <v>36.175800000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32">
+        <v>118.1662</v>
+      </c>
+      <c r="E32">
+        <v>39.630800000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33">
+        <v>118.14400000000001</v>
+      </c>
+      <c r="E33">
+        <v>39.643000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34">
+        <v>118.1853</v>
+      </c>
+      <c r="E34">
+        <v>39.640700000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35">
+        <v>118.21850000000001</v>
+      </c>
+      <c r="E35">
+        <v>39.667900000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36">
+        <v>118.18380000000001</v>
+      </c>
+      <c r="E36">
+        <v>39.657820000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37">
+        <v>118.19970000000001</v>
+      </c>
+      <c r="E37">
+        <v>39.6295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38">
+        <v>122.0508</v>
+      </c>
+      <c r="E38">
+        <v>37.532499999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39">
+        <v>122.1067</v>
+      </c>
+      <c r="E39">
+        <v>37.507199999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40">
+        <v>121.2514</v>
+      </c>
+      <c r="E40">
+        <v>37.563899999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41">
+        <v>121.3719</v>
+      </c>
+      <c r="E41">
+        <v>37.543300000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42">
+        <v>121.3181</v>
+      </c>
+      <c r="E42">
+        <v>37.543599999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43">
+        <v>121.4478</v>
+      </c>
+      <c r="E43">
+        <v>37.482199999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44">
+        <v>121.2611</v>
+      </c>
+      <c r="E44">
+        <v>37.496699999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45">
+        <v>121.59529999999999</v>
+      </c>
+      <c r="E45">
+        <v>37.3872</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46">
+        <v>117.5564</v>
+      </c>
+      <c r="E46">
+        <v>34.863999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47">
+        <v>117.2852</v>
+      </c>
+      <c r="E47">
+        <v>34.783700000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48">
+        <v>117.5852</v>
+      </c>
+      <c r="E48">
+        <v>34.774500000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49">
+        <v>117.732</v>
+      </c>
+      <c r="E49">
+        <v>34.566699999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50">
+        <v>118.04819999999999</v>
+      </c>
+      <c r="E50">
+        <v>36.808799999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51">
+        <v>118.0448</v>
+      </c>
+      <c r="E51">
+        <v>36.838000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52">
+        <v>117.95440000000001</v>
+      </c>
+      <c r="E52">
+        <v>36.637700000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53">
+        <v>118.3092</v>
+      </c>
+      <c r="E53">
+        <v>36.819800000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54">
+        <v>117.85120000000001</v>
+      </c>
+      <c r="E54">
+        <v>36.804099999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1939,10 +2337,230 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2">
+        <v>114.45480000000001</v>
+      </c>
+      <c r="E2">
+        <v>38.051299999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>114.6046</v>
+      </c>
+      <c r="E3">
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E4">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5">
+        <v>114.4586111</v>
+      </c>
+      <c r="E5">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6">
+        <v>114.5330556</v>
+      </c>
+      <c r="E6">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7">
+        <v>114.5214</v>
+      </c>
+      <c r="E7">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8">
+        <v>114.8985</v>
+      </c>
+      <c r="E8">
+        <v>40.8367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9">
+        <v>114.892</v>
+      </c>
+      <c r="E9">
+        <v>40.794809999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10">
+        <v>114.8814</v>
+      </c>
+      <c r="E10">
+        <v>40.811500000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11">
+        <v>114.9032</v>
+      </c>
+      <c r="E11">
+        <v>40.768799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12">
+        <v>114.904</v>
+      </c>
+      <c r="E12">
+        <v>40.872500000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A76644-5F86-4776-A293-540939F77A3D}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="G59" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3586,7 +4204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
@@ -4149,7 +4767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
@@ -5108,7 +5726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
@@ -6790,7 +7408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
@@ -7965,7 +8583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E153"/>
   <sheetViews>
@@ -10587,11 +11205,116 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186BB22C-22FE-4AAA-9E8C-3EF068DC599C}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2">
+        <v>118.50190000000001</v>
+      </c>
+      <c r="E2">
+        <v>37.465800000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3">
+        <v>118.66719999999999</v>
+      </c>
+      <c r="E3">
+        <v>37.431399999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4">
+        <v>118.5857</v>
+      </c>
+      <c r="E4">
+        <v>37.444200000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5">
+        <v>118.8192</v>
+      </c>
+      <c r="E5">
+        <v>37.378100000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82192017-D878-49FE-AF01-A4D0990B42FE}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E67" sqref="A2:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11741,12 +12464,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDE112F-36F7-4FAD-835E-47D76D1B42AF}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="A2:E31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F16" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11754,7 +12477,7 @@
     <col min="1" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11770,14 +12493,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -11793,17 +12510,8 @@
       <c r="E2">
         <v>40.8367</v>
       </c>
-      <c r="F2">
-        <v>5.19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>227</v>
       </c>
@@ -11819,17 +12527,8 @@
       <c r="E3">
         <v>40.794809999999998</v>
       </c>
-      <c r="F3">
-        <v>5.19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>229</v>
       </c>
@@ -11845,17 +12544,8 @@
       <c r="E4">
         <v>40.811500000000002</v>
       </c>
-      <c r="F4">
-        <v>5.19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>231</v>
       </c>
@@ -11871,17 +12561,8 @@
       <c r="E5">
         <v>40.768799999999999</v>
       </c>
-      <c r="F5">
-        <v>5.19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>233</v>
       </c>
@@ -11897,17 +12578,8 @@
       <c r="E6">
         <v>40.872500000000002</v>
       </c>
-      <c r="F6">
-        <v>5.19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -11923,17 +12595,8 @@
       <c r="E7">
         <v>40.9161</v>
       </c>
-      <c r="F7">
-        <v>5.19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>238</v>
       </c>
@@ -11949,17 +12612,8 @@
       <c r="E8">
         <v>40.984299999999998</v>
       </c>
-      <c r="F8">
-        <v>5.19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>240</v>
       </c>
@@ -11975,17 +12629,8 @@
       <c r="E9">
         <v>40.935899999999997</v>
       </c>
-      <c r="F9">
-        <v>5.19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>241</v>
       </c>
@@ -12001,17 +12646,8 @@
       <c r="E10">
         <v>40.973300000000002</v>
       </c>
-      <c r="F10">
-        <v>5.19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>243</v>
       </c>
@@ -12027,17 +12663,8 @@
       <c r="E11">
         <v>41.011200000000002</v>
       </c>
-      <c r="F11">
-        <v>5.19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>253</v>
       </c>
@@ -12053,17 +12680,8 @@
       <c r="E12">
         <v>38.299100000000003</v>
       </c>
-      <c r="F12">
-        <v>5.19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>256</v>
       </c>
@@ -12079,17 +12697,8 @@
       <c r="E13">
         <v>38.325400000000002</v>
       </c>
-      <c r="F13">
-        <v>5.19</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -12105,17 +12714,8 @@
       <c r="E14">
         <v>37.096699999999998</v>
       </c>
-      <c r="F14">
-        <v>5.19</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>267</v>
       </c>
@@ -12131,17 +12731,8 @@
       <c r="E15">
         <v>37.0533</v>
       </c>
-      <c r="F15">
-        <v>5.19</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>269</v>
       </c>
@@ -12157,17 +12748,8 @@
       <c r="E16">
         <v>37.096400000000003</v>
       </c>
-      <c r="F16">
-        <v>5.19</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>271</v>
       </c>
@@ -12183,17 +12765,8 @@
       <c r="E17">
         <v>37.061999999999998</v>
       </c>
-      <c r="F17">
-        <v>5.19</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -12209,17 +12782,8 @@
       <c r="E18">
         <v>36.497</v>
       </c>
-      <c r="F18">
-        <v>5.19</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -12235,17 +12799,8 @@
       <c r="E19">
         <v>35.099200000000003</v>
       </c>
-      <c r="F19">
-        <v>5.19</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -12261,17 +12816,8 @@
       <c r="E20">
         <v>36.701900000000002</v>
       </c>
-      <c r="F20">
-        <v>5.19</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -12287,17 +12833,8 @@
       <c r="E21">
         <v>36.730600000000003</v>
       </c>
-      <c r="F21">
-        <v>5.19</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>126</v>
       </c>
@@ -12313,17 +12850,8 @@
       <c r="E22">
         <v>36.700800000000001</v>
       </c>
-      <c r="F22">
-        <v>5.19</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -12339,17 +12867,8 @@
       <c r="E23">
         <v>36.657200000000003</v>
       </c>
-      <c r="F23">
-        <v>5.19</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -12365,17 +12884,8 @@
       <c r="E24">
         <v>36.773099999999999</v>
       </c>
-      <c r="F24">
-        <v>5.19</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -12391,14 +12901,8 @@
       <c r="E25">
         <v>35.4178</v>
       </c>
-      <c r="F25">
-        <v>5.19</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -12414,14 +12918,8 @@
       <c r="E26">
         <v>35.423400000000001</v>
       </c>
-      <c r="F26">
-        <v>5.19</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -12437,14 +12935,8 @@
       <c r="E27">
         <v>35.3962</v>
       </c>
-      <c r="F27">
-        <v>5.19</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -12460,14 +12952,8 @@
       <c r="E28">
         <v>37.429400000000001</v>
       </c>
-      <c r="F28">
-        <v>5.19</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -12483,14 +12969,8 @@
       <c r="E29">
         <v>35.248888999999998</v>
       </c>
-      <c r="F29">
-        <v>5.19</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>161</v>
       </c>
@@ -12506,14 +12986,8 @@
       <c r="E30">
         <v>35.237499999999997</v>
       </c>
-      <c r="F30">
-        <v>5.19</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -12529,14 +13003,8 @@
       <c r="E31">
         <v>35.270000000000003</v>
       </c>
-      <c r="F31">
-        <v>5.19</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -12552,17 +13020,8 @@
       <c r="E32">
         <v>36.204999999999998</v>
       </c>
-      <c r="F32">
-        <v>5.19</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -12578,17 +13037,8 @@
       <c r="E33">
         <v>36.228900000000003</v>
       </c>
-      <c r="F33">
-        <v>5.19</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -12604,17 +13054,8 @@
       <c r="E34">
         <v>36.208100000000002</v>
       </c>
-      <c r="F34">
-        <v>5.19</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -12630,17 +13071,8 @@
       <c r="E35">
         <v>35.057299999999998</v>
       </c>
-      <c r="F35">
-        <v>5.19</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -12656,17 +13088,8 @@
       <c r="E36">
         <v>35.062199999999997</v>
       </c>
-      <c r="F36">
-        <v>5.19</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -12682,17 +13105,8 @@
       <c r="E37">
         <v>34.981699999999996</v>
       </c>
-      <c r="F37">
-        <v>5.19</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -12708,17 +13122,8 @@
       <c r="E38">
         <v>35.089599999999997</v>
       </c>
-      <c r="F38">
-        <v>5.19</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -12734,17 +13139,8 @@
       <c r="E39">
         <v>36.611400000000003</v>
       </c>
-      <c r="F39">
-        <v>5.19</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>337</v>
       </c>
@@ -12760,17 +13156,8 @@
       <c r="E40">
         <v>36.67</v>
       </c>
-      <c r="F40">
-        <v>5.19</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -12786,17 +13173,8 @@
       <c r="E41">
         <v>36.673900000000003</v>
       </c>
-      <c r="F41">
-        <v>5.19</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -12812,17 +13190,8 @@
       <c r="E42">
         <v>36.687199999999997</v>
       </c>
-      <c r="F42">
-        <v>5.19</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -12838,17 +13207,8 @@
       <c r="E43">
         <v>36.686799999999998</v>
       </c>
-      <c r="F43">
-        <v>5.19</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -12864,17 +13224,8 @@
       <c r="E44">
         <v>36.648899999999998</v>
       </c>
-      <c r="F44">
-        <v>5.19</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -12890,17 +13241,8 @@
       <c r="E45">
         <v>36.662199999999999</v>
       </c>
-      <c r="F45">
-        <v>5.19</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -12915,15 +13257,6 @@
       </c>
       <c r="E46">
         <v>36.5336</v>
-      </c>
-      <c r="F46">
-        <v>5.19</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -12933,21 +13266,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F2:F15"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12963,17 +13295,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -12989,17 +13312,8 @@
       <c r="E2">
         <v>36.497</v>
       </c>
-      <c r="F2">
-        <v>5.19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -13015,17 +13329,8 @@
       <c r="E3">
         <v>35.099200000000003</v>
       </c>
-      <c r="F3">
-        <v>5.19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -13041,17 +13346,8 @@
       <c r="E4">
         <v>36.701900000000002</v>
       </c>
-      <c r="F4">
-        <v>5.19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -13067,17 +13363,8 @@
       <c r="E5">
         <v>36.730600000000003</v>
       </c>
-      <c r="F5">
-        <v>5.19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -13093,17 +13380,8 @@
       <c r="E6">
         <v>36.700800000000001</v>
       </c>
-      <c r="F6">
-        <v>5.19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -13119,17 +13397,8 @@
       <c r="E7">
         <v>36.657200000000003</v>
       </c>
-      <c r="F7">
-        <v>5.19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -13145,17 +13414,8 @@
       <c r="E8">
         <v>36.773099999999999</v>
       </c>
-      <c r="F8">
-        <v>5.19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -13171,14 +13431,8 @@
       <c r="E9">
         <v>35.4178</v>
       </c>
-      <c r="F9">
-        <v>5.19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -13194,14 +13448,8 @@
       <c r="E10">
         <v>35.423400000000001</v>
       </c>
-      <c r="F10">
-        <v>5.19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -13217,14 +13465,8 @@
       <c r="E11">
         <v>35.3962</v>
       </c>
-      <c r="F11">
-        <v>5.19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -13240,14 +13482,8 @@
       <c r="E12">
         <v>37.429400000000001</v>
       </c>
-      <c r="F12">
-        <v>5.19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -13263,14 +13499,8 @@
       <c r="E13">
         <v>35.248888999999998</v>
       </c>
-      <c r="F13">
-        <v>5.19</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>161</v>
       </c>
@@ -13286,14 +13516,8 @@
       <c r="E14">
         <v>35.237499999999997</v>
       </c>
-      <c r="F14">
-        <v>5.19</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -13308,12 +13532,6 @@
       </c>
       <c r="E15">
         <v>35.270000000000003</v>
-      </c>
-      <c r="F15">
-        <v>5.19</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -13323,12 +13541,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -13336,7 +13554,7 @@
     <col min="1" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13352,14 +13570,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>272</v>
       </c>
@@ -13376,7 +13588,7 @@
         <v>39.8673</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>275</v>
       </c>
@@ -13393,7 +13605,7 @@
         <v>40.286499999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>277</v>
       </c>
@@ -13410,7 +13622,7 @@
         <v>39.952199999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>279</v>
       </c>
@@ -13427,7 +13639,7 @@
         <v>39.874499999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>281</v>
       </c>
@@ -13444,7 +13656,7 @@
         <v>39.971600000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>283</v>
       </c>
@@ -13461,7 +13673,7 @@
         <v>39.942500000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>285</v>
       </c>
@@ -13478,7 +13690,7 @@
         <v>39.993400000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>287</v>
       </c>
@@ -13495,7 +13707,7 @@
         <v>40.143799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>289</v>
       </c>
@@ -13512,7 +13724,7 @@
         <v>40.393700000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>291</v>
       </c>
@@ -13529,7 +13741,7 @@
         <v>40.1952</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>293</v>
       </c>
@@ -13546,7 +13758,7 @@
         <v>40.003100000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>295</v>
       </c>
@@ -13569,21 +13781,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:XFD5"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13599,17 +13810,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -13625,17 +13827,8 @@
       <c r="E2">
         <v>36.611400000000003</v>
       </c>
-      <c r="F2">
-        <v>5.19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -13651,17 +13844,8 @@
       <c r="E3">
         <v>36.67</v>
       </c>
-      <c r="F3">
-        <v>5.19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -13677,17 +13861,8 @@
       <c r="E4">
         <v>36.673900000000003</v>
       </c>
-      <c r="F4">
-        <v>5.19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -13703,17 +13878,8 @@
       <c r="E5">
         <v>36.687199999999997</v>
       </c>
-      <c r="F5">
-        <v>5.19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -13729,17 +13895,8 @@
       <c r="E6">
         <v>36.686799999999998</v>
       </c>
-      <c r="F6">
-        <v>5.19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -13755,17 +13912,8 @@
       <c r="E7">
         <v>36.648899999999998</v>
       </c>
-      <c r="F7">
-        <v>5.19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -13781,17 +13929,8 @@
       <c r="E8">
         <v>36.662199999999999</v>
       </c>
-      <c r="F8">
-        <v>5.19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -13807,17 +13946,8 @@
       <c r="E9">
         <v>36.5336</v>
       </c>
-      <c r="F9">
-        <v>5.19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -13833,11 +13963,8 @@
       <c r="E10">
         <v>36.240299999999998</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -13853,11 +13980,8 @@
       <c r="E11">
         <v>36.185099999999998</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -13873,11 +13997,8 @@
       <c r="E12">
         <v>36.069899999999997</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -13893,11 +14014,8 @@
       <c r="E13">
         <v>36.065399999999997</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -13913,11 +14031,8 @@
       <c r="E14">
         <v>36.103200000000001</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -13933,11 +14048,8 @@
       <c r="E15">
         <v>36.054299999999998</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -13953,11 +14065,8 @@
       <c r="E16">
         <v>36.085099999999997</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -13973,11 +14082,8 @@
       <c r="E17">
         <v>36.308300000000003</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -13993,11 +14099,8 @@
       <c r="E18">
         <v>36.240299999999998</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -14013,17 +14116,8 @@
       <c r="E19">
         <v>36.204999999999998</v>
       </c>
-      <c r="F19">
-        <v>5.19</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -14039,17 +14133,8 @@
       <c r="E20">
         <v>36.228900000000003</v>
       </c>
-      <c r="F20">
-        <v>5.19</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -14065,17 +14150,8 @@
       <c r="E21">
         <v>36.208100000000002</v>
       </c>
-      <c r="F21">
-        <v>5.19</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -14091,17 +14167,8 @@
       <c r="E22">
         <v>35.057299999999998</v>
       </c>
-      <c r="F22">
-        <v>5.19</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -14117,17 +14184,8 @@
       <c r="E23">
         <v>35.062199999999997</v>
       </c>
-      <c r="F23">
-        <v>5.19</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -14143,17 +14201,8 @@
       <c r="E24">
         <v>34.981699999999996</v>
       </c>
-      <c r="F24">
-        <v>5.19</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -14168,15 +14217,6 @@
       </c>
       <c r="E25">
         <v>35.089599999999997</v>
-      </c>
-      <c r="F25">
-        <v>5.19</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -14186,12 +14226,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E15"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -14199,7 +14239,7 @@
     <col min="1" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14215,14 +14255,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>297</v>
       </c>
@@ -14239,7 +14273,7 @@
         <v>39.097000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>300</v>
       </c>
@@ -14256,7 +14290,7 @@
         <v>39.173000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>302</v>
       </c>
@@ -14273,7 +14307,7 @@
         <v>39.165399999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -14290,7 +14324,7 @@
         <v>39.1205</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -14307,7 +14341,7 @@
         <v>39.108199999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>308</v>
       </c>
@@ -14324,7 +14358,7 @@
         <v>39.092700000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>310</v>
       </c>
@@ -14341,7 +14375,7 @@
         <v>39.213299999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>312</v>
       </c>
@@ -14358,7 +14392,7 @@
         <v>39.133699999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>314</v>
       </c>
@@ -14375,7 +14409,7 @@
         <v>39.087699999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>316</v>
       </c>
@@ -14392,7 +14426,7 @@
         <v>39.034300000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>318</v>
       </c>
@@ -14409,7 +14443,7 @@
         <v>38.839399999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -14426,7 +14460,7 @@
         <v>39.124000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>322</v>
       </c>
@@ -14443,7 +14477,7 @@
         <v>39.158700000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>324</v>
       </c>
@@ -14466,17 +14500,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G2:G12"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14492,17 +14526,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>235</v>
       </c>
@@ -14518,17 +14543,8 @@
       <c r="E2">
         <v>40.9161</v>
       </c>
-      <c r="F2">
-        <v>5.19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>238</v>
       </c>
@@ -14544,17 +14560,8 @@
       <c r="E3">
         <v>40.984299999999998</v>
       </c>
-      <c r="F3">
-        <v>5.19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>240</v>
       </c>
@@ -14570,17 +14577,8 @@
       <c r="E4">
         <v>40.935899999999997</v>
       </c>
-      <c r="F4">
-        <v>5.19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>241</v>
       </c>
@@ -14596,17 +14594,8 @@
       <c r="E5">
         <v>40.973300000000002</v>
       </c>
-      <c r="F5">
-        <v>5.19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -14622,17 +14611,8 @@
       <c r="E6">
         <v>41.011200000000002</v>
       </c>
-      <c r="F6">
-        <v>5.19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>253</v>
       </c>
@@ -14648,17 +14628,8 @@
       <c r="E7">
         <v>38.299100000000003</v>
       </c>
-      <c r="F7">
-        <v>5.19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>256</v>
       </c>
@@ -14674,17 +14645,8 @@
       <c r="E8">
         <v>38.325400000000002</v>
       </c>
-      <c r="F8">
-        <v>5.19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>264</v>
       </c>
@@ -14700,17 +14662,8 @@
       <c r="E9">
         <v>37.096699999999998</v>
       </c>
-      <c r="F9">
-        <v>5.19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>267</v>
       </c>
@@ -14726,17 +14679,8 @@
       <c r="E10">
         <v>37.0533</v>
       </c>
-      <c r="F10">
-        <v>5.19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>269</v>
       </c>
@@ -14752,17 +14696,8 @@
       <c r="E11">
         <v>37.096400000000003</v>
       </c>
-      <c r="F11">
-        <v>5.19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>271</v>
       </c>
@@ -14777,289 +14712,6 @@
       </c>
       <c r="E12">
         <v>37.061999999999998</v>
-      </c>
-      <c r="F12">
-        <v>5.19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F8:F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2">
-        <v>114.45480000000001</v>
-      </c>
-      <c r="E2">
-        <v>38.051299999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3">
-        <v>114.6046</v>
-      </c>
-      <c r="E3">
-        <v>38.0398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4">
-        <v>114.50190000000001</v>
-      </c>
-      <c r="E4">
-        <v>38.139800000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5">
-        <v>114.4586111</v>
-      </c>
-      <c r="E5">
-        <v>38.005833330000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6">
-        <v>114.5330556</v>
-      </c>
-      <c r="E6">
-        <v>38.017777780000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7">
-        <v>114.5214</v>
-      </c>
-      <c r="E7">
-        <v>38.052399999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8">
-        <v>114.8985</v>
-      </c>
-      <c r="E8">
-        <v>40.8367</v>
-      </c>
-      <c r="F8">
-        <v>5.19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9">
-        <v>114.892</v>
-      </c>
-      <c r="E9">
-        <v>40.794809999999998</v>
-      </c>
-      <c r="F9">
-        <v>5.19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10">
-        <v>114.8814</v>
-      </c>
-      <c r="E10">
-        <v>40.811500000000002</v>
-      </c>
-      <c r="F10">
-        <v>5.19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11">
-        <v>114.9032</v>
-      </c>
-      <c r="E11">
-        <v>40.768799999999999</v>
-      </c>
-      <c r="F11">
-        <v>5.19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12">
-        <v>114.904</v>
-      </c>
-      <c r="E12">
-        <v>40.872500000000002</v>
-      </c>
-      <c r="F12">
-        <v>5.19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,34 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC8E8AC-7625-4065-9EBC-82627E53F73A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C18D63-8C8E-46E2-A30D-FC3A7883E10F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="测试" sheetId="10" r:id="rId1"/>
-    <sheet name="ERROR_17_365" sheetId="18" r:id="rId2"/>
-    <sheet name="缺失152-86" sheetId="17" r:id="rId3"/>
-    <sheet name="ERROR_18519" sheetId="15" r:id="rId4"/>
-    <sheet name="山东 2" sheetId="8" r:id="rId5"/>
-    <sheet name="北京" sheetId="2" r:id="rId6"/>
-    <sheet name="山东1" sheetId="7" r:id="rId7"/>
-    <sheet name="天津" sheetId="3" r:id="rId8"/>
-    <sheet name="河北2" sheetId="12" r:id="rId9"/>
-    <sheet name="河北1" sheetId="11" r:id="rId10"/>
-    <sheet name="可用86市汇总" sheetId="14" r:id="rId11"/>
-    <sheet name="河北2013" sheetId="13" r:id="rId12"/>
-    <sheet name="山东2013" sheetId="9" r:id="rId13"/>
-    <sheet name="山东" sheetId="5" r:id="rId14"/>
-    <sheet name="河北" sheetId="4" r:id="rId15"/>
-    <sheet name="汇总" sheetId="6" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId1"/>
+    <sheet name="测试" sheetId="10" r:id="rId2"/>
+    <sheet name="ERROR_17_365" sheetId="18" r:id="rId3"/>
+    <sheet name="缺失152-86" sheetId="17" r:id="rId4"/>
+    <sheet name="ERROR_18519" sheetId="15" r:id="rId5"/>
+    <sheet name="山东 2" sheetId="8" r:id="rId6"/>
+    <sheet name="北京" sheetId="2" r:id="rId7"/>
+    <sheet name="山东1" sheetId="7" r:id="rId8"/>
+    <sheet name="天津" sheetId="3" r:id="rId9"/>
+    <sheet name="河北2" sheetId="12" r:id="rId10"/>
+    <sheet name="河北1" sheetId="11" r:id="rId11"/>
+    <sheet name="可用86市汇总" sheetId="14" r:id="rId12"/>
+    <sheet name="河北2013" sheetId="13" r:id="rId13"/>
+    <sheet name="山东2013" sheetId="9" r:id="rId14"/>
+    <sheet name="山东" sheetId="5" r:id="rId15"/>
+    <sheet name="河北" sheetId="4" r:id="rId16"/>
+    <sheet name="汇总" sheetId="6" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1399,11 +1400,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E5E7DA-2AEB-4B5A-AFA8-D08B00FB131D}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1430,913 +1431,605 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D2">
-        <v>118.50190000000001</v>
+        <v>118.14400000000001</v>
       </c>
       <c r="E2">
-        <v>37.465800000000002</v>
+        <v>39.643000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D3">
-        <v>118.66719999999999</v>
+        <v>118.1853</v>
       </c>
       <c r="E3">
-        <v>37.431399999999996</v>
+        <v>39.640700000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D4">
-        <v>118.5857</v>
+        <v>118.21850000000001</v>
       </c>
       <c r="E4">
-        <v>37.444200000000002</v>
+        <v>39.667900000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D5">
-        <v>118.8192</v>
+        <v>118.18380000000001</v>
       </c>
       <c r="E5">
-        <v>37.378100000000003</v>
+        <v>39.657820000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="D6">
-        <v>114.5129</v>
+        <v>118.19970000000001</v>
       </c>
       <c r="E6">
-        <v>36.617629999999998</v>
+        <v>39.6295</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="D7">
-        <v>114.54259999999999</v>
+        <v>122.0508</v>
       </c>
       <c r="E7">
-        <v>36.616399999999999</v>
+        <v>37.532499999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="D8">
-        <v>114.5035</v>
+        <v>122.1067</v>
       </c>
       <c r="E8">
-        <v>36.577599999999997</v>
+        <v>37.507199999999997</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="D9">
-        <v>114.4965</v>
+        <v>121.2514</v>
       </c>
       <c r="E9">
-        <v>36.619810000000001</v>
+        <v>37.563899999999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="D10">
-        <v>115.6951</v>
+        <v>121.3719</v>
       </c>
       <c r="E10">
-        <v>37.7575</v>
+        <v>37.543300000000002</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="D11">
-        <v>115.6426</v>
+        <v>121.3181</v>
       </c>
       <c r="E11">
-        <v>37.737900000000003</v>
+        <v>37.543599999999998</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="D12">
-        <v>115.6906</v>
+        <v>121.4478</v>
       </c>
       <c r="E12">
-        <v>37.738999999999997</v>
+        <v>37.482199999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D13">
-        <v>116.6305</v>
+        <v>121.2611</v>
       </c>
       <c r="E13">
-        <v>35.427999999999997</v>
+        <v>37.496699999999997</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D14">
-        <v>116.5856</v>
+        <v>121.59529999999999</v>
       </c>
       <c r="E14">
-        <v>35.414400000000001</v>
+        <v>37.3872</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D15">
-        <v>116.55459999999999</v>
+        <v>117.5564</v>
       </c>
       <c r="E15">
-        <v>35.4039</v>
+        <v>34.863999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>101</v>
       </c>
       <c r="D16">
-        <v>116.68380000000001</v>
+        <v>117.2852</v>
       </c>
       <c r="E16">
-        <v>39.517800000000001</v>
+        <v>34.783700000000003</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>101</v>
       </c>
       <c r="D17">
-        <v>116.77290000000001</v>
+        <v>117.5852</v>
       </c>
       <c r="E17">
-        <v>39.5747</v>
+        <v>34.774500000000003</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>101</v>
       </c>
       <c r="D18">
-        <v>116.715</v>
+        <v>117.732</v>
       </c>
       <c r="E18">
-        <v>39.557099999999998</v>
+        <v>34.566699999999997</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>252</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>88</v>
       </c>
       <c r="D19">
-        <v>116.74639999999999</v>
+        <v>118.04819999999999</v>
       </c>
       <c r="E19">
-        <v>39.534300000000002</v>
+        <v>36.808799999999998</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D20">
-        <v>115.98480000000001</v>
+        <v>118.0448</v>
       </c>
       <c r="E20">
-        <v>36.437199999999997</v>
+        <v>36.838000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D21">
-        <v>115.99679999999999</v>
+        <v>117.95440000000001</v>
       </c>
       <c r="E21">
-        <v>36.456800000000001</v>
+        <v>36.637700000000002</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D22">
-        <v>115.98350000000001</v>
+        <v>118.3092</v>
       </c>
       <c r="E22">
-        <v>36.479599999999998</v>
+        <v>36.819800000000001</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="D23">
-        <v>119.52589999999999</v>
+        <v>117.85120000000001</v>
       </c>
       <c r="E23">
-        <v>39.828299999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>198</v>
-      </c>
-      <c r="B24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24">
-        <v>119.7624</v>
-      </c>
-      <c r="E24">
-        <v>40.018099999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25">
-        <v>119.6023</v>
-      </c>
-      <c r="E25">
-        <v>39.956699999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>201</v>
-      </c>
-      <c r="B26" t="s">
-        <v>202</v>
-      </c>
-      <c r="C26" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26">
-        <v>119.607</v>
-      </c>
-      <c r="E26">
-        <v>39.9358</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B27" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D27">
-        <v>119.5369</v>
-      </c>
-      <c r="E27">
-        <v>39.941899999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28">
-        <v>114.3541</v>
-      </c>
-      <c r="E28">
-        <v>37.909700000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29">
-        <v>117.14360000000001</v>
-      </c>
-      <c r="E29">
-        <v>36.194200000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30">
-        <v>117.0881</v>
-      </c>
-      <c r="E30">
-        <v>36.194200000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31">
-        <v>117.10809999999999</v>
-      </c>
-      <c r="E31">
-        <v>36.175800000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C32" t="s">
-        <v>184</v>
-      </c>
-      <c r="D32">
-        <v>118.1662</v>
-      </c>
-      <c r="E32">
-        <v>39.630800000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" t="s">
-        <v>184</v>
-      </c>
-      <c r="D33">
-        <v>118.14400000000001</v>
-      </c>
-      <c r="E33">
-        <v>39.643000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>187</v>
-      </c>
-      <c r="B34" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34">
-        <v>118.1853</v>
-      </c>
-      <c r="E34">
-        <v>39.640700000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>189</v>
-      </c>
-      <c r="B35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35">
-        <v>118.21850000000001</v>
-      </c>
-      <c r="E35">
-        <v>39.667900000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>191</v>
-      </c>
-      <c r="B36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D36">
-        <v>118.18380000000001</v>
-      </c>
-      <c r="E36">
-        <v>39.657820000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>193</v>
-      </c>
-      <c r="B37" t="s">
-        <v>194</v>
-      </c>
-      <c r="C37" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37">
-        <v>118.19970000000001</v>
-      </c>
-      <c r="E37">
-        <v>39.6295</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38">
-        <v>122.0508</v>
-      </c>
-      <c r="E38">
-        <v>37.532499999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39">
-        <v>122.1067</v>
-      </c>
-      <c r="E39">
-        <v>37.507199999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40">
-        <v>121.2514</v>
-      </c>
-      <c r="E40">
-        <v>37.563899999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41">
-        <v>121.3719</v>
-      </c>
-      <c r="E41">
-        <v>37.543300000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42">
-        <v>121.3181</v>
-      </c>
-      <c r="E42">
-        <v>37.543599999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43">
-        <v>121.4478</v>
-      </c>
-      <c r="E43">
-        <v>37.482199999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44">
-        <v>121.2611</v>
-      </c>
-      <c r="E44">
-        <v>37.496699999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45">
-        <v>121.59529999999999</v>
-      </c>
-      <c r="E45">
-        <v>37.3872</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46">
-        <v>117.5564</v>
-      </c>
-      <c r="E46">
-        <v>34.863999999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47">
-        <v>117.2852</v>
-      </c>
-      <c r="E47">
-        <v>34.783700000000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48">
-        <v>117.5852</v>
-      </c>
-      <c r="E48">
-        <v>34.774500000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49">
-        <v>117.732</v>
-      </c>
-      <c r="E49">
-        <v>34.566699999999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50">
-        <v>118.04819999999999</v>
-      </c>
-      <c r="E50">
-        <v>36.808799999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51">
-        <v>118.0448</v>
-      </c>
-      <c r="E51">
-        <v>36.838000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52">
-        <v>117.95440000000001</v>
-      </c>
-      <c r="E52">
-        <v>36.637700000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53">
-        <v>118.3092</v>
-      </c>
-      <c r="E53">
-        <v>36.819800000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54">
-        <v>117.85120000000001</v>
-      </c>
-      <c r="E54">
         <v>36.804099999999998</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2">
+        <v>117.96639999999999</v>
+      </c>
+      <c r="E2">
+        <v>40.9161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3">
+        <v>117.9525</v>
+      </c>
+      <c r="E3">
+        <v>40.984299999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4">
+        <v>117.96299999999999</v>
+      </c>
+      <c r="E4">
+        <v>40.935899999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5">
+        <v>117.8184</v>
+      </c>
+      <c r="E5">
+        <v>40.973300000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6">
+        <v>117.9384</v>
+      </c>
+      <c r="E6">
+        <v>41.011200000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7">
+        <v>116.8854</v>
+      </c>
+      <c r="E7">
+        <v>38.299100000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8">
+        <v>116.8584</v>
+      </c>
+      <c r="E8">
+        <v>38.325400000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9">
+        <v>114.4821</v>
+      </c>
+      <c r="E9">
+        <v>37.096699999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10">
+        <v>114.5261</v>
+      </c>
+      <c r="E10">
+        <v>37.0533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11">
+        <v>114.5331</v>
+      </c>
+      <c r="E11">
+        <v>37.096400000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12">
+        <v>114.4854</v>
+      </c>
+      <c r="E12">
+        <v>37.061999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2556,7 +2249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A76644-5F86-4776-A293-540939F77A3D}">
   <dimension ref="A1:H87"/>
   <sheetViews>
@@ -4204,7 +3897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
@@ -4767,7 +4460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
@@ -5726,7 +5419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
@@ -7408,7 +7101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
@@ -8583,7 +8276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E153"/>
   <sheetViews>
@@ -11205,10 +10898,880 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2">
+        <v>114.5129</v>
+      </c>
+      <c r="E2">
+        <v>36.617629999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3">
+        <v>114.54259999999999</v>
+      </c>
+      <c r="E3">
+        <v>36.616399999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4">
+        <v>114.5035</v>
+      </c>
+      <c r="E4">
+        <v>36.577599999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5">
+        <v>114.4965</v>
+      </c>
+      <c r="E5">
+        <v>36.619810000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6">
+        <v>115.6951</v>
+      </c>
+      <c r="E6">
+        <v>37.7575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7">
+        <v>115.6426</v>
+      </c>
+      <c r="E7">
+        <v>37.737900000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8">
+        <v>115.6906</v>
+      </c>
+      <c r="E8">
+        <v>37.738999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>116.6305</v>
+      </c>
+      <c r="E9">
+        <v>35.427999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>116.5856</v>
+      </c>
+      <c r="E10">
+        <v>35.414400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>116.55459999999999</v>
+      </c>
+      <c r="E11">
+        <v>35.4039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12">
+        <v>116.68380000000001</v>
+      </c>
+      <c r="E12">
+        <v>39.517800000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13">
+        <v>116.77290000000001</v>
+      </c>
+      <c r="E13">
+        <v>39.5747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14">
+        <v>116.715</v>
+      </c>
+      <c r="E14">
+        <v>39.557099999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15">
+        <v>116.74639999999999</v>
+      </c>
+      <c r="E15">
+        <v>39.534300000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16">
+        <v>115.98480000000001</v>
+      </c>
+      <c r="E16">
+        <v>36.437199999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17">
+        <v>115.99679999999999</v>
+      </c>
+      <c r="E17">
+        <v>36.456800000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>115.98350000000001</v>
+      </c>
+      <c r="E18">
+        <v>36.479599999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19">
+        <v>119.52589999999999</v>
+      </c>
+      <c r="E19">
+        <v>39.828299999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20">
+        <v>119.7624</v>
+      </c>
+      <c r="E20">
+        <v>40.018099999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21">
+        <v>119.6023</v>
+      </c>
+      <c r="E21">
+        <v>39.956699999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22">
+        <v>119.607</v>
+      </c>
+      <c r="E22">
+        <v>39.9358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23">
+        <v>119.5369</v>
+      </c>
+      <c r="E23">
+        <v>39.941899999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24">
+        <v>114.3541</v>
+      </c>
+      <c r="E24">
+        <v>37.909700000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25">
+        <v>117.14360000000001</v>
+      </c>
+      <c r="E25">
+        <v>36.194200000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26">
+        <v>117.0881</v>
+      </c>
+      <c r="E26">
+        <v>36.194200000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27">
+        <v>117.10809999999999</v>
+      </c>
+      <c r="E27">
+        <v>36.175800000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28">
+        <v>118.1662</v>
+      </c>
+      <c r="E28">
+        <v>39.630800000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29">
+        <v>118.14400000000001</v>
+      </c>
+      <c r="E29">
+        <v>39.643000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30">
+        <v>118.1853</v>
+      </c>
+      <c r="E30">
+        <v>39.640700000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31">
+        <v>118.21850000000001</v>
+      </c>
+      <c r="E31">
+        <v>39.667900000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32">
+        <v>118.18380000000001</v>
+      </c>
+      <c r="E32">
+        <v>39.657820000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33">
+        <v>118.19970000000001</v>
+      </c>
+      <c r="E33">
+        <v>39.6295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34">
+        <v>122.0508</v>
+      </c>
+      <c r="E34">
+        <v>37.532499999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35">
+        <v>122.1067</v>
+      </c>
+      <c r="E35">
+        <v>37.507199999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36">
+        <v>121.2514</v>
+      </c>
+      <c r="E36">
+        <v>37.563899999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37">
+        <v>121.3719</v>
+      </c>
+      <c r="E37">
+        <v>37.543300000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38">
+        <v>121.3181</v>
+      </c>
+      <c r="E38">
+        <v>37.543599999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39">
+        <v>121.4478</v>
+      </c>
+      <c r="E39">
+        <v>37.482199999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40">
+        <v>121.2611</v>
+      </c>
+      <c r="E40">
+        <v>37.496699999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41">
+        <v>121.59529999999999</v>
+      </c>
+      <c r="E41">
+        <v>37.3872</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42">
+        <v>117.5564</v>
+      </c>
+      <c r="E42">
+        <v>34.863999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43">
+        <v>117.2852</v>
+      </c>
+      <c r="E43">
+        <v>34.783700000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44">
+        <v>117.5852</v>
+      </c>
+      <c r="E44">
+        <v>34.774500000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45">
+        <v>117.732</v>
+      </c>
+      <c r="E45">
+        <v>34.566699999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46">
+        <v>118.04819999999999</v>
+      </c>
+      <c r="E46">
+        <v>36.808799999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47">
+        <v>118.0448</v>
+      </c>
+      <c r="E47">
+        <v>36.838000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48">
+        <v>117.95440000000001</v>
+      </c>
+      <c r="E48">
+        <v>36.637700000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49">
+        <v>118.3092</v>
+      </c>
+      <c r="E49">
+        <v>36.819800000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50">
+        <v>117.85120000000001</v>
+      </c>
+      <c r="E50">
+        <v>36.804099999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186BB22C-22FE-4AAA-9E8C-3EF068DC599C}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
@@ -11309,7 +11872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82192017-D878-49FE-AF01-A4D0990B42FE}">
   <dimension ref="A1:E67"/>
   <sheetViews>
@@ -12464,7 +13027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDE112F-36F7-4FAD-835E-47D76D1B42AF}">
   <dimension ref="A1:E46"/>
   <sheetViews>
@@ -13266,7 +13829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -13541,7 +14104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -13781,7 +14344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -14226,7 +14789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -14498,224 +15061,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D2">
-        <v>117.96639999999999</v>
-      </c>
-      <c r="E2">
-        <v>40.9161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D3">
-        <v>117.9525</v>
-      </c>
-      <c r="E3">
-        <v>40.984299999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4">
-        <v>117.96299999999999</v>
-      </c>
-      <c r="E4">
-        <v>40.935899999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5">
-        <v>117.8184</v>
-      </c>
-      <c r="E5">
-        <v>40.973300000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6">
-        <v>117.9384</v>
-      </c>
-      <c r="E6">
-        <v>41.011200000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7">
-        <v>116.8854</v>
-      </c>
-      <c r="E7">
-        <v>38.299100000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D8">
-        <v>116.8584</v>
-      </c>
-      <c r="E8">
-        <v>38.325400000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9">
-        <v>114.4821</v>
-      </c>
-      <c r="E9">
-        <v>37.096699999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10">
-        <v>114.5261</v>
-      </c>
-      <c r="E10">
-        <v>37.0533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11">
-        <v>114.5331</v>
-      </c>
-      <c r="E11">
-        <v>37.096400000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12">
-        <v>114.4854</v>
-      </c>
-      <c r="E12">
-        <v>37.061999999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C18D63-8C8E-46E2-A30D-FC3A7883E10F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F30834-CC78-476A-ABF4-B4E7E3363171}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1401,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E5E7DA-2AEB-4B5A-AFA8-D08B00FB131D}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD50"/>
+      <selection activeCell="A11" sqref="A11:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1431,376 +1431,920 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="D2">
-        <v>118.14400000000001</v>
+        <v>117.5564</v>
       </c>
       <c r="E2">
-        <v>39.643000000000001</v>
+        <v>34.863999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="D3">
-        <v>118.1853</v>
+        <v>117.2852</v>
       </c>
       <c r="E3">
-        <v>39.640700000000002</v>
+        <v>34.783700000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="D4">
-        <v>118.21850000000001</v>
+        <v>117.5852</v>
       </c>
       <c r="E4">
-        <v>39.667900000000003</v>
+        <v>34.774500000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="D5">
-        <v>118.18380000000001</v>
+        <v>117.732</v>
       </c>
       <c r="E5">
-        <v>39.657820000000001</v>
+        <v>34.566699999999997</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>118.19970000000001</v>
+        <v>118.04819999999999</v>
       </c>
       <c r="E6">
-        <v>39.6295</v>
+        <v>36.808799999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>122.0508</v>
+        <v>118.0448</v>
       </c>
       <c r="E7">
-        <v>37.532499999999999</v>
+        <v>36.838000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="D8">
-        <v>122.1067</v>
+        <v>117.95440000000001</v>
       </c>
       <c r="E8">
-        <v>37.507199999999997</v>
+        <v>36.637700000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D9">
-        <v>121.2514</v>
+        <v>118.3092</v>
       </c>
       <c r="E9">
-        <v>37.563899999999997</v>
+        <v>36.819800000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D10">
-        <v>121.3719</v>
+        <v>117.85120000000001</v>
       </c>
       <c r="E10">
-        <v>37.543300000000002</v>
+        <v>36.804099999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>226</v>
       </c>
       <c r="D11">
-        <v>121.3181</v>
+        <v>114.8985</v>
       </c>
       <c r="E11">
-        <v>37.543599999999998</v>
+        <v>40.8367</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>226</v>
       </c>
       <c r="D12">
-        <v>121.4478</v>
+        <v>114.892</v>
       </c>
       <c r="E12">
-        <v>37.482199999999999</v>
+        <v>40.794809999999998</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>226</v>
       </c>
       <c r="D13">
-        <v>121.2611</v>
+        <v>114.8814</v>
       </c>
       <c r="E13">
-        <v>37.496699999999997</v>
+        <v>40.811500000000002</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>226</v>
       </c>
       <c r="D14">
-        <v>121.59529999999999</v>
+        <v>114.9032</v>
       </c>
       <c r="E14">
-        <v>37.3872</v>
+        <v>40.768799999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="D15">
-        <v>117.5564</v>
+        <v>114.904</v>
       </c>
       <c r="E15">
-        <v>34.863999999999997</v>
+        <v>40.872500000000002</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>237</v>
       </c>
       <c r="D16">
-        <v>117.2852</v>
+        <v>117.96639999999999</v>
       </c>
       <c r="E16">
-        <v>34.783700000000003</v>
+        <v>40.9161</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>237</v>
       </c>
       <c r="D17">
-        <v>117.5852</v>
+        <v>117.9525</v>
       </c>
       <c r="E17">
-        <v>34.774500000000003</v>
+        <v>40.984299999999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>237</v>
       </c>
       <c r="D18">
-        <v>117.732</v>
+        <v>117.96299999999999</v>
       </c>
       <c r="E18">
-        <v>34.566699999999997</v>
+        <v>40.935899999999997</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="D19">
-        <v>118.04819999999999</v>
+        <v>117.8184</v>
       </c>
       <c r="E19">
-        <v>36.808799999999998</v>
+        <v>40.973300000000002</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="D20">
-        <v>118.0448</v>
+        <v>117.9384</v>
       </c>
       <c r="E20">
-        <v>36.838000000000001</v>
+        <v>41.011200000000002</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>254</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>255</v>
       </c>
       <c r="D21">
-        <v>117.95440000000001</v>
+        <v>116.8854</v>
       </c>
       <c r="E21">
-        <v>36.637700000000002</v>
+        <v>38.299100000000003</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>257</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>255</v>
       </c>
       <c r="D22">
-        <v>118.3092</v>
+        <v>116.8584</v>
       </c>
       <c r="E22">
-        <v>36.819800000000001</v>
+        <v>38.325400000000002</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="C23" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23">
+        <v>114.4821</v>
+      </c>
+      <c r="E23">
+        <v>37.096699999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24">
+        <v>114.5261</v>
+      </c>
+      <c r="E24">
+        <v>37.0533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25">
+        <v>114.5331</v>
+      </c>
+      <c r="E25">
+        <v>37.096400000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26">
+        <v>114.4854</v>
+      </c>
+      <c r="E26">
+        <v>37.061999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
         <v>88</v>
       </c>
-      <c r="D23">
-        <v>117.85120000000001</v>
-      </c>
-      <c r="E23">
-        <v>36.804099999999998</v>
+      <c r="D27">
+        <v>117.8477</v>
+      </c>
+      <c r="E27">
+        <v>36.497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28">
+        <v>117.45180000000001</v>
+      </c>
+      <c r="E28">
+        <v>35.099200000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>119.12</v>
+      </c>
+      <c r="E29">
+        <v>36.701900000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>119.0919</v>
+      </c>
+      <c r="E30">
+        <v>36.730600000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>119.1425</v>
+      </c>
+      <c r="E31">
+        <v>36.700800000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>119.1614</v>
+      </c>
+      <c r="E32">
+        <v>36.657200000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>119.1939</v>
+      </c>
+      <c r="E33">
+        <v>36.773099999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34">
+        <v>119.4641</v>
+      </c>
+      <c r="E34">
+        <v>35.4178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35">
+        <v>119.5198</v>
+      </c>
+      <c r="E35">
+        <v>35.423400000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36">
+        <v>119.54</v>
+      </c>
+      <c r="E36">
+        <v>35.3962</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37">
+        <v>122.1206</v>
+      </c>
+      <c r="E37">
+        <v>37.429400000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38">
+        <v>115.42277</v>
+      </c>
+      <c r="E38">
+        <v>35.248888999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39">
+        <v>115.474722</v>
+      </c>
+      <c r="E39">
+        <v>35.237499999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40">
+        <v>115.455</v>
+      </c>
+      <c r="E40">
+        <v>35.270000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41">
+        <v>117.685</v>
+      </c>
+      <c r="E41">
+        <v>36.204999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42">
+        <v>117.6789</v>
+      </c>
+      <c r="E42">
+        <v>36.228900000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43">
+        <v>117.715</v>
+      </c>
+      <c r="E43">
+        <v>36.208100000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44">
+        <v>118.34180000000001</v>
+      </c>
+      <c r="E44">
+        <v>35.057299999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45">
+        <v>118.29389999999999</v>
+      </c>
+      <c r="E45">
+        <v>35.062199999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46">
+        <v>118.2764</v>
+      </c>
+      <c r="E46">
+        <v>34.981699999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47">
+        <v>118.4023</v>
+      </c>
+      <c r="E47">
+        <v>35.089599999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>116.988</v>
+      </c>
+      <c r="E48">
+        <v>36.611400000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>116.93</v>
+      </c>
+      <c r="E49">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>117.114</v>
+      </c>
+      <c r="E50">
+        <v>36.673900000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>116.989</v>
+      </c>
+      <c r="E51">
+        <v>36.687199999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>117.0684</v>
+      </c>
+      <c r="E52">
+        <v>36.686799999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>116.943</v>
+      </c>
+      <c r="E53">
+        <v>36.648899999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>117.04900000000001</v>
+      </c>
+      <c r="E54">
+        <v>36.662199999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>116.73399999999999</v>
+      </c>
+      <c r="E55">
+        <v>36.5336</v>
       </c>
     </row>
   </sheetData>
@@ -11876,7 +12420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82192017-D878-49FE-AF01-A4D0990B42FE}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E67" sqref="A2:E67"/>
     </sheetView>
   </sheetViews>
@@ -13031,8 +13575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDE112F-36F7-4FAD-835E-47D76D1B42AF}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F16" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E47" sqref="A2:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F30834-CC78-476A-ABF4-B4E7E3363171}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E383E3A-84BE-4758-8C19-84D9DD575163}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1401,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E5E7DA-2AEB-4B5A-AFA8-D08B00FB131D}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A37" sqref="A30:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1584,767 +1584,325 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>114.8985</v>
+        <v>119.12</v>
       </c>
       <c r="E11">
-        <v>40.8367</v>
+        <v>36.701900000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>114.892</v>
+        <v>119.0919</v>
       </c>
       <c r="E12">
-        <v>40.794809999999998</v>
+        <v>36.730600000000003</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>114.8814</v>
+        <v>119.1425</v>
       </c>
       <c r="E13">
-        <v>40.811500000000002</v>
+        <v>36.700800000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>232</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>114.9032</v>
+        <v>119.1614</v>
       </c>
       <c r="E14">
-        <v>40.768799999999999</v>
+        <v>36.657200000000003</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>226</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>114.904</v>
+        <v>119.1939</v>
       </c>
       <c r="E15">
-        <v>40.872500000000002</v>
+        <v>36.773099999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="D16">
-        <v>117.96639999999999</v>
+        <v>119.4641</v>
       </c>
       <c r="E16">
-        <v>40.9161</v>
+        <v>35.4178</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="D17">
-        <v>117.9525</v>
+        <v>119.5198</v>
       </c>
       <c r="E17">
-        <v>40.984299999999998</v>
+        <v>35.423400000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="D18">
-        <v>117.96299999999999</v>
+        <v>119.54</v>
       </c>
       <c r="E18">
-        <v>40.935899999999997</v>
+        <v>35.3962</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="D19">
-        <v>117.8184</v>
+        <v>122.1206</v>
       </c>
       <c r="E19">
-        <v>40.973300000000002</v>
+        <v>37.429400000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="D20">
-        <v>117.9384</v>
+        <v>115.42277</v>
       </c>
       <c r="E20">
-        <v>41.011200000000002</v>
+        <v>35.248888999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>255</v>
+        <v>160</v>
       </c>
       <c r="D21">
-        <v>116.8854</v>
+        <v>115.474722</v>
       </c>
       <c r="E21">
-        <v>38.299100000000003</v>
+        <v>35.237499999999997</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>257</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
-        <v>255</v>
+        <v>160</v>
       </c>
       <c r="D22">
-        <v>116.8584</v>
+        <v>115.455</v>
       </c>
       <c r="E22">
-        <v>38.325400000000002</v>
+        <v>35.270000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>264</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>265</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>266</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>114.4821</v>
+        <v>117.685</v>
       </c>
       <c r="E23">
-        <v>37.096699999999998</v>
+        <v>36.204999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>267</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>266</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>114.5261</v>
+        <v>117.6789</v>
       </c>
       <c r="E24">
-        <v>37.0533</v>
+        <v>36.228900000000003</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>269</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>266</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>114.5331</v>
+        <v>117.715</v>
       </c>
       <c r="E25">
-        <v>37.096400000000003</v>
+        <v>36.208100000000002</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>271</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>266</v>
+        <v>58</v>
       </c>
       <c r="D26">
-        <v>114.4854</v>
+        <v>118.34180000000001</v>
       </c>
       <c r="E26">
-        <v>37.061999999999998</v>
+        <v>35.057299999999998</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D27">
-        <v>117.8477</v>
+        <v>118.29389999999999</v>
       </c>
       <c r="E27">
-        <v>36.497</v>
+        <v>35.062199999999997</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="D28">
-        <v>117.45180000000001</v>
+        <v>118.2764</v>
       </c>
       <c r="E28">
-        <v>35.099200000000003</v>
+        <v>34.981699999999996</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D29">
-        <v>119.12</v>
+        <v>118.4023</v>
       </c>
       <c r="E29">
-        <v>36.701900000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>119.0919</v>
-      </c>
-      <c r="E30">
-        <v>36.730600000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>119.1425</v>
-      </c>
-      <c r="E31">
-        <v>36.700800000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32">
-        <v>119.1614</v>
-      </c>
-      <c r="E32">
-        <v>36.657200000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33">
-        <v>119.1939</v>
-      </c>
-      <c r="E33">
-        <v>36.773099999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D34">
-        <v>119.4641</v>
-      </c>
-      <c r="E34">
-        <v>35.4178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>140</v>
-      </c>
-      <c r="B35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35">
-        <v>119.5198</v>
-      </c>
-      <c r="E35">
-        <v>35.423400000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>142</v>
-      </c>
-      <c r="B36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36">
-        <v>119.54</v>
-      </c>
-      <c r="E36">
-        <v>35.3962</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37">
-        <v>122.1206</v>
-      </c>
-      <c r="E37">
-        <v>37.429400000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>158</v>
-      </c>
-      <c r="B38" t="s">
-        <v>159</v>
-      </c>
-      <c r="C38" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38">
-        <v>115.42277</v>
-      </c>
-      <c r="E38">
-        <v>35.248888999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>161</v>
-      </c>
-      <c r="B39" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39">
-        <v>115.474722</v>
-      </c>
-      <c r="E39">
-        <v>35.237499999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>163</v>
-      </c>
-      <c r="B40" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40">
-        <v>115.455</v>
-      </c>
-      <c r="E40">
-        <v>35.270000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41">
-        <v>117.685</v>
-      </c>
-      <c r="E41">
-        <v>36.204999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42">
-        <v>117.6789</v>
-      </c>
-      <c r="E42">
-        <v>36.228900000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43">
-        <v>117.715</v>
-      </c>
-      <c r="E43">
-        <v>36.208100000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E44">
-        <v>35.057299999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E45">
-        <v>35.062199999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46">
-        <v>118.2764</v>
-      </c>
-      <c r="E46">
-        <v>34.981699999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47">
-        <v>118.4023</v>
-      </c>
-      <c r="E47">
         <v>35.089599999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48">
-        <v>116.988</v>
-      </c>
-      <c r="E48">
-        <v>36.611400000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49">
-        <v>116.93</v>
-      </c>
-      <c r="E49">
-        <v>36.67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50">
-        <v>117.114</v>
-      </c>
-      <c r="E50">
-        <v>36.673900000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51">
-        <v>116.989</v>
-      </c>
-      <c r="E51">
-        <v>36.687199999999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52">
-        <v>117.0684</v>
-      </c>
-      <c r="E52">
-        <v>36.686799999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53">
-        <v>116.943</v>
-      </c>
-      <c r="E53">
-        <v>36.648899999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54">
-        <v>117.04900000000001</v>
-      </c>
-      <c r="E54">
-        <v>36.662199999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55">
-        <v>116.73399999999999</v>
-      </c>
-      <c r="E55">
-        <v>36.5336</v>
       </c>
     </row>
   </sheetData>
@@ -11445,13 +11003,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:E50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -12420,11 +11979,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82192017-D878-49FE-AF01-A4D0990B42FE}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E67" sqref="A2:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -13575,13 +13137,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDE112F-36F7-4FAD-835E-47D76D1B42AF}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E47" sqref="A2:E47"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E383E3A-84BE-4758-8C19-84D9DD575163}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F8C430-CB52-4485-9196-D7E9DDD6A9AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1401,15 +1401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E5E7DA-2AEB-4B5A-AFA8-D08B00FB131D}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A30:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1431,478 +1431,2586 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="D2">
-        <v>117.5564</v>
+        <v>116.366</v>
       </c>
       <c r="E2">
-        <v>34.863999999999997</v>
+        <v>39.8673</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="D3">
-        <v>117.2852</v>
+        <v>116.17</v>
       </c>
       <c r="E3">
-        <v>34.783700000000003</v>
+        <v>40.286499999999997</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="D4">
-        <v>117.5852</v>
+        <v>116.434</v>
       </c>
       <c r="E4">
-        <v>34.774500000000003</v>
+        <v>39.952199999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="D5">
-        <v>117.732</v>
+        <v>116.434</v>
       </c>
       <c r="E5">
-        <v>34.566699999999997</v>
+        <v>39.874499999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="D6">
-        <v>118.04819999999999</v>
+        <v>116.473</v>
       </c>
       <c r="E6">
-        <v>36.808799999999998</v>
+        <v>39.971600000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>284</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="D7">
-        <v>118.0448</v>
+        <v>116.361</v>
       </c>
       <c r="E7">
-        <v>36.838000000000001</v>
+        <v>39.942500000000003</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="D8">
-        <v>117.95440000000001</v>
+        <v>116.315</v>
       </c>
       <c r="E8">
-        <v>36.637700000000002</v>
+        <v>39.993400000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="D9">
-        <v>118.3092</v>
+        <v>116.72</v>
       </c>
       <c r="E9">
-        <v>36.819800000000001</v>
+        <v>40.143799999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="D10">
-        <v>117.85120000000001</v>
+        <v>116.64400000000001</v>
       </c>
       <c r="E10">
-        <v>36.804099999999998</v>
+        <v>40.393700000000003</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>274</v>
       </c>
       <c r="D11">
-        <v>119.12</v>
+        <v>116.23</v>
       </c>
       <c r="E11">
-        <v>36.701900000000002</v>
+        <v>40.1952</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>293</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>274</v>
       </c>
       <c r="D12">
-        <v>119.0919</v>
+        <v>116.407</v>
       </c>
       <c r="E12">
-        <v>36.730600000000003</v>
+        <v>40.003100000000003</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>295</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>296</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>274</v>
       </c>
       <c r="D13">
-        <v>119.1425</v>
+        <v>116.22499999999999</v>
       </c>
       <c r="E13">
-        <v>36.700800000000001</v>
+        <v>39.927900000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>297</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>299</v>
       </c>
       <c r="D14">
-        <v>119.1614</v>
+        <v>117.151</v>
       </c>
       <c r="E14">
-        <v>36.657200000000003</v>
+        <v>39.097000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>301</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>299</v>
       </c>
       <c r="D15">
-        <v>119.1939</v>
+        <v>117.193</v>
       </c>
       <c r="E15">
-        <v>36.773099999999999</v>
+        <v>39.173000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>302</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>299</v>
       </c>
       <c r="D16">
-        <v>119.4641</v>
+        <v>117.145</v>
       </c>
       <c r="E16">
-        <v>35.4178</v>
+        <v>39.165399999999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>304</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>305</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>299</v>
       </c>
       <c r="D17">
-        <v>119.5198</v>
+        <v>117.184</v>
       </c>
       <c r="E17">
-        <v>35.423400000000001</v>
+        <v>39.1205</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>307</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>299</v>
       </c>
       <c r="D18">
-        <v>119.54</v>
+        <v>117.23699999999999</v>
       </c>
       <c r="E18">
-        <v>35.3962</v>
+        <v>39.108199999999997</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>309</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>299</v>
       </c>
       <c r="D19">
-        <v>122.1206</v>
+        <v>117.202</v>
       </c>
       <c r="E19">
-        <v>37.429400000000001</v>
+        <v>39.092700000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>310</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>311</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>299</v>
       </c>
       <c r="D20">
-        <v>115.42277</v>
+        <v>117.1837</v>
       </c>
       <c r="E20">
-        <v>35.248888999999998</v>
+        <v>39.213299999999997</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>312</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>313</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>299</v>
       </c>
       <c r="D21">
-        <v>115.474722</v>
+        <v>117.26900000000001</v>
       </c>
       <c r="E21">
-        <v>35.237499999999997</v>
+        <v>39.133699999999997</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>314</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>315</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>299</v>
       </c>
       <c r="D22">
-        <v>115.455</v>
+        <v>117.307</v>
       </c>
       <c r="E22">
-        <v>35.270000000000003</v>
+        <v>39.087699999999998</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>316</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>317</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>299</v>
       </c>
       <c r="D23">
-        <v>117.685</v>
+        <v>117.70699999999999</v>
       </c>
       <c r="E23">
-        <v>36.204999999999998</v>
+        <v>39.034300000000002</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>318</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>319</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>299</v>
       </c>
       <c r="D24">
-        <v>117.6789</v>
+        <v>117.45699999999999</v>
       </c>
       <c r="E24">
-        <v>36.228900000000003</v>
+        <v>38.839399999999998</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>320</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>321</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>299</v>
       </c>
       <c r="D25">
-        <v>117.715</v>
+        <v>117.401</v>
       </c>
       <c r="E25">
-        <v>36.208100000000002</v>
+        <v>39.124000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>322</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>323</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>299</v>
       </c>
       <c r="D26">
-        <v>118.34180000000001</v>
+        <v>117.764</v>
       </c>
       <c r="E26">
-        <v>35.057299999999998</v>
+        <v>39.158700000000003</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>324</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>325</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>299</v>
       </c>
       <c r="D27">
-        <v>118.29389999999999</v>
+        <v>117.157</v>
       </c>
       <c r="E27">
-        <v>35.062199999999997</v>
+        <v>38.919400000000003</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="D28">
-        <v>118.2764</v>
+        <v>114.45480000000001</v>
       </c>
       <c r="E28">
-        <v>34.981699999999996</v>
+        <v>38.051299999999998</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29">
+        <v>114.6046</v>
+      </c>
+      <c r="E29">
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E30">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31">
+        <v>114.4586111</v>
+      </c>
+      <c r="E31">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32">
+        <v>114.5330556</v>
+      </c>
+      <c r="E32">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33">
+        <v>114.5214</v>
+      </c>
+      <c r="E33">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34">
+        <v>114.3541</v>
+      </c>
+      <c r="E34">
+        <v>37.909700000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35">
+        <v>118.1662</v>
+      </c>
+      <c r="E35">
+        <v>39.630800000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36">
+        <v>118.14400000000001</v>
+      </c>
+      <c r="E36">
+        <v>39.643000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37">
+        <v>118.1853</v>
+      </c>
+      <c r="E37">
+        <v>39.640700000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38">
+        <v>118.21850000000001</v>
+      </c>
+      <c r="E38">
+        <v>39.667900000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39">
+        <v>118.18380000000001</v>
+      </c>
+      <c r="E39">
+        <v>39.657820000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40">
+        <v>118.19970000000001</v>
+      </c>
+      <c r="E40">
+        <v>39.6295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41">
+        <v>119.52589999999999</v>
+      </c>
+      <c r="E41">
+        <v>39.828299999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42">
+        <v>119.7624</v>
+      </c>
+      <c r="E42">
+        <v>40.018099999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43">
+        <v>119.6023</v>
+      </c>
+      <c r="E43">
+        <v>39.956699999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44">
+        <v>119.607</v>
+      </c>
+      <c r="E44">
+        <v>39.9358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45">
+        <v>119.5369</v>
+      </c>
+      <c r="E45">
+        <v>39.941899999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46">
+        <v>114.5129</v>
+      </c>
+      <c r="E46">
+        <v>36.617629999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47">
+        <v>114.54259999999999</v>
+      </c>
+      <c r="E47">
+        <v>36.616399999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48">
+        <v>114.5035</v>
+      </c>
+      <c r="E48">
+        <v>36.577599999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49">
+        <v>114.4965</v>
+      </c>
+      <c r="E49">
+        <v>36.619810000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50">
+        <v>115.49299999999999</v>
+      </c>
+      <c r="E50">
+        <v>38.863199999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51" t="s">
+        <v>217</v>
+      </c>
+      <c r="C51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D51">
+        <v>115.5223</v>
+      </c>
+      <c r="E51">
+        <v>38.895699999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52">
+        <v>115.4713</v>
+      </c>
+      <c r="E52">
+        <v>38.910800000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" t="s">
+        <v>215</v>
+      </c>
+      <c r="D53">
+        <v>115.46120000000001</v>
+      </c>
+      <c r="E53">
+        <v>38.8416</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54">
+        <v>115.44199999999999</v>
+      </c>
+      <c r="E54">
+        <v>38.875599999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55">
+        <v>115.5214</v>
+      </c>
+      <c r="E55">
+        <v>38.870699999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" t="s">
+        <v>226</v>
+      </c>
+      <c r="D56">
+        <v>114.8985</v>
+      </c>
+      <c r="E56">
+        <v>40.8367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57" t="s">
+        <v>228</v>
+      </c>
+      <c r="C57" t="s">
+        <v>226</v>
+      </c>
+      <c r="D57">
+        <v>114.892</v>
+      </c>
+      <c r="E57">
+        <v>40.794809999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58">
+        <v>114.8814</v>
+      </c>
+      <c r="E58">
+        <v>40.811500000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" t="s">
+        <v>226</v>
+      </c>
+      <c r="D59">
+        <v>114.9032</v>
+      </c>
+      <c r="E59">
+        <v>40.768799999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>233</v>
+      </c>
+      <c r="B60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60">
+        <v>114.904</v>
+      </c>
+      <c r="E60">
+        <v>40.872500000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61" t="s">
+        <v>236</v>
+      </c>
+      <c r="C61" t="s">
+        <v>237</v>
+      </c>
+      <c r="D61">
+        <v>117.96639999999999</v>
+      </c>
+      <c r="E61">
+        <v>40.9161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62">
+        <v>117.9525</v>
+      </c>
+      <c r="E62">
+        <v>40.984299999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63">
+        <v>117.96299999999999</v>
+      </c>
+      <c r="E63">
+        <v>40.935899999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64">
+        <v>117.8184</v>
+      </c>
+      <c r="E64">
+        <v>40.973300000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>243</v>
+      </c>
+      <c r="B65" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65">
+        <v>117.9384</v>
+      </c>
+      <c r="E65">
+        <v>41.011200000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>245</v>
+      </c>
+      <c r="B66" t="s">
+        <v>246</v>
+      </c>
+      <c r="C66" t="s">
+        <v>247</v>
+      </c>
+      <c r="D66">
+        <v>116.68380000000001</v>
+      </c>
+      <c r="E66">
+        <v>39.517800000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>248</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>247</v>
+      </c>
+      <c r="D67">
+        <v>116.77290000000001</v>
+      </c>
+      <c r="E67">
+        <v>39.5747</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>249</v>
+      </c>
+      <c r="B68" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" t="s">
+        <v>247</v>
+      </c>
+      <c r="D68">
+        <v>116.715</v>
+      </c>
+      <c r="E68">
+        <v>39.557099999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>251</v>
+      </c>
+      <c r="B69" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69">
+        <v>116.74639999999999</v>
+      </c>
+      <c r="E69">
+        <v>39.534300000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>253</v>
+      </c>
+      <c r="B70" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70">
+        <v>116.8854</v>
+      </c>
+      <c r="E70">
+        <v>38.299100000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>256</v>
+      </c>
+      <c r="B71" t="s">
+        <v>257</v>
+      </c>
+      <c r="C71" t="s">
+        <v>255</v>
+      </c>
+      <c r="D71">
+        <v>116.8584</v>
+      </c>
+      <c r="E71">
+        <v>38.325400000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>258</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>255</v>
+      </c>
+      <c r="D72">
+        <v>116.87090000000001</v>
+      </c>
+      <c r="E72">
+        <v>38.322800000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>259</v>
+      </c>
+      <c r="B73" t="s">
+        <v>260</v>
+      </c>
+      <c r="C73" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73">
+        <v>115.6951</v>
+      </c>
+      <c r="E73">
+        <v>37.7575</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>262</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
+        <v>261</v>
+      </c>
+      <c r="D74">
+        <v>115.6426</v>
+      </c>
+      <c r="E74">
+        <v>37.737900000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>263</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>261</v>
+      </c>
+      <c r="D75">
+        <v>115.6906</v>
+      </c>
+      <c r="E75">
+        <v>37.738999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>264</v>
+      </c>
+      <c r="B76" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" t="s">
+        <v>266</v>
+      </c>
+      <c r="D76">
+        <v>114.4821</v>
+      </c>
+      <c r="E76">
+        <v>37.096699999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>267</v>
+      </c>
+      <c r="B77" t="s">
+        <v>268</v>
+      </c>
+      <c r="C77" t="s">
+        <v>266</v>
+      </c>
+      <c r="D77">
+        <v>114.5261</v>
+      </c>
+      <c r="E77">
+        <v>37.0533</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>269</v>
+      </c>
+      <c r="B78" t="s">
+        <v>270</v>
+      </c>
+      <c r="C78" t="s">
+        <v>266</v>
+      </c>
+      <c r="D78">
+        <v>114.5331</v>
+      </c>
+      <c r="E78">
+        <v>37.096400000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>271</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79">
+        <v>114.4854</v>
+      </c>
+      <c r="E79">
+        <v>37.061999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <v>116.988</v>
+      </c>
+      <c r="E80">
+        <v>36.611400000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81">
+        <v>116.93</v>
+      </c>
+      <c r="E81">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82">
+        <v>117.114</v>
+      </c>
+      <c r="E82">
+        <v>36.673900000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83">
+        <v>116.989</v>
+      </c>
+      <c r="E83">
+        <v>36.687199999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84">
+        <v>117.0684</v>
+      </c>
+      <c r="E84">
+        <v>36.686799999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85">
+        <v>116.943</v>
+      </c>
+      <c r="E85">
+        <v>36.648899999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>117.04900000000001</v>
+      </c>
+      <c r="E86">
+        <v>36.662199999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87">
+        <v>116.73399999999999</v>
+      </c>
+      <c r="E87">
+        <v>36.5336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88">
+        <v>120.66589999999999</v>
+      </c>
+      <c r="E88">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89">
+        <v>120.3905</v>
+      </c>
+      <c r="E89">
+        <v>36.185099999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90">
+        <v>120.3471</v>
+      </c>
+      <c r="E90">
+        <v>36.069899999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91">
+        <v>120.4134</v>
+      </c>
+      <c r="E91">
+        <v>36.065399999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92">
+        <v>120.3664</v>
+      </c>
+      <c r="E92">
+        <v>36.103200000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93">
+        <v>120.2992</v>
+      </c>
+      <c r="E93">
+        <v>36.054299999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94">
+        <v>120.45869999999999</v>
+      </c>
+      <c r="E94">
+        <v>36.085099999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95">
+        <v>120.1964</v>
+      </c>
+      <c r="E95">
+        <v>36.308300000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96">
+        <v>120.40009999999999</v>
+      </c>
+      <c r="E96">
+        <v>36.240299999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97">
+        <v>117.685</v>
+      </c>
+      <c r="E97">
+        <v>36.204999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98">
+        <v>117.6789</v>
+      </c>
+      <c r="E98">
+        <v>36.228900000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99">
+        <v>117.715</v>
+      </c>
+      <c r="E99">
+        <v>36.208100000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>56</v>
+      </c>
+      <c r="B100" t="s">
+        <v>57</v>
+      </c>
+      <c r="C100" t="s">
+        <v>58</v>
+      </c>
+      <c r="D100">
+        <v>118.34180000000001</v>
+      </c>
+      <c r="E100">
+        <v>35.057299999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" t="s">
+        <v>58</v>
+      </c>
+      <c r="D101">
+        <v>118.29389999999999</v>
+      </c>
+      <c r="E101">
+        <v>35.062199999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>61</v>
+      </c>
+      <c r="B102" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102">
+        <v>118.2764</v>
+      </c>
+      <c r="E102">
+        <v>34.981699999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>63</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B103" t="s">
         <v>64</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C103" t="s">
         <v>58</v>
       </c>
-      <c r="D29">
+      <c r="D103">
         <v>118.4023</v>
       </c>
-      <c r="E29">
+      <c r="E103">
         <v>35.089599999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>65</v>
+      </c>
+      <c r="B104" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" t="s">
+        <v>67</v>
+      </c>
+      <c r="D104">
+        <v>116.3061</v>
+      </c>
+      <c r="E104">
+        <v>37.4664</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B105" t="s">
+        <v>69</v>
+      </c>
+      <c r="C105" t="s">
+        <v>67</v>
+      </c>
+      <c r="D105">
+        <v>116.27290000000001</v>
+      </c>
+      <c r="E105">
+        <v>37.450400000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D106">
+        <v>116.3189</v>
+      </c>
+      <c r="E106">
+        <v>37.448900000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" t="s">
+        <v>74</v>
+      </c>
+      <c r="D107">
+        <v>115.98480000000001</v>
+      </c>
+      <c r="E107">
+        <v>36.437199999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>75</v>
+      </c>
+      <c r="B108" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108" t="s">
+        <v>74</v>
+      </c>
+      <c r="D108">
+        <v>115.99679999999999</v>
+      </c>
+      <c r="E108">
+        <v>36.456800000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B109" t="s">
+        <v>78</v>
+      </c>
+      <c r="C109" t="s">
+        <v>74</v>
+      </c>
+      <c r="D109">
+        <v>115.98350000000001</v>
+      </c>
+      <c r="E109">
+        <v>36.479599999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>79</v>
+      </c>
+      <c r="B110" t="s">
+        <v>80</v>
+      </c>
+      <c r="C110" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110">
+        <v>118.00620000000001</v>
+      </c>
+      <c r="E110">
+        <v>37.380299999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>82</v>
+      </c>
+      <c r="B111" t="s">
+        <v>83</v>
+      </c>
+      <c r="C111" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111">
+        <v>118.0018</v>
+      </c>
+      <c r="E111">
+        <v>37.361699999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>84</v>
+      </c>
+      <c r="B112" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112">
+        <v>117.9776</v>
+      </c>
+      <c r="E112">
+        <v>37.393000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" t="s">
+        <v>88</v>
+      </c>
+      <c r="D113">
+        <v>118.04819999999999</v>
+      </c>
+      <c r="E113">
+        <v>36.808799999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>89</v>
+      </c>
+      <c r="B114" t="s">
+        <v>90</v>
+      </c>
+      <c r="C114" t="s">
+        <v>88</v>
+      </c>
+      <c r="D114">
+        <v>118.0448</v>
+      </c>
+      <c r="E114">
+        <v>36.838000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" t="s">
+        <v>92</v>
+      </c>
+      <c r="C115" t="s">
+        <v>88</v>
+      </c>
+      <c r="D115">
+        <v>117.8477</v>
+      </c>
+      <c r="E115">
+        <v>36.497</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>93</v>
+      </c>
+      <c r="B116" t="s">
+        <v>94</v>
+      </c>
+      <c r="C116" t="s">
+        <v>88</v>
+      </c>
+      <c r="D116">
+        <v>117.95440000000001</v>
+      </c>
+      <c r="E116">
+        <v>36.637700000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>95</v>
+      </c>
+      <c r="B117" t="s">
+        <v>96</v>
+      </c>
+      <c r="C117" t="s">
+        <v>88</v>
+      </c>
+      <c r="D117">
+        <v>118.3092</v>
+      </c>
+      <c r="E117">
+        <v>36.819800000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>97</v>
+      </c>
+      <c r="B118" t="s">
+        <v>98</v>
+      </c>
+      <c r="C118" t="s">
+        <v>88</v>
+      </c>
+      <c r="D118">
+        <v>117.85120000000001</v>
+      </c>
+      <c r="E118">
+        <v>36.804099999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>99</v>
+      </c>
+      <c r="B119" t="s">
+        <v>100</v>
+      </c>
+      <c r="C119" t="s">
+        <v>101</v>
+      </c>
+      <c r="D119">
+        <v>117.5564</v>
+      </c>
+      <c r="E119">
+        <v>34.863999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120" t="s">
+        <v>103</v>
+      </c>
+      <c r="C120" t="s">
+        <v>101</v>
+      </c>
+      <c r="D120">
+        <v>117.2852</v>
+      </c>
+      <c r="E120">
+        <v>34.783700000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>104</v>
+      </c>
+      <c r="B121" t="s">
+        <v>105</v>
+      </c>
+      <c r="C121" t="s">
+        <v>101</v>
+      </c>
+      <c r="D121">
+        <v>117.5852</v>
+      </c>
+      <c r="E121">
+        <v>34.774500000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>106</v>
+      </c>
+      <c r="B122" t="s">
+        <v>107</v>
+      </c>
+      <c r="C122" t="s">
+        <v>101</v>
+      </c>
+      <c r="D122">
+        <v>117.732</v>
+      </c>
+      <c r="E122">
+        <v>34.566699999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>108</v>
+      </c>
+      <c r="B123" t="s">
+        <v>109</v>
+      </c>
+      <c r="C123" t="s">
+        <v>101</v>
+      </c>
+      <c r="D123">
+        <v>117.45180000000001</v>
+      </c>
+      <c r="E123">
+        <v>35.099200000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" t="s">
+        <v>111</v>
+      </c>
+      <c r="D124">
+        <v>121.2514</v>
+      </c>
+      <c r="E124">
+        <v>37.563899999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>112</v>
+      </c>
+      <c r="B125" t="s">
+        <v>113</v>
+      </c>
+      <c r="C125" t="s">
+        <v>111</v>
+      </c>
+      <c r="D125">
+        <v>121.3719</v>
+      </c>
+      <c r="E125">
+        <v>37.543300000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>114</v>
+      </c>
+      <c r="B126" t="s">
+        <v>115</v>
+      </c>
+      <c r="C126" t="s">
+        <v>111</v>
+      </c>
+      <c r="D126">
+        <v>121.3181</v>
+      </c>
+      <c r="E126">
+        <v>37.543599999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>116</v>
+      </c>
+      <c r="B127" t="s">
+        <v>117</v>
+      </c>
+      <c r="C127" t="s">
+        <v>111</v>
+      </c>
+      <c r="D127">
+        <v>121.4478</v>
+      </c>
+      <c r="E127">
+        <v>37.482199999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>118</v>
+      </c>
+      <c r="B128" t="s">
+        <v>119</v>
+      </c>
+      <c r="C128" t="s">
+        <v>111</v>
+      </c>
+      <c r="D128">
+        <v>121.2611</v>
+      </c>
+      <c r="E128">
+        <v>37.496699999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>120</v>
+      </c>
+      <c r="B129" t="s">
+        <v>121</v>
+      </c>
+      <c r="C129" t="s">
+        <v>111</v>
+      </c>
+      <c r="D129">
+        <v>121.59529999999999</v>
+      </c>
+      <c r="E129">
+        <v>37.3872</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>122</v>
+      </c>
+      <c r="B130" t="s">
+        <v>123</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130">
+        <v>119.12</v>
+      </c>
+      <c r="E130">
+        <v>36.701900000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>124</v>
+      </c>
+      <c r="B131" t="s">
+        <v>125</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131">
+        <v>119.0919</v>
+      </c>
+      <c r="E131">
+        <v>36.730600000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>126</v>
+      </c>
+      <c r="B132" t="s">
+        <v>127</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132">
+        <v>119.1425</v>
+      </c>
+      <c r="E132">
+        <v>36.700800000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133">
+        <v>119.1614</v>
+      </c>
+      <c r="E133">
+        <v>36.657200000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134">
+        <v>119.1939</v>
+      </c>
+      <c r="E134">
+        <v>36.773099999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135">
+        <v>116.6305</v>
+      </c>
+      <c r="E135">
+        <v>35.427999999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>128</v>
+      </c>
+      <c r="B136" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136">
+        <v>116.5856</v>
+      </c>
+      <c r="E136">
+        <v>35.414400000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>130</v>
+      </c>
+      <c r="B137" t="s">
+        <v>131</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137">
+        <v>116.55459999999999</v>
+      </c>
+      <c r="E137">
+        <v>35.4039</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>132</v>
+      </c>
+      <c r="B138" t="s">
+        <v>129</v>
+      </c>
+      <c r="C138" t="s">
+        <v>133</v>
+      </c>
+      <c r="D138">
+        <v>117.14360000000001</v>
+      </c>
+      <c r="E138">
+        <v>36.194200000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" t="s">
+        <v>135</v>
+      </c>
+      <c r="C139" t="s">
+        <v>133</v>
+      </c>
+      <c r="D139">
+        <v>117.0881</v>
+      </c>
+      <c r="E139">
+        <v>36.194200000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" t="s">
+        <v>137</v>
+      </c>
+      <c r="C140" t="s">
+        <v>133</v>
+      </c>
+      <c r="D140">
+        <v>117.10809999999999</v>
+      </c>
+      <c r="E140">
+        <v>36.175800000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" t="s">
+        <v>129</v>
+      </c>
+      <c r="C141" t="s">
+        <v>139</v>
+      </c>
+      <c r="D141">
+        <v>119.4641</v>
+      </c>
+      <c r="E141">
+        <v>35.4178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>139</v>
+      </c>
+      <c r="D142">
+        <v>119.5198</v>
+      </c>
+      <c r="E142">
+        <v>35.423400000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" t="s">
+        <v>139</v>
+      </c>
+      <c r="D143">
+        <v>119.54</v>
+      </c>
+      <c r="E143">
+        <v>35.3962</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144" t="s">
+        <v>146</v>
+      </c>
+      <c r="D144">
+        <v>122.1206</v>
+      </c>
+      <c r="E144">
+        <v>37.429400000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
+      <c r="C145" t="s">
+        <v>146</v>
+      </c>
+      <c r="D145">
+        <v>122.0508</v>
+      </c>
+      <c r="E145">
+        <v>37.532499999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" t="s">
+        <v>146</v>
+      </c>
+      <c r="D146">
+        <v>122.1067</v>
+      </c>
+      <c r="E146">
+        <v>37.507199999999997</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147" t="s">
+        <v>152</v>
+      </c>
+      <c r="D147">
+        <v>118.50190000000001</v>
+      </c>
+      <c r="E147">
+        <v>37.465800000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148" t="s">
+        <v>80</v>
+      </c>
+      <c r="C148" t="s">
+        <v>152</v>
+      </c>
+      <c r="D148">
+        <v>118.66719999999999</v>
+      </c>
+      <c r="E148">
+        <v>37.431399999999996</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149" t="s">
+        <v>155</v>
+      </c>
+      <c r="C149" t="s">
+        <v>152</v>
+      </c>
+      <c r="D149">
+        <v>118.5857</v>
+      </c>
+      <c r="E149">
+        <v>37.444200000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" t="s">
+        <v>152</v>
+      </c>
+      <c r="D150">
+        <v>118.8192</v>
+      </c>
+      <c r="E150">
+        <v>37.378100000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151" t="s">
+        <v>160</v>
+      </c>
+      <c r="D151">
+        <v>115.42277</v>
+      </c>
+      <c r="E151">
+        <v>35.248888999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>161</v>
+      </c>
+      <c r="B152" t="s">
+        <v>162</v>
+      </c>
+      <c r="C152" t="s">
+        <v>160</v>
+      </c>
+      <c r="D152">
+        <v>115.474722</v>
+      </c>
+      <c r="E152">
+        <v>35.237499999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>163</v>
+      </c>
+      <c r="B153" t="s">
+        <v>164</v>
+      </c>
+      <c r="C153" t="s">
+        <v>160</v>
+      </c>
+      <c r="D153">
+        <v>115.455</v>
+      </c>
+      <c r="E153">
+        <v>35.270000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -8383,7 +10491,7 @@
   <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11979,8 +14087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82192017-D878-49FE-AF01-A4D0990B42FE}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E67" sqref="A2:E67"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F8C430-CB52-4485-9196-D7E9DDD6A9AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F862EBC-413E-4B8A-AA97-73080FB33B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="338">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1099,6 +1099,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1401,15 +1402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E5E7DA-2AEB-4B5A-AFA8-D08B00FB131D}">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.09765625" customWidth="1"/>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1631,2386 +1632,6 @@
       </c>
       <c r="E13">
         <v>39.927900000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>297</v>
-      </c>
-      <c r="B14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14">
-        <v>117.151</v>
-      </c>
-      <c r="E14">
-        <v>39.097000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C15" t="s">
-        <v>299</v>
-      </c>
-      <c r="D15">
-        <v>117.193</v>
-      </c>
-      <c r="E15">
-        <v>39.173000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>302</v>
-      </c>
-      <c r="B16" t="s">
-        <v>303</v>
-      </c>
-      <c r="C16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D16">
-        <v>117.145</v>
-      </c>
-      <c r="E16">
-        <v>39.165399999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>304</v>
-      </c>
-      <c r="B17" t="s">
-        <v>305</v>
-      </c>
-      <c r="C17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D17">
-        <v>117.184</v>
-      </c>
-      <c r="E17">
-        <v>39.1205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18" t="s">
-        <v>307</v>
-      </c>
-      <c r="C18" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18">
-        <v>117.23699999999999</v>
-      </c>
-      <c r="E18">
-        <v>39.108199999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>308</v>
-      </c>
-      <c r="B19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C19" t="s">
-        <v>299</v>
-      </c>
-      <c r="D19">
-        <v>117.202</v>
-      </c>
-      <c r="E19">
-        <v>39.092700000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>310</v>
-      </c>
-      <c r="B20" t="s">
-        <v>311</v>
-      </c>
-      <c r="C20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D20">
-        <v>117.1837</v>
-      </c>
-      <c r="E20">
-        <v>39.213299999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21" t="s">
-        <v>313</v>
-      </c>
-      <c r="C21" t="s">
-        <v>299</v>
-      </c>
-      <c r="D21">
-        <v>117.26900000000001</v>
-      </c>
-      <c r="E21">
-        <v>39.133699999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>314</v>
-      </c>
-      <c r="B22" t="s">
-        <v>315</v>
-      </c>
-      <c r="C22" t="s">
-        <v>299</v>
-      </c>
-      <c r="D22">
-        <v>117.307</v>
-      </c>
-      <c r="E22">
-        <v>39.087699999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>316</v>
-      </c>
-      <c r="B23" t="s">
-        <v>317</v>
-      </c>
-      <c r="C23" t="s">
-        <v>299</v>
-      </c>
-      <c r="D23">
-        <v>117.70699999999999</v>
-      </c>
-      <c r="E23">
-        <v>39.034300000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>318</v>
-      </c>
-      <c r="B24" t="s">
-        <v>319</v>
-      </c>
-      <c r="C24" t="s">
-        <v>299</v>
-      </c>
-      <c r="D24">
-        <v>117.45699999999999</v>
-      </c>
-      <c r="E24">
-        <v>38.839399999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>320</v>
-      </c>
-      <c r="B25" t="s">
-        <v>321</v>
-      </c>
-      <c r="C25" t="s">
-        <v>299</v>
-      </c>
-      <c r="D25">
-        <v>117.401</v>
-      </c>
-      <c r="E25">
-        <v>39.124000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>322</v>
-      </c>
-      <c r="B26" t="s">
-        <v>323</v>
-      </c>
-      <c r="C26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D26">
-        <v>117.764</v>
-      </c>
-      <c r="E26">
-        <v>39.158700000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>324</v>
-      </c>
-      <c r="B27" t="s">
-        <v>325</v>
-      </c>
-      <c r="C27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D27">
-        <v>117.157</v>
-      </c>
-      <c r="E27">
-        <v>38.919400000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28">
-        <v>114.45480000000001</v>
-      </c>
-      <c r="E28">
-        <v>38.051299999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29">
-        <v>114.6046</v>
-      </c>
-      <c r="E29">
-        <v>38.0398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30">
-        <v>114.50190000000001</v>
-      </c>
-      <c r="E30">
-        <v>38.139800000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31">
-        <v>114.4586111</v>
-      </c>
-      <c r="E31">
-        <v>38.005833330000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32">
-        <v>114.5330556</v>
-      </c>
-      <c r="E32">
-        <v>38.017777780000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>178</v>
-      </c>
-      <c r="B33" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33">
-        <v>114.5214</v>
-      </c>
-      <c r="E33">
-        <v>38.052399999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34" t="s">
-        <v>181</v>
-      </c>
-      <c r="C34" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34">
-        <v>114.3541</v>
-      </c>
-      <c r="E34">
-        <v>37.909700000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35">
-        <v>118.1662</v>
-      </c>
-      <c r="E35">
-        <v>39.630800000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>185</v>
-      </c>
-      <c r="B36" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D36">
-        <v>118.14400000000001</v>
-      </c>
-      <c r="E36">
-        <v>39.643000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>187</v>
-      </c>
-      <c r="B37" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37">
-        <v>118.1853</v>
-      </c>
-      <c r="E37">
-        <v>39.640700000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>189</v>
-      </c>
-      <c r="B38" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" t="s">
-        <v>184</v>
-      </c>
-      <c r="D38">
-        <v>118.21850000000001</v>
-      </c>
-      <c r="E38">
-        <v>39.667900000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>191</v>
-      </c>
-      <c r="B39" t="s">
-        <v>192</v>
-      </c>
-      <c r="C39" t="s">
-        <v>184</v>
-      </c>
-      <c r="D39">
-        <v>118.18380000000001</v>
-      </c>
-      <c r="E39">
-        <v>39.657820000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>193</v>
-      </c>
-      <c r="B40" t="s">
-        <v>194</v>
-      </c>
-      <c r="C40" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40">
-        <v>118.19970000000001</v>
-      </c>
-      <c r="E40">
-        <v>39.6295</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>195</v>
-      </c>
-      <c r="B41" t="s">
-        <v>196</v>
-      </c>
-      <c r="C41" t="s">
-        <v>197</v>
-      </c>
-      <c r="D41">
-        <v>119.52589999999999</v>
-      </c>
-      <c r="E41">
-        <v>39.828299999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>198</v>
-      </c>
-      <c r="B42" t="s">
-        <v>199</v>
-      </c>
-      <c r="C42" t="s">
-        <v>197</v>
-      </c>
-      <c r="D42">
-        <v>119.7624</v>
-      </c>
-      <c r="E42">
-        <v>40.018099999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>200</v>
-      </c>
-      <c r="B43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" t="s">
-        <v>197</v>
-      </c>
-      <c r="D43">
-        <v>119.6023</v>
-      </c>
-      <c r="E43">
-        <v>39.956699999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>201</v>
-      </c>
-      <c r="B44" t="s">
-        <v>202</v>
-      </c>
-      <c r="C44" t="s">
-        <v>197</v>
-      </c>
-      <c r="D44">
-        <v>119.607</v>
-      </c>
-      <c r="E44">
-        <v>39.9358</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>203</v>
-      </c>
-      <c r="B45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" t="s">
-        <v>197</v>
-      </c>
-      <c r="D45">
-        <v>119.5369</v>
-      </c>
-      <c r="E45">
-        <v>39.941899999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>205</v>
-      </c>
-      <c r="B46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" t="s">
-        <v>206</v>
-      </c>
-      <c r="D46">
-        <v>114.5129</v>
-      </c>
-      <c r="E46">
-        <v>36.617629999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>207</v>
-      </c>
-      <c r="B47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C47" t="s">
-        <v>206</v>
-      </c>
-      <c r="D47">
-        <v>114.54259999999999</v>
-      </c>
-      <c r="E47">
-        <v>36.616399999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>209</v>
-      </c>
-      <c r="B48" t="s">
-        <v>210</v>
-      </c>
-      <c r="C48" t="s">
-        <v>206</v>
-      </c>
-      <c r="D48">
-        <v>114.5035</v>
-      </c>
-      <c r="E48">
-        <v>36.577599999999997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>211</v>
-      </c>
-      <c r="B49" t="s">
-        <v>212</v>
-      </c>
-      <c r="C49" t="s">
-        <v>206</v>
-      </c>
-      <c r="D49">
-        <v>114.4965</v>
-      </c>
-      <c r="E49">
-        <v>36.619810000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>213</v>
-      </c>
-      <c r="B50" t="s">
-        <v>214</v>
-      </c>
-      <c r="C50" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50">
-        <v>115.49299999999999</v>
-      </c>
-      <c r="E50">
-        <v>38.863199999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>216</v>
-      </c>
-      <c r="B51" t="s">
-        <v>217</v>
-      </c>
-      <c r="C51" t="s">
-        <v>215</v>
-      </c>
-      <c r="D51">
-        <v>115.5223</v>
-      </c>
-      <c r="E51">
-        <v>38.895699999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>218</v>
-      </c>
-      <c r="B52" t="s">
-        <v>219</v>
-      </c>
-      <c r="C52" t="s">
-        <v>215</v>
-      </c>
-      <c r="D52">
-        <v>115.4713</v>
-      </c>
-      <c r="E52">
-        <v>38.910800000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>220</v>
-      </c>
-      <c r="B53" t="s">
-        <v>221</v>
-      </c>
-      <c r="C53" t="s">
-        <v>215</v>
-      </c>
-      <c r="D53">
-        <v>115.46120000000001</v>
-      </c>
-      <c r="E53">
-        <v>38.8416</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>222</v>
-      </c>
-      <c r="B54" t="s">
-        <v>223</v>
-      </c>
-      <c r="C54" t="s">
-        <v>215</v>
-      </c>
-      <c r="D54">
-        <v>115.44199999999999</v>
-      </c>
-      <c r="E54">
-        <v>38.875599999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>224</v>
-      </c>
-      <c r="B55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" t="s">
-        <v>215</v>
-      </c>
-      <c r="D55">
-        <v>115.5214</v>
-      </c>
-      <c r="E55">
-        <v>38.870699999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>225</v>
-      </c>
-      <c r="B56" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" t="s">
-        <v>226</v>
-      </c>
-      <c r="D56">
-        <v>114.8985</v>
-      </c>
-      <c r="E56">
-        <v>40.8367</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>227</v>
-      </c>
-      <c r="B57" t="s">
-        <v>228</v>
-      </c>
-      <c r="C57" t="s">
-        <v>226</v>
-      </c>
-      <c r="D57">
-        <v>114.892</v>
-      </c>
-      <c r="E57">
-        <v>40.794809999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>229</v>
-      </c>
-      <c r="B58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C58" t="s">
-        <v>226</v>
-      </c>
-      <c r="D58">
-        <v>114.8814</v>
-      </c>
-      <c r="E58">
-        <v>40.811500000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>231</v>
-      </c>
-      <c r="B59" t="s">
-        <v>232</v>
-      </c>
-      <c r="C59" t="s">
-        <v>226</v>
-      </c>
-      <c r="D59">
-        <v>114.9032</v>
-      </c>
-      <c r="E59">
-        <v>40.768799999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>233</v>
-      </c>
-      <c r="B60" t="s">
-        <v>234</v>
-      </c>
-      <c r="C60" t="s">
-        <v>226</v>
-      </c>
-      <c r="D60">
-        <v>114.904</v>
-      </c>
-      <c r="E60">
-        <v>40.872500000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>235</v>
-      </c>
-      <c r="B61" t="s">
-        <v>236</v>
-      </c>
-      <c r="C61" t="s">
-        <v>237</v>
-      </c>
-      <c r="D61">
-        <v>117.96639999999999</v>
-      </c>
-      <c r="E61">
-        <v>40.9161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>238</v>
-      </c>
-      <c r="B62" t="s">
-        <v>239</v>
-      </c>
-      <c r="C62" t="s">
-        <v>237</v>
-      </c>
-      <c r="D62">
-        <v>117.9525</v>
-      </c>
-      <c r="E62">
-        <v>40.984299999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>240</v>
-      </c>
-      <c r="B63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" t="s">
-        <v>237</v>
-      </c>
-      <c r="D63">
-        <v>117.96299999999999</v>
-      </c>
-      <c r="E63">
-        <v>40.935899999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>241</v>
-      </c>
-      <c r="B64" t="s">
-        <v>242</v>
-      </c>
-      <c r="C64" t="s">
-        <v>237</v>
-      </c>
-      <c r="D64">
-        <v>117.8184</v>
-      </c>
-      <c r="E64">
-        <v>40.973300000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>243</v>
-      </c>
-      <c r="B65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C65" t="s">
-        <v>237</v>
-      </c>
-      <c r="D65">
-        <v>117.9384</v>
-      </c>
-      <c r="E65">
-        <v>41.011200000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>245</v>
-      </c>
-      <c r="B66" t="s">
-        <v>246</v>
-      </c>
-      <c r="C66" t="s">
-        <v>247</v>
-      </c>
-      <c r="D66">
-        <v>116.68380000000001</v>
-      </c>
-      <c r="E66">
-        <v>39.517800000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>248</v>
-      </c>
-      <c r="B67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" t="s">
-        <v>247</v>
-      </c>
-      <c r="D67">
-        <v>116.77290000000001</v>
-      </c>
-      <c r="E67">
-        <v>39.5747</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>249</v>
-      </c>
-      <c r="B68" t="s">
-        <v>250</v>
-      </c>
-      <c r="C68" t="s">
-        <v>247</v>
-      </c>
-      <c r="D68">
-        <v>116.715</v>
-      </c>
-      <c r="E68">
-        <v>39.557099999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>251</v>
-      </c>
-      <c r="B69" t="s">
-        <v>252</v>
-      </c>
-      <c r="C69" t="s">
-        <v>247</v>
-      </c>
-      <c r="D69">
-        <v>116.74639999999999</v>
-      </c>
-      <c r="E69">
-        <v>39.534300000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>253</v>
-      </c>
-      <c r="B70" t="s">
-        <v>254</v>
-      </c>
-      <c r="C70" t="s">
-        <v>255</v>
-      </c>
-      <c r="D70">
-        <v>116.8854</v>
-      </c>
-      <c r="E70">
-        <v>38.299100000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>256</v>
-      </c>
-      <c r="B71" t="s">
-        <v>257</v>
-      </c>
-      <c r="C71" t="s">
-        <v>255</v>
-      </c>
-      <c r="D71">
-        <v>116.8584</v>
-      </c>
-      <c r="E71">
-        <v>38.325400000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>258</v>
-      </c>
-      <c r="B72" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" t="s">
-        <v>255</v>
-      </c>
-      <c r="D72">
-        <v>116.87090000000001</v>
-      </c>
-      <c r="E72">
-        <v>38.322800000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>259</v>
-      </c>
-      <c r="B73" t="s">
-        <v>260</v>
-      </c>
-      <c r="C73" t="s">
-        <v>261</v>
-      </c>
-      <c r="D73">
-        <v>115.6951</v>
-      </c>
-      <c r="E73">
-        <v>37.7575</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>262</v>
-      </c>
-      <c r="B74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" t="s">
-        <v>261</v>
-      </c>
-      <c r="D74">
-        <v>115.6426</v>
-      </c>
-      <c r="E74">
-        <v>37.737900000000003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>263</v>
-      </c>
-      <c r="B75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" t="s">
-        <v>261</v>
-      </c>
-      <c r="D75">
-        <v>115.6906</v>
-      </c>
-      <c r="E75">
-        <v>37.738999999999997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>264</v>
-      </c>
-      <c r="B76" t="s">
-        <v>265</v>
-      </c>
-      <c r="C76" t="s">
-        <v>266</v>
-      </c>
-      <c r="D76">
-        <v>114.4821</v>
-      </c>
-      <c r="E76">
-        <v>37.096699999999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>267</v>
-      </c>
-      <c r="B77" t="s">
-        <v>268</v>
-      </c>
-      <c r="C77" t="s">
-        <v>266</v>
-      </c>
-      <c r="D77">
-        <v>114.5261</v>
-      </c>
-      <c r="E77">
-        <v>37.0533</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>269</v>
-      </c>
-      <c r="B78" t="s">
-        <v>270</v>
-      </c>
-      <c r="C78" t="s">
-        <v>266</v>
-      </c>
-      <c r="D78">
-        <v>114.5331</v>
-      </c>
-      <c r="E78">
-        <v>37.096400000000003</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>271</v>
-      </c>
-      <c r="B79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" t="s">
-        <v>266</v>
-      </c>
-      <c r="D79">
-        <v>114.4854</v>
-      </c>
-      <c r="E79">
-        <v>37.061999999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80">
-        <v>116.988</v>
-      </c>
-      <c r="E80">
-        <v>36.611400000000003</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81">
-        <v>116.93</v>
-      </c>
-      <c r="E81">
-        <v>36.67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82">
-        <v>117.114</v>
-      </c>
-      <c r="E82">
-        <v>36.673900000000003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>20</v>
-      </c>
-      <c r="B83" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83">
-        <v>116.989</v>
-      </c>
-      <c r="E83">
-        <v>36.687199999999997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84">
-        <v>117.0684</v>
-      </c>
-      <c r="E84">
-        <v>36.686799999999998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" t="s">
-        <v>25</v>
-      </c>
-      <c r="C85" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85">
-        <v>116.943</v>
-      </c>
-      <c r="E85">
-        <v>36.648899999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86">
-        <v>117.04900000000001</v>
-      </c>
-      <c r="E86">
-        <v>36.662199999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87">
-        <v>116.73399999999999</v>
-      </c>
-      <c r="E87">
-        <v>36.5336</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>30</v>
-      </c>
-      <c r="B88" t="s">
-        <v>31</v>
-      </c>
-      <c r="C88" t="s">
-        <v>32</v>
-      </c>
-      <c r="D88">
-        <v>120.66589999999999</v>
-      </c>
-      <c r="E88">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>33</v>
-      </c>
-      <c r="B89" t="s">
-        <v>34</v>
-      </c>
-      <c r="C89" t="s">
-        <v>32</v>
-      </c>
-      <c r="D89">
-        <v>120.3905</v>
-      </c>
-      <c r="E89">
-        <v>36.185099999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>35</v>
-      </c>
-      <c r="B90" t="s">
-        <v>36</v>
-      </c>
-      <c r="C90" t="s">
-        <v>32</v>
-      </c>
-      <c r="D90">
-        <v>120.3471</v>
-      </c>
-      <c r="E90">
-        <v>36.069899999999997</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>37</v>
-      </c>
-      <c r="B91" t="s">
-        <v>38</v>
-      </c>
-      <c r="C91" t="s">
-        <v>32</v>
-      </c>
-      <c r="D91">
-        <v>120.4134</v>
-      </c>
-      <c r="E91">
-        <v>36.065399999999997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>39</v>
-      </c>
-      <c r="B92" t="s">
-        <v>40</v>
-      </c>
-      <c r="C92" t="s">
-        <v>32</v>
-      </c>
-      <c r="D92">
-        <v>120.3664</v>
-      </c>
-      <c r="E92">
-        <v>36.103200000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>41</v>
-      </c>
-      <c r="B93" t="s">
-        <v>42</v>
-      </c>
-      <c r="C93" t="s">
-        <v>32</v>
-      </c>
-      <c r="D93">
-        <v>120.2992</v>
-      </c>
-      <c r="E93">
-        <v>36.054299999999998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>43</v>
-      </c>
-      <c r="B94" t="s">
-        <v>44</v>
-      </c>
-      <c r="C94" t="s">
-        <v>32</v>
-      </c>
-      <c r="D94">
-        <v>120.45869999999999</v>
-      </c>
-      <c r="E94">
-        <v>36.085099999999997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>45</v>
-      </c>
-      <c r="B95" t="s">
-        <v>46</v>
-      </c>
-      <c r="C95" t="s">
-        <v>32</v>
-      </c>
-      <c r="D95">
-        <v>120.1964</v>
-      </c>
-      <c r="E95">
-        <v>36.308300000000003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>47</v>
-      </c>
-      <c r="B96" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96" t="s">
-        <v>32</v>
-      </c>
-      <c r="D96">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="E96">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>49</v>
-      </c>
-      <c r="B97" t="s">
-        <v>50</v>
-      </c>
-      <c r="C97" t="s">
-        <v>51</v>
-      </c>
-      <c r="D97">
-        <v>117.685</v>
-      </c>
-      <c r="E97">
-        <v>36.204999999999998</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>52</v>
-      </c>
-      <c r="B98" t="s">
-        <v>53</v>
-      </c>
-      <c r="C98" t="s">
-        <v>51</v>
-      </c>
-      <c r="D98">
-        <v>117.6789</v>
-      </c>
-      <c r="E98">
-        <v>36.228900000000003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>54</v>
-      </c>
-      <c r="B99" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" t="s">
-        <v>51</v>
-      </c>
-      <c r="D99">
-        <v>117.715</v>
-      </c>
-      <c r="E99">
-        <v>36.208100000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>56</v>
-      </c>
-      <c r="B100" t="s">
-        <v>57</v>
-      </c>
-      <c r="C100" t="s">
-        <v>58</v>
-      </c>
-      <c r="D100">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E100">
-        <v>35.057299999999998</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>59</v>
-      </c>
-      <c r="B101" t="s">
-        <v>60</v>
-      </c>
-      <c r="C101" t="s">
-        <v>58</v>
-      </c>
-      <c r="D101">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E101">
-        <v>35.062199999999997</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>61</v>
-      </c>
-      <c r="B102" t="s">
-        <v>62</v>
-      </c>
-      <c r="C102" t="s">
-        <v>58</v>
-      </c>
-      <c r="D102">
-        <v>118.2764</v>
-      </c>
-      <c r="E102">
-        <v>34.981699999999996</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>63</v>
-      </c>
-      <c r="B103" t="s">
-        <v>64</v>
-      </c>
-      <c r="C103" t="s">
-        <v>58</v>
-      </c>
-      <c r="D103">
-        <v>118.4023</v>
-      </c>
-      <c r="E103">
-        <v>35.089599999999997</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>65</v>
-      </c>
-      <c r="B104" t="s">
-        <v>66</v>
-      </c>
-      <c r="C104" t="s">
-        <v>67</v>
-      </c>
-      <c r="D104">
-        <v>116.3061</v>
-      </c>
-      <c r="E104">
-        <v>37.4664</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>68</v>
-      </c>
-      <c r="B105" t="s">
-        <v>69</v>
-      </c>
-      <c r="C105" t="s">
-        <v>67</v>
-      </c>
-      <c r="D105">
-        <v>116.27290000000001</v>
-      </c>
-      <c r="E105">
-        <v>37.450400000000002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>70</v>
-      </c>
-      <c r="B106" t="s">
-        <v>71</v>
-      </c>
-      <c r="C106" t="s">
-        <v>67</v>
-      </c>
-      <c r="D106">
-        <v>116.3189</v>
-      </c>
-      <c r="E106">
-        <v>37.448900000000002</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>72</v>
-      </c>
-      <c r="B107" t="s">
-        <v>73</v>
-      </c>
-      <c r="C107" t="s">
-        <v>74</v>
-      </c>
-      <c r="D107">
-        <v>115.98480000000001</v>
-      </c>
-      <c r="E107">
-        <v>36.437199999999997</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>75</v>
-      </c>
-      <c r="B108" t="s">
-        <v>76</v>
-      </c>
-      <c r="C108" t="s">
-        <v>74</v>
-      </c>
-      <c r="D108">
-        <v>115.99679999999999</v>
-      </c>
-      <c r="E108">
-        <v>36.456800000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>77</v>
-      </c>
-      <c r="B109" t="s">
-        <v>78</v>
-      </c>
-      <c r="C109" t="s">
-        <v>74</v>
-      </c>
-      <c r="D109">
-        <v>115.98350000000001</v>
-      </c>
-      <c r="E109">
-        <v>36.479599999999998</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>79</v>
-      </c>
-      <c r="B110" t="s">
-        <v>80</v>
-      </c>
-      <c r="C110" t="s">
-        <v>81</v>
-      </c>
-      <c r="D110">
-        <v>118.00620000000001</v>
-      </c>
-      <c r="E110">
-        <v>37.380299999999998</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>82</v>
-      </c>
-      <c r="B111" t="s">
-        <v>83</v>
-      </c>
-      <c r="C111" t="s">
-        <v>81</v>
-      </c>
-      <c r="D111">
-        <v>118.0018</v>
-      </c>
-      <c r="E111">
-        <v>37.361699999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>84</v>
-      </c>
-      <c r="B112" t="s">
-        <v>85</v>
-      </c>
-      <c r="C112" t="s">
-        <v>81</v>
-      </c>
-      <c r="D112">
-        <v>117.9776</v>
-      </c>
-      <c r="E112">
-        <v>37.393000000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>86</v>
-      </c>
-      <c r="B113" t="s">
-        <v>87</v>
-      </c>
-      <c r="C113" t="s">
-        <v>88</v>
-      </c>
-      <c r="D113">
-        <v>118.04819999999999</v>
-      </c>
-      <c r="E113">
-        <v>36.808799999999998</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>89</v>
-      </c>
-      <c r="B114" t="s">
-        <v>90</v>
-      </c>
-      <c r="C114" t="s">
-        <v>88</v>
-      </c>
-      <c r="D114">
-        <v>118.0448</v>
-      </c>
-      <c r="E114">
-        <v>36.838000000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>91</v>
-      </c>
-      <c r="B115" t="s">
-        <v>92</v>
-      </c>
-      <c r="C115" t="s">
-        <v>88</v>
-      </c>
-      <c r="D115">
-        <v>117.8477</v>
-      </c>
-      <c r="E115">
-        <v>36.497</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>93</v>
-      </c>
-      <c r="B116" t="s">
-        <v>94</v>
-      </c>
-      <c r="C116" t="s">
-        <v>88</v>
-      </c>
-      <c r="D116">
-        <v>117.95440000000001</v>
-      </c>
-      <c r="E116">
-        <v>36.637700000000002</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>95</v>
-      </c>
-      <c r="B117" t="s">
-        <v>96</v>
-      </c>
-      <c r="C117" t="s">
-        <v>88</v>
-      </c>
-      <c r="D117">
-        <v>118.3092</v>
-      </c>
-      <c r="E117">
-        <v>36.819800000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>97</v>
-      </c>
-      <c r="B118" t="s">
-        <v>98</v>
-      </c>
-      <c r="C118" t="s">
-        <v>88</v>
-      </c>
-      <c r="D118">
-        <v>117.85120000000001</v>
-      </c>
-      <c r="E118">
-        <v>36.804099999999998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>99</v>
-      </c>
-      <c r="B119" t="s">
-        <v>100</v>
-      </c>
-      <c r="C119" t="s">
-        <v>101</v>
-      </c>
-      <c r="D119">
-        <v>117.5564</v>
-      </c>
-      <c r="E119">
-        <v>34.863999999999997</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>102</v>
-      </c>
-      <c r="B120" t="s">
-        <v>103</v>
-      </c>
-      <c r="C120" t="s">
-        <v>101</v>
-      </c>
-      <c r="D120">
-        <v>117.2852</v>
-      </c>
-      <c r="E120">
-        <v>34.783700000000003</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>104</v>
-      </c>
-      <c r="B121" t="s">
-        <v>105</v>
-      </c>
-      <c r="C121" t="s">
-        <v>101</v>
-      </c>
-      <c r="D121">
-        <v>117.5852</v>
-      </c>
-      <c r="E121">
-        <v>34.774500000000003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>106</v>
-      </c>
-      <c r="B122" t="s">
-        <v>107</v>
-      </c>
-      <c r="C122" t="s">
-        <v>101</v>
-      </c>
-      <c r="D122">
-        <v>117.732</v>
-      </c>
-      <c r="E122">
-        <v>34.566699999999997</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>108</v>
-      </c>
-      <c r="B123" t="s">
-        <v>109</v>
-      </c>
-      <c r="C123" t="s">
-        <v>101</v>
-      </c>
-      <c r="D123">
-        <v>117.45180000000001</v>
-      </c>
-      <c r="E123">
-        <v>35.099200000000003</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>110</v>
-      </c>
-      <c r="B124" t="s">
-        <v>19</v>
-      </c>
-      <c r="C124" t="s">
-        <v>111</v>
-      </c>
-      <c r="D124">
-        <v>121.2514</v>
-      </c>
-      <c r="E124">
-        <v>37.563899999999997</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>112</v>
-      </c>
-      <c r="B125" t="s">
-        <v>113</v>
-      </c>
-      <c r="C125" t="s">
-        <v>111</v>
-      </c>
-      <c r="D125">
-        <v>121.3719</v>
-      </c>
-      <c r="E125">
-        <v>37.543300000000002</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>114</v>
-      </c>
-      <c r="B126" t="s">
-        <v>115</v>
-      </c>
-      <c r="C126" t="s">
-        <v>111</v>
-      </c>
-      <c r="D126">
-        <v>121.3181</v>
-      </c>
-      <c r="E126">
-        <v>37.543599999999998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>116</v>
-      </c>
-      <c r="B127" t="s">
-        <v>117</v>
-      </c>
-      <c r="C127" t="s">
-        <v>111</v>
-      </c>
-      <c r="D127">
-        <v>121.4478</v>
-      </c>
-      <c r="E127">
-        <v>37.482199999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>118</v>
-      </c>
-      <c r="B128" t="s">
-        <v>119</v>
-      </c>
-      <c r="C128" t="s">
-        <v>111</v>
-      </c>
-      <c r="D128">
-        <v>121.2611</v>
-      </c>
-      <c r="E128">
-        <v>37.496699999999997</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>120</v>
-      </c>
-      <c r="B129" t="s">
-        <v>121</v>
-      </c>
-      <c r="C129" t="s">
-        <v>111</v>
-      </c>
-      <c r="D129">
-        <v>121.59529999999999</v>
-      </c>
-      <c r="E129">
-        <v>37.3872</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>122</v>
-      </c>
-      <c r="B130" t="s">
-        <v>123</v>
-      </c>
-      <c r="C130" t="s">
-        <v>7</v>
-      </c>
-      <c r="D130">
-        <v>119.12</v>
-      </c>
-      <c r="E130">
-        <v>36.701900000000002</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>124</v>
-      </c>
-      <c r="B131" t="s">
-        <v>125</v>
-      </c>
-      <c r="C131" t="s">
-        <v>7</v>
-      </c>
-      <c r="D131">
-        <v>119.0919</v>
-      </c>
-      <c r="E131">
-        <v>36.730600000000003</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>126</v>
-      </c>
-      <c r="B132" t="s">
-        <v>127</v>
-      </c>
-      <c r="C132" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132">
-        <v>119.1425</v>
-      </c>
-      <c r="E132">
-        <v>36.700800000000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" t="s">
-        <v>6</v>
-      </c>
-      <c r="C133" t="s">
-        <v>7</v>
-      </c>
-      <c r="D133">
-        <v>119.1614</v>
-      </c>
-      <c r="E133">
-        <v>36.657200000000003</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>8</v>
-      </c>
-      <c r="B134" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" t="s">
-        <v>7</v>
-      </c>
-      <c r="D134">
-        <v>119.1939</v>
-      </c>
-      <c r="E134">
-        <v>36.773099999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>10</v>
-      </c>
-      <c r="B135" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135">
-        <v>116.6305</v>
-      </c>
-      <c r="E135">
-        <v>35.427999999999997</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>128</v>
-      </c>
-      <c r="B136" t="s">
-        <v>129</v>
-      </c>
-      <c r="C136" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136">
-        <v>116.5856</v>
-      </c>
-      <c r="E136">
-        <v>35.414400000000001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>130</v>
-      </c>
-      <c r="B137" t="s">
-        <v>131</v>
-      </c>
-      <c r="C137" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137">
-        <v>116.55459999999999</v>
-      </c>
-      <c r="E137">
-        <v>35.4039</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>132</v>
-      </c>
-      <c r="B138" t="s">
-        <v>129</v>
-      </c>
-      <c r="C138" t="s">
-        <v>133</v>
-      </c>
-      <c r="D138">
-        <v>117.14360000000001</v>
-      </c>
-      <c r="E138">
-        <v>36.194200000000002</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>134</v>
-      </c>
-      <c r="B139" t="s">
-        <v>135</v>
-      </c>
-      <c r="C139" t="s">
-        <v>133</v>
-      </c>
-      <c r="D139">
-        <v>117.0881</v>
-      </c>
-      <c r="E139">
-        <v>36.194200000000002</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>136</v>
-      </c>
-      <c r="B140" t="s">
-        <v>137</v>
-      </c>
-      <c r="C140" t="s">
-        <v>133</v>
-      </c>
-      <c r="D140">
-        <v>117.10809999999999</v>
-      </c>
-      <c r="E140">
-        <v>36.175800000000002</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>138</v>
-      </c>
-      <c r="B141" t="s">
-        <v>129</v>
-      </c>
-      <c r="C141" t="s">
-        <v>139</v>
-      </c>
-      <c r="D141">
-        <v>119.4641</v>
-      </c>
-      <c r="E141">
-        <v>35.4178</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>140</v>
-      </c>
-      <c r="B142" t="s">
-        <v>141</v>
-      </c>
-      <c r="C142" t="s">
-        <v>139</v>
-      </c>
-      <c r="D142">
-        <v>119.5198</v>
-      </c>
-      <c r="E142">
-        <v>35.423400000000001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>143</v>
-      </c>
-      <c r="C143" t="s">
-        <v>139</v>
-      </c>
-      <c r="D143">
-        <v>119.54</v>
-      </c>
-      <c r="E143">
-        <v>35.3962</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144" t="s">
-        <v>145</v>
-      </c>
-      <c r="C144" t="s">
-        <v>146</v>
-      </c>
-      <c r="D144">
-        <v>122.1206</v>
-      </c>
-      <c r="E144">
-        <v>37.429400000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>147</v>
-      </c>
-      <c r="B145" t="s">
-        <v>148</v>
-      </c>
-      <c r="C145" t="s">
-        <v>146</v>
-      </c>
-      <c r="D145">
-        <v>122.0508</v>
-      </c>
-      <c r="E145">
-        <v>37.532499999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>149</v>
-      </c>
-      <c r="B146" t="s">
-        <v>27</v>
-      </c>
-      <c r="C146" t="s">
-        <v>146</v>
-      </c>
-      <c r="D146">
-        <v>122.1067</v>
-      </c>
-      <c r="E146">
-        <v>37.507199999999997</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>150</v>
-      </c>
-      <c r="B147" t="s">
-        <v>151</v>
-      </c>
-      <c r="C147" t="s">
-        <v>152</v>
-      </c>
-      <c r="D147">
-        <v>118.50190000000001</v>
-      </c>
-      <c r="E147">
-        <v>37.465800000000002</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>153</v>
-      </c>
-      <c r="B148" t="s">
-        <v>80</v>
-      </c>
-      <c r="C148" t="s">
-        <v>152</v>
-      </c>
-      <c r="D148">
-        <v>118.66719999999999</v>
-      </c>
-      <c r="E148">
-        <v>37.431399999999996</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>154</v>
-      </c>
-      <c r="B149" t="s">
-        <v>155</v>
-      </c>
-      <c r="C149" t="s">
-        <v>152</v>
-      </c>
-      <c r="D149">
-        <v>118.5857</v>
-      </c>
-      <c r="E149">
-        <v>37.444200000000002</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>156</v>
-      </c>
-      <c r="B150" t="s">
-        <v>157</v>
-      </c>
-      <c r="C150" t="s">
-        <v>152</v>
-      </c>
-      <c r="D150">
-        <v>118.8192</v>
-      </c>
-      <c r="E150">
-        <v>37.378100000000003</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>158</v>
-      </c>
-      <c r="B151" t="s">
-        <v>159</v>
-      </c>
-      <c r="C151" t="s">
-        <v>160</v>
-      </c>
-      <c r="D151">
-        <v>115.42277</v>
-      </c>
-      <c r="E151">
-        <v>35.248888999999998</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>161</v>
-      </c>
-      <c r="B152" t="s">
-        <v>162</v>
-      </c>
-      <c r="C152" t="s">
-        <v>160</v>
-      </c>
-      <c r="D152">
-        <v>115.474722</v>
-      </c>
-      <c r="E152">
-        <v>35.237499999999997</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>163</v>
-      </c>
-      <c r="B153" t="s">
-        <v>164</v>
-      </c>
-      <c r="C153" t="s">
-        <v>160</v>
-      </c>
-      <c r="D153">
-        <v>115.455</v>
-      </c>
-      <c r="E153">
-        <v>35.270000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -16324,7 +13945,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="A27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标toDarkSkyAPI.xlsx
+++ b/坐标/监测站坐标toDarkSkyAPI.xlsx
@@ -1,42 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F862EBC-413E-4B8A-AA97-73080FB33B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177F9BA9-A1B7-4D67-B971-F381329ED113}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="19" r:id="rId1"/>
-    <sheet name="测试" sheetId="10" r:id="rId2"/>
-    <sheet name="ERROR_17_365" sheetId="18" r:id="rId3"/>
-    <sheet name="缺失152-86" sheetId="17" r:id="rId4"/>
-    <sheet name="ERROR_18519" sheetId="15" r:id="rId5"/>
-    <sheet name="山东 2" sheetId="8" r:id="rId6"/>
-    <sheet name="北京" sheetId="2" r:id="rId7"/>
-    <sheet name="山东1" sheetId="7" r:id="rId8"/>
-    <sheet name="天津" sheetId="3" r:id="rId9"/>
-    <sheet name="河北2" sheetId="12" r:id="rId10"/>
-    <sheet name="河北1" sheetId="11" r:id="rId11"/>
-    <sheet name="可用86市汇总" sheetId="14" r:id="rId12"/>
-    <sheet name="河北2013" sheetId="13" r:id="rId13"/>
-    <sheet name="山东2013" sheetId="9" r:id="rId14"/>
-    <sheet name="山东" sheetId="5" r:id="rId15"/>
-    <sheet name="河北" sheetId="4" r:id="rId16"/>
-    <sheet name="汇总" sheetId="6" r:id="rId17"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId1"/>
+    <sheet name="北京+0.1" sheetId="19" r:id="rId2"/>
+    <sheet name="测试" sheetId="10" r:id="rId3"/>
+    <sheet name="ERROR_17_365" sheetId="18" r:id="rId4"/>
+    <sheet name="缺失152-86" sheetId="17" r:id="rId5"/>
+    <sheet name="ERROR_18519" sheetId="15" r:id="rId6"/>
+    <sheet name="山东 2" sheetId="8" r:id="rId7"/>
+    <sheet name="北京" sheetId="2" r:id="rId8"/>
+    <sheet name="山东1" sheetId="7" r:id="rId9"/>
+    <sheet name="天津" sheetId="3" r:id="rId10"/>
+    <sheet name="河北2" sheetId="12" r:id="rId11"/>
+    <sheet name="河北1" sheetId="11" r:id="rId12"/>
+    <sheet name="可用86市汇总" sheetId="14" r:id="rId13"/>
+    <sheet name="河北2013" sheetId="13" r:id="rId14"/>
+    <sheet name="山东2013" sheetId="9" r:id="rId15"/>
+    <sheet name="山东" sheetId="5" r:id="rId16"/>
+    <sheet name="河北" sheetId="4" r:id="rId17"/>
+    <sheet name="汇总" sheetId="6" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="343">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1060,13 +1071,33 @@
   <si>
     <t>1300A</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定陵2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左上</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>左下</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右上</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右下</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1100,6 +1131,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1401,11 +1438,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E5E7DA-2AEB-4B5A-AFA8-D08B00FB131D}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160A0BFF-A49E-46F3-8B72-A4B12C5D1102}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2">
+        <v>116.25</v>
+      </c>
+      <c r="E2">
+        <v>40.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3">
+        <v>116</v>
+      </c>
+      <c r="E3">
+        <v>40.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4">
+        <v>116.25</v>
+      </c>
+      <c r="E4">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5">
+        <v>116</v>
+      </c>
+      <c r="E5">
+        <v>40.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1432,215 +1571,249 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D2">
-        <v>116.366</v>
+        <v>117.151</v>
       </c>
       <c r="E2">
-        <v>39.8673</v>
+        <v>39.097000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D3">
-        <v>116.17</v>
+        <v>117.193</v>
       </c>
       <c r="E3">
-        <v>40.286499999999997</v>
+        <v>39.173000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D4">
-        <v>116.434</v>
+        <v>117.145</v>
       </c>
       <c r="E4">
-        <v>39.952199999999998</v>
+        <v>39.165399999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D5">
-        <v>116.434</v>
+        <v>117.184</v>
       </c>
       <c r="E5">
-        <v>39.874499999999998</v>
+        <v>39.1205</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D6">
-        <v>116.473</v>
+        <v>117.23699999999999</v>
       </c>
       <c r="E6">
-        <v>39.971600000000002</v>
+        <v>39.108199999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D7">
-        <v>116.361</v>
+        <v>117.202</v>
       </c>
       <c r="E7">
-        <v>39.942500000000003</v>
+        <v>39.092700000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D8">
-        <v>116.315</v>
+        <v>117.1837</v>
       </c>
       <c r="E8">
-        <v>39.993400000000001</v>
+        <v>39.213299999999997</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D9">
-        <v>116.72</v>
+        <v>117.26900000000001</v>
       </c>
       <c r="E9">
-        <v>40.143799999999999</v>
+        <v>39.133699999999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D10">
-        <v>116.64400000000001</v>
+        <v>117.307</v>
       </c>
       <c r="E10">
-        <v>40.393700000000003</v>
+        <v>39.087699999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D11">
-        <v>116.23</v>
+        <v>117.70699999999999</v>
       </c>
       <c r="E11">
-        <v>40.1952</v>
+        <v>39.034300000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="C12" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D12">
-        <v>116.407</v>
+        <v>117.45699999999999</v>
       </c>
       <c r="E12">
-        <v>40.003100000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.839399999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="C13" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D13">
-        <v>116.22499999999999</v>
+        <v>117.401</v>
       </c>
       <c r="E13">
-        <v>39.927900000000001</v>
+        <v>39.124000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14">
+        <v>117.764</v>
+      </c>
+      <c r="E14">
+        <v>39.158700000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15">
+        <v>117.157</v>
+      </c>
+      <c r="E15">
+        <v>38.919400000000003</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1860,7 +2033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2080,12 +2253,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A76644-5F86-4776-A293-540939F77A3D}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G59" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3728,7 +3901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
@@ -4291,7 +4464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
@@ -5250,7 +5423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
@@ -6932,7 +7105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
@@ -8107,7 +8280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E153"/>
   <sheetViews>
@@ -10729,6 +10902,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E5E7DA-2AEB-4B5A-AFA8-D08B00FB131D}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2">
+        <v>116.17</v>
+      </c>
+      <c r="E2">
+        <v>40.286499999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3">
+        <v>116.07</v>
+      </c>
+      <c r="E3">
+        <v>40.486499999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
@@ -11599,7 +11843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186BB22C-22FE-4AAA-9E8C-3EF068DC599C}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -11704,11 +11948,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82192017-D878-49FE-AF01-A4D0990B42FE}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
@@ -12862,7 +13106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDE112F-36F7-4FAD-835E-47D76D1B42AF}">
   <dimension ref="A1:E46"/>
   <sheetViews>
@@ -13665,7 +13909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -13940,12 +14184,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -14180,7 +14424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -14623,278 +14867,4 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D2">
-        <v>117.151</v>
-      </c>
-      <c r="E2">
-        <v>39.097000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D3">
-        <v>117.193</v>
-      </c>
-      <c r="E3">
-        <v>39.173000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D4">
-        <v>117.145</v>
-      </c>
-      <c r="E4">
-        <v>39.165399999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D5">
-        <v>117.184</v>
-      </c>
-      <c r="E5">
-        <v>39.1205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6">
-        <v>117.23699999999999</v>
-      </c>
-      <c r="E6">
-        <v>39.108199999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7">
-        <v>117.202</v>
-      </c>
-      <c r="E7">
-        <v>39.092700000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8">
-        <v>117.1837</v>
-      </c>
-      <c r="E8">
-        <v>39.213299999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D9">
-        <v>117.26900000000001</v>
-      </c>
-      <c r="E9">
-        <v>39.133699999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>314</v>
-      </c>
-      <c r="B10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D10">
-        <v>117.307</v>
-      </c>
-      <c r="E10">
-        <v>39.087699999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C11" t="s">
-        <v>299</v>
-      </c>
-      <c r="D11">
-        <v>117.70699999999999</v>
-      </c>
-      <c r="E11">
-        <v>39.034300000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" t="s">
-        <v>319</v>
-      </c>
-      <c r="C12" t="s">
-        <v>299</v>
-      </c>
-      <c r="D12">
-        <v>117.45699999999999</v>
-      </c>
-      <c r="E12">
-        <v>38.839399999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>320</v>
-      </c>
-      <c r="B13" t="s">
-        <v>321</v>
-      </c>
-      <c r="C13" t="s">
-        <v>299</v>
-      </c>
-      <c r="D13">
-        <v>117.401</v>
-      </c>
-      <c r="E13">
-        <v>39.124000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>322</v>
-      </c>
-      <c r="B14" t="s">
-        <v>323</v>
-      </c>
-      <c r="C14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14">
-        <v>117.764</v>
-      </c>
-      <c r="E14">
-        <v>39.158700000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>324</v>
-      </c>
-      <c r="B15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C15" t="s">
-        <v>299</v>
-      </c>
-      <c r="D15">
-        <v>117.157</v>
-      </c>
-      <c r="E15">
-        <v>38.919400000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>